--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5770" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Array" sheetId="1" r:id="rId1"/>
+    <sheet name="Binary Search" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,87 +25,411 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
-  <si>
-    <t>448. Find All Numbers Disappeared in an Array</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
     <t>https://leetcode.com/problems/find-all-numbers-disappeared-in-an-array/description/</t>
   </si>
   <si>
-    <t>Array</t>
-  </si>
-  <si>
-    <t>202. Happy Number</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/happy-number/description/</t>
   </si>
   <si>
-    <t>169. Majority Element</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/majority-element/description/</t>
   </si>
   <si>
-    <t>485. Max Consecutive Ones</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/max-consecutive-ones/description/</t>
   </si>
   <si>
-    <t>88. Merge Sorted Array</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/merge-sorted-array/description/</t>
   </si>
   <si>
-    <t>268. Missing Number</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/missing-number/description/</t>
   </si>
   <si>
-    <t>283. Move Zeroes</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/move-zeroes/description/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/single-number/</t>
-  </si>
-  <si>
-    <t>136. Single Number</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/sort-array-by-increasing-frequency/description/</t>
   </si>
   <si>
-    <t>1636. Sort Array by Increasing Frequency</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/sort-array-by-parity/description/</t>
   </si>
   <si>
-    <t>905. Sort Array By Parity</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/sort-array-by-parity-ii/description/</t>
   </si>
   <si>
-    <t>922. Sort Array By Parity II</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/two-sum/description/</t>
   </si>
   <si>
-    <t>1. Two Sum</t>
-  </si>
-  <si>
     <t>https://www.geeksforgeeks.org/segregate-even-and-odd-numbers/</t>
   </si>
   <si>
     <t>Segregate Even and Odd numbers</t>
+  </si>
+  <si>
+    <t>Find All Numbers Disappeared in an Array</t>
+  </si>
+  <si>
+    <t>Happy Number</t>
+  </si>
+  <si>
+    <t>Majority Element</t>
+  </si>
+  <si>
+    <t>Max Consecutive Ones</t>
+  </si>
+  <si>
+    <t>Merge Sorted Array</t>
+  </si>
+  <si>
+    <t>Missing Number</t>
+  </si>
+  <si>
+    <t>Sort Array by Increasing Frequency</t>
+  </si>
+  <si>
+    <t>Sort Array By Parity</t>
+  </si>
+  <si>
+    <t>Sort Array By Parity II</t>
+  </si>
+  <si>
+    <t>Two Sum</t>
+  </si>
+  <si>
+    <t>Container With Most Water</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/container-with-most-water/description/</t>
+  </si>
+  <si>
+    <t>Contiguous Array</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/contiguous-array/description/</t>
+  </si>
+  <si>
+    <t>Count Number of Nice Subarrays</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/count-number-of-nice-subarrays/description/</t>
+  </si>
+  <si>
+    <t>Custom Sort String</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/custom-sort-string/description/</t>
+  </si>
+  <si>
+    <t>Find All Duplicates in an Array</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-all-duplicates-in-an-array/description/</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lJwbPZGo05A&amp;ab_channel=NeetCode</t>
+  </si>
+  <si>
+    <t>Hand of Straights</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/hand-of-straights/description/</t>
+  </si>
+  <si>
+    <t>Non-decreasing Subsequences</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/non-decreasing-subsequences/description/</t>
+  </si>
+  <si>
+    <t>Need to check again</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/jump-game/description/</t>
+  </si>
+  <si>
+    <t>Jump Game</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Yan0cv2cLy8&amp;t=679s&amp;ab_channel=NeetCode</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=dJ7sWiOoK7g&amp;ab_channel=NeetCode</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/jump-game-ii/description/</t>
+  </si>
+  <si>
+    <t>Jump Game II</t>
+  </si>
+  <si>
+    <t>Leaders in an array</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/problems/leaders-in-an-array-1587115620/1</t>
+  </si>
+  <si>
+    <t>Longest Consecutive Sequence</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-consecutive-sequence/description/</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=P6RZZMu_maU&amp;ab_channel=NeetCode</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/majority-element-ii/description/</t>
+  </si>
+  <si>
+    <t>Majority Element II</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-product-subarray/description/</t>
+  </si>
+  <si>
+    <t>Maximum Product Subarray</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-product-subarray/solutions/1608862/java-3-solutions-detailed-explanation-using-image/</t>
+  </si>
+  <si>
+    <t>Maximum Subarray</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-subarray/description/</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5WZl3MMT0Eg&amp;ab_channel=NeetCode</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-sum-circular-subarray/description/</t>
+  </si>
+  <si>
+    <t>Maximum Sum Circular Subarray</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=kd0-hUwISDo&amp;ab_channel=Codebix</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/next-permutation/description/</t>
+  </si>
+  <si>
+    <t>Next Permutation</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JDOXKqF60RQ&amp;ab_channel=takeUforward</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/product-of-array-except-self/description/</t>
+  </si>
+  <si>
+    <t>Product of Array Except Self</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bNvIQI2wAjk&amp;ab_channel=NeetCode</t>
+  </si>
+  <si>
+    <t>Rearrange Array Elements by Sign</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/rearrange-array-elements-by-sign/description/</t>
+  </si>
+  <si>
+    <t>Rotate Array</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/rotate-array/description/</t>
+  </si>
+  <si>
+    <t>Rotate Image</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/rotate-image/description/</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=SA867FvqHrM&amp;ab_channel=NickWhite</t>
+  </si>
+  <si>
+    <t>Set Matrix Zeroes</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/set-matrix-zeroes/description/</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=M65xBewcqcI&amp;ab_channel=takeUforward</t>
+  </si>
+  <si>
+    <t>Sort Colors</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tp8JIuCXBaU&amp;ab_channel=takeUforward</t>
+  </si>
+  <si>
+    <t>Spiral Matrix</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/spiral-matrix/description/</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3Zv-s9UUrFM&amp;ab_channel=takeUforward</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/split-array-two-equal-sum-subarrays/</t>
+  </si>
+  <si>
+    <t>Split an array into two equal Sum subarrays</t>
+  </si>
+  <si>
+    <t>Subarray Sum Equals K</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/subarray-sum-equals-k/description/</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=AmlVSNBHzJg&amp;ab_channel=NickWhite</t>
+  </si>
+  <si>
+    <t>Subarray Sums Divisible by K</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/subarray-sums-divisible-by-k/description/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/3sum/description/</t>
+  </si>
+  <si>
+    <t>3Sum</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/trapping-rain-water/description/</t>
+  </si>
+  <si>
+    <t>Trapping Rain Water</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=FbGG2qpNp4U&amp;ab_channel=AdityaVerma</t>
+  </si>
+  <si>
+    <t>Two Sum II - Input Array Is Sorted</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/two-sum-ii-input-array-is-sorted/description/</t>
+  </si>
+  <si>
+    <t>Valid Palindrome</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/valid-palindrome/description/</t>
+  </si>
+  <si>
+    <t>ValidSudoku</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/valid-sudoku/description/</t>
+  </si>
+  <si>
+    <t>Find Smallest Letter Greater Than Target</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-smallest-letter-greater-than-target/description/</t>
+  </si>
+  <si>
+    <t>Floor in a Sorted Array</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/floor-in-a-sorted-array/</t>
+  </si>
+  <si>
+    <t>Kth Missing Positive Number</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/kth-missing-positive-number/description/</t>
+  </si>
+  <si>
+    <t>Search in an almost sorted array</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/search-almost-sorted-array/</t>
+  </si>
+  <si>
+    <t>Search Insert Position</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/search-insert-position/description/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-first-and-last-position-of-element-in-sorted-array/description/</t>
+  </si>
+  <si>
+    <t>Find First and Last Position of Element in Sorted Array</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-minimum-in-rotated-sorted-array/description/</t>
+  </si>
+  <si>
+    <t>Find Minimum in Rotated Sorted Array</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/koko-eating-bananas/description/</t>
+  </si>
+  <si>
+    <t>Koko Eating Bananas</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/kth-smallest-element-in-a-sorted-matrix/description/</t>
+  </si>
+  <si>
+    <t>Kth Smallest Element in a Sorted Matrix</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-peak-element/description/</t>
+  </si>
+  <si>
+    <t>Find Peak Element</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/peak-index-in-a-mountain-array/description/</t>
+  </si>
+  <si>
+    <t>Peak Index in a Mountain Array</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/search-a-2d-matrix/description/</t>
+  </si>
+  <si>
+    <t>Search a 2D Matrix</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/search-a-2d-matrix-ii/description/</t>
+  </si>
+  <si>
+    <t>Search a 2D Matrix II</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/search-in-rotated-sorted-array/description/</t>
+  </si>
+  <si>
+    <t>Search in Rotated Sorted Array</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/search-in-rotated-sorted-array-ii/description/</t>
+  </si>
+  <si>
+    <t>Search in Rotated Sorted Array II</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/find-the-element-that-appears-once-in-a-sorted-array/</t>
+  </si>
+  <si>
+    <t>Find the element that appears once in a sorted array</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/median-of-two-sorted-arrays/description/</t>
+  </si>
+  <si>
+    <t>Median of Two Sorted Arrays</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/split-array-largest-sum/description/</t>
+  </si>
+  <si>
+    <t>Split Array Largest Sum</t>
   </si>
 </sst>
 </file>
@@ -149,14 +474,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -439,27 +761,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="56.6328125" customWidth="1"/>
-    <col min="2" max="2" width="84.81640625" customWidth="1"/>
+    <col min="1" max="1" width="39.54296875" customWidth="1"/>
+    <col min="2" max="2" width="67.26953125" customWidth="1"/>
+    <col min="3" max="3" width="123.6328125" customWidth="1"/>
+    <col min="4" max="4" width="19.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="3"/>
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
+      <c r="A2" t="s">
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -467,90 +793,82 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
+      <c r="A8" t="s">
+        <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>26</v>
+      <c r="A9" t="s">
+        <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>16</v>
+      <c r="A10" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
+      <c r="A13" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -558,32 +876,532 @@
         <v>24</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>89</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>91</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>95</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>97</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://leetcode.com/problems/find-all-numbers-disappeared-in-an-array/"/>
+    <hyperlink ref="A1" r:id="rId1" display="https://leetcode.com/problems/find-all-numbers-disappeared-in-an-array/"/>
+    <hyperlink ref="B1" r:id="rId2"/>
+    <hyperlink ref="B2" r:id="rId3"/>
+    <hyperlink ref="B3" r:id="rId4"/>
+    <hyperlink ref="A4" r:id="rId5" display="https://leetcode.com/problems/max-consecutive-ones/"/>
+    <hyperlink ref="B5" r:id="rId6"/>
+    <hyperlink ref="B6" r:id="rId7"/>
+    <hyperlink ref="B8" r:id="rId8"/>
+    <hyperlink ref="B9" r:id="rId9"/>
+    <hyperlink ref="B11" r:id="rId10"/>
+    <hyperlink ref="B4" r:id="rId11"/>
+    <hyperlink ref="B7" r:id="rId12"/>
+    <hyperlink ref="B10" r:id="rId13"/>
+    <hyperlink ref="B13" r:id="rId14"/>
+    <hyperlink ref="B14" r:id="rId15"/>
+    <hyperlink ref="B15" r:id="rId16"/>
+    <hyperlink ref="B16" r:id="rId17"/>
+    <hyperlink ref="B17" r:id="rId18"/>
+    <hyperlink ref="C17" r:id="rId19"/>
+    <hyperlink ref="B18" r:id="rId20"/>
+    <hyperlink ref="B19" r:id="rId21"/>
+    <hyperlink ref="B20" r:id="rId22"/>
+    <hyperlink ref="C20" r:id="rId23"/>
+    <hyperlink ref="C21" r:id="rId24"/>
+    <hyperlink ref="B21" r:id="rId25"/>
+    <hyperlink ref="B22" r:id="rId26"/>
+    <hyperlink ref="B23" r:id="rId27"/>
+    <hyperlink ref="C23" r:id="rId28"/>
+    <hyperlink ref="B24" r:id="rId29"/>
+    <hyperlink ref="B25" r:id="rId30"/>
+    <hyperlink ref="C25" r:id="rId31"/>
+    <hyperlink ref="B26" r:id="rId32"/>
+    <hyperlink ref="C26" r:id="rId33"/>
+    <hyperlink ref="B27" r:id="rId34"/>
+    <hyperlink ref="C27" r:id="rId35"/>
+    <hyperlink ref="B28" r:id="rId36"/>
+    <hyperlink ref="C28" r:id="rId37"/>
+    <hyperlink ref="B29" r:id="rId38"/>
+    <hyperlink ref="C29" r:id="rId39"/>
+    <hyperlink ref="B30" r:id="rId40"/>
+    <hyperlink ref="B31" r:id="rId41"/>
+    <hyperlink ref="B32" r:id="rId42"/>
+    <hyperlink ref="C32" r:id="rId43"/>
+    <hyperlink ref="B33" r:id="rId44"/>
+    <hyperlink ref="C33" r:id="rId45"/>
+    <hyperlink ref="B34" r:id="rId46"/>
+    <hyperlink ref="B35" r:id="rId47"/>
+    <hyperlink ref="C35" r:id="rId48"/>
+    <hyperlink ref="B36" r:id="rId49"/>
+    <hyperlink ref="B37" r:id="rId50"/>
+    <hyperlink ref="C37" r:id="rId51"/>
+    <hyperlink ref="B38" r:id="rId52"/>
+    <hyperlink ref="B39" r:id="rId53"/>
+    <hyperlink ref="B40" r:id="rId54"/>
+    <hyperlink ref="C40" r:id="rId55"/>
+    <hyperlink ref="B41" r:id="rId56"/>
+    <hyperlink ref="B42" r:id="rId57"/>
+    <hyperlink ref="B43" r:id="rId58"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId59"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="36.36328125" customWidth="1"/>
+    <col min="2" max="2" width="84.36328125" customWidth="1"/>
+    <col min="3" max="3" width="58.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>120</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>128</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>130</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>132</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>134</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
     <hyperlink ref="B2" r:id="rId2"/>
     <hyperlink ref="B3" r:id="rId3"/>
     <hyperlink ref="B4" r:id="rId4"/>
-    <hyperlink ref="A5" r:id="rId5" display="https://leetcode.com/problems/max-consecutive-ones/"/>
-    <hyperlink ref="B6" r:id="rId6"/>
-    <hyperlink ref="B7" r:id="rId7"/>
-    <hyperlink ref="A8" r:id="rId8" display="https://leetcode.com/problems/move-zeroes/"/>
-    <hyperlink ref="B8" r:id="rId9"/>
-    <hyperlink ref="B10" r:id="rId10"/>
-    <hyperlink ref="B11" r:id="rId11"/>
-    <hyperlink ref="B12" r:id="rId12"/>
-    <hyperlink ref="B13" r:id="rId13"/>
-    <hyperlink ref="B14" r:id="rId14"/>
-    <hyperlink ref="B5" r:id="rId15"/>
-    <hyperlink ref="B9" r:id="rId16"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B8" r:id="rId6"/>
+    <hyperlink ref="B9" r:id="rId7"/>
+    <hyperlink ref="B10" r:id="rId8"/>
+    <hyperlink ref="B11" r:id="rId9"/>
+    <hyperlink ref="B12" r:id="rId10"/>
+    <hyperlink ref="B13" r:id="rId11"/>
+    <hyperlink ref="B14" r:id="rId12"/>
+    <hyperlink ref="B15" r:id="rId13"/>
+    <hyperlink ref="B16" r:id="rId14"/>
+    <hyperlink ref="B17" r:id="rId15"/>
+    <hyperlink ref="B18" r:id="rId16"/>
+    <hyperlink ref="B20" r:id="rId17"/>
+    <hyperlink ref="B21" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -9,11 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5770" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5770"/>
   </bookViews>
   <sheets>
     <sheet name="Array" sheetId="1" r:id="rId1"/>
     <sheet name="Binary Search" sheetId="2" r:id="rId2"/>
+    <sheet name="Bit Manipulation" sheetId="3" r:id="rId3"/>
+    <sheet name="DP" sheetId="4" r:id="rId4"/>
+    <sheet name="Graph" sheetId="5" r:id="rId5"/>
+    <sheet name="Heap" sheetId="6" r:id="rId6"/>
+    <sheet name="Interval" sheetId="7" r:id="rId7"/>
+    <sheet name="LinkedList" sheetId="8" r:id="rId8"/>
+    <sheet name="Backtracking" sheetId="9" r:id="rId9"/>
+    <sheet name="Sliding Window" sheetId="10" r:id="rId10"/>
+    <sheet name="StackAndQueue" sheetId="11" r:id="rId11"/>
+    <sheet name="String" sheetId="12" r:id="rId12"/>
+    <sheet name="Tree" sheetId="13" r:id="rId13"/>
+    <sheet name="Trie" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="389">
   <si>
     <t>https://leetcode.com/problems/find-all-numbers-disappeared-in-an-array/description/</t>
   </si>
@@ -45,9 +57,6 @@
     <t>https://leetcode.com/problems/missing-number/description/</t>
   </si>
   <si>
-    <t>https://leetcode.com/problems/sort-array-by-increasing-frequency/description/</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/sort-array-by-parity/description/</t>
   </si>
   <si>
@@ -129,9 +138,6 @@
     <t>Hand of Straights</t>
   </si>
   <si>
-    <t>https://leetcode.com/problems/hand-of-straights/description/</t>
-  </si>
-  <si>
     <t>Non-decreasing Subsequences</t>
   </si>
   <si>
@@ -430,6 +436,774 @@
   </si>
   <si>
     <t>Split Array Largest Sum</t>
+  </si>
+  <si>
+    <t>Detect Cycle in a Directed Graph</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/detect-cycle-in-a-graph/</t>
+  </si>
+  <si>
+    <t>Detect cycle in an undirected graph</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/detect-cycle-undirected-graph/</t>
+  </si>
+  <si>
+    <t>Print all paths from a given source to a destination</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/find-paths-given-source-destination/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/flood-fill/description/</t>
+  </si>
+  <si>
+    <t>Flood Fill</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/is-graph-bipartite/</t>
+  </si>
+  <si>
+    <t>Is Graph Bipartite?</t>
+  </si>
+  <si>
+    <t>Number of Enclaves</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/number-of-enclaves/description/</t>
+  </si>
+  <si>
+    <t>Number of Islands</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/number-of-islands/description/</t>
+  </si>
+  <si>
+    <t>Number of Provinces</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/number-of-provinces/description/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/rotting-oranges/</t>
+  </si>
+  <si>
+    <t>Rotting Oranges</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/surrounded-regions/</t>
+  </si>
+  <si>
+    <t>Surrounded Regions</t>
+  </si>
+  <si>
+    <t>01 Matrix</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/01-matrix/description/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/accounts-merge/description/</t>
+  </si>
+  <si>
+    <t>Accounts Merge</t>
+  </si>
+  <si>
+    <t>Making A Large Island (Hard )</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/making-a-large-island/description/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/most-stones-removed-with-same-row-or-column/description/</t>
+  </si>
+  <si>
+    <t>Most Stones Removed with Same Row or Column</t>
+  </si>
+  <si>
+    <t>NumberOfIsland2</t>
+  </si>
+  <si>
+    <t>https://algo.monster/liteproblems/305</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/number-of-operations-to-make-network-connected/</t>
+  </si>
+  <si>
+    <t>Number of Operations to Make Network Connected</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/cheapest-flights-within-k-stops/description/</t>
+  </si>
+  <si>
+    <t>Cheapest Flights Within K Stops</t>
+  </si>
+  <si>
+    <t>Find the City With the Smallest Number of Neighbors at a Threshold Distance</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-the-city-with-the-smallest-number-of-neighbors-at-a-threshold-distance/description/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/number-of-ways-to-arrive-at-destination/description/</t>
+  </si>
+  <si>
+    <t>Number of Ways to Arrive at Destination</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/path-with-minimum-effort/</t>
+  </si>
+  <si>
+    <t>Path With Minimum Effort</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/shortest-path-in-binary-matrix/</t>
+  </si>
+  <si>
+    <t>Shortest Path in Binary Matrix</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/problems/shortest-path-in-undirected-graph-having-unit-distance/1</t>
+  </si>
+  <si>
+    <t>Shortest path in Undirected Graph having unit distance</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/problems/alien-dictionary/1</t>
+  </si>
+  <si>
+    <t>Alien Dictionary</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/course-schedule-ii/description/</t>
+  </si>
+  <si>
+    <t>Course Schedule II</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-eventual-safe-states/description/</t>
+  </si>
+  <si>
+    <t>Find Eventual Safe States</t>
+  </si>
+  <si>
+    <t>Kth Largest Element in a Stream</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/kth-largest-element-in-a-stream/description/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/last-stone-weight/description/</t>
+  </si>
+  <si>
+    <t>Last Stone Weight</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/nearly-sorted-algorithm/</t>
+  </si>
+  <si>
+    <t>Sort a nearly sorted (or K sorted) array</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/car-pooling/description/</t>
+  </si>
+  <si>
+    <t>Car Pooling</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-k-closest-elements/</t>
+  </si>
+  <si>
+    <t>Find K Closest Elements</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/k-closest-points-to-origin/description/</t>
+  </si>
+  <si>
+    <t>K Closest Points to Origin</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/kth-largest-element-in-an-array/description/</t>
+  </si>
+  <si>
+    <t>Kth Largest Element in an Array</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/top-k-frequent-elements/description/</t>
+  </si>
+  <si>
+    <t>Top K Frequent Elements</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/connect-n-ropes-minimum-cost/</t>
+  </si>
+  <si>
+    <t>Connect n ropes with minimum cost</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-median-from-data-stream/</t>
+  </si>
+  <si>
+    <t>Find Median from Data Stream</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/sort-array-by-increasing-frequency/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/hand-of-straights/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/meeting-rooms/description/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/insert-interval/</t>
+  </si>
+  <si>
+    <t>Insert Interval</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/meeting-rooms-ii/description/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/merge-intervals/description/</t>
+  </si>
+  <si>
+    <t>Merge Intervals</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/non-overlapping-intervals/</t>
+  </si>
+  <si>
+    <t>Non-overlapping Intervals</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-interval-to-include-each-query/description/</t>
+  </si>
+  <si>
+    <t>Minimum Interval to Include Each Query</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/intersection-of-two-linked-lists/description/</t>
+  </si>
+  <si>
+    <t>Intersection of Two Linked Lists</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/linked-list-cycle/description/</t>
+  </si>
+  <si>
+    <t>Linked List Cycle</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/merge-two-sorted-lists/</t>
+  </si>
+  <si>
+    <t>Merge Two Sorted Lists</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/palindrome-linked-list/description/</t>
+  </si>
+  <si>
+    <t>Palindrome Linked List</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/problems/remove-loop-in-linked-list/1</t>
+  </si>
+  <si>
+    <t>Remove loop in Linked List</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/plus-one-linked-list/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/add-two-numbers/description/</t>
+  </si>
+  <si>
+    <t>Add Two Numbers</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/copy-list-with-random-pointer/description/</t>
+  </si>
+  <si>
+    <t>Copy List with Random Pointer</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/linked-list-cycle-ii/description/</t>
+  </si>
+  <si>
+    <t>Linked List Cycle II</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/merge-sort-for-linked-list/</t>
+  </si>
+  <si>
+    <t>Merge Sort for Linked Lists</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/odd-even-linked-list/</t>
+  </si>
+  <si>
+    <t>Odd Even Linked List</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/remove-duplicates-from-sorted-list-ii/</t>
+  </si>
+  <si>
+    <t>Remove Duplicates from Sorted List II</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/remove-nth-node-from-end-of-list/</t>
+  </si>
+  <si>
+    <t>Remove Nth Node From End of List</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reorder-list/</t>
+  </si>
+  <si>
+    <t>Reorder List</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/swap-nodes-in-pairs/</t>
+  </si>
+  <si>
+    <t>Swap Nodes in Pairs</t>
+  </si>
+  <si>
+    <t>RightRotateByKTimes</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/merge-k-sorted-lists/</t>
+  </si>
+  <si>
+    <t>Merge k Sorted Lists</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reverse-nodes-in-k-group/</t>
+  </si>
+  <si>
+    <t>Reverse Nodes in k-Group</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-continuous-increasing-subsequence/</t>
+  </si>
+  <si>
+    <t>Longest Continuous Increasing Subsequence</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-all-anagrams-in-a-string/description/</t>
+  </si>
+  <si>
+    <t>Find All Anagrams in a String</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/first-negative-integer-every-window-size-k/</t>
+  </si>
+  <si>
+    <t>First negative integer in every window of size k</t>
+  </si>
+  <si>
+    <t>Longest Repeating Character Replacement</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-repeating-character-replacement/description/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-substring-with-at-most-k-distinct-characters/description/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-substring-without-repeating-characters/description/</t>
+  </si>
+  <si>
+    <t>Longest Substring Without Repeating Characters</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/problems/max-sum-subarray-of-size-k5313/1</t>
+  </si>
+  <si>
+    <t>Max Sum Subarray of size K</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-size-subarray-sum/</t>
+  </si>
+  <si>
+    <t>Minimum Size Subarray Sum</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/number-of-substrings-containing-all-three-characters/description/</t>
+  </si>
+  <si>
+    <t>Number of Substrings Containing All Three Characters</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/permutation-in-string/description/</t>
+  </si>
+  <si>
+    <t>Permutation in String</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-window-subsequence/description/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-window-substring/description/</t>
+  </si>
+  <si>
+    <t>Minimum Window Substring</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/sliding-window-maximum/</t>
+  </si>
+  <si>
+    <t>Sliding Window Maximum</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/subarrays-with-k-different-integers/</t>
+  </si>
+  <si>
+    <t>Subarrays with K Different Integers</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/implement-queue-using-stacks/</t>
+  </si>
+  <si>
+    <t>Implement Queue using Stacks</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/next-greater-element-i/description/</t>
+  </si>
+  <si>
+    <t>Next Greater Element I</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/valid-parentheses/description/</t>
+  </si>
+  <si>
+    <t>Valid Parentheses</t>
+  </si>
+  <si>
+    <t>Asteroid Collision</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/car-fleet/description/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/asteroid-collision/description/</t>
+  </si>
+  <si>
+    <t>Car Fleet</t>
+  </si>
+  <si>
+    <t>The Celebrity Problem</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/the-celebrity-problem/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/daily-temperatures/</t>
+  </si>
+  <si>
+    <t>Daily Temperatures</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/evaluate-reverse-polish-notation/description/</t>
+  </si>
+  <si>
+    <t>Evaluate Reverse Polish Notation</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/lru-cache/description/</t>
+  </si>
+  <si>
+    <t>LRU Cache</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/min-stack/description/</t>
+  </si>
+  <si>
+    <t>Min Stack</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/remove-k-digits/</t>
+  </si>
+  <si>
+    <t>Remove K Digits</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/the-stock-span-problem/</t>
+  </si>
+  <si>
+    <t>The Stock Span Problem</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/c-program-for-tower-of-hanoi/</t>
+  </si>
+  <si>
+    <t>Program for Tower of Hanoi Algorithm</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/largest-rectangle-in-histogram/</t>
+  </si>
+  <si>
+    <t>Largest Rectangle in Histogram</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximal-rectangle/</t>
+  </si>
+  <si>
+    <t>Maximal Rectangle</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/add-binary/</t>
+  </si>
+  <si>
+    <t>Add Binary</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/backspace-string-compare/description/</t>
+  </si>
+  <si>
+    <t>Backspace String Compare</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/count-binary-substrings/description/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-common-characters/description/</t>
+  </si>
+  <si>
+    <t>Find Common Characters</t>
+  </si>
+  <si>
+    <t>Count Binary Substrings</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/isomorphic-strings/description/</t>
+  </si>
+  <si>
+    <t>Isomorphic Strings</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/is-subsequence/description/</t>
+  </si>
+  <si>
+    <t>Is Subsequence</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-common-prefix/description/</t>
+  </si>
+  <si>
+    <t>Longest Common Prefix</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-palindrome/description/</t>
+  </si>
+  <si>
+    <t>Longest Palindrome</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/ransom-note/description/</t>
+  </si>
+  <si>
+    <t>Ransom Note</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/remove-all-adjacent-duplicates-in-string/description/</t>
+  </si>
+  <si>
+    <t>Remove All Adjacent Duplicates In String</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/repeated-substring-pattern/description/</t>
+  </si>
+  <si>
+    <t>Repeated Substring Pattern</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reverse-words-in-a-string-iii/description/</t>
+  </si>
+  <si>
+    <t>Reverse Words in a String III</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/shortest-distance-to-a-character/description/</t>
+  </si>
+  <si>
+    <t>Shortest Distance to a Character</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/valid-anagram/description/</t>
+  </si>
+  <si>
+    <t>Valid Anagram</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/valid-palindrome-ii/description/</t>
+  </si>
+  <si>
+    <t>Valid Palindrome II</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/basic-calculator-ii/</t>
+  </si>
+  <si>
+    <t>Basic Calculator II</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/decode-string/description/</t>
+  </si>
+  <si>
+    <t>Decode String</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/different-ways-to-add-parentheses/description/</t>
+  </si>
+  <si>
+    <t>Different Ways to Add Parentheses</t>
+  </si>
+  <si>
+    <t>https://www.lintcode.com/problem/659/</t>
+  </si>
+  <si>
+    <t>Encode and Decode Strings</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/generate-parentheses/description/</t>
+  </si>
+  <si>
+    <t>Generate Parentheses</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/group-anagrams/description/</t>
+  </si>
+  <si>
+    <t>Group Anagrams</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/largest-number/description/</t>
+  </si>
+  <si>
+    <t>Largest Number</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-palindromic-substring/description/</t>
+  </si>
+  <si>
+    <t>Longest Palindromic Substring</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-product-of-word-lengths/description/</t>
+  </si>
+  <si>
+    <t>Maximum Product of Word Lengths</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-deletions-to-make-character-frequencies-unique/</t>
+  </si>
+  <si>
+    <t>Minimum Deletions to Make Character Frequencies Unique</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-remove-to-make-valid-parentheses/description/</t>
+  </si>
+  <si>
+    <t>Minimum Remove to Make Valid Parentheses</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-number-of-steps-to-make-two-strings-anagram-ii/description/</t>
+  </si>
+  <si>
+    <t>Minimum Number of Steps to Make Two Strings Anagram II</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/number-of-matching-subsequences/</t>
+  </si>
+  <si>
+    <t>Number of Matching Subsequences</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/palindromic-substrings/description/</t>
+  </si>
+  <si>
+    <t>Palindromic Substrings</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/partition-labels/description/</t>
+  </si>
+  <si>
+    <t>Partition Labels</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/remove-duplicate-letters/description/</t>
+  </si>
+  <si>
+    <t>Remove Duplicate Letters</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reorganize-string/description/</t>
+  </si>
+  <si>
+    <t>Reorganize String</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/robot-bounded-in-circle/description/</t>
+  </si>
+  <si>
+    <t>Robot Bounded In Circle</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/score-of-parentheses/description/</t>
+  </si>
+  <si>
+    <t>Score of Parentheses</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/valid-parenthesis-string/description/</t>
+  </si>
+  <si>
+    <t>Valid Parenthesis String</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-valid-parentheses/description/</t>
+  </si>
+  <si>
+    <t>Longest Valid Parentheses</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/shortest-palindrome/description/</t>
+  </si>
+  <si>
+    <t>Count number of Distinct Substring in a String</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/count-number-of-distinct-substring-in-a-string/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/design-add-and-search-words-data-structure/description/</t>
+  </si>
+  <si>
+    <t>Design Add and Search Words Data Structure</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/implement-trie-prefix-tree/description/</t>
+  </si>
+  <si>
+    <t>Implement Trie (Prefix Tree)</t>
+  </si>
+  <si>
+    <t>https://takeuforward.org/data-structure/implement-trie-ii/</t>
+  </si>
+  <si>
+    <t>Implement Trie - II</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-word-with-all-prefixes/description/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/search-suggestions-system/description/</t>
+  </si>
+  <si>
+    <t>Search Suggestions System</t>
   </si>
 </sst>
 </file>
@@ -761,10 +1535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -775,63 +1549,63 @@
     <col min="4" max="4" width="19.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -839,321 +1613,305 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B12" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="D17" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" t="s">
-        <v>37</v>
+        <v>40</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>89</v>
+      <c r="A39" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" s="2" t="s">
-        <v>93</v>
+      <c r="A41" t="s">
+        <v>95</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>95</v>
-      </c>
-      <c r="B42" s="1" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>97</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1166,59 +1924,797 @@
     <hyperlink ref="B5" r:id="rId6"/>
     <hyperlink ref="B6" r:id="rId7"/>
     <hyperlink ref="B8" r:id="rId8"/>
-    <hyperlink ref="B9" r:id="rId9"/>
-    <hyperlink ref="B11" r:id="rId10"/>
-    <hyperlink ref="B4" r:id="rId11"/>
-    <hyperlink ref="B7" r:id="rId12"/>
-    <hyperlink ref="B10" r:id="rId13"/>
+    <hyperlink ref="B10" r:id="rId9"/>
+    <hyperlink ref="B4" r:id="rId10"/>
+    <hyperlink ref="B7" r:id="rId11"/>
+    <hyperlink ref="B9" r:id="rId12"/>
+    <hyperlink ref="B12" r:id="rId13"/>
     <hyperlink ref="B13" r:id="rId14"/>
     <hyperlink ref="B14" r:id="rId15"/>
     <hyperlink ref="B15" r:id="rId16"/>
     <hyperlink ref="B16" r:id="rId17"/>
-    <hyperlink ref="B17" r:id="rId18"/>
-    <hyperlink ref="C17" r:id="rId19"/>
+    <hyperlink ref="C16" r:id="rId18"/>
+    <hyperlink ref="B17" r:id="rId19"/>
     <hyperlink ref="B18" r:id="rId20"/>
-    <hyperlink ref="B19" r:id="rId21"/>
-    <hyperlink ref="B20" r:id="rId22"/>
-    <hyperlink ref="C20" r:id="rId23"/>
-    <hyperlink ref="C21" r:id="rId24"/>
+    <hyperlink ref="C18" r:id="rId21"/>
+    <hyperlink ref="C19" r:id="rId22"/>
+    <hyperlink ref="B19" r:id="rId23"/>
+    <hyperlink ref="B20" r:id="rId24"/>
     <hyperlink ref="B21" r:id="rId25"/>
-    <hyperlink ref="B22" r:id="rId26"/>
-    <hyperlink ref="B23" r:id="rId27"/>
-    <hyperlink ref="C23" r:id="rId28"/>
-    <hyperlink ref="B24" r:id="rId29"/>
-    <hyperlink ref="B25" r:id="rId30"/>
-    <hyperlink ref="C25" r:id="rId31"/>
-    <hyperlink ref="B26" r:id="rId32"/>
-    <hyperlink ref="C26" r:id="rId33"/>
-    <hyperlink ref="B27" r:id="rId34"/>
-    <hyperlink ref="C27" r:id="rId35"/>
-    <hyperlink ref="B28" r:id="rId36"/>
-    <hyperlink ref="C28" r:id="rId37"/>
-    <hyperlink ref="B29" r:id="rId38"/>
-    <hyperlink ref="C29" r:id="rId39"/>
+    <hyperlink ref="C21" r:id="rId26"/>
+    <hyperlink ref="B22" r:id="rId27"/>
+    <hyperlink ref="B23" r:id="rId28"/>
+    <hyperlink ref="C23" r:id="rId29"/>
+    <hyperlink ref="B24" r:id="rId30"/>
+    <hyperlink ref="C24" r:id="rId31"/>
+    <hyperlink ref="B25" r:id="rId32"/>
+    <hyperlink ref="C25" r:id="rId33"/>
+    <hyperlink ref="B26" r:id="rId34"/>
+    <hyperlink ref="C26" r:id="rId35"/>
+    <hyperlink ref="B27" r:id="rId36"/>
+    <hyperlink ref="C27" r:id="rId37"/>
+    <hyperlink ref="B28" r:id="rId38"/>
+    <hyperlink ref="B29" r:id="rId39"/>
     <hyperlink ref="B30" r:id="rId40"/>
-    <hyperlink ref="B31" r:id="rId41"/>
-    <hyperlink ref="B32" r:id="rId42"/>
-    <hyperlink ref="C32" r:id="rId43"/>
-    <hyperlink ref="B33" r:id="rId44"/>
-    <hyperlink ref="C33" r:id="rId45"/>
-    <hyperlink ref="B34" r:id="rId46"/>
-    <hyperlink ref="B35" r:id="rId47"/>
-    <hyperlink ref="C35" r:id="rId48"/>
-    <hyperlink ref="B36" r:id="rId49"/>
-    <hyperlink ref="B37" r:id="rId50"/>
-    <hyperlink ref="C37" r:id="rId51"/>
+    <hyperlink ref="C30" r:id="rId41"/>
+    <hyperlink ref="B31" r:id="rId42"/>
+    <hyperlink ref="C31" r:id="rId43"/>
+    <hyperlink ref="B32" r:id="rId44"/>
+    <hyperlink ref="B33" r:id="rId45"/>
+    <hyperlink ref="C33" r:id="rId46"/>
+    <hyperlink ref="B34" r:id="rId47"/>
+    <hyperlink ref="B35" r:id="rId48"/>
+    <hyperlink ref="C35" r:id="rId49"/>
+    <hyperlink ref="B36" r:id="rId50"/>
+    <hyperlink ref="B37" r:id="rId51"/>
     <hyperlink ref="B38" r:id="rId52"/>
-    <hyperlink ref="B39" r:id="rId53"/>
-    <hyperlink ref="B40" r:id="rId54"/>
-    <hyperlink ref="C40" r:id="rId55"/>
+    <hyperlink ref="C38" r:id="rId53"/>
+    <hyperlink ref="B39" r:id="rId54"/>
+    <hyperlink ref="B40" r:id="rId55"/>
     <hyperlink ref="B41" r:id="rId56"/>
-    <hyperlink ref="B42" r:id="rId57"/>
-    <hyperlink ref="B43" r:id="rId58"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId59"/>
+  <pageSetup orientation="portrait" r:id="rId57"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="43.7265625" customWidth="1"/>
+    <col min="2" max="2" width="69.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B6" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>259</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>261</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>263</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>265</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>267</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B13" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>270</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>272</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>274</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId8"/>
+    <hyperlink ref="B10" r:id="rId9"/>
+    <hyperlink ref="B11" r:id="rId10"/>
+    <hyperlink ref="B13" r:id="rId11"/>
+    <hyperlink ref="B14" r:id="rId12"/>
+    <hyperlink ref="B15" r:id="rId13"/>
+    <hyperlink ref="B16" r:id="rId14"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="43.6328125" customWidth="1"/>
+    <col min="2" max="2" width="69.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>281</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>284</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>285</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>288</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>290</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>292</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>294</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>296</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>298</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>300</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>302</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>304</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="B6" r:id="rId4"/>
+    <hyperlink ref="B5" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId8"/>
+    <hyperlink ref="B10" r:id="rId9"/>
+    <hyperlink ref="B11" r:id="rId10"/>
+    <hyperlink ref="B12" r:id="rId11"/>
+    <hyperlink ref="B13" r:id="rId12"/>
+    <hyperlink ref="B14" r:id="rId13"/>
+    <hyperlink ref="B16" r:id="rId14"/>
+    <hyperlink ref="B17" r:id="rId15"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="43.54296875" customWidth="1"/>
+    <col min="2" max="2" width="61" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>312</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>314</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>316</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>318</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>320</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>322</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>324</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>326</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>328</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>330</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>332</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>334</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>336</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>338</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>340</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>342</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>344</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>346</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>348</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>350</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>352</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>354</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>356</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>358</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>360</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>362</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>364</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>366</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>368</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>370</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>372</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>374</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>376</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B39" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="B4" r:id="rId4"/>
+    <hyperlink ref="B5" r:id="rId5"/>
+    <hyperlink ref="B6" r:id="rId6"/>
+    <hyperlink ref="B7" r:id="rId7"/>
+    <hyperlink ref="B8" r:id="rId8"/>
+    <hyperlink ref="B9" r:id="rId9"/>
+    <hyperlink ref="B10" r:id="rId10"/>
+    <hyperlink ref="B11" r:id="rId11"/>
+    <hyperlink ref="B12" r:id="rId12"/>
+    <hyperlink ref="B13" r:id="rId13"/>
+    <hyperlink ref="B14" r:id="rId14"/>
+    <hyperlink ref="B15" r:id="rId15"/>
+    <hyperlink ref="B17" r:id="rId16"/>
+    <hyperlink ref="B18" r:id="rId17"/>
+    <hyperlink ref="B19" r:id="rId18"/>
+    <hyperlink ref="B20" r:id="rId19"/>
+    <hyperlink ref="B21" r:id="rId20"/>
+    <hyperlink ref="B22" r:id="rId21"/>
+    <hyperlink ref="B23" r:id="rId22"/>
+    <hyperlink ref="B24" r:id="rId23"/>
+    <hyperlink ref="B25" r:id="rId24"/>
+    <hyperlink ref="B26" r:id="rId25"/>
+    <hyperlink ref="B27" r:id="rId26"/>
+    <hyperlink ref="B28" r:id="rId27"/>
+    <hyperlink ref="B29" r:id="rId28"/>
+    <hyperlink ref="B30" r:id="rId29"/>
+    <hyperlink ref="B31" r:id="rId30"/>
+    <hyperlink ref="B32" r:id="rId31"/>
+    <hyperlink ref="B33" r:id="rId32"/>
+    <hyperlink ref="B34" r:id="rId33"/>
+    <hyperlink ref="B35" r:id="rId34"/>
+    <hyperlink ref="B36" r:id="rId35"/>
+    <hyperlink ref="B38" r:id="rId36"/>
+    <hyperlink ref="B39" r:id="rId37"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId38"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="43.6328125" customWidth="1"/>
+    <col min="2" max="2" width="69.81640625" customWidth="1"/>
+    <col min="3" max="3" width="54.36328125" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="43.7265625" customWidth="1"/>
+    <col min="2" max="2" width="78.54296875" customWidth="1"/>
+    <col min="3" max="3" width="45.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>383</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>385</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>388</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="B4" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1226,7 +2722,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
@@ -1239,146 +2735,146 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1404,4 +2900,668 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="44.1796875" customWidth="1"/>
+    <col min="2" max="2" width="61.08984375" customWidth="1"/>
+    <col min="3" max="3" width="61" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>156</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>157</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>160</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>164</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>166</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>167</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>172</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>174</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>176</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>178</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>180</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>182</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="B4" r:id="rId4"/>
+    <hyperlink ref="B5" r:id="rId5"/>
+    <hyperlink ref="B6" r:id="rId6"/>
+    <hyperlink ref="B7" r:id="rId7"/>
+    <hyperlink ref="B8" r:id="rId8"/>
+    <hyperlink ref="B9" r:id="rId9"/>
+    <hyperlink ref="B10" r:id="rId10"/>
+    <hyperlink ref="B11" r:id="rId11"/>
+    <hyperlink ref="B12" r:id="rId12"/>
+    <hyperlink ref="B13" r:id="rId13"/>
+    <hyperlink ref="B14" r:id="rId14"/>
+    <hyperlink ref="B15" r:id="rId15"/>
+    <hyperlink ref="B16" r:id="rId16"/>
+    <hyperlink ref="B17" r:id="rId17"/>
+    <hyperlink ref="B18" r:id="rId18"/>
+    <hyperlink ref="B19" r:id="rId19"/>
+    <hyperlink ref="B20" r:id="rId20"/>
+    <hyperlink ref="B21" r:id="rId21"/>
+    <hyperlink ref="B22" r:id="rId22"/>
+    <hyperlink ref="B23" r:id="rId23"/>
+    <hyperlink ref="B24" r:id="rId24"/>
+    <hyperlink ref="B25" r:id="rId25"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="43.7265625" customWidth="1"/>
+    <col min="2" max="2" width="69.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>192</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>198</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>200</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>202</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B8" r:id="rId6"/>
+    <hyperlink ref="B9" r:id="rId7"/>
+    <hyperlink ref="B10" r:id="rId8"/>
+    <hyperlink ref="B11" r:id="rId9"/>
+    <hyperlink ref="B12" r:id="rId10"/>
+    <hyperlink ref="B4" r:id="rId11"/>
+    <hyperlink ref="B7" r:id="rId12"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="45" customWidth="1"/>
+    <col min="2" max="2" width="69.7265625" customWidth="1"/>
+    <col min="3" max="3" width="53.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>214</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="B4" r:id="rId4"/>
+    <hyperlink ref="B5" r:id="rId5"/>
+    <hyperlink ref="B6" r:id="rId6"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="43.6328125" customWidth="1"/>
+    <col min="2" max="2" width="69.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B7" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>227</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>231</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>233</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>235</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>237</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>239</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>241</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>244</v>
+      </c>
+      <c r="B16" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>243</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>246</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>248</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="B4" r:id="rId4"/>
+    <hyperlink ref="B5" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId8"/>
+    <hyperlink ref="B10" r:id="rId9"/>
+    <hyperlink ref="B11" r:id="rId10"/>
+    <hyperlink ref="B12" r:id="rId11"/>
+    <hyperlink ref="B13" r:id="rId12"/>
+    <hyperlink ref="B14" r:id="rId13"/>
+    <hyperlink ref="B15" r:id="rId14"/>
+    <hyperlink ref="B17" r:id="rId15"/>
+    <hyperlink ref="B19" r:id="rId16"/>
+    <hyperlink ref="B20" r:id="rId17"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId18"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5770" firstSheet="7" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Array" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="456">
   <si>
     <t>https://leetcode.com/problems/find-all-numbers-disappeared-in-an-array/description/</t>
   </si>
@@ -1204,6 +1204,207 @@
   </si>
   <si>
     <t>Search Suggestions System</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/validate-binary-search-tree/description/</t>
+  </si>
+  <si>
+    <t>Validate Binary Search Tree</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/construct-binary-search-tree-from-preorder-traversal/description/</t>
+  </si>
+  <si>
+    <t>Construct Binary Search Tree from Preorder Traversal</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/binary-tree-to-binary-search-tree-conversion/</t>
+  </si>
+  <si>
+    <t>Binary Tree to Binary Search Tree Conversion</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/convert-sorted-array-to-binary-search-tree/description/</t>
+  </si>
+  <si>
+    <t>Convert Sorted Array to Binary Search Tree</t>
+  </si>
+  <si>
+    <t>FindDistanceBetweenTwoNodes</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/inorder-predecessor-successor-given-key-bst/</t>
+  </si>
+  <si>
+    <t>Inorder predecessor and successor for a given key in BST</t>
+  </si>
+  <si>
+    <t>FindPairSumEqualToK</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/kth-smallest-element-in-a-bst/</t>
+  </si>
+  <si>
+    <t>Kth Smallest Element in a BST</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/largest-bst-binary-tree-set-2/</t>
+  </si>
+  <si>
+    <t>Largest BST in a Binary Tree | Set 2</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/recover-binary-search-tree/description/</t>
+  </si>
+  <si>
+    <t>Recover Binary Search Tree</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/check-if-a-given-binary-tree-is-sumtree/</t>
+  </si>
+  <si>
+    <t>Check if a given Binary Tree is Sum Tree</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/balanced-binary-tree/description/</t>
+  </si>
+  <si>
+    <t>Balanced Binary Tree</t>
+  </si>
+  <si>
+    <t>Check whether a given binary tree is perfect or not</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/check-weather-given-binary-tree-perfect-not/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/same-tree/description/</t>
+  </si>
+  <si>
+    <t>Same Tree</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/all-nodes-distance-k-in-binary-tree/description/</t>
+  </si>
+  <si>
+    <t>All Nodes Distance K in Binary Tree</t>
+  </si>
+  <si>
+    <t>PrintMaxValue</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/print-path-root-given-node-binary-tree/</t>
+  </si>
+  <si>
+    <t>Print path from root to a given node in a binary tree</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/convert-an-arbitrary-binary-tree-to-a-tree-that-holds-children-sum-property/</t>
+  </si>
+  <si>
+    <t>Convert an arbitrary Binary Tree to a tree that holds Children Sum Property</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/write-an-efficient-c-function-to-convert-a-tree-into-its-mirror-tree/</t>
+  </si>
+  <si>
+    <t>Convert a Binary Tree into its Mirror Tree</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/convert-a-given-tree-to-sum-tree/</t>
+  </si>
+  <si>
+    <t>Convert a given tree to its Sum Tree</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/diameter-of-binary-tree/description/</t>
+  </si>
+  <si>
+    <t>Diameter of Binary Tree</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/find-distance-between-two-nodes-of-a-binary-tree/</t>
+  </si>
+  <si>
+    <t>Find distance between two nodes of a Binary Tree</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/flatten-binary-tree-to-linked-list/description/</t>
+  </si>
+  <si>
+    <t>Flatten Binary Tree to Linked List</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/print-left-view-binary-tree/</t>
+  </si>
+  <si>
+    <t>Print Left View of a Binary Tree</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/print-ancestors-of-a-given-node-in-binary-tree/</t>
+  </si>
+  <si>
+    <t>Print Ancestors of a given node in Binary Tree</t>
+  </si>
+  <si>
+    <t>Path Sum</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/path-sum/description/</t>
+  </si>
+  <si>
+    <t>AllPathWithSumKFromRootToLeaf</t>
+  </si>
+  <si>
+    <t>Find all paths from root to leaf where sum of nodes is equal to given sum</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-tree-maximum-path-sum/description/</t>
+  </si>
+  <si>
+    <t>Binary Tree Maximum Path Sum</t>
+  </si>
+  <si>
+    <t>Path Sum III</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/path-sum-iii/description/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/sum-of-left-leaves/</t>
+  </si>
+  <si>
+    <t>Sum of Left Leaves</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/boundary-traversal-of-binary-tree/</t>
+  </si>
+  <si>
+    <t>Boundary Traversal of binary tree</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/diagonal-traversal-of-binary-tree/</t>
+  </si>
+  <si>
+    <t>Diagonal Traversal of Binary Tree</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-tree-level-order-traversal/description/</t>
+  </si>
+  <si>
+    <t>Binary Tree Level Order Traversal</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-tree-zigzag-level-order-traversal/description/</t>
+  </si>
+  <si>
+    <t>Binary Tree Zigzag Level Order Traversal</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/vertical-order-traversal-of-a-binary-tree/description/</t>
+  </si>
+  <si>
+    <t>Vertical Order Traversal of a Binary Tree</t>
   </si>
 </sst>
 </file>
@@ -1537,7 +1738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
@@ -2629,10 +2830,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2641,8 +2842,332 @@
     <col min="2" max="2" width="69.81640625" customWidth="1"/>
     <col min="3" max="3" width="54.36328125" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>394</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>396</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>397</v>
+      </c>
+      <c r="B5" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>400</v>
+      </c>
+      <c r="B6" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>399</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>402</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>404</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>406</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>408</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>410</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>411</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>414</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>416</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>417</v>
+      </c>
+      <c r="B17" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>421</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>423</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>425</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>427</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>429</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>431</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>433</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>435</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>414</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>438</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>436</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>441</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>442</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>445</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>447</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>449</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>451</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>453</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>455</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="B4" r:id="rId4"/>
+    <hyperlink ref="B7" r:id="rId5"/>
+    <hyperlink ref="B8" r:id="rId6"/>
+    <hyperlink ref="B9" r:id="rId7"/>
+    <hyperlink ref="B10" r:id="rId8"/>
+    <hyperlink ref="B12" r:id="rId9"/>
+    <hyperlink ref="B13" r:id="rId10"/>
+    <hyperlink ref="B14" r:id="rId11"/>
+    <hyperlink ref="B15" r:id="rId12"/>
+    <hyperlink ref="B16" r:id="rId13"/>
+    <hyperlink ref="B18" r:id="rId14"/>
+    <hyperlink ref="B19" r:id="rId15"/>
+    <hyperlink ref="B20" r:id="rId16"/>
+    <hyperlink ref="B21" r:id="rId17"/>
+    <hyperlink ref="B22" r:id="rId18"/>
+    <hyperlink ref="B23" r:id="rId19"/>
+    <hyperlink ref="B24" r:id="rId20"/>
+    <hyperlink ref="B25" r:id="rId21"/>
+    <hyperlink ref="B26" r:id="rId22"/>
+    <hyperlink ref="B27" r:id="rId23"/>
+    <hyperlink ref="B29" r:id="rId24"/>
+    <hyperlink ref="B30" r:id="rId25"/>
+    <hyperlink ref="B31" r:id="rId26"/>
+    <hyperlink ref="B32" r:id="rId27"/>
+    <hyperlink ref="B33" r:id="rId28"/>
+    <hyperlink ref="B34" r:id="rId29"/>
+    <hyperlink ref="B35" r:id="rId30"/>
+    <hyperlink ref="B36" r:id="rId31"/>
+    <hyperlink ref="B37" r:id="rId32"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId33"/>
 </worksheet>
 </file>
 
@@ -2650,7 +3175,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>

--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5770" firstSheet="7" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5770" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Array" sheetId="1" r:id="rId1"/>
@@ -1738,7 +1738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
@@ -2832,7 +2832,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -3175,7 +3175,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
@@ -3903,7 +3903,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
@@ -4083,7 +4083,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="F1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>

--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5770" firstSheet="5" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5770" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Array" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="472">
   <si>
     <t>https://leetcode.com/problems/find-all-numbers-disappeared-in-an-array/description/</t>
   </si>
@@ -1405,6 +1405,54 @@
   </si>
   <si>
     <t>Vertical Order Traversal of a Binary Tree</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/combination-sum/description/</t>
+  </si>
+  <si>
+    <t>Combination Sum</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/combination-sum-ii/description/</t>
+  </si>
+  <si>
+    <t>Combination Sum II</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/palindrome-partitioning/description/</t>
+  </si>
+  <si>
+    <t>Palindrome Partitioning</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/letter-combinations-of-a-phone-number/description/</t>
+  </si>
+  <si>
+    <t>Letter Combinations of a Phone Number</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/permutations/description/</t>
+  </si>
+  <si>
+    <t>Permutations</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/permutations-ii/description/</t>
+  </si>
+  <si>
+    <t>Permutations II</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/subsets-ii/description/</t>
+  </si>
+  <si>
+    <t>Subsets II</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/subsets/description/</t>
+  </si>
+  <si>
+    <t>Subsets</t>
   </si>
 </sst>
 </file>
@@ -3903,7 +3951,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
@@ -4081,12 +4129,94 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="F1:G8"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="6" max="6" width="43.6328125" customWidth="1"/>
+    <col min="7" max="7" width="69.90625" customWidth="1"/>
+    <col min="8" max="8" width="54.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F1" t="s">
+        <v>457</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="2" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F2" t="s">
+        <v>459</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="3" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F3" t="s">
+        <v>463</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="4" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F4" t="s">
+        <v>461</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="5" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F5" t="s">
+        <v>465</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="6" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F6" t="s">
+        <v>467</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="7" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F7" t="s">
+        <v>469</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="8" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F8" t="s">
+        <v>471</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G1" r:id="rId1"/>
+    <hyperlink ref="G2" r:id="rId2"/>
+    <hyperlink ref="G4" r:id="rId3"/>
+    <hyperlink ref="G3" r:id="rId4"/>
+    <hyperlink ref="G5" r:id="rId5"/>
+    <hyperlink ref="G6" r:id="rId6"/>
+    <hyperlink ref="G7" r:id="rId7"/>
+    <hyperlink ref="G8" r:id="rId8"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5770" firstSheet="5" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5770" firstSheet="8" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Array" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="String" sheetId="12" r:id="rId12"/>
     <sheet name="Tree" sheetId="13" r:id="rId13"/>
     <sheet name="Trie" sheetId="14" r:id="rId14"/>
+    <sheet name="BitManipulation" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="495">
   <si>
     <t>https://leetcode.com/problems/find-all-numbers-disappeared-in-an-array/description/</t>
   </si>
@@ -1453,6 +1454,75 @@
   </si>
   <si>
     <t>Subsets</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/add-binary/description/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/counting-bits/description/</t>
+  </si>
+  <si>
+    <t>Counting Bits</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-the-difference/description/</t>
+  </si>
+  <si>
+    <t>Find the Difference</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/hamming-distance/description/</t>
+  </si>
+  <si>
+    <t>Hamming Distance</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/number-of-1-bits/description/</t>
+  </si>
+  <si>
+    <t>Number of 1 Bits</t>
+  </si>
+  <si>
+    <t>Power of Two</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/power-of-two/description/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reverse-bits/description/</t>
+  </si>
+  <si>
+    <t>Reverse Bits</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/design-bitset/description/</t>
+  </si>
+  <si>
+    <t>Design Bitset</t>
+  </si>
+  <si>
+    <t>Largest Combination With Bitwise AND Greater Than Zero</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/largest-combination-with-bitwise-and-greater-than-zero/description/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reverse-integer/description/</t>
+  </si>
+  <si>
+    <t>Reverse Integer</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/sum-of-two-integers/description/</t>
+  </si>
+  <si>
+    <t>Sum of Two Integers</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/number-complement/description/</t>
+  </si>
+  <si>
+    <t>Number Complement</t>
   </si>
 </sst>
 </file>
@@ -1784,10 +1854,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1798,7 +1868,7 @@
     <col min="4" max="4" width="19.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -1806,7 +1876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1814,7 +1884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1822,7 +1892,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -1830,7 +1900,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1838,328 +1908,320 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>16</v>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>18</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>20</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>89</v>
+      <c r="A38" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" s="2" t="s">
-        <v>91</v>
+      <c r="A39" t="s">
+        <v>93</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>95</v>
-      </c>
-      <c r="B41" s="1" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2171,59 +2233,58 @@
     <hyperlink ref="B3" r:id="rId4"/>
     <hyperlink ref="A4" r:id="rId5" display="https://leetcode.com/problems/max-consecutive-ones/"/>
     <hyperlink ref="B5" r:id="rId6"/>
-    <hyperlink ref="B6" r:id="rId7"/>
-    <hyperlink ref="B8" r:id="rId8"/>
-    <hyperlink ref="B10" r:id="rId9"/>
-    <hyperlink ref="B4" r:id="rId10"/>
-    <hyperlink ref="B7" r:id="rId11"/>
-    <hyperlink ref="B9" r:id="rId12"/>
+    <hyperlink ref="B7" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId8"/>
+    <hyperlink ref="B4" r:id="rId9"/>
+    <hyperlink ref="B6" r:id="rId10"/>
+    <hyperlink ref="B8" r:id="rId11"/>
+    <hyperlink ref="B11" r:id="rId12"/>
     <hyperlink ref="B12" r:id="rId13"/>
     <hyperlink ref="B13" r:id="rId14"/>
     <hyperlink ref="B14" r:id="rId15"/>
     <hyperlink ref="B15" r:id="rId16"/>
-    <hyperlink ref="B16" r:id="rId17"/>
-    <hyperlink ref="C16" r:id="rId18"/>
+    <hyperlink ref="C15" r:id="rId17"/>
+    <hyperlink ref="B16" r:id="rId18"/>
     <hyperlink ref="B17" r:id="rId19"/>
-    <hyperlink ref="B18" r:id="rId20"/>
+    <hyperlink ref="C17" r:id="rId20"/>
     <hyperlink ref="C18" r:id="rId21"/>
-    <hyperlink ref="C19" r:id="rId22"/>
+    <hyperlink ref="B18" r:id="rId22"/>
     <hyperlink ref="B19" r:id="rId23"/>
     <hyperlink ref="B20" r:id="rId24"/>
-    <hyperlink ref="B21" r:id="rId25"/>
-    <hyperlink ref="C21" r:id="rId26"/>
+    <hyperlink ref="C20" r:id="rId25"/>
+    <hyperlink ref="B21" r:id="rId26"/>
     <hyperlink ref="B22" r:id="rId27"/>
-    <hyperlink ref="B23" r:id="rId28"/>
-    <hyperlink ref="C23" r:id="rId29"/>
-    <hyperlink ref="B24" r:id="rId30"/>
-    <hyperlink ref="C24" r:id="rId31"/>
-    <hyperlink ref="B25" r:id="rId32"/>
-    <hyperlink ref="C25" r:id="rId33"/>
-    <hyperlink ref="B26" r:id="rId34"/>
-    <hyperlink ref="C26" r:id="rId35"/>
-    <hyperlink ref="B27" r:id="rId36"/>
-    <hyperlink ref="C27" r:id="rId37"/>
+    <hyperlink ref="C22" r:id="rId28"/>
+    <hyperlink ref="B23" r:id="rId29"/>
+    <hyperlink ref="C23" r:id="rId30"/>
+    <hyperlink ref="B24" r:id="rId31"/>
+    <hyperlink ref="C24" r:id="rId32"/>
+    <hyperlink ref="B25" r:id="rId33"/>
+    <hyperlink ref="C25" r:id="rId34"/>
+    <hyperlink ref="B26" r:id="rId35"/>
+    <hyperlink ref="C26" r:id="rId36"/>
+    <hyperlink ref="B27" r:id="rId37"/>
     <hyperlink ref="B28" r:id="rId38"/>
     <hyperlink ref="B29" r:id="rId39"/>
-    <hyperlink ref="B30" r:id="rId40"/>
-    <hyperlink ref="C30" r:id="rId41"/>
-    <hyperlink ref="B31" r:id="rId42"/>
-    <hyperlink ref="C31" r:id="rId43"/>
+    <hyperlink ref="C29" r:id="rId40"/>
+    <hyperlink ref="B30" r:id="rId41"/>
+    <hyperlink ref="C30" r:id="rId42"/>
+    <hyperlink ref="B31" r:id="rId43"/>
     <hyperlink ref="B32" r:id="rId44"/>
-    <hyperlink ref="B33" r:id="rId45"/>
-    <hyperlink ref="C33" r:id="rId46"/>
+    <hyperlink ref="C32" r:id="rId45"/>
+    <hyperlink ref="B33" r:id="rId46"/>
     <hyperlink ref="B34" r:id="rId47"/>
-    <hyperlink ref="B35" r:id="rId48"/>
-    <hyperlink ref="C35" r:id="rId49"/>
+    <hyperlink ref="C34" r:id="rId48"/>
+    <hyperlink ref="B35" r:id="rId49"/>
     <hyperlink ref="B36" r:id="rId50"/>
     <hyperlink ref="B37" r:id="rId51"/>
-    <hyperlink ref="B38" r:id="rId52"/>
-    <hyperlink ref="C38" r:id="rId53"/>
+    <hyperlink ref="C37" r:id="rId52"/>
+    <hyperlink ref="B38" r:id="rId53"/>
     <hyperlink ref="B39" r:id="rId54"/>
     <hyperlink ref="B40" r:id="rId55"/>
-    <hyperlink ref="B41" r:id="rId56"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId57"/>
+  <pageSetup orientation="portrait" r:id="rId56"/>
 </worksheet>
 </file>
 
@@ -3286,6 +3347,145 @@
     <hyperlink ref="B3" r:id="rId3"/>
     <hyperlink ref="B4" r:id="rId4"/>
     <hyperlink ref="B6" r:id="rId5"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="43.81640625" customWidth="1"/>
+    <col min="2" max="2" width="69.81640625" customWidth="1"/>
+    <col min="3" max="3" width="54.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>474</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>476</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>478</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>494</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>480</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>481</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>484</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>486</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>487</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>490</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>492</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="B4" r:id="rId4"/>
+    <hyperlink ref="B5" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId8"/>
+    <hyperlink ref="B11" r:id="rId9"/>
+    <hyperlink ref="B12" r:id="rId10"/>
+    <hyperlink ref="B13" r:id="rId11"/>
+    <hyperlink ref="B14" r:id="rId12"/>
+    <hyperlink ref="B6" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4131,7 +4331,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>

--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -9,24 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5770" firstSheet="8" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5770" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Array" sheetId="1" r:id="rId1"/>
-    <sheet name="Binary Search" sheetId="2" r:id="rId2"/>
-    <sheet name="Bit Manipulation" sheetId="3" r:id="rId3"/>
-    <sheet name="DP" sheetId="4" r:id="rId4"/>
-    <sheet name="Graph" sheetId="5" r:id="rId5"/>
-    <sheet name="Heap" sheetId="6" r:id="rId6"/>
-    <sheet name="Interval" sheetId="7" r:id="rId7"/>
-    <sheet name="LinkedList" sheetId="8" r:id="rId8"/>
-    <sheet name="Backtracking" sheetId="9" r:id="rId9"/>
+    <sheet name="Backtracking" sheetId="9" r:id="rId2"/>
+    <sheet name="Binary Search" sheetId="2" r:id="rId3"/>
+    <sheet name="BitManipulation" sheetId="15" r:id="rId4"/>
+    <sheet name="DP" sheetId="4" r:id="rId5"/>
+    <sheet name="Graph" sheetId="5" r:id="rId6"/>
+    <sheet name="Heap" sheetId="6" r:id="rId7"/>
+    <sheet name="Interval" sheetId="7" r:id="rId8"/>
+    <sheet name="LinkedList" sheetId="8" r:id="rId9"/>
     <sheet name="Sliding Window" sheetId="10" r:id="rId10"/>
     <sheet name="StackAndQueue" sheetId="11" r:id="rId11"/>
     <sheet name="String" sheetId="12" r:id="rId12"/>
     <sheet name="Tree" sheetId="13" r:id="rId13"/>
     <sheet name="Trie" sheetId="14" r:id="rId14"/>
-    <sheet name="BitManipulation" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1856,7 +1855,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
@@ -2589,7 +2588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
@@ -2941,7 +2940,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -3284,7 +3283,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
@@ -3352,150 +3351,105 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+  <dimension ref="F1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="43.81640625" customWidth="1"/>
-    <col min="2" max="2" width="69.81640625" customWidth="1"/>
-    <col min="3" max="3" width="54.1796875" customWidth="1"/>
+    <col min="6" max="6" width="43.6328125" customWidth="1"/>
+    <col min="7" max="7" width="69.90625" customWidth="1"/>
+    <col min="8" max="8" width="54.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>474</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>476</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>478</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>494</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>480</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>481</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>484</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>486</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>487</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>490</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>492</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>491</v>
+    <row r="1" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F1" t="s">
+        <v>457</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="2" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F2" t="s">
+        <v>459</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="3" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F3" t="s">
+        <v>463</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="4" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F4" t="s">
+        <v>461</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="5" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F5" t="s">
+        <v>465</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="6" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F6" t="s">
+        <v>467</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="7" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F7" t="s">
+        <v>469</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="8" spans="6:7" x14ac:dyDescent="0.35">
+      <c r="F8" t="s">
+        <v>471</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>470</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="B3" r:id="rId3"/>
-    <hyperlink ref="B4" r:id="rId4"/>
-    <hyperlink ref="B5" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
-    <hyperlink ref="B8" r:id="rId7"/>
-    <hyperlink ref="B9" r:id="rId8"/>
-    <hyperlink ref="B11" r:id="rId9"/>
-    <hyperlink ref="B12" r:id="rId10"/>
-    <hyperlink ref="B13" r:id="rId11"/>
-    <hyperlink ref="B14" r:id="rId12"/>
-    <hyperlink ref="B6" r:id="rId13"/>
+    <hyperlink ref="G1" r:id="rId1"/>
+    <hyperlink ref="G2" r:id="rId2"/>
+    <hyperlink ref="G4" r:id="rId3"/>
+    <hyperlink ref="G3" r:id="rId4"/>
+    <hyperlink ref="G5" r:id="rId5"/>
+    <hyperlink ref="G6" r:id="rId6"/>
+    <hyperlink ref="G7" r:id="rId7"/>
+    <hyperlink ref="G8" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
@@ -3675,19 +3629,146 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="43.81640625" customWidth="1"/>
+    <col min="2" max="2" width="69.81640625" customWidth="1"/>
+    <col min="3" max="3" width="54.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>474</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>476</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>478</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>494</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>480</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>481</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>484</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>486</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>487</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>490</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>492</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="B4" r:id="rId4"/>
+    <hyperlink ref="B5" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId8"/>
+    <hyperlink ref="B11" r:id="rId9"/>
+    <hyperlink ref="B12" r:id="rId10"/>
+    <hyperlink ref="B13" r:id="rId11"/>
+    <hyperlink ref="B14" r:id="rId12"/>
+    <hyperlink ref="B6" r:id="rId13"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3701,11 +3782,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
@@ -3948,7 +4029,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
@@ -4077,7 +4158,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -4147,11 +4228,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
@@ -4325,98 +4406,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId18"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F1:G8"/>
-  <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="6" max="6" width="43.6328125" customWidth="1"/>
-    <col min="7" max="7" width="69.90625" customWidth="1"/>
-    <col min="8" max="8" width="54.26953125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F1" t="s">
-        <v>457</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="2" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F2" t="s">
-        <v>459</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="3" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F3" t="s">
-        <v>463</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="4" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F4" t="s">
-        <v>461</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="5" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F5" t="s">
-        <v>465</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="6" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F6" t="s">
-        <v>467</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="7" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F7" t="s">
-        <v>469</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="8" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F8" t="s">
-        <v>471</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>470</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="G1" r:id="rId1"/>
-    <hyperlink ref="G2" r:id="rId2"/>
-    <hyperlink ref="G4" r:id="rId3"/>
-    <hyperlink ref="G3" r:id="rId4"/>
-    <hyperlink ref="G5" r:id="rId5"/>
-    <hyperlink ref="G6" r:id="rId6"/>
-    <hyperlink ref="G7" r:id="rId7"/>
-    <hyperlink ref="G8" r:id="rId8"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5770" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5770"/>
   </bookViews>
   <sheets>
     <sheet name="Array" sheetId="1" r:id="rId1"/>
@@ -1855,14 +1855,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="39.54296875" customWidth="1"/>
-    <col min="2" max="2" width="67.26953125" customWidth="1"/>
+    <col min="2" max="2" width="74.6328125" customWidth="1"/>
     <col min="3" max="3" width="123.6328125" customWidth="1"/>
     <col min="4" max="4" width="19.90625" customWidth="1"/>
   </cols>
@@ -2226,64 +2226,63 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="https://leetcode.com/problems/find-all-numbers-disappeared-in-an-array/"/>
-    <hyperlink ref="B1" r:id="rId2"/>
-    <hyperlink ref="B2" r:id="rId3"/>
-    <hyperlink ref="B3" r:id="rId4"/>
-    <hyperlink ref="A4" r:id="rId5" display="https://leetcode.com/problems/max-consecutive-ones/"/>
-    <hyperlink ref="B5" r:id="rId6"/>
-    <hyperlink ref="B7" r:id="rId7"/>
-    <hyperlink ref="B9" r:id="rId8"/>
-    <hyperlink ref="B4" r:id="rId9"/>
-    <hyperlink ref="B6" r:id="rId10"/>
-    <hyperlink ref="B8" r:id="rId11"/>
-    <hyperlink ref="B11" r:id="rId12"/>
-    <hyperlink ref="B12" r:id="rId13"/>
-    <hyperlink ref="B13" r:id="rId14"/>
-    <hyperlink ref="B14" r:id="rId15"/>
-    <hyperlink ref="B15" r:id="rId16"/>
-    <hyperlink ref="C15" r:id="rId17"/>
-    <hyperlink ref="B16" r:id="rId18"/>
-    <hyperlink ref="B17" r:id="rId19"/>
-    <hyperlink ref="C17" r:id="rId20"/>
-    <hyperlink ref="C18" r:id="rId21"/>
-    <hyperlink ref="B18" r:id="rId22"/>
-    <hyperlink ref="B19" r:id="rId23"/>
-    <hyperlink ref="B20" r:id="rId24"/>
-    <hyperlink ref="C20" r:id="rId25"/>
-    <hyperlink ref="B21" r:id="rId26"/>
-    <hyperlink ref="B22" r:id="rId27"/>
-    <hyperlink ref="C22" r:id="rId28"/>
-    <hyperlink ref="B23" r:id="rId29"/>
-    <hyperlink ref="C23" r:id="rId30"/>
-    <hyperlink ref="B24" r:id="rId31"/>
-    <hyperlink ref="C24" r:id="rId32"/>
-    <hyperlink ref="B25" r:id="rId33"/>
-    <hyperlink ref="C25" r:id="rId34"/>
-    <hyperlink ref="B26" r:id="rId35"/>
-    <hyperlink ref="C26" r:id="rId36"/>
-    <hyperlink ref="B27" r:id="rId37"/>
-    <hyperlink ref="B28" r:id="rId38"/>
-    <hyperlink ref="B29" r:id="rId39"/>
-    <hyperlink ref="C29" r:id="rId40"/>
-    <hyperlink ref="B30" r:id="rId41"/>
-    <hyperlink ref="C30" r:id="rId42"/>
-    <hyperlink ref="B31" r:id="rId43"/>
-    <hyperlink ref="B32" r:id="rId44"/>
-    <hyperlink ref="C32" r:id="rId45"/>
-    <hyperlink ref="B33" r:id="rId46"/>
-    <hyperlink ref="B34" r:id="rId47"/>
-    <hyperlink ref="C34" r:id="rId48"/>
-    <hyperlink ref="B35" r:id="rId49"/>
-    <hyperlink ref="B36" r:id="rId50"/>
-    <hyperlink ref="B37" r:id="rId51"/>
-    <hyperlink ref="C37" r:id="rId52"/>
-    <hyperlink ref="B38" r:id="rId53"/>
-    <hyperlink ref="B39" r:id="rId54"/>
-    <hyperlink ref="B40" r:id="rId55"/>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="A4" r:id="rId4" display="https://leetcode.com/problems/max-consecutive-ones/"/>
+    <hyperlink ref="B5" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B9" r:id="rId7"/>
+    <hyperlink ref="B4" r:id="rId8"/>
+    <hyperlink ref="B6" r:id="rId9"/>
+    <hyperlink ref="B8" r:id="rId10"/>
+    <hyperlink ref="B11" r:id="rId11"/>
+    <hyperlink ref="B12" r:id="rId12"/>
+    <hyperlink ref="B13" r:id="rId13"/>
+    <hyperlink ref="B14" r:id="rId14"/>
+    <hyperlink ref="B15" r:id="rId15"/>
+    <hyperlink ref="C15" r:id="rId16"/>
+    <hyperlink ref="B16" r:id="rId17"/>
+    <hyperlink ref="B17" r:id="rId18"/>
+    <hyperlink ref="C17" r:id="rId19"/>
+    <hyperlink ref="C18" r:id="rId20"/>
+    <hyperlink ref="B18" r:id="rId21"/>
+    <hyperlink ref="B19" r:id="rId22"/>
+    <hyperlink ref="B20" r:id="rId23"/>
+    <hyperlink ref="C20" r:id="rId24"/>
+    <hyperlink ref="B21" r:id="rId25"/>
+    <hyperlink ref="B22" r:id="rId26"/>
+    <hyperlink ref="C22" r:id="rId27"/>
+    <hyperlink ref="B23" r:id="rId28"/>
+    <hyperlink ref="C23" r:id="rId29"/>
+    <hyperlink ref="B24" r:id="rId30"/>
+    <hyperlink ref="C24" r:id="rId31"/>
+    <hyperlink ref="B25" r:id="rId32"/>
+    <hyperlink ref="C25" r:id="rId33"/>
+    <hyperlink ref="B26" r:id="rId34"/>
+    <hyperlink ref="C26" r:id="rId35"/>
+    <hyperlink ref="B27" r:id="rId36"/>
+    <hyperlink ref="B28" r:id="rId37"/>
+    <hyperlink ref="B29" r:id="rId38"/>
+    <hyperlink ref="C29" r:id="rId39"/>
+    <hyperlink ref="B30" r:id="rId40"/>
+    <hyperlink ref="C30" r:id="rId41"/>
+    <hyperlink ref="B31" r:id="rId42"/>
+    <hyperlink ref="B32" r:id="rId43"/>
+    <hyperlink ref="C32" r:id="rId44"/>
+    <hyperlink ref="B33" r:id="rId45"/>
+    <hyperlink ref="B34" r:id="rId46"/>
+    <hyperlink ref="C34" r:id="rId47"/>
+    <hyperlink ref="B35" r:id="rId48"/>
+    <hyperlink ref="B36" r:id="rId49"/>
+    <hyperlink ref="B37" r:id="rId50"/>
+    <hyperlink ref="C37" r:id="rId51"/>
+    <hyperlink ref="B38" r:id="rId52"/>
+    <hyperlink ref="B39" r:id="rId53"/>
+    <hyperlink ref="B40" r:id="rId54"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId56"/>
+  <pageSetup orientation="portrait" r:id="rId55"/>
 </worksheet>
 </file>
 
@@ -3283,7 +3282,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>

--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="497">
   <si>
     <t>https://leetcode.com/problems/find-all-numbers-disappeared-in-an-array/description/</t>
   </si>
@@ -192,9 +192,6 @@
     <t>Maximum Product Subarray</t>
   </si>
   <si>
-    <t>https://leetcode.com/problems/maximum-product-subarray/solutions/1608862/java-3-solutions-detailed-explanation-using-image/</t>
-  </si>
-  <si>
     <t>Maximum Subarray</t>
   </si>
   <si>
@@ -219,9 +216,6 @@
     <t>Next Permutation</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=JDOXKqF60RQ&amp;ab_channel=takeUforward</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/product-of-array-except-self/description/</t>
   </si>
   <si>
@@ -249,24 +243,15 @@
     <t>https://leetcode.com/problems/rotate-image/description/</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=SA867FvqHrM&amp;ab_channel=NickWhite</t>
-  </si>
-  <si>
     <t>Set Matrix Zeroes</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/set-matrix-zeroes/description/</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=M65xBewcqcI&amp;ab_channel=takeUforward</t>
-  </si>
-  <si>
     <t>Sort Colors</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=tp8JIuCXBaU&amp;ab_channel=takeUforward</t>
-  </si>
-  <si>
     <t>Spiral Matrix</t>
   </si>
   <si>
@@ -1522,6 +1507,27 @@
   </si>
   <si>
     <t>Number Complement</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ufRhbsg5RwU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Y6B-7ZctiW8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6ENl3OwwxLg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Z0R2u6gd3GU&amp;t=888s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=dSxt3ZCbIqA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6sMssUHgaBs</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/sort-colors/description/</t>
   </si>
 </sst>
 </file>
@@ -1855,8 +1861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1954,6 +1960,9 @@
       <c r="B12" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="C12" s="1" t="s">
+        <v>490</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
@@ -2050,178 +2059,181 @@
         <v>49</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>51</v>
+        <v>491</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>60</v>
+        <v>492</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>70</v>
+        <v>493</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>73</v>
+        <v>494</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>75</v>
+        <v>496</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2280,9 +2292,11 @@
     <hyperlink ref="B38" r:id="rId52"/>
     <hyperlink ref="B39" r:id="rId53"/>
     <hyperlink ref="B40" r:id="rId54"/>
+    <hyperlink ref="C12" r:id="rId55"/>
+    <hyperlink ref="C31" r:id="rId56"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId55"/>
+  <pageSetup orientation="portrait" r:id="rId57"/>
 </worksheet>
 </file>
 
@@ -2302,108 +2316,108 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -2443,122 +2457,122 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -2599,295 +2613,295 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B39" s="1" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
   </sheetData>
@@ -2952,290 +2966,290 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="B5" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="B6" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="B17" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
     </row>
   </sheetData>
@@ -3295,47 +3309,47 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -3367,66 +3381,66 @@
   <sheetData>
     <row r="1" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F1" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
     </row>
     <row r="2" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F2" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
     </row>
     <row r="3" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F3" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
     </row>
     <row r="4" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F4" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
     </row>
     <row r="5" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F5" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="6" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F6" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="7" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F7" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="8" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F8" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
   </sheetData>
@@ -3461,146 +3475,146 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -3645,34 +3659,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -3685,66 +3699,66 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
     </row>
   </sheetData>
@@ -3798,202 +3812,202 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -4044,26 +4058,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -4071,23 +4085,23 @@
         <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -4095,47 +4109,47 @@
         <v>32</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -4174,44 +4188,44 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -4243,143 +4257,143 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B16" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>

--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\DS2024\Datastructure\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\Repository\Datastructure\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5770" firstSheet="3" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Array" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="502">
   <si>
     <t>https://leetcode.com/problems/find-all-numbers-disappeared-in-an-array/description/</t>
   </si>
@@ -843,12 +843,6 @@
     <t>Sliding Window Maximum</t>
   </si>
   <si>
-    <t>https://leetcode.com/problems/subarrays-with-k-different-integers/</t>
-  </si>
-  <si>
-    <t>Subarrays with K Different Integers</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/implement-queue-using-stacks/</t>
   </si>
   <si>
@@ -1528,6 +1522,27 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/sort-colors/description/</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=jSvoE-_Yhs4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fvEw13A5O1o</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=uUXXEgK2Jh8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gqXU1UyA8pk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=B6scRxy_Zwo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=jSto0O4AJbM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DfljaUwZsOk</t>
   </si>
 </sst>
 </file>
@@ -1861,7 +1876,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
@@ -1961,7 +1976,7 @@
         <v>24</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -2059,7 +2074,7 @@
         <v>49</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
@@ -2092,7 +2107,7 @@
         <v>57</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
@@ -2130,7 +2145,7 @@
         <v>67</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
@@ -2141,7 +2156,7 @@
         <v>69</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
@@ -2149,10 +2164,10 @@
         <v>70</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
@@ -2302,56 +2317,69 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="43.7265625" customWidth="1"/>
-    <col min="2" max="2" width="69.7265625" customWidth="1"/>
+    <col min="2" max="2" width="84.6328125" customWidth="1"/>
+    <col min="3" max="3" width="53.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>245</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C1" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>247</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C3" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>249</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C4" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>250</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C5" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>254</v>
       </c>
@@ -2359,7 +2387,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>256</v>
       </c>
@@ -2367,7 +2395,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>258</v>
       </c>
@@ -2375,7 +2403,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>260</v>
       </c>
@@ -2383,7 +2411,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>262</v>
       </c>
@@ -2391,33 +2419,34 @@
         <v>261</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C13" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>265</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C14" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>267</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>269</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>268</v>
+      <c r="C15" s="1" t="s">
+        <v>501</v>
       </c>
     </row>
   </sheetData>
@@ -2426,16 +2455,21 @@
     <hyperlink ref="B3" r:id="rId2"/>
     <hyperlink ref="B4" r:id="rId3"/>
     <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
-    <hyperlink ref="B8" r:id="rId7"/>
-    <hyperlink ref="B9" r:id="rId8"/>
-    <hyperlink ref="B10" r:id="rId9"/>
-    <hyperlink ref="B11" r:id="rId10"/>
-    <hyperlink ref="B13" r:id="rId11"/>
-    <hyperlink ref="B14" r:id="rId12"/>
-    <hyperlink ref="B15" r:id="rId13"/>
-    <hyperlink ref="B16" r:id="rId14"/>
+    <hyperlink ref="B7" r:id="rId5"/>
+    <hyperlink ref="B8" r:id="rId6"/>
+    <hyperlink ref="B9" r:id="rId7"/>
+    <hyperlink ref="B10" r:id="rId8"/>
+    <hyperlink ref="B11" r:id="rId9"/>
+    <hyperlink ref="B13" r:id="rId10"/>
+    <hyperlink ref="B14" r:id="rId11"/>
+    <hyperlink ref="B15" r:id="rId12"/>
+    <hyperlink ref="C1" r:id="rId13"/>
+    <hyperlink ref="C3" r:id="rId14"/>
+    <hyperlink ref="C4" r:id="rId15"/>
+    <hyperlink ref="C5" r:id="rId16"/>
+    <hyperlink ref="C13" r:id="rId17"/>
+    <hyperlink ref="C14" r:id="rId18"/>
+    <hyperlink ref="C15" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2457,122 +2491,122 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -2613,295 +2647,295 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B39" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -2966,290 +3000,290 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B17" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
   </sheetData>
@@ -3309,47 +3343,47 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -3381,66 +3415,66 @@
   <sheetData>
     <row r="1" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="2" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="3" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="4" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F4" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="5" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F5" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="6" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F6" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="7" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F7" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="8" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F8" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
   </sheetData>
@@ -3659,34 +3693,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -3699,66 +3733,66 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
   </sheetData>

--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="500">
   <si>
     <t>https://leetcode.com/problems/find-all-numbers-disappeared-in-an-array/description/</t>
   </si>
@@ -820,12 +820,6 @@
   </si>
   <si>
     <t>Number of Substrings Containing All Three Characters</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/permutation-in-string/description/</t>
-  </si>
-  <si>
-    <t>Permutation in String</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/minimum-window-subsequence/description/</t>
@@ -1976,7 +1970,7 @@
         <v>24</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -2074,7 +2068,7 @@
         <v>49</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
@@ -2107,7 +2101,7 @@
         <v>57</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
@@ -2145,7 +2139,7 @@
         <v>67</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
@@ -2156,7 +2150,7 @@
         <v>69</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
@@ -2164,10 +2158,10 @@
         <v>70</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
@@ -2317,10 +2311,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2338,7 +2332,7 @@
         <v>244</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -2349,7 +2343,7 @@
         <v>246</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -2360,7 +2354,7 @@
         <v>248</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -2371,7 +2365,7 @@
         <v>251</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -2411,20 +2405,23 @@
         <v>259</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B12" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>263</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B13" s="1" t="s">
-        <v>263</v>
-      </c>
       <c r="C13" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -2435,18 +2432,7 @@
         <v>264</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>267</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
   </sheetData>
@@ -2459,17 +2445,16 @@
     <hyperlink ref="B8" r:id="rId6"/>
     <hyperlink ref="B9" r:id="rId7"/>
     <hyperlink ref="B10" r:id="rId8"/>
-    <hyperlink ref="B11" r:id="rId9"/>
+    <hyperlink ref="B12" r:id="rId9"/>
     <hyperlink ref="B13" r:id="rId10"/>
     <hyperlink ref="B14" r:id="rId11"/>
-    <hyperlink ref="B15" r:id="rId12"/>
-    <hyperlink ref="C1" r:id="rId13"/>
-    <hyperlink ref="C3" r:id="rId14"/>
-    <hyperlink ref="C4" r:id="rId15"/>
-    <hyperlink ref="C5" r:id="rId16"/>
+    <hyperlink ref="C1" r:id="rId12"/>
+    <hyperlink ref="C3" r:id="rId13"/>
+    <hyperlink ref="C4" r:id="rId14"/>
+    <hyperlink ref="C5" r:id="rId15"/>
+    <hyperlink ref="C12" r:id="rId16"/>
     <hyperlink ref="C13" r:id="rId17"/>
     <hyperlink ref="C14" r:id="rId18"/>
-    <hyperlink ref="C15" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2491,122 +2476,122 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -2647,295 +2632,295 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B39" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -3000,290 +2985,290 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B5" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B6" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B17" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
   </sheetData>
@@ -3343,47 +3328,47 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -3415,66 +3400,66 @@
   <sheetData>
     <row r="1" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="2" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="3" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="4" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F4" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="5" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F5" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="6" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F6" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="7" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="8" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F8" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
   </sheetData>
@@ -3693,34 +3678,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -3733,66 +3718,66 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
   </sheetData>

--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5770" firstSheet="3" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5770" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Array" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="508">
   <si>
     <t>https://leetcode.com/problems/find-all-numbers-disappeared-in-an-array/description/</t>
   </si>
@@ -1389,9 +1389,6 @@
     <t>https://leetcode.com/problems/combination-sum-ii/description/</t>
   </si>
   <si>
-    <t>Combination Sum II</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/palindrome-partitioning/description/</t>
   </si>
   <si>
@@ -1537,6 +1534,33 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=DfljaUwZsOk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=GqE96uMPOLI&amp;ab_channel=Codebix</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WBgsABoClE0&amp;ab_channel=takeUforward</t>
+  </si>
+  <si>
+    <t>Generate Paranthesis</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=s9fokUqJ76A&amp;ab_channel=NeetCode</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/combination-sum-iii/description/</t>
+  </si>
+  <si>
+    <t>Combination Sum 3</t>
+  </si>
+  <si>
+    <t>Combination Sum 2</t>
+  </si>
+  <si>
+    <t>Word search</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/word-search/description/</t>
   </si>
 </sst>
 </file>
@@ -1970,7 +1994,7 @@
         <v>24</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -2068,7 +2092,7 @@
         <v>49</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
@@ -2101,7 +2125,7 @@
         <v>57</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
@@ -2139,7 +2163,7 @@
         <v>67</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
@@ -2150,7 +2174,7 @@
         <v>69</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
@@ -2158,10 +2182,10 @@
         <v>70</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
@@ -2313,15 +2337,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="43.7265625" customWidth="1"/>
     <col min="2" max="2" width="84.6328125" customWidth="1"/>
-    <col min="3" max="3" width="53.6328125" customWidth="1"/>
+    <col min="3" max="3" width="46.7265625" customWidth="1"/>
+    <col min="4" max="4" width="34.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -2332,7 +2357,7 @@
         <v>244</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -2343,7 +2368,7 @@
         <v>246</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -2354,7 +2379,7 @@
         <v>248</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -2365,7 +2390,7 @@
         <v>251</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -2410,7 +2435,7 @@
         <v>261</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -2421,7 +2446,7 @@
         <v>262</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -2432,7 +2457,7 @@
         <v>264</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
   </sheetData>
@@ -3385,20 +3410,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F1:G8"/>
+  <dimension ref="F1:H11"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="6" max="6" width="43.6328125" customWidth="1"/>
+    <col min="6" max="6" width="37.6328125" customWidth="1"/>
     <col min="7" max="7" width="69.90625" customWidth="1"/>
     <col min="8" max="8" width="54.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F1" t="s">
         <v>448</v>
       </c>
@@ -3406,74 +3431,114 @@
         <v>447</v>
       </c>
     </row>
-    <row r="2" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F2" t="s">
-        <v>450</v>
+        <v>505</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="3" spans="6:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F3" t="s">
+        <v>504</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="4" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F4" t="s">
+        <v>501</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="5" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F5" t="s">
+        <v>453</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="6" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F6" t="s">
+        <v>451</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F7" t="s">
+        <v>455</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="4" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F4" t="s">
-        <v>452</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="5" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F5" t="s">
+    </row>
+    <row r="8" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F8" t="s">
+        <v>457</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="6" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F6" t="s">
+    </row>
+    <row r="9" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F9" t="s">
+        <v>459</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="7" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F7" t="s">
+    </row>
+    <row r="10" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F10" t="s">
+        <v>461</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="8" spans="6:7" x14ac:dyDescent="0.35">
-      <c r="F8" t="s">
-        <v>462</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>461</v>
+    </row>
+    <row r="11" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F11" t="s">
+        <v>506</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>507</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G1" r:id="rId1"/>
     <hyperlink ref="G2" r:id="rId2"/>
-    <hyperlink ref="G4" r:id="rId3"/>
-    <hyperlink ref="G3" r:id="rId4"/>
-    <hyperlink ref="G5" r:id="rId5"/>
-    <hyperlink ref="G6" r:id="rId6"/>
-    <hyperlink ref="G7" r:id="rId7"/>
-    <hyperlink ref="G8" r:id="rId8"/>
+    <hyperlink ref="G6" r:id="rId3"/>
+    <hyperlink ref="G5" r:id="rId4"/>
+    <hyperlink ref="G7" r:id="rId5"/>
+    <hyperlink ref="G8" r:id="rId6"/>
+    <hyperlink ref="G9" r:id="rId7"/>
+    <hyperlink ref="G10" r:id="rId8"/>
+    <hyperlink ref="H5" r:id="rId9"/>
+    <hyperlink ref="H6" r:id="rId10"/>
+    <hyperlink ref="G4" r:id="rId11"/>
+    <hyperlink ref="H4" r:id="rId12"/>
+    <hyperlink ref="G3" r:id="rId13"/>
+    <hyperlink ref="G11" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
 
@@ -3681,31 +3746,31 @@
         <v>297</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -3718,66 +3783,66 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>471</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>472</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>477</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>478</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
   </sheetData>

--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="515">
   <si>
     <t>https://leetcode.com/problems/find-all-numbers-disappeared-in-an-array/description/</t>
   </si>
@@ -1561,6 +1561,27 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/word-search/description/</t>
+  </si>
+  <si>
+    <t>Longest Substring with at most k Unique Characters</t>
+  </si>
+  <si>
+    <t>Minimum Window Susequence</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3tpjp5h3M6Y&amp;t=844s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qGyyzpNlMDU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=H232aocj7bQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YW5F0WqBBWY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WO7uDd7ShW0</t>
   </si>
 </sst>
 </file>
@@ -2338,12 +2359,12 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="43.7265625" customWidth="1"/>
+    <col min="1" max="1" width="47.453125" customWidth="1"/>
     <col min="2" max="2" width="84.6328125" customWidth="1"/>
     <col min="3" max="3" width="46.7265625" customWidth="1"/>
     <col min="4" max="4" width="34.81640625" customWidth="1"/>
@@ -2394,6 +2415,9 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>508</v>
+      </c>
       <c r="B6" s="1" t="s">
         <v>252</v>
       </c>
@@ -2431,6 +2455,9 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>509</v>
+      </c>
       <c r="B12" s="1" t="s">
         <v>261</v>
       </c>
@@ -2480,6 +2507,7 @@
     <hyperlink ref="C12" r:id="rId16"/>
     <hyperlink ref="C13" r:id="rId17"/>
     <hyperlink ref="C14" r:id="rId18"/>
+    <hyperlink ref="B6" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3410,135 +3438,155 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F1:H11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="6" max="6" width="37.6328125" customWidth="1"/>
-    <col min="7" max="7" width="69.90625" customWidth="1"/>
-    <col min="8" max="8" width="54.26953125" customWidth="1"/>
+    <col min="1" max="1" width="37.6328125" customWidth="1"/>
+    <col min="2" max="2" width="69.90625" customWidth="1"/>
+    <col min="3" max="3" width="54.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>448</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="2" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>505</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="3" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F3" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>504</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="4" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F4" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>501</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="5" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F5" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>453</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="6" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F6" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>451</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F7" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>455</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="8" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F8" t="s">
+      <c r="C7" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>457</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="9" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F9" t="s">
+      <c r="C8" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>459</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="10" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F10" t="s">
+      <c r="C9" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>461</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="11" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F11" t="s">
+      <c r="C10" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>506</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>507</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>514</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G1" r:id="rId1"/>
-    <hyperlink ref="G2" r:id="rId2"/>
-    <hyperlink ref="G6" r:id="rId3"/>
-    <hyperlink ref="G5" r:id="rId4"/>
-    <hyperlink ref="G7" r:id="rId5"/>
-    <hyperlink ref="G8" r:id="rId6"/>
-    <hyperlink ref="G9" r:id="rId7"/>
-    <hyperlink ref="G10" r:id="rId8"/>
-    <hyperlink ref="H5" r:id="rId9"/>
-    <hyperlink ref="H6" r:id="rId10"/>
-    <hyperlink ref="G4" r:id="rId11"/>
-    <hyperlink ref="H4" r:id="rId12"/>
-    <hyperlink ref="G3" r:id="rId13"/>
-    <hyperlink ref="G11" r:id="rId14"/>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B6" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B7" r:id="rId5"/>
+    <hyperlink ref="B8" r:id="rId6"/>
+    <hyperlink ref="B9" r:id="rId7"/>
+    <hyperlink ref="B10" r:id="rId8"/>
+    <hyperlink ref="C5" r:id="rId9"/>
+    <hyperlink ref="C6" r:id="rId10"/>
+    <hyperlink ref="B4" r:id="rId11"/>
+    <hyperlink ref="C4" r:id="rId12"/>
+    <hyperlink ref="B3" r:id="rId13"/>
+    <hyperlink ref="B11" r:id="rId14"/>
+    <hyperlink ref="C10" r:id="rId15"/>
+    <hyperlink ref="C9" r:id="rId16"/>
+    <hyperlink ref="C7" r:id="rId17"/>
+    <hyperlink ref="C8" r:id="rId18"/>
+    <hyperlink ref="C11" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId15"/>
+  <pageSetup orientation="portrait" r:id="rId20"/>
 </worksheet>
 </file>
 
@@ -3546,7 +3594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
@@ -3883,7 +3931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>

--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5770" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5770" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Array" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="514">
   <si>
     <t>https://leetcode.com/problems/find-all-numbers-disappeared-in-an-array/description/</t>
   </si>
@@ -321,30 +321,12 @@
     <t>https://leetcode.com/problems/find-smallest-letter-greater-than-target/description/</t>
   </si>
   <si>
-    <t>Floor in a Sorted Array</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/floor-in-a-sorted-array/</t>
-  </si>
-  <si>
     <t>Kth Missing Positive Number</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/kth-missing-positive-number/description/</t>
   </si>
   <si>
-    <t>Search in an almost sorted array</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/search-almost-sorted-array/</t>
-  </si>
-  <si>
-    <t>Search Insert Position</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/search-insert-position/description/</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/find-first-and-last-position-of-element-in-sorted-array/description/</t>
   </si>
   <si>
@@ -363,24 +345,12 @@
     <t>Koko Eating Bananas</t>
   </si>
   <si>
-    <t>https://leetcode.com/problems/kth-smallest-element-in-a-sorted-matrix/description/</t>
-  </si>
-  <si>
-    <t>Kth Smallest Element in a Sorted Matrix</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/find-peak-element/description/</t>
   </si>
   <si>
     <t>Find Peak Element</t>
   </si>
   <si>
-    <t>https://leetcode.com/problems/peak-index-in-a-mountain-array/description/</t>
-  </si>
-  <si>
-    <t>Peak Index in a Mountain Array</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/search-a-2d-matrix/description/</t>
   </si>
   <si>
@@ -405,9 +375,6 @@
     <t>Search in Rotated Sorted Array II</t>
   </si>
   <si>
-    <t>https://www.geeksforgeeks.org/find-the-element-that-appears-once-in-a-sorted-array/</t>
-  </si>
-  <si>
     <t>Find the element that appears once in a sorted array</t>
   </si>
   <si>
@@ -1582,6 +1549,36 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=WO7uDd7ShW0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=X45c37QMdX0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NObPmjZIh8Y</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JGYXNpZaW2U&amp;ab_channel=NikhilLohia</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nhEMDKMB44g&amp;ab_channel=takeUforward</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JXU4Akft7yk&amp;ab_channel=takeUforward</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9ZbB397jU4k&amp;ab_channel=takeUforward</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5qGrJbHhqFs&amp;ab_channel=takeUforward</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/single-element-in-a-sorted-array/description/</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PzszoiY5XMQ&amp;ab_channel=takeUforward</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=r7U0N2EE_l8&amp;ab_channel=Codebix</t>
   </si>
 </sst>
 </file>
@@ -2015,7 +2012,7 @@
         <v>24</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -2113,7 +2110,7 @@
         <v>49</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
@@ -2146,7 +2143,7 @@
         <v>57</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
@@ -2184,7 +2181,7 @@
         <v>67</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
@@ -2195,7 +2192,7 @@
         <v>69</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
@@ -2203,10 +2200,10 @@
         <v>70</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
@@ -2372,119 +2369,119 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
     </row>
   </sheetData>
@@ -2529,122 +2526,122 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -2685,295 +2682,295 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B39" s="1" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -3038,290 +3035,290 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="B5" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="B6" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="B17" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
     </row>
   </sheetData>
@@ -3381,47 +3378,47 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -3440,7 +3437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -3453,114 +3450,114 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
     </row>
   </sheetData>
@@ -3592,183 +3589,173 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="36.36328125" customWidth="1"/>
     <col min="2" max="2" width="84.36328125" customWidth="1"/>
-    <col min="3" max="3" width="58.81640625" customWidth="1"/>
+    <col min="3" max="3" width="71.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>92</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>94</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="C2" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C5" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C6" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+        <v>104</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+        <v>511</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>117</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>119</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>121</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>123</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>125</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>127</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>126</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1"/>
     <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="B3" r:id="rId3"/>
-    <hyperlink ref="B4" r:id="rId4"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
     <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B8" r:id="rId6"/>
-    <hyperlink ref="B9" r:id="rId7"/>
-    <hyperlink ref="B10" r:id="rId8"/>
-    <hyperlink ref="B11" r:id="rId9"/>
-    <hyperlink ref="B12" r:id="rId10"/>
-    <hyperlink ref="B13" r:id="rId11"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B9" r:id="rId8"/>
+    <hyperlink ref="B10" r:id="rId9"/>
+    <hyperlink ref="B11" r:id="rId10"/>
+    <hyperlink ref="B12" r:id="rId11"/>
     <hyperlink ref="B14" r:id="rId12"/>
     <hyperlink ref="B15" r:id="rId13"/>
-    <hyperlink ref="B16" r:id="rId14"/>
-    <hyperlink ref="B17" r:id="rId15"/>
-    <hyperlink ref="B18" r:id="rId16"/>
-    <hyperlink ref="B20" r:id="rId17"/>
-    <hyperlink ref="B21" r:id="rId18"/>
+    <hyperlink ref="C2" r:id="rId14"/>
+    <hyperlink ref="C5" r:id="rId15"/>
+    <hyperlink ref="C6" r:id="rId16"/>
+    <hyperlink ref="C8" r:id="rId17"/>
+    <hyperlink ref="C9" r:id="rId18"/>
+    <hyperlink ref="C10" r:id="rId19"/>
+    <hyperlink ref="C12" r:id="rId20"/>
+    <hyperlink ref="C7" r:id="rId21"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3791,34 +3778,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -3831,66 +3818,66 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
     </row>
   </sheetData>
@@ -3944,202 +3931,202 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -4190,26 +4177,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -4217,23 +4204,23 @@
         <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -4241,47 +4228,47 @@
         <v>32</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -4320,44 +4307,44 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -4389,143 +4376,143 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="B16" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>

--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5770" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5770" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Array" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="518">
   <si>
     <t>https://leetcode.com/problems/find-all-numbers-disappeared-in-an-array/description/</t>
   </si>
@@ -606,15 +606,9 @@
     <t>https://leetcode.com/problems/hand-of-straights/</t>
   </si>
   <si>
-    <t>https://leetcode.com/problems/meeting-rooms/description/</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/insert-interval/</t>
   </si>
   <si>
-    <t>Insert Interval</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/meeting-rooms-ii/description/</t>
   </si>
   <si>
@@ -1579,6 +1573,24 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=r7U0N2EE_l8&amp;ab_channel=Codebix</t>
+  </si>
+  <si>
+    <t>https://www.lintcode.com/problem/920/</t>
+  </si>
+  <si>
+    <t>Insert interval</t>
+  </si>
+  <si>
+    <t>Meeting Rooms2</t>
+  </si>
+  <si>
+    <t>Meeting Rooms 1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nONCGxWoUfM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=xxRE-46OCC8</t>
   </si>
 </sst>
 </file>
@@ -2012,7 +2024,7 @@
         <v>24</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -2110,7 +2122,7 @@
         <v>49</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
@@ -2143,7 +2155,7 @@
         <v>57</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
@@ -2181,7 +2193,7 @@
         <v>67</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
@@ -2192,7 +2204,7 @@
         <v>69</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
@@ -2200,10 +2212,10 @@
         <v>70</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
@@ -2369,119 +2381,119 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
   </sheetData>
@@ -2526,122 +2538,122 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>259</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -2682,295 +2694,295 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B39" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -3035,290 +3047,290 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B6" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B17" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
   </sheetData>
@@ -3378,47 +3390,47 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -3450,114 +3462,114 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
   </sheetData>
@@ -3591,7 +3603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -3610,7 +3622,7 @@
         <v>93</v>
       </c>
       <c r="C1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -3621,7 +3633,7 @@
         <v>95</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -3640,7 +3652,7 @@
         <v>98</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -3651,7 +3663,7 @@
         <v>100</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -3662,7 +3674,7 @@
         <v>102</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -3673,7 +3685,7 @@
         <v>104</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -3684,7 +3696,7 @@
         <v>106</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -3695,7 +3707,7 @@
         <v>108</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -3711,10 +3723,10 @@
         <v>112</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -3778,34 +3790,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -3818,66 +3830,66 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
   </sheetData>
@@ -4292,59 +4304,71 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="45" customWidth="1"/>
-    <col min="2" max="2" width="69.7265625" customWidth="1"/>
+    <col min="1" max="1" width="52.26953125" customWidth="1"/>
+    <col min="2" max="2" width="75.1796875" customWidth="1"/>
     <col min="3" max="3" width="53.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>515</v>
+      </c>
       <c r="B1" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>514</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B3" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>194</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="C5" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>196</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>195</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>198</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -4355,6 +4379,10 @@
     <hyperlink ref="B4" r:id="rId4"/>
     <hyperlink ref="B5" r:id="rId5"/>
     <hyperlink ref="B6" r:id="rId6"/>
+    <hyperlink ref="A1" r:id="rId7" display="https://www.lintcode.com/problem/920/"/>
+    <hyperlink ref="A2" r:id="rId8" display="https://leetcode.com/problems/insert-interval/description/"/>
+    <hyperlink ref="C5" r:id="rId9"/>
+    <hyperlink ref="C2" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4376,143 +4404,143 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B16" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>

--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5770" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5770" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Array" sheetId="1" r:id="rId1"/>
@@ -552,18 +552,6 @@
     <t>Last Stone Weight</t>
   </si>
   <si>
-    <t>https://www.geeksforgeeks.org/nearly-sorted-algorithm/</t>
-  </si>
-  <si>
-    <t>Sort a nearly sorted (or K sorted) array</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/car-pooling/description/</t>
-  </si>
-  <si>
-    <t>Car Pooling</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/find-k-closest-elements/</t>
   </si>
   <si>
@@ -1591,6 +1579,18 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=xxRE-46OCC8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rI2EBUEMfTk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=amnrMCVd2YI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=o-YDQzHoaKM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=itmhHWaHupI</t>
   </si>
 </sst>
 </file>
@@ -2024,7 +2024,7 @@
         <v>24</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -2122,7 +2122,7 @@
         <v>49</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
@@ -2155,7 +2155,7 @@
         <v>57</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
@@ -2193,7 +2193,7 @@
         <v>67</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
@@ -2204,7 +2204,7 @@
         <v>69</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
@@ -2212,10 +2212,10 @@
         <v>70</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
@@ -2381,119 +2381,119 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
   </sheetData>
@@ -2538,122 +2538,122 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -2694,295 +2694,295 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B39" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -3047,290 +3047,290 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B5" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B6" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B17" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
   </sheetData>
@@ -3390,47 +3390,47 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -3462,114 +3462,114 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
   </sheetData>
@@ -3622,7 +3622,7 @@
         <v>93</v>
       </c>
       <c r="C1" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -3633,7 +3633,7 @@
         <v>95</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -3652,7 +3652,7 @@
         <v>98</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -3663,7 +3663,7 @@
         <v>100</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -3674,7 +3674,7 @@
         <v>102</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -3685,7 +3685,7 @@
         <v>104</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -3696,7 +3696,7 @@
         <v>106</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -3707,7 +3707,7 @@
         <v>108</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -3723,10 +3723,10 @@
         <v>112</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -3790,34 +3790,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -3830,66 +3830,66 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
   </sheetData>
@@ -4175,19 +4175,20 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="43.7265625" customWidth="1"/>
     <col min="2" max="2" width="69.90625" customWidth="1"/>
+    <col min="3" max="3" width="52.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>167</v>
       </c>
@@ -4195,7 +4196,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>170</v>
       </c>
@@ -4203,100 +4204,104 @@
         <v>169</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>172</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="C5" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>174</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="C7" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>176</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>178</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>180</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>182</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>184</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>186</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>185</v>
+      <c r="C12" s="1" t="s">
+        <v>517</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1"/>
     <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="B3" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B8" r:id="rId6"/>
-    <hyperlink ref="B9" r:id="rId7"/>
-    <hyperlink ref="B10" r:id="rId8"/>
-    <hyperlink ref="B11" r:id="rId9"/>
-    <hyperlink ref="B12" r:id="rId10"/>
-    <hyperlink ref="B4" r:id="rId11"/>
-    <hyperlink ref="B7" r:id="rId12"/>
+    <hyperlink ref="B5" r:id="rId3"/>
+    <hyperlink ref="B7" r:id="rId4"/>
+    <hyperlink ref="B8" r:id="rId5"/>
+    <hyperlink ref="B9" r:id="rId6"/>
+    <hyperlink ref="B11" r:id="rId7"/>
+    <hyperlink ref="B12" r:id="rId8"/>
+    <hyperlink ref="B3" r:id="rId9"/>
+    <hyperlink ref="B6" r:id="rId10"/>
+    <hyperlink ref="C7" r:id="rId11"/>
+    <hyperlink ref="C6" r:id="rId12"/>
+    <hyperlink ref="C5" r:id="rId13"/>
+    <hyperlink ref="C12" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4306,7 +4311,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -4319,56 +4324,56 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>513</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -4404,143 +4409,143 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B16" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5770" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5770" firstSheet="5" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Array" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="521">
   <si>
     <t>https://leetcode.com/problems/find-all-numbers-disappeared-in-an-array/description/</t>
   </si>
@@ -1113,12 +1113,6 @@
     <t>Implement Trie (Prefix Tree)</t>
   </si>
   <si>
-    <t>https://takeuforward.org/data-structure/implement-trie-ii/</t>
-  </si>
-  <si>
-    <t>Implement Trie - II</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/longest-word-with-all-prefixes/description/</t>
   </si>
   <si>
@@ -1591,6 +1585,21 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=itmhHWaHupI</t>
+  </si>
+  <si>
+    <t>Longest word with all prefixes</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=AWnBa91lThI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oobqoCJlHA0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=D4T2N0yAr20</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=BTf05gs_8iU</t>
   </si>
 </sst>
 </file>
@@ -2024,7 +2033,7 @@
         <v>24</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -2122,7 +2131,7 @@
         <v>49</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
@@ -2155,7 +2164,7 @@
         <v>57</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
@@ -2193,7 +2202,7 @@
         <v>67</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
@@ -2204,7 +2213,7 @@
         <v>69</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
@@ -2212,10 +2221,10 @@
         <v>70</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
@@ -2387,7 +2396,7 @@
         <v>227</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -2398,7 +2407,7 @@
         <v>229</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -2409,7 +2418,7 @@
         <v>231</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -2420,12 +2429,12 @@
         <v>234</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>235</v>
@@ -2465,13 +2474,13 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>244</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -2482,7 +2491,7 @@
         <v>245</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -2493,7 +2502,7 @@
         <v>247</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
   </sheetData>
@@ -3047,290 +3056,290 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B5" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B6" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B17" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
   </sheetData>
@@ -3375,20 +3384,20 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="43.7265625" customWidth="1"/>
+    <col min="1" max="1" width="39.36328125" customWidth="1"/>
     <col min="2" max="2" width="78.54296875" customWidth="1"/>
     <col min="3" max="3" width="45.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>352</v>
       </c>
@@ -3396,41 +3405,48 @@
         <v>353</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>355</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C2" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>357</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C3" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>359</v>
+        <v>516</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
+      <c r="C4" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>362</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>361</v>
+      <c r="B5" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>519</v>
       </c>
     </row>
   </sheetData>
@@ -3438,8 +3454,12 @@
     <hyperlink ref="B1" r:id="rId1"/>
     <hyperlink ref="B2" r:id="rId2"/>
     <hyperlink ref="B3" r:id="rId3"/>
-    <hyperlink ref="B4" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B4" r:id="rId5"/>
+    <hyperlink ref="C4" r:id="rId6"/>
+    <hyperlink ref="C3" r:id="rId7"/>
+    <hyperlink ref="C5" r:id="rId8"/>
+    <hyperlink ref="C2" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3462,114 +3482,114 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>317</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
   </sheetData>
@@ -3622,7 +3642,7 @@
         <v>93</v>
       </c>
       <c r="C1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -3633,7 +3653,7 @@
         <v>95</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -3652,7 +3672,7 @@
         <v>98</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -3663,7 +3683,7 @@
         <v>100</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -3674,7 +3694,7 @@
         <v>102</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -3685,7 +3705,7 @@
         <v>104</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -3696,7 +3716,7 @@
         <v>106</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -3707,7 +3727,7 @@
         <v>108</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -3723,10 +3743,10 @@
         <v>112</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -3793,31 +3813,31 @@
         <v>280</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -3830,66 +3850,66 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
   </sheetData>
@@ -4177,7 +4197,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -4223,7 +4243,7 @@
         <v>171</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -4234,7 +4254,7 @@
         <v>184</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -4245,7 +4265,7 @@
         <v>173</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -4283,7 +4303,7 @@
         <v>181</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
   </sheetData>
@@ -4324,26 +4344,26 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>185</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>186</v>
@@ -4365,7 +4385,7 @@
         <v>189</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">

--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5770" firstSheet="5" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5770" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Array" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="526">
   <si>
     <t>https://leetcode.com/problems/find-all-numbers-disappeared-in-an-array/description/</t>
   </si>
@@ -1600,6 +1600,21 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=BTf05gs_8iU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3CoLbGz-3fc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=g6HzWspalpU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DU3kgZNtdwk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=u_GqKBsD7-8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Z3ib6VlamQk</t>
   </si>
 </sst>
 </file>
@@ -3386,7 +3401,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -3948,10 +3963,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3961,23 +3976,29 @@
     <col min="3" max="3" width="61" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>117</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C1" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>119</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C2" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -3985,15 +4006,18 @@
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>124</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C4" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>126</v>
       </c>
@@ -4001,7 +4025,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>127</v>
       </c>
@@ -4009,15 +4033,18 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>129</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C7" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>131</v>
       </c>
@@ -4025,15 +4052,18 @@
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>134</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C9" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>136</v>
       </c>
@@ -4041,7 +4071,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>137</v>
       </c>
@@ -4049,7 +4079,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>140</v>
       </c>
@@ -4057,7 +4087,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>141</v>
       </c>
@@ -4065,7 +4095,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>144</v>
       </c>
@@ -4073,7 +4103,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>145</v>
       </c>
@@ -4081,7 +4111,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>148</v>
       </c>
@@ -4188,6 +4218,11 @@
     <hyperlink ref="B23" r:id="rId23"/>
     <hyperlink ref="B24" r:id="rId24"/>
     <hyperlink ref="B25" r:id="rId25"/>
+    <hyperlink ref="C7" r:id="rId26"/>
+    <hyperlink ref="C4" r:id="rId27"/>
+    <hyperlink ref="C9" r:id="rId28"/>
+    <hyperlink ref="C2" r:id="rId29"/>
+    <hyperlink ref="C1" r:id="rId30"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="574">
   <si>
     <t>https://leetcode.com/problems/find-all-numbers-disappeared-in-an-array/description/</t>
   </si>
@@ -1615,6 +1615,150 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=Z3ib6VlamQk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3IMrIiO3_6s</t>
+  </si>
+  <si>
+    <t>Dijakstra</t>
+  </si>
+  <si>
+    <t>Dijakstra Algorithm</t>
+  </si>
+  <si>
+    <t>Belman ford Algorithm</t>
+  </si>
+  <si>
+    <t>Flyoed Warshall Algorithm</t>
+  </si>
+  <si>
+    <t>Prims Algorithm</t>
+  </si>
+  <si>
+    <t>Krushkal Algorithm</t>
+  </si>
+  <si>
+    <t>Kahn Algorithm</t>
+  </si>
+  <si>
+    <t>Topological Sort</t>
+  </si>
+  <si>
+    <t>Find the Town Judge</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-the-town-judge/description/</t>
+  </si>
+  <si>
+    <t>Island Perimeter</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/island-perimeter/description/</t>
+  </si>
+  <si>
+    <t>Check if Move is Legal</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/check-if-move-is-legal/description/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/clone-graph/description/</t>
+  </si>
+  <si>
+    <t>Clone Graph</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/graph-valid-tree/description/</t>
+  </si>
+  <si>
+    <t>Graph valid tree</t>
+  </si>
+  <si>
+    <t>Max Area of Island</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/max-area-of-island/description/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/min-cost-to-connect-all-points/description/</t>
+  </si>
+  <si>
+    <t>Min Cost to Connect All Points</t>
+  </si>
+  <si>
+    <t>Network Delay Time</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/network-delay-time/description/</t>
+  </si>
+  <si>
+    <t>Number Of Connected Components</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/number-of-connected-components-in-an-undirected-graph/description/</t>
+  </si>
+  <si>
+    <t>Open the Lock</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/open-the-lock/description/</t>
+  </si>
+  <si>
+    <t>Pacific Atlantic Water Flow</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/pacific-atlantic-water-flow/description/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/path-with-maximum-probability/description/</t>
+  </si>
+  <si>
+    <t>Path with Maximum Probability</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/redundant-connection/description/</t>
+  </si>
+  <si>
+    <t>Redundant Connection</t>
+  </si>
+  <si>
+    <t>Find the Safest Path in a Grid</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-the-safest-path-in-a-grid/description/</t>
+  </si>
+  <si>
+    <t>ShortestPathWithUnitDistance</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/snakes-and-ladders/description/</t>
+  </si>
+  <si>
+    <t>Snakes and Ladders</t>
+  </si>
+  <si>
+    <t>Number of Good Paths</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/number-of-good-paths/description/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reconstruct-itinerary/description/</t>
+  </si>
+  <si>
+    <t>Reconstruct Itinerary</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/swim-in-rising-water/description/</t>
+  </si>
+  <si>
+    <t>Swim in Rising Water</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/word-ladder/description/</t>
+  </si>
+  <si>
+    <t>Word Ladder</t>
   </si>
 </sst>
 </file>
@@ -3963,10 +4107,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3978,105 +4122,79 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>118</v>
+        <v>528</v>
+      </c>
+      <c r="B1" t="s">
+        <v>527</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>524</v>
-      </c>
+        <v>529</v>
+      </c>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>122</v>
-      </c>
+        <v>530</v>
+      </c>
+      <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>522</v>
-      </c>
+        <v>531</v>
+      </c>
+      <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>125</v>
-      </c>
+        <v>532</v>
+      </c>
+      <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>127</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>128</v>
-      </c>
+        <v>533</v>
+      </c>
+      <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>129</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>132</v>
-      </c>
+        <v>534</v>
+      </c>
+      <c r="C7" s="1"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>135</v>
+        <v>120</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -4089,140 +4207,403 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>154</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>535</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>537</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>150</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>539</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>542</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>164</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>166</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>561</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>124</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>544</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>126</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>545</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>548</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>549</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>551</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>127</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>129</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>131</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>553</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>555</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>558</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>156</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>560</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>134</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>158</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>563</v>
+      </c>
+      <c r="B43" s="1"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>565</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>136</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>137</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B47" s="1"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>162</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>566</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>569</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>571</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>573</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B53" s="1"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>141</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
         <v>145</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>148</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>150</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
         <v>151</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>154</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>156</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>158</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
         <v>160</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>159</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>162</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>164</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>166</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>165</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="B3" r:id="rId3"/>
-    <hyperlink ref="B4" r:id="rId4"/>
-    <hyperlink ref="B5" r:id="rId5"/>
-    <hyperlink ref="B6" r:id="rId6"/>
-    <hyperlink ref="B7" r:id="rId7"/>
-    <hyperlink ref="B8" r:id="rId8"/>
-    <hyperlink ref="B9" r:id="rId9"/>
-    <hyperlink ref="B10" r:id="rId10"/>
-    <hyperlink ref="B11" r:id="rId11"/>
-    <hyperlink ref="B12" r:id="rId12"/>
-    <hyperlink ref="B13" r:id="rId13"/>
-    <hyperlink ref="B14" r:id="rId14"/>
-    <hyperlink ref="B15" r:id="rId15"/>
-    <hyperlink ref="B16" r:id="rId16"/>
-    <hyperlink ref="B17" r:id="rId17"/>
-    <hyperlink ref="B18" r:id="rId18"/>
-    <hyperlink ref="B19" r:id="rId19"/>
-    <hyperlink ref="B20" r:id="rId20"/>
-    <hyperlink ref="B21" r:id="rId21"/>
-    <hyperlink ref="B22" r:id="rId22"/>
-    <hyperlink ref="B23" r:id="rId23"/>
-    <hyperlink ref="B24" r:id="rId24"/>
-    <hyperlink ref="B25" r:id="rId25"/>
-    <hyperlink ref="C7" r:id="rId26"/>
-    <hyperlink ref="C4" r:id="rId27"/>
-    <hyperlink ref="C9" r:id="rId28"/>
-    <hyperlink ref="C2" r:id="rId29"/>
-    <hyperlink ref="C1" r:id="rId30"/>
+    <hyperlink ref="B9" r:id="rId1"/>
+    <hyperlink ref="B10" r:id="rId2"/>
+    <hyperlink ref="B11" r:id="rId3"/>
+    <hyperlink ref="B26" r:id="rId4"/>
+    <hyperlink ref="B28" r:id="rId5"/>
+    <hyperlink ref="B33" r:id="rId6"/>
+    <hyperlink ref="B34" r:id="rId7"/>
+    <hyperlink ref="B35" r:id="rId8"/>
+    <hyperlink ref="B41" r:id="rId9"/>
+    <hyperlink ref="B45" r:id="rId10"/>
+    <hyperlink ref="B46" r:id="rId11"/>
+    <hyperlink ref="B55" r:id="rId12"/>
+    <hyperlink ref="B56" r:id="rId13"/>
+    <hyperlink ref="B57" r:id="rId14"/>
+    <hyperlink ref="C34" r:id="rId15"/>
+    <hyperlink ref="C26" r:id="rId16"/>
+    <hyperlink ref="C41" r:id="rId17"/>
+    <hyperlink ref="C10" r:id="rId18"/>
+    <hyperlink ref="C9" r:id="rId19"/>
+    <hyperlink ref="C1" r:id="rId20"/>
+    <hyperlink ref="B12" r:id="rId21"/>
+    <hyperlink ref="B13" r:id="rId22"/>
+    <hyperlink ref="B14" r:id="rId23"/>
+    <hyperlink ref="B15" r:id="rId24"/>
+    <hyperlink ref="B17" r:id="rId25"/>
+    <hyperlink ref="B18" r:id="rId26"/>
+    <hyperlink ref="B20" r:id="rId27"/>
+    <hyperlink ref="B21" r:id="rId28"/>
+    <hyperlink ref="B22" r:id="rId29"/>
+    <hyperlink ref="B23" r:id="rId30"/>
+    <hyperlink ref="B24" r:id="rId31"/>
+    <hyperlink ref="B27" r:id="rId32"/>
+    <hyperlink ref="B29" r:id="rId33"/>
+    <hyperlink ref="B30" r:id="rId34"/>
+    <hyperlink ref="B31" r:id="rId35"/>
+    <hyperlink ref="B32" r:id="rId36"/>
+    <hyperlink ref="B36" r:id="rId37"/>
+    <hyperlink ref="B37" r:id="rId38"/>
+    <hyperlink ref="B38" r:id="rId39"/>
+    <hyperlink ref="B39" r:id="rId40"/>
+    <hyperlink ref="B40" r:id="rId41"/>
+    <hyperlink ref="B25" r:id="rId42"/>
+    <hyperlink ref="B42" r:id="rId43"/>
+    <hyperlink ref="B44" r:id="rId44"/>
+    <hyperlink ref="B48" r:id="rId45"/>
+    <hyperlink ref="B49" r:id="rId46"/>
+    <hyperlink ref="B50" r:id="rId47"/>
+    <hyperlink ref="B51" r:id="rId48"/>
+    <hyperlink ref="B52" r:id="rId49"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="595">
   <si>
     <t>https://leetcode.com/problems/find-all-numbers-disappeared-in-an-array/description/</t>
   </si>
@@ -1635,12 +1635,6 @@
     <t>Prims Algorithm</t>
   </si>
   <si>
-    <t>Krushkal Algorithm</t>
-  </si>
-  <si>
-    <t>Kahn Algorithm</t>
-  </si>
-  <si>
     <t>Topological Sort</t>
   </si>
   <si>
@@ -1656,12 +1650,6 @@
     <t>https://leetcode.com/problems/island-perimeter/description/</t>
   </si>
   <si>
-    <t>Check if Move is Legal</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/check-if-move-is-legal/description/</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/clone-graph/description/</t>
   </si>
   <si>
@@ -1722,12 +1710,6 @@
     <t>Redundant Connection</t>
   </si>
   <si>
-    <t>Find the Safest Path in a Grid</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/find-the-safest-path-in-a-grid/description/</t>
-  </si>
-  <si>
     <t>ShortestPathWithUnitDistance</t>
   </si>
   <si>
@@ -1759,6 +1741,87 @@
   </si>
   <si>
     <t>Word Ladder</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=eXT77cAZDtQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KEyd_d9EA0c</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9XybHVqTHcQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5lZ0iJMrUMk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=73sneFXuTEg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kahn Algorithm </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2gtg3VsDGyc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WAOfKpxYHR8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bXsUuownnoQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-vu34sct1g8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=iJGr1OtmH0c</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=f7JOBJIC-NA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=EaphyqKU4PQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rxKcepXQgU4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ACzkVtewUYA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Pzg3bCDY87w</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=s-VkcjHqkGI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=kPsDTGcrzGM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=0ytpZyiZFhA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=FXWRE67PLL0</t>
+  </si>
+  <si>
+    <t>Krushkal Algorithm / Disjoint Set</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=C4gxoTaI71U</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=U5Mw4eyUmw4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zWS2fCJGxmU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=BtdgAys4yMk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=edXdVwkYHF8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mQeF6bN8hMk</t>
   </si>
 </sst>
 </file>
@@ -4107,10 +4170,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4151,21 +4214,27 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>532</v>
+        <v>588</v>
       </c>
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>533</v>
-      </c>
-      <c r="C6" s="1"/>
+        <v>532</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>571</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>534</v>
-      </c>
-      <c r="C7" s="1"/>
+        <v>573</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>572</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
@@ -4234,18 +4303,24 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -4258,73 +4333,96 @@
       <c r="B20" s="1" t="s">
         <v>149</v>
       </c>
+      <c r="C20" s="1" t="s">
+        <v>570</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>540</v>
+        <v>537</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>542</v>
+        <v>164</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>541</v>
+        <v>163</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>166</v>
+        <v>124</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>165</v>
+        <v>123</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>561</v>
+        <v>540</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>562</v>
+        <v>539</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>522</v>
+        <v>577</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="C27" s="1"/>
+        <v>542</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>578</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>126</v>
+        <v>544</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>125</v>
+        <v>543</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
@@ -4334,222 +4432,245 @@
       <c r="B29" s="1" t="s">
         <v>546</v>
       </c>
+      <c r="C29" s="1" t="s">
+        <v>580</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
+        <v>547</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>548</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>549</v>
+        <v>127</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>550</v>
+        <v>128</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>551</v>
+        <v>129</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>552</v>
+        <v>130</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>129</v>
+        <v>549</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>130</v>
+        <v>550</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>521</v>
+        <v>583</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>131</v>
+        <v>551</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>132</v>
+        <v>552</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
+        <v>554</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>554</v>
+      <c r="C36" s="1" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>555</v>
+        <v>156</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>556</v>
+        <v>155</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>155</v>
+        <v>133</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>560</v>
+        <v>158</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>559</v>
+        <v>157</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>134</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>133</v>
-      </c>
+        <v>557</v>
+      </c>
+      <c r="B41" s="1"/>
       <c r="C41" s="1" t="s">
-        <v>523</v>
+        <v>589</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>158</v>
+        <v>559</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>157</v>
+        <v>558</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>563</v>
-      </c>
-      <c r="B43" s="1"/>
+        <v>136</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>592</v>
+      </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>565</v>
+        <v>137</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>564</v>
+        <v>138</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>136</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>135</v>
-      </c>
+      <c r="B45" s="1"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>138</v>
+        <v>161</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B47" s="1"/>
+      <c r="A47" t="s">
+        <v>560</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>561</v>
+      </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>162</v>
+        <v>563</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>161</v>
+        <v>562</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>571</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>570</v>
-      </c>
+      <c r="B51" s="1"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>573</v>
+        <v>141</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>572</v>
+        <v>142</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B53" s="1"/>
+      <c r="A53" t="s">
+        <v>145</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>151</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>160</v>
-      </c>
-      <c r="B57" s="1" t="s">
         <v>159</v>
       </c>
     </row>
@@ -4558,20 +4679,20 @@
     <hyperlink ref="B9" r:id="rId1"/>
     <hyperlink ref="B10" r:id="rId2"/>
     <hyperlink ref="B11" r:id="rId3"/>
-    <hyperlink ref="B26" r:id="rId4"/>
-    <hyperlink ref="B28" r:id="rId5"/>
-    <hyperlink ref="B33" r:id="rId6"/>
-    <hyperlink ref="B34" r:id="rId7"/>
-    <hyperlink ref="B35" r:id="rId8"/>
-    <hyperlink ref="B41" r:id="rId9"/>
-    <hyperlink ref="B45" r:id="rId10"/>
-    <hyperlink ref="B46" r:id="rId11"/>
-    <hyperlink ref="B55" r:id="rId12"/>
-    <hyperlink ref="B56" r:id="rId13"/>
-    <hyperlink ref="B57" r:id="rId14"/>
-    <hyperlink ref="C34" r:id="rId15"/>
-    <hyperlink ref="C26" r:id="rId16"/>
-    <hyperlink ref="C41" r:id="rId17"/>
+    <hyperlink ref="B24" r:id="rId4"/>
+    <hyperlink ref="B26" r:id="rId5"/>
+    <hyperlink ref="B31" r:id="rId6"/>
+    <hyperlink ref="B32" r:id="rId7"/>
+    <hyperlink ref="B33" r:id="rId8"/>
+    <hyperlink ref="B39" r:id="rId9"/>
+    <hyperlink ref="B43" r:id="rId10"/>
+    <hyperlink ref="B44" r:id="rId11"/>
+    <hyperlink ref="B53" r:id="rId12"/>
+    <hyperlink ref="B54" r:id="rId13"/>
+    <hyperlink ref="B55" r:id="rId14"/>
+    <hyperlink ref="C32" r:id="rId15"/>
+    <hyperlink ref="C24" r:id="rId16"/>
+    <hyperlink ref="C39" r:id="rId17"/>
     <hyperlink ref="C10" r:id="rId18"/>
     <hyperlink ref="C9" r:id="rId19"/>
     <hyperlink ref="C1" r:id="rId20"/>
@@ -4585,25 +4706,48 @@
     <hyperlink ref="B21" r:id="rId28"/>
     <hyperlink ref="B22" r:id="rId29"/>
     <hyperlink ref="B23" r:id="rId30"/>
-    <hyperlink ref="B24" r:id="rId31"/>
+    <hyperlink ref="B25" r:id="rId31"/>
     <hyperlink ref="B27" r:id="rId32"/>
-    <hyperlink ref="B29" r:id="rId33"/>
-    <hyperlink ref="B30" r:id="rId34"/>
-    <hyperlink ref="B31" r:id="rId35"/>
-    <hyperlink ref="B32" r:id="rId36"/>
-    <hyperlink ref="B36" r:id="rId37"/>
-    <hyperlink ref="B37" r:id="rId38"/>
-    <hyperlink ref="B38" r:id="rId39"/>
-    <hyperlink ref="B39" r:id="rId40"/>
+    <hyperlink ref="B28" r:id="rId33"/>
+    <hyperlink ref="B29" r:id="rId34"/>
+    <hyperlink ref="B30" r:id="rId35"/>
+    <hyperlink ref="B34" r:id="rId36"/>
+    <hyperlink ref="B35" r:id="rId37"/>
+    <hyperlink ref="B36" r:id="rId38"/>
+    <hyperlink ref="B37" r:id="rId39"/>
+    <hyperlink ref="B38" r:id="rId40"/>
     <hyperlink ref="B40" r:id="rId41"/>
-    <hyperlink ref="B25" r:id="rId42"/>
-    <hyperlink ref="B42" r:id="rId43"/>
-    <hyperlink ref="B44" r:id="rId44"/>
+    <hyperlink ref="B42" r:id="rId42"/>
+    <hyperlink ref="B46" r:id="rId43"/>
+    <hyperlink ref="B47" r:id="rId44"/>
     <hyperlink ref="B48" r:id="rId45"/>
     <hyperlink ref="B49" r:id="rId46"/>
     <hyperlink ref="B50" r:id="rId47"/>
-    <hyperlink ref="B51" r:id="rId48"/>
-    <hyperlink ref="B52" r:id="rId49"/>
+    <hyperlink ref="C17" r:id="rId48"/>
+    <hyperlink ref="C18" r:id="rId49"/>
+    <hyperlink ref="C20" r:id="rId50"/>
+    <hyperlink ref="C6" r:id="rId51"/>
+    <hyperlink ref="C7" r:id="rId52"/>
+    <hyperlink ref="C22" r:id="rId53"/>
+    <hyperlink ref="C23" r:id="rId54"/>
+    <hyperlink ref="C25" r:id="rId55"/>
+    <hyperlink ref="C26" r:id="rId56"/>
+    <hyperlink ref="C27" r:id="rId57"/>
+    <hyperlink ref="C28" r:id="rId58"/>
+    <hyperlink ref="C29" r:id="rId59"/>
+    <hyperlink ref="C31" r:id="rId60"/>
+    <hyperlink ref="C33" r:id="rId61"/>
+    <hyperlink ref="C34" r:id="rId62"/>
+    <hyperlink ref="C35" r:id="rId63"/>
+    <hyperlink ref="C36" r:id="rId64"/>
+    <hyperlink ref="C37" r:id="rId65"/>
+    <hyperlink ref="C38" r:id="rId66"/>
+    <hyperlink ref="C41" r:id="rId67"/>
+    <hyperlink ref="C40" r:id="rId68"/>
+    <hyperlink ref="C42" r:id="rId69"/>
+    <hyperlink ref="C43" r:id="rId70"/>
+    <hyperlink ref="C44" r:id="rId71"/>
+    <hyperlink ref="C21" r:id="rId72"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -4172,8 +4172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4291,191 +4291,192 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>154</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>153</v>
-      </c>
+      <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B16" s="1"/>
+      <c r="A16" t="s">
+        <v>533</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>535</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>569</v>
-      </c>
+      <c r="B18" s="1"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B19" s="1"/>
+      <c r="A19" t="s">
+        <v>150</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>570</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>150</v>
+        <v>538</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>149</v>
+        <v>537</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>570</v>
+        <v>594</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>538</v>
+        <v>164</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>537</v>
+        <v>163</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>594</v>
+        <v>575</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>166</v>
+        <v>124</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>165</v>
+        <v>123</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>574</v>
+        <v>522</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>124</v>
+        <v>540</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>123</v>
+        <v>539</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>522</v>
+        <v>576</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>540</v>
+        <v>126</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>539</v>
+        <v>125</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>126</v>
+        <v>541</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>125</v>
+        <v>542</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>580</v>
+        <v>548</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>547</v>
+        <v>127</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>548</v>
+        <v>128</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>581</v>
+        <v>521</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>521</v>
+        <v>582</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>582</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="C33" s="1"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
@@ -4679,19 +4680,19 @@
     <hyperlink ref="B9" r:id="rId1"/>
     <hyperlink ref="B10" r:id="rId2"/>
     <hyperlink ref="B11" r:id="rId3"/>
-    <hyperlink ref="B24" r:id="rId4"/>
-    <hyperlink ref="B26" r:id="rId5"/>
-    <hyperlink ref="B31" r:id="rId6"/>
-    <hyperlink ref="B32" r:id="rId7"/>
-    <hyperlink ref="B33" r:id="rId8"/>
+    <hyperlink ref="B23" r:id="rId4"/>
+    <hyperlink ref="B25" r:id="rId5"/>
+    <hyperlink ref="B30" r:id="rId6"/>
+    <hyperlink ref="B31" r:id="rId7"/>
+    <hyperlink ref="B32" r:id="rId8"/>
     <hyperlink ref="B39" r:id="rId9"/>
     <hyperlink ref="B43" r:id="rId10"/>
     <hyperlink ref="B44" r:id="rId11"/>
     <hyperlink ref="B53" r:id="rId12"/>
     <hyperlink ref="B54" r:id="rId13"/>
     <hyperlink ref="B55" r:id="rId14"/>
-    <hyperlink ref="C32" r:id="rId15"/>
-    <hyperlink ref="C24" r:id="rId16"/>
+    <hyperlink ref="C31" r:id="rId15"/>
+    <hyperlink ref="C23" r:id="rId16"/>
     <hyperlink ref="C39" r:id="rId17"/>
     <hyperlink ref="C10" r:id="rId18"/>
     <hyperlink ref="C9" r:id="rId19"/>
@@ -4699,55 +4700,55 @@
     <hyperlink ref="B12" r:id="rId21"/>
     <hyperlink ref="B13" r:id="rId22"/>
     <hyperlink ref="B14" r:id="rId23"/>
-    <hyperlink ref="B15" r:id="rId24"/>
+    <hyperlink ref="B16" r:id="rId24"/>
     <hyperlink ref="B17" r:id="rId25"/>
-    <hyperlink ref="B18" r:id="rId26"/>
+    <hyperlink ref="B19" r:id="rId26"/>
     <hyperlink ref="B20" r:id="rId27"/>
     <hyperlink ref="B21" r:id="rId28"/>
     <hyperlink ref="B22" r:id="rId29"/>
-    <hyperlink ref="B23" r:id="rId30"/>
-    <hyperlink ref="B25" r:id="rId31"/>
+    <hyperlink ref="B24" r:id="rId30"/>
+    <hyperlink ref="B26" r:id="rId31"/>
     <hyperlink ref="B27" r:id="rId32"/>
     <hyperlink ref="B28" r:id="rId33"/>
     <hyperlink ref="B29" r:id="rId34"/>
-    <hyperlink ref="B30" r:id="rId35"/>
-    <hyperlink ref="B34" r:id="rId36"/>
-    <hyperlink ref="B35" r:id="rId37"/>
-    <hyperlink ref="B36" r:id="rId38"/>
-    <hyperlink ref="B37" r:id="rId39"/>
-    <hyperlink ref="B38" r:id="rId40"/>
-    <hyperlink ref="B40" r:id="rId41"/>
-    <hyperlink ref="B42" r:id="rId42"/>
-    <hyperlink ref="B46" r:id="rId43"/>
-    <hyperlink ref="B47" r:id="rId44"/>
-    <hyperlink ref="B48" r:id="rId45"/>
-    <hyperlink ref="B49" r:id="rId46"/>
-    <hyperlink ref="B50" r:id="rId47"/>
+    <hyperlink ref="B34" r:id="rId35"/>
+    <hyperlink ref="B35" r:id="rId36"/>
+    <hyperlink ref="B36" r:id="rId37"/>
+    <hyperlink ref="B37" r:id="rId38"/>
+    <hyperlink ref="B38" r:id="rId39"/>
+    <hyperlink ref="B40" r:id="rId40"/>
+    <hyperlink ref="B42" r:id="rId41"/>
+    <hyperlink ref="B46" r:id="rId42"/>
+    <hyperlink ref="B47" r:id="rId43"/>
+    <hyperlink ref="B48" r:id="rId44"/>
+    <hyperlink ref="B49" r:id="rId45"/>
+    <hyperlink ref="B50" r:id="rId46"/>
+    <hyperlink ref="C16" r:id="rId47"/>
     <hyperlink ref="C17" r:id="rId48"/>
-    <hyperlink ref="C18" r:id="rId49"/>
-    <hyperlink ref="C20" r:id="rId50"/>
-    <hyperlink ref="C6" r:id="rId51"/>
-    <hyperlink ref="C7" r:id="rId52"/>
+    <hyperlink ref="C19" r:id="rId49"/>
+    <hyperlink ref="C6" r:id="rId50"/>
+    <hyperlink ref="C7" r:id="rId51"/>
+    <hyperlink ref="C21" r:id="rId52"/>
     <hyperlink ref="C22" r:id="rId53"/>
-    <hyperlink ref="C23" r:id="rId54"/>
+    <hyperlink ref="C24" r:id="rId54"/>
     <hyperlink ref="C25" r:id="rId55"/>
     <hyperlink ref="C26" r:id="rId56"/>
     <hyperlink ref="C27" r:id="rId57"/>
     <hyperlink ref="C28" r:id="rId58"/>
-    <hyperlink ref="C29" r:id="rId59"/>
-    <hyperlink ref="C31" r:id="rId60"/>
-    <hyperlink ref="C33" r:id="rId61"/>
-    <hyperlink ref="C34" r:id="rId62"/>
-    <hyperlink ref="C35" r:id="rId63"/>
-    <hyperlink ref="C36" r:id="rId64"/>
-    <hyperlink ref="C37" r:id="rId65"/>
-    <hyperlink ref="C38" r:id="rId66"/>
-    <hyperlink ref="C41" r:id="rId67"/>
-    <hyperlink ref="C40" r:id="rId68"/>
-    <hyperlink ref="C42" r:id="rId69"/>
-    <hyperlink ref="C43" r:id="rId70"/>
-    <hyperlink ref="C44" r:id="rId71"/>
-    <hyperlink ref="C21" r:id="rId72"/>
+    <hyperlink ref="C30" r:id="rId59"/>
+    <hyperlink ref="C32" r:id="rId60"/>
+    <hyperlink ref="C34" r:id="rId61"/>
+    <hyperlink ref="C35" r:id="rId62"/>
+    <hyperlink ref="C36" r:id="rId63"/>
+    <hyperlink ref="C37" r:id="rId64"/>
+    <hyperlink ref="C38" r:id="rId65"/>
+    <hyperlink ref="C41" r:id="rId66"/>
+    <hyperlink ref="C40" r:id="rId67"/>
+    <hyperlink ref="C42" r:id="rId68"/>
+    <hyperlink ref="C43" r:id="rId69"/>
+    <hyperlink ref="C44" r:id="rId70"/>
+    <hyperlink ref="C20" r:id="rId71"/>
+    <hyperlink ref="B33" r:id="rId72"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="591">
   <si>
     <t>https://leetcode.com/problems/find-all-numbers-disappeared-in-an-array/description/</t>
   </si>
@@ -462,9 +462,6 @@
     <t>Accounts Merge</t>
   </si>
   <si>
-    <t>Making A Large Island (Hard )</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/making-a-large-island/description/</t>
   </si>
   <si>
@@ -474,12 +471,6 @@
     <t>Most Stones Removed with Same Row or Column</t>
   </si>
   <si>
-    <t>NumberOfIsland2</t>
-  </si>
-  <si>
-    <t>https://algo.monster/liteproblems/305</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/number-of-operations-to-make-network-connected/</t>
   </si>
   <si>
@@ -492,12 +483,6 @@
     <t>Cheapest Flights Within K Stops</t>
   </si>
   <si>
-    <t>Find the City With the Smallest Number of Neighbors at a Threshold Distance</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/find-the-city-with-the-smallest-number-of-neighbors-at-a-threshold-distance/description/</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/number-of-ways-to-arrive-at-destination/description/</t>
   </si>
   <si>
@@ -1822,6 +1807,9 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=mQeF6bN8hMk</t>
+  </si>
+  <si>
+    <t>Making A Large Island</t>
   </si>
 </sst>
 </file>
@@ -2255,7 +2243,7 @@
         <v>24</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -2353,7 +2341,7 @@
         <v>49</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
@@ -2386,7 +2374,7 @@
         <v>57</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
@@ -2424,7 +2412,7 @@
         <v>67</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
@@ -2435,7 +2423,7 @@
         <v>69</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
@@ -2443,10 +2431,10 @@
         <v>70</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
@@ -2612,119 +2600,119 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
   </sheetData>
@@ -2769,122 +2757,122 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -2925,295 +2913,295 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B39" s="1" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -3278,290 +3266,290 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="B5" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B6" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B17" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
     </row>
   </sheetData>
@@ -3621,54 +3609,54 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
     </row>
   </sheetData>
@@ -3704,114 +3692,114 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
     </row>
   </sheetData>
@@ -3864,7 +3852,7 @@
         <v>93</v>
       </c>
       <c r="C1" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -3875,7 +3863,7 @@
         <v>95</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -3894,7 +3882,7 @@
         <v>98</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -3905,7 +3893,7 @@
         <v>100</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -3916,7 +3904,7 @@
         <v>102</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -3927,7 +3915,7 @@
         <v>104</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -3938,7 +3926,7 @@
         <v>106</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -3949,7 +3937,7 @@
         <v>108</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -3965,10 +3953,10 @@
         <v>112</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -4032,34 +4020,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -4072,66 +4060,66 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
     </row>
   </sheetData>
@@ -4170,70 +4158,69 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53:XFD53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="44.1796875" customWidth="1"/>
-    <col min="2" max="2" width="61.08984375" customWidth="1"/>
+    <col min="1" max="2" width="61.08984375" customWidth="1"/>
     <col min="3" max="3" width="61" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="B1" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -4244,7 +4231,7 @@
         <v>118</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -4255,324 +4242,334 @@
         <v>120</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>121</v>
+        <v>528</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>122</v>
+        <v>529</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>140</v>
+        <v>530</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>139</v>
+        <v>531</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>143</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>148</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>147</v>
-      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B15" s="1"/>
+      <c r="A15" t="s">
+        <v>140</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>533</v>
+        <v>147</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>534</v>
+        <v>146</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>569</v>
+        <v>589</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B18" s="1"/>
+      <c r="A18" t="s">
+        <v>159</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>570</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>538</v>
+        <v>124</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>537</v>
+        <v>123</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>594</v>
+        <v>517</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>164</v>
+        <v>535</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>163</v>
+        <v>534</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>166</v>
+        <v>126</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>165</v>
+        <v>125</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>124</v>
+        <v>536</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>123</v>
+        <v>537</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>522</v>
+        <v>573</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>577</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="C25" s="1"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
+        <v>540</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>542</v>
-      </c>
       <c r="C26" s="1" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>579</v>
-      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>545</v>
+        <v>127</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>546</v>
+        <v>128</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>547</v>
+        <v>129</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>548</v>
+        <v>130</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>581</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="C30" s="1"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>521</v>
+        <v>577</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>582</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="C32" s="1"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>154</v>
+        <v>544</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C33" s="1"/>
+        <v>545</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>578</v>
+      </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>554</v>
+        <v>151</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>553</v>
+        <v>150</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>156</v>
+        <v>551</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>155</v>
+        <v>550</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>556</v>
+        <v>134</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>555</v>
+        <v>133</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>587</v>
+        <v>518</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>523</v>
+        <v>585</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>158</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>157</v>
-      </c>
+        <v>552</v>
+      </c>
+      <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>557</v>
-      </c>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1" t="s">
-        <v>589</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C41" s="1"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
@@ -4583,7 +4580,7 @@
         <v>135</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
@@ -4594,7 +4591,7 @@
         <v>138</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
@@ -4602,153 +4599,128 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>560</v>
+        <v>590</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>561</v>
+        <v>141</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B51" s="1"/>
+      <c r="A51" t="s">
+        <v>562</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>561</v>
+      </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>141</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>145</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>151</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>160</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>159</v>
-      </c>
+      <c r="B52" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B9" r:id="rId1"/>
     <hyperlink ref="B10" r:id="rId2"/>
-    <hyperlink ref="B11" r:id="rId3"/>
-    <hyperlink ref="B23" r:id="rId4"/>
-    <hyperlink ref="B25" r:id="rId5"/>
-    <hyperlink ref="B30" r:id="rId6"/>
+    <hyperlink ref="B20" r:id="rId3"/>
+    <hyperlink ref="B22" r:id="rId4"/>
+    <hyperlink ref="B28" r:id="rId5"/>
+    <hyperlink ref="B29" r:id="rId6"/>
     <hyperlink ref="B31" r:id="rId7"/>
-    <hyperlink ref="B32" r:id="rId8"/>
-    <hyperlink ref="B39" r:id="rId9"/>
-    <hyperlink ref="B43" r:id="rId10"/>
-    <hyperlink ref="B44" r:id="rId11"/>
-    <hyperlink ref="B53" r:id="rId12"/>
-    <hyperlink ref="B54" r:id="rId13"/>
-    <hyperlink ref="B55" r:id="rId14"/>
-    <hyperlink ref="C31" r:id="rId15"/>
-    <hyperlink ref="C23" r:id="rId16"/>
-    <hyperlink ref="C39" r:id="rId17"/>
-    <hyperlink ref="C10" r:id="rId18"/>
-    <hyperlink ref="C9" r:id="rId19"/>
-    <hyperlink ref="C1" r:id="rId20"/>
-    <hyperlink ref="B12" r:id="rId21"/>
-    <hyperlink ref="B13" r:id="rId22"/>
-    <hyperlink ref="B14" r:id="rId23"/>
-    <hyperlink ref="B16" r:id="rId24"/>
-    <hyperlink ref="B17" r:id="rId25"/>
-    <hyperlink ref="B19" r:id="rId26"/>
-    <hyperlink ref="B20" r:id="rId27"/>
-    <hyperlink ref="B21" r:id="rId28"/>
-    <hyperlink ref="B22" r:id="rId29"/>
-    <hyperlink ref="B24" r:id="rId30"/>
-    <hyperlink ref="B26" r:id="rId31"/>
-    <hyperlink ref="B27" r:id="rId32"/>
-    <hyperlink ref="B28" r:id="rId33"/>
-    <hyperlink ref="B29" r:id="rId34"/>
-    <hyperlink ref="B34" r:id="rId35"/>
-    <hyperlink ref="B35" r:id="rId36"/>
-    <hyperlink ref="B36" r:id="rId37"/>
-    <hyperlink ref="B37" r:id="rId38"/>
-    <hyperlink ref="B38" r:id="rId39"/>
-    <hyperlink ref="B40" r:id="rId40"/>
-    <hyperlink ref="B42" r:id="rId41"/>
-    <hyperlink ref="B46" r:id="rId42"/>
-    <hyperlink ref="B47" r:id="rId43"/>
-    <hyperlink ref="B48" r:id="rId44"/>
-    <hyperlink ref="B49" r:id="rId45"/>
-    <hyperlink ref="B50" r:id="rId46"/>
-    <hyperlink ref="C16" r:id="rId47"/>
-    <hyperlink ref="C17" r:id="rId48"/>
-    <hyperlink ref="C19" r:id="rId49"/>
-    <hyperlink ref="C6" r:id="rId50"/>
-    <hyperlink ref="C7" r:id="rId51"/>
-    <hyperlink ref="C21" r:id="rId52"/>
-    <hyperlink ref="C22" r:id="rId53"/>
-    <hyperlink ref="C24" r:id="rId54"/>
-    <hyperlink ref="C25" r:id="rId55"/>
-    <hyperlink ref="C26" r:id="rId56"/>
-    <hyperlink ref="C27" r:id="rId57"/>
-    <hyperlink ref="C28" r:id="rId58"/>
-    <hyperlink ref="C30" r:id="rId59"/>
-    <hyperlink ref="C32" r:id="rId60"/>
-    <hyperlink ref="C34" r:id="rId61"/>
-    <hyperlink ref="C35" r:id="rId62"/>
-    <hyperlink ref="C36" r:id="rId63"/>
-    <hyperlink ref="C37" r:id="rId64"/>
-    <hyperlink ref="C38" r:id="rId65"/>
-    <hyperlink ref="C41" r:id="rId66"/>
-    <hyperlink ref="C40" r:id="rId67"/>
-    <hyperlink ref="C42" r:id="rId68"/>
-    <hyperlink ref="C43" r:id="rId69"/>
-    <hyperlink ref="C44" r:id="rId70"/>
-    <hyperlink ref="C20" r:id="rId71"/>
-    <hyperlink ref="B33" r:id="rId72"/>
+    <hyperlink ref="B38" r:id="rId8"/>
+    <hyperlink ref="B43" r:id="rId9"/>
+    <hyperlink ref="B44" r:id="rId10"/>
+    <hyperlink ref="C29" r:id="rId11"/>
+    <hyperlink ref="C20" r:id="rId12"/>
+    <hyperlink ref="C38" r:id="rId13"/>
+    <hyperlink ref="C10" r:id="rId14"/>
+    <hyperlink ref="C9" r:id="rId15"/>
+    <hyperlink ref="C1" r:id="rId16"/>
+    <hyperlink ref="B11" r:id="rId17"/>
+    <hyperlink ref="B12" r:id="rId18"/>
+    <hyperlink ref="B16" r:id="rId19"/>
+    <hyperlink ref="B17" r:id="rId20"/>
+    <hyperlink ref="B18" r:id="rId21"/>
+    <hyperlink ref="B19" r:id="rId22"/>
+    <hyperlink ref="B21" r:id="rId23"/>
+    <hyperlink ref="B23" r:id="rId24"/>
+    <hyperlink ref="B24" r:id="rId25"/>
+    <hyperlink ref="B26" r:id="rId26"/>
+    <hyperlink ref="B27" r:id="rId27"/>
+    <hyperlink ref="B33" r:id="rId28"/>
+    <hyperlink ref="B34" r:id="rId29"/>
+    <hyperlink ref="B35" r:id="rId30"/>
+    <hyperlink ref="B36" r:id="rId31"/>
+    <hyperlink ref="B37" r:id="rId32"/>
+    <hyperlink ref="B39" r:id="rId33"/>
+    <hyperlink ref="B42" r:id="rId34"/>
+    <hyperlink ref="B46" r:id="rId35"/>
+    <hyperlink ref="B48" r:id="rId36"/>
+    <hyperlink ref="B49" r:id="rId37"/>
+    <hyperlink ref="B50" r:id="rId38"/>
+    <hyperlink ref="B51" r:id="rId39"/>
+    <hyperlink ref="C11" r:id="rId40"/>
+    <hyperlink ref="C12" r:id="rId41"/>
+    <hyperlink ref="C16" r:id="rId42"/>
+    <hyperlink ref="C6" r:id="rId43"/>
+    <hyperlink ref="C7" r:id="rId44"/>
+    <hyperlink ref="C18" r:id="rId45"/>
+    <hyperlink ref="C19" r:id="rId46"/>
+    <hyperlink ref="C21" r:id="rId47"/>
+    <hyperlink ref="C22" r:id="rId48"/>
+    <hyperlink ref="C23" r:id="rId49"/>
+    <hyperlink ref="C24" r:id="rId50"/>
+    <hyperlink ref="C26" r:id="rId51"/>
+    <hyperlink ref="C28" r:id="rId52"/>
+    <hyperlink ref="C31" r:id="rId53"/>
+    <hyperlink ref="C33" r:id="rId54"/>
+    <hyperlink ref="C34" r:id="rId55"/>
+    <hyperlink ref="C35" r:id="rId56"/>
+    <hyperlink ref="C36" r:id="rId57"/>
+    <hyperlink ref="C37" r:id="rId58"/>
+    <hyperlink ref="C40" r:id="rId59"/>
+    <hyperlink ref="C39" r:id="rId60"/>
+    <hyperlink ref="C42" r:id="rId61"/>
+    <hyperlink ref="C43" r:id="rId62"/>
+    <hyperlink ref="C44" r:id="rId63"/>
+    <hyperlink ref="C17" r:id="rId64"/>
+    <hyperlink ref="B32" r:id="rId65"/>
+    <hyperlink ref="B47" r:id="rId66"/>
+    <hyperlink ref="B15" r:id="rId67"/>
+    <hyperlink ref="B25" r:id="rId68"/>
+    <hyperlink ref="B30" r:id="rId69"/>
+    <hyperlink ref="B13" r:id="rId70"/>
+    <hyperlink ref="B41" r:id="rId71"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4771,18 +4743,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -4790,7 +4762,7 @@
         <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -4798,13 +4770,13 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -4812,37 +4784,37 @@
         <v>32</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -4850,21 +4822,21 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
     </row>
   </sheetData>
@@ -4905,56 +4877,56 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -4990,143 +4962,143 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B16" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="596">
   <si>
     <t>https://leetcode.com/problems/find-all-numbers-disappeared-in-an-array/description/</t>
   </si>
@@ -1602,12 +1602,6 @@
     <t>https://www.youtube.com/watch?v=Z3ib6VlamQk</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=3IMrIiO3_6s</t>
-  </si>
-  <si>
-    <t>Dijakstra</t>
-  </si>
-  <si>
     <t>Dijakstra Algorithm</t>
   </si>
   <si>
@@ -1788,9 +1782,6 @@
     <t>https://www.youtube.com/watch?v=FXWRE67PLL0</t>
   </si>
   <si>
-    <t>Krushkal Algorithm / Disjoint Set</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=C4gxoTaI71U</t>
   </si>
   <si>
@@ -1810,6 +1801,30 @@
   </si>
   <si>
     <t>Making A Large Island</t>
+  </si>
+  <si>
+    <t>Disjoint Set</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=aBxjDBC4M1U</t>
+  </si>
+  <si>
+    <t>Krushkal Algorithm</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mJcZjjKzeqk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DMnDM_sxVig</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=YbY8cVwWAvw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=0vVofAhAYjc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=V6H1qAeB-l4</t>
   </si>
 </sst>
 </file>
@@ -4158,10 +4173,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53:XFD53"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4172,555 +4187,573 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>523</v>
-      </c>
-      <c r="B1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>521</v>
+        <v>595</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>524</v>
-      </c>
-      <c r="C2" s="1"/>
+        <v>522</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>525</v>
-      </c>
-      <c r="C3" s="1"/>
+        <v>523</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>526</v>
-      </c>
-      <c r="C4" s="1"/>
+        <v>524</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>583</v>
-      </c>
-      <c r="C5" s="1"/>
+        <v>588</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>527</v>
-      </c>
-      <c r="B6" s="1"/>
+        <v>590</v>
+      </c>
       <c r="C6" s="1" t="s">
-        <v>566</v>
+        <v>592</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>568</v>
+        <v>525</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>520</v>
+        <v>564</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>566</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>528</v>
+        <v>119</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>529</v>
+        <v>120</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>563</v>
+        <v>519</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>528</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>121</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>140</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>139</v>
-      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>565</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>533</v>
+        <v>147</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>532</v>
+        <v>146</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>589</v>
+        <v>563</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>159</v>
+        <v>531</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>158</v>
+        <v>530</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>570</v>
+        <v>586</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>517</v>
+        <v>567</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>535</v>
+        <v>124</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>534</v>
+        <v>123</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>571</v>
+        <v>517</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>126</v>
+        <v>533</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>125</v>
+        <v>532</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>536</v>
+        <v>126</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>537</v>
+        <v>125</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>143</v>
+        <v>537</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C25" s="1"/>
+        <v>536</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>572</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>540</v>
+        <v>143</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>575</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="C26" s="1"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>543</v>
+        <v>539</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>127</v>
+        <v>540</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>576</v>
+        <v>541</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>516</v>
+        <v>574</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C30" s="1"/>
+        <v>130</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>516</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>577</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="C31" s="1"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C32" s="1"/>
+        <v>132</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>575</v>
+      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>544</v>
+        <v>149</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>578</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="C33" s="1"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>151</v>
+        <v>547</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>150</v>
+        <v>546</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>551</v>
+        <v>151</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>550</v>
+        <v>150</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>134</v>
+        <v>549</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>133</v>
+        <v>548</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>518</v>
+        <v>580</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>585</v>
+        <v>518</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>552</v>
-      </c>
-      <c r="B40" s="1"/>
+        <v>153</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="C40" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>155</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C41" s="1"/>
+        <v>550</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1" t="s">
+        <v>581</v>
+      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>554</v>
+        <v>155</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>586</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="C42" s="1"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>136</v>
+        <v>552</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>135</v>
+        <v>551</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
+        <v>136</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
         <v>137</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B45" s="1"/>
+      <c r="C45" s="1" t="s">
+        <v>585</v>
+      </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>157</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>156</v>
-      </c>
+      <c r="B46" s="1"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>590</v>
+        <v>157</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>555</v>
+        <v>587</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>556</v>
+        <v>141</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B52" s="1"/>
+      <c r="A52" t="s">
+        <v>560</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B53" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B9" r:id="rId1"/>
-    <hyperlink ref="B10" r:id="rId2"/>
-    <hyperlink ref="B20" r:id="rId3"/>
-    <hyperlink ref="B22" r:id="rId4"/>
-    <hyperlink ref="B28" r:id="rId5"/>
-    <hyperlink ref="B29" r:id="rId6"/>
-    <hyperlink ref="B31" r:id="rId7"/>
-    <hyperlink ref="B38" r:id="rId8"/>
-    <hyperlink ref="B43" r:id="rId9"/>
-    <hyperlink ref="B44" r:id="rId10"/>
-    <hyperlink ref="C29" r:id="rId11"/>
-    <hyperlink ref="C20" r:id="rId12"/>
-    <hyperlink ref="C38" r:id="rId13"/>
-    <hyperlink ref="C10" r:id="rId14"/>
-    <hyperlink ref="C9" r:id="rId15"/>
+    <hyperlink ref="B10" r:id="rId1"/>
+    <hyperlink ref="B11" r:id="rId2"/>
+    <hyperlink ref="B21" r:id="rId3"/>
+    <hyperlink ref="B23" r:id="rId4"/>
+    <hyperlink ref="B29" r:id="rId5"/>
+    <hyperlink ref="B30" r:id="rId6"/>
+    <hyperlink ref="B32" r:id="rId7"/>
+    <hyperlink ref="B39" r:id="rId8"/>
+    <hyperlink ref="B44" r:id="rId9"/>
+    <hyperlink ref="B45" r:id="rId10"/>
+    <hyperlink ref="C30" r:id="rId11"/>
+    <hyperlink ref="C21" r:id="rId12"/>
+    <hyperlink ref="C39" r:id="rId13"/>
+    <hyperlink ref="C11" r:id="rId14"/>
+    <hyperlink ref="C10" r:id="rId15"/>
     <hyperlink ref="C1" r:id="rId16"/>
-    <hyperlink ref="B11" r:id="rId17"/>
-    <hyperlink ref="B12" r:id="rId18"/>
-    <hyperlink ref="B16" r:id="rId19"/>
-    <hyperlink ref="B17" r:id="rId20"/>
-    <hyperlink ref="B18" r:id="rId21"/>
-    <hyperlink ref="B19" r:id="rId22"/>
-    <hyperlink ref="B21" r:id="rId23"/>
-    <hyperlink ref="B23" r:id="rId24"/>
-    <hyperlink ref="B24" r:id="rId25"/>
-    <hyperlink ref="B26" r:id="rId26"/>
-    <hyperlink ref="B27" r:id="rId27"/>
-    <hyperlink ref="B33" r:id="rId28"/>
-    <hyperlink ref="B34" r:id="rId29"/>
-    <hyperlink ref="B35" r:id="rId30"/>
-    <hyperlink ref="B36" r:id="rId31"/>
-    <hyperlink ref="B37" r:id="rId32"/>
-    <hyperlink ref="B39" r:id="rId33"/>
-    <hyperlink ref="B42" r:id="rId34"/>
-    <hyperlink ref="B46" r:id="rId35"/>
-    <hyperlink ref="B48" r:id="rId36"/>
-    <hyperlink ref="B49" r:id="rId37"/>
-    <hyperlink ref="B50" r:id="rId38"/>
-    <hyperlink ref="B51" r:id="rId39"/>
-    <hyperlink ref="C11" r:id="rId40"/>
-    <hyperlink ref="C12" r:id="rId41"/>
-    <hyperlink ref="C16" r:id="rId42"/>
-    <hyperlink ref="C6" r:id="rId43"/>
-    <hyperlink ref="C7" r:id="rId44"/>
-    <hyperlink ref="C18" r:id="rId45"/>
-    <hyperlink ref="C19" r:id="rId46"/>
-    <hyperlink ref="C21" r:id="rId47"/>
-    <hyperlink ref="C22" r:id="rId48"/>
-    <hyperlink ref="C23" r:id="rId49"/>
-    <hyperlink ref="C24" r:id="rId50"/>
-    <hyperlink ref="C26" r:id="rId51"/>
-    <hyperlink ref="C28" r:id="rId52"/>
-    <hyperlink ref="C31" r:id="rId53"/>
-    <hyperlink ref="C33" r:id="rId54"/>
-    <hyperlink ref="C34" r:id="rId55"/>
-    <hyperlink ref="C35" r:id="rId56"/>
-    <hyperlink ref="C36" r:id="rId57"/>
-    <hyperlink ref="C37" r:id="rId58"/>
-    <hyperlink ref="C40" r:id="rId59"/>
-    <hyperlink ref="C39" r:id="rId60"/>
-    <hyperlink ref="C42" r:id="rId61"/>
-    <hyperlink ref="C43" r:id="rId62"/>
-    <hyperlink ref="C44" r:id="rId63"/>
-    <hyperlink ref="C17" r:id="rId64"/>
-    <hyperlink ref="B32" r:id="rId65"/>
-    <hyperlink ref="B47" r:id="rId66"/>
-    <hyperlink ref="B15" r:id="rId67"/>
-    <hyperlink ref="B25" r:id="rId68"/>
-    <hyperlink ref="B30" r:id="rId69"/>
-    <hyperlink ref="B13" r:id="rId70"/>
-    <hyperlink ref="B41" r:id="rId71"/>
+    <hyperlink ref="B12" r:id="rId17"/>
+    <hyperlink ref="B13" r:id="rId18"/>
+    <hyperlink ref="B17" r:id="rId19"/>
+    <hyperlink ref="B18" r:id="rId20"/>
+    <hyperlink ref="B19" r:id="rId21"/>
+    <hyperlink ref="B20" r:id="rId22"/>
+    <hyperlink ref="B22" r:id="rId23"/>
+    <hyperlink ref="B24" r:id="rId24"/>
+    <hyperlink ref="B25" r:id="rId25"/>
+    <hyperlink ref="B27" r:id="rId26"/>
+    <hyperlink ref="B28" r:id="rId27"/>
+    <hyperlink ref="B34" r:id="rId28"/>
+    <hyperlink ref="B35" r:id="rId29"/>
+    <hyperlink ref="B36" r:id="rId30"/>
+    <hyperlink ref="B37" r:id="rId31"/>
+    <hyperlink ref="B38" r:id="rId32"/>
+    <hyperlink ref="B40" r:id="rId33"/>
+    <hyperlink ref="B43" r:id="rId34"/>
+    <hyperlink ref="B47" r:id="rId35"/>
+    <hyperlink ref="B49" r:id="rId36"/>
+    <hyperlink ref="B50" r:id="rId37"/>
+    <hyperlink ref="B51" r:id="rId38"/>
+    <hyperlink ref="B52" r:id="rId39"/>
+    <hyperlink ref="C12" r:id="rId40"/>
+    <hyperlink ref="C13" r:id="rId41"/>
+    <hyperlink ref="C17" r:id="rId42"/>
+    <hyperlink ref="C7" r:id="rId43"/>
+    <hyperlink ref="C8" r:id="rId44"/>
+    <hyperlink ref="C19" r:id="rId45"/>
+    <hyperlink ref="C20" r:id="rId46"/>
+    <hyperlink ref="C22" r:id="rId47"/>
+    <hyperlink ref="C23" r:id="rId48"/>
+    <hyperlink ref="C24" r:id="rId49"/>
+    <hyperlink ref="C25" r:id="rId50"/>
+    <hyperlink ref="C27" r:id="rId51"/>
+    <hyperlink ref="C29" r:id="rId52"/>
+    <hyperlink ref="C32" r:id="rId53"/>
+    <hyperlink ref="C34" r:id="rId54"/>
+    <hyperlink ref="C35" r:id="rId55"/>
+    <hyperlink ref="C36" r:id="rId56"/>
+    <hyperlink ref="C37" r:id="rId57"/>
+    <hyperlink ref="C38" r:id="rId58"/>
+    <hyperlink ref="C41" r:id="rId59"/>
+    <hyperlink ref="C40" r:id="rId60"/>
+    <hyperlink ref="C43" r:id="rId61"/>
+    <hyperlink ref="C44" r:id="rId62"/>
+    <hyperlink ref="C45" r:id="rId63"/>
+    <hyperlink ref="C18" r:id="rId64"/>
+    <hyperlink ref="B33" r:id="rId65"/>
+    <hyperlink ref="B48" r:id="rId66"/>
+    <hyperlink ref="B16" r:id="rId67"/>
+    <hyperlink ref="B26" r:id="rId68"/>
+    <hyperlink ref="B31" r:id="rId69"/>
+    <hyperlink ref="B14" r:id="rId70"/>
+    <hyperlink ref="B42" r:id="rId71"/>
+    <hyperlink ref="C5" r:id="rId72"/>
+    <hyperlink ref="C4" r:id="rId73"/>
+    <hyperlink ref="C6" r:id="rId74"/>
+    <hyperlink ref="C3" r:id="rId75"/>
+    <hyperlink ref="C2" r:id="rId76"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -4175,8 +4175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -1617,12 +1617,6 @@
     <t>Topological Sort</t>
   </si>
   <si>
-    <t>Find the Town Judge</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/find-the-town-judge/description/</t>
-  </si>
-  <si>
     <t>Island Perimeter</t>
   </si>
   <si>
@@ -1722,9 +1716,6 @@
     <t>Word Ladder</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=eXT77cAZDtQ</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=KEyd_d9EA0c</t>
   </si>
   <si>
@@ -1825,6 +1816,15 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=V6H1qAeB-l4</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/problems/shortest-path-in-weighted-undirected-graph/1</t>
+  </si>
+  <si>
+    <t>Shortest Path in Weighted undirected graph</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rp1SMw7HSO8</t>
   </si>
 </sst>
 </file>
@@ -4176,7 +4176,7 @@
   <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4190,7 +4190,7 @@
         <v>521</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -4198,7 +4198,7 @@
         <v>522</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -4206,7 +4206,7 @@
         <v>523</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -4214,23 +4214,23 @@
         <v>524</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -4239,16 +4239,16 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -4281,83 +4281,83 @@
         <v>527</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>528</v>
+        <v>121</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>562</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>121</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>122</v>
-      </c>
+      <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="A15" t="s">
+        <v>140</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>139</v>
+        <v>146</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>147</v>
+        <v>529</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>146</v>
+        <v>528</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>563</v>
+        <v>583</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>531</v>
+        <v>159</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>530</v>
+        <v>158</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>586</v>
+        <v>565</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>161</v>
+        <v>594</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>160</v>
+        <v>593</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>567</v>
+        <v>595</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
@@ -4373,13 +4373,13 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
@@ -4390,29 +4390,29 @@
         <v>125</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
@@ -4426,21 +4426,21 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
@@ -4451,7 +4451,7 @@
         <v>128</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
@@ -4482,7 +4482,7 @@
         <v>132</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
@@ -4496,35 +4496,35 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
@@ -4535,18 +4535,18 @@
         <v>150</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
@@ -4568,16 +4568,16 @@
         <v>152</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
@@ -4591,13 +4591,13 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
@@ -4608,7 +4608,7 @@
         <v>135</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
@@ -4619,7 +4619,7 @@
         <v>138</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
@@ -4635,7 +4635,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>141</v>
@@ -4643,34 +4643,34 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
@@ -4695,65 +4695,65 @@
     <hyperlink ref="C10" r:id="rId15"/>
     <hyperlink ref="C1" r:id="rId16"/>
     <hyperlink ref="B12" r:id="rId17"/>
-    <hyperlink ref="B13" r:id="rId18"/>
+    <hyperlink ref="B16" r:id="rId18"/>
     <hyperlink ref="B17" r:id="rId19"/>
     <hyperlink ref="B18" r:id="rId20"/>
     <hyperlink ref="B19" r:id="rId21"/>
-    <hyperlink ref="B20" r:id="rId22"/>
-    <hyperlink ref="B22" r:id="rId23"/>
-    <hyperlink ref="B24" r:id="rId24"/>
-    <hyperlink ref="B25" r:id="rId25"/>
-    <hyperlink ref="B27" r:id="rId26"/>
-    <hyperlink ref="B28" r:id="rId27"/>
-    <hyperlink ref="B34" r:id="rId28"/>
-    <hyperlink ref="B35" r:id="rId29"/>
-    <hyperlink ref="B36" r:id="rId30"/>
-    <hyperlink ref="B37" r:id="rId31"/>
-    <hyperlink ref="B38" r:id="rId32"/>
-    <hyperlink ref="B40" r:id="rId33"/>
-    <hyperlink ref="B43" r:id="rId34"/>
-    <hyperlink ref="B47" r:id="rId35"/>
-    <hyperlink ref="B49" r:id="rId36"/>
-    <hyperlink ref="B50" r:id="rId37"/>
-    <hyperlink ref="B51" r:id="rId38"/>
-    <hyperlink ref="B52" r:id="rId39"/>
-    <hyperlink ref="C12" r:id="rId40"/>
-    <hyperlink ref="C13" r:id="rId41"/>
-    <hyperlink ref="C17" r:id="rId42"/>
-    <hyperlink ref="C7" r:id="rId43"/>
-    <hyperlink ref="C8" r:id="rId44"/>
-    <hyperlink ref="C19" r:id="rId45"/>
-    <hyperlink ref="C20" r:id="rId46"/>
-    <hyperlink ref="C22" r:id="rId47"/>
-    <hyperlink ref="C23" r:id="rId48"/>
-    <hyperlink ref="C24" r:id="rId49"/>
-    <hyperlink ref="C25" r:id="rId50"/>
-    <hyperlink ref="C27" r:id="rId51"/>
-    <hyperlink ref="C29" r:id="rId52"/>
-    <hyperlink ref="C32" r:id="rId53"/>
-    <hyperlink ref="C34" r:id="rId54"/>
-    <hyperlink ref="C35" r:id="rId55"/>
-    <hyperlink ref="C36" r:id="rId56"/>
-    <hyperlink ref="C37" r:id="rId57"/>
-    <hyperlink ref="C38" r:id="rId58"/>
-    <hyperlink ref="C41" r:id="rId59"/>
-    <hyperlink ref="C40" r:id="rId60"/>
-    <hyperlink ref="C43" r:id="rId61"/>
-    <hyperlink ref="C44" r:id="rId62"/>
-    <hyperlink ref="C45" r:id="rId63"/>
-    <hyperlink ref="C18" r:id="rId64"/>
-    <hyperlink ref="B33" r:id="rId65"/>
-    <hyperlink ref="B48" r:id="rId66"/>
-    <hyperlink ref="B16" r:id="rId67"/>
-    <hyperlink ref="B26" r:id="rId68"/>
-    <hyperlink ref="B31" r:id="rId69"/>
-    <hyperlink ref="B14" r:id="rId70"/>
-    <hyperlink ref="B42" r:id="rId71"/>
-    <hyperlink ref="C5" r:id="rId72"/>
-    <hyperlink ref="C4" r:id="rId73"/>
-    <hyperlink ref="C6" r:id="rId74"/>
-    <hyperlink ref="C3" r:id="rId75"/>
-    <hyperlink ref="C2" r:id="rId76"/>
+    <hyperlink ref="B22" r:id="rId22"/>
+    <hyperlink ref="B24" r:id="rId23"/>
+    <hyperlink ref="B25" r:id="rId24"/>
+    <hyperlink ref="B27" r:id="rId25"/>
+    <hyperlink ref="B28" r:id="rId26"/>
+    <hyperlink ref="B34" r:id="rId27"/>
+    <hyperlink ref="B35" r:id="rId28"/>
+    <hyperlink ref="B36" r:id="rId29"/>
+    <hyperlink ref="B37" r:id="rId30"/>
+    <hyperlink ref="B38" r:id="rId31"/>
+    <hyperlink ref="B40" r:id="rId32"/>
+    <hyperlink ref="B43" r:id="rId33"/>
+    <hyperlink ref="B47" r:id="rId34"/>
+    <hyperlink ref="B49" r:id="rId35"/>
+    <hyperlink ref="B50" r:id="rId36"/>
+    <hyperlink ref="B51" r:id="rId37"/>
+    <hyperlink ref="B52" r:id="rId38"/>
+    <hyperlink ref="C12" r:id="rId39"/>
+    <hyperlink ref="C16" r:id="rId40"/>
+    <hyperlink ref="C7" r:id="rId41"/>
+    <hyperlink ref="C8" r:id="rId42"/>
+    <hyperlink ref="C18" r:id="rId43"/>
+    <hyperlink ref="C19" r:id="rId44"/>
+    <hyperlink ref="C22" r:id="rId45"/>
+    <hyperlink ref="C23" r:id="rId46"/>
+    <hyperlink ref="C24" r:id="rId47"/>
+    <hyperlink ref="C25" r:id="rId48"/>
+    <hyperlink ref="C27" r:id="rId49"/>
+    <hyperlink ref="C29" r:id="rId50"/>
+    <hyperlink ref="C32" r:id="rId51"/>
+    <hyperlink ref="C34" r:id="rId52"/>
+    <hyperlink ref="C35" r:id="rId53"/>
+    <hyperlink ref="C36" r:id="rId54"/>
+    <hyperlink ref="C37" r:id="rId55"/>
+    <hyperlink ref="C38" r:id="rId56"/>
+    <hyperlink ref="C41" r:id="rId57"/>
+    <hyperlink ref="C40" r:id="rId58"/>
+    <hyperlink ref="C43" r:id="rId59"/>
+    <hyperlink ref="C44" r:id="rId60"/>
+    <hyperlink ref="C45" r:id="rId61"/>
+    <hyperlink ref="C17" r:id="rId62"/>
+    <hyperlink ref="B33" r:id="rId63"/>
+    <hyperlink ref="B48" r:id="rId64"/>
+    <hyperlink ref="B15" r:id="rId65"/>
+    <hyperlink ref="B26" r:id="rId66"/>
+    <hyperlink ref="B31" r:id="rId67"/>
+    <hyperlink ref="B13" r:id="rId68"/>
+    <hyperlink ref="B42" r:id="rId69"/>
+    <hyperlink ref="C5" r:id="rId70"/>
+    <hyperlink ref="C4" r:id="rId71"/>
+    <hyperlink ref="C6" r:id="rId72"/>
+    <hyperlink ref="C3" r:id="rId73"/>
+    <hyperlink ref="C2" r:id="rId74"/>
+    <hyperlink ref="B20" r:id="rId75"/>
+    <hyperlink ref="C20" r:id="rId76"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="608">
   <si>
     <t>https://leetcode.com/problems/find-all-numbers-disappeared-in-an-array/description/</t>
   </si>
@@ -1653,12 +1653,6 @@
     <t>https://leetcode.com/problems/network-delay-time/description/</t>
   </si>
   <si>
-    <t>Number Of Connected Components</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/number-of-connected-components-in-an-undirected-graph/description/</t>
-  </si>
-  <si>
     <t>Open the Lock</t>
   </si>
   <si>
@@ -1683,9 +1677,6 @@
     <t>Redundant Connection</t>
   </si>
   <si>
-    <t>ShortestPathWithUnitDistance</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/snakes-and-ladders/description/</t>
   </si>
   <si>
@@ -1825,6 +1816,51 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=rp1SMw7HSO8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=iTBaI90lpDQ</t>
+  </si>
+  <si>
+    <t>Detect Cycle in a Directed Graph (Kahn Algorithm)</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/problems/shortest-path-in-undirected-graph/0</t>
+  </si>
+  <si>
+    <t>Shortest path in Directed Acyclic Graph</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZUFQfFaU-8U</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_-0mx0SmYxA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=FYrl7iz9_ZU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=FMwpt_aQOGw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lgiz0Oup6gM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=U3N_je7tWAs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tRPda0rcf8E</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=OwMNX8SPavM</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/count-the-number-of-complete-components/description/</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8f1XPm4WOUc</t>
+  </si>
+  <si>
+    <t>Number of Complete Components</t>
   </si>
 </sst>
 </file>
@@ -4173,10 +4209,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4190,7 +4226,7 @@
         <v>521</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -4198,7 +4234,7 @@
         <v>522</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -4206,7 +4242,7 @@
         <v>523</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -4214,23 +4250,23 @@
         <v>524</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -4239,521 +4275,566 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>117</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>520</v>
+        <v>559</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>594</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>526</v>
+        <v>119</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>527</v>
+        <v>120</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>559</v>
+        <v>519</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>526</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>121</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>140</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>139</v>
-      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>560</v>
+        <v>600</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>529</v>
+        <v>147</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>528</v>
+        <v>146</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>583</v>
+        <v>557</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>159</v>
+        <v>529</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>158</v>
+        <v>528</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>565</v>
+        <v>580</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>594</v>
+        <v>161</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>593</v>
+        <v>160</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>595</v>
+        <v>561</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>124</v>
+        <v>591</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>123</v>
+        <v>590</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>517</v>
+        <v>592</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>531</v>
+        <v>124</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>530</v>
+        <v>123</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>566</v>
+        <v>517</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>126</v>
+        <v>531</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>125</v>
+        <v>530</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>532</v>
+        <v>126</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>533</v>
+        <v>125</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>143</v>
+        <v>535</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C26" s="1"/>
+        <v>534</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>566</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>536</v>
+        <v>143</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>537</v>
+        <v>142</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>570</v>
+        <v>604</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>127</v>
+        <v>607</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>128</v>
+        <v>605</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>571</v>
+        <v>606</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>516</v>
+        <v>568</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C31" s="1"/>
+        <v>130</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>516</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>572</v>
+        <v>599</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C33" s="1"/>
+        <v>132</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>569</v>
+      </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>540</v>
+        <v>149</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>541</v>
+        <v>148</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>573</v>
+        <v>598</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>151</v>
+        <v>543</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>150</v>
+        <v>542</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>547</v>
+        <v>151</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>546</v>
+        <v>150</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>134</v>
+        <v>545</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>133</v>
+        <v>544</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>518</v>
+        <v>574</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>579</v>
+        <v>518</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>548</v>
-      </c>
-      <c r="B41" s="1"/>
+        <v>153</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="C41" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>155</v>
+        <v>596</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C42" s="1"/>
+        <v>595</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>597</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>550</v>
+        <v>155</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>549</v>
+        <v>154</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>136</v>
+        <v>547</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>135</v>
+        <v>546</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
+        <v>136</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
         <v>137</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B46" s="1"/>
+      <c r="C46" s="1" t="s">
+        <v>579</v>
+      </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>157</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>156</v>
-      </c>
+      <c r="B47" s="1"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>584</v>
+        <v>157</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>581</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
+      <c r="C49" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>548</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
         <v>551</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B51" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>553</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>555</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>556</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>558</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B53" s="1"/>
+      <c r="C53" s="1" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B54" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1"/>
-    <hyperlink ref="B11" r:id="rId2"/>
-    <hyperlink ref="B21" r:id="rId3"/>
-    <hyperlink ref="B23" r:id="rId4"/>
-    <hyperlink ref="B29" r:id="rId5"/>
-    <hyperlink ref="B30" r:id="rId6"/>
-    <hyperlink ref="B32" r:id="rId7"/>
-    <hyperlink ref="B39" r:id="rId8"/>
-    <hyperlink ref="B44" r:id="rId9"/>
-    <hyperlink ref="B45" r:id="rId10"/>
-    <hyperlink ref="C30" r:id="rId11"/>
-    <hyperlink ref="C21" r:id="rId12"/>
-    <hyperlink ref="C39" r:id="rId13"/>
-    <hyperlink ref="C11" r:id="rId14"/>
-    <hyperlink ref="C10" r:id="rId15"/>
-    <hyperlink ref="C1" r:id="rId16"/>
-    <hyperlink ref="B12" r:id="rId17"/>
-    <hyperlink ref="B16" r:id="rId18"/>
-    <hyperlink ref="B17" r:id="rId19"/>
-    <hyperlink ref="B18" r:id="rId20"/>
-    <hyperlink ref="B19" r:id="rId21"/>
-    <hyperlink ref="B22" r:id="rId22"/>
-    <hyperlink ref="B24" r:id="rId23"/>
-    <hyperlink ref="B25" r:id="rId24"/>
-    <hyperlink ref="B27" r:id="rId25"/>
-    <hyperlink ref="B28" r:id="rId26"/>
-    <hyperlink ref="B34" r:id="rId27"/>
-    <hyperlink ref="B35" r:id="rId28"/>
-    <hyperlink ref="B36" r:id="rId29"/>
-    <hyperlink ref="B37" r:id="rId30"/>
-    <hyperlink ref="B38" r:id="rId31"/>
-    <hyperlink ref="B40" r:id="rId32"/>
-    <hyperlink ref="B43" r:id="rId33"/>
-    <hyperlink ref="B47" r:id="rId34"/>
-    <hyperlink ref="B49" r:id="rId35"/>
-    <hyperlink ref="B50" r:id="rId36"/>
-    <hyperlink ref="B51" r:id="rId37"/>
-    <hyperlink ref="B52" r:id="rId38"/>
-    <hyperlink ref="C12" r:id="rId39"/>
-    <hyperlink ref="C16" r:id="rId40"/>
-    <hyperlink ref="C7" r:id="rId41"/>
-    <hyperlink ref="C8" r:id="rId42"/>
-    <hyperlink ref="C18" r:id="rId43"/>
-    <hyperlink ref="C19" r:id="rId44"/>
-    <hyperlink ref="C22" r:id="rId45"/>
-    <hyperlink ref="C23" r:id="rId46"/>
-    <hyperlink ref="C24" r:id="rId47"/>
-    <hyperlink ref="C25" r:id="rId48"/>
-    <hyperlink ref="C27" r:id="rId49"/>
-    <hyperlink ref="C29" r:id="rId50"/>
-    <hyperlink ref="C32" r:id="rId51"/>
-    <hyperlink ref="C34" r:id="rId52"/>
-    <hyperlink ref="C35" r:id="rId53"/>
-    <hyperlink ref="C36" r:id="rId54"/>
-    <hyperlink ref="C37" r:id="rId55"/>
-    <hyperlink ref="C38" r:id="rId56"/>
-    <hyperlink ref="C41" r:id="rId57"/>
-    <hyperlink ref="C40" r:id="rId58"/>
-    <hyperlink ref="C43" r:id="rId59"/>
-    <hyperlink ref="C44" r:id="rId60"/>
-    <hyperlink ref="C45" r:id="rId61"/>
-    <hyperlink ref="C17" r:id="rId62"/>
-    <hyperlink ref="B33" r:id="rId63"/>
-    <hyperlink ref="B48" r:id="rId64"/>
-    <hyperlink ref="B15" r:id="rId65"/>
-    <hyperlink ref="B26" r:id="rId66"/>
-    <hyperlink ref="B31" r:id="rId67"/>
-    <hyperlink ref="B13" r:id="rId68"/>
-    <hyperlink ref="B42" r:id="rId69"/>
-    <hyperlink ref="C5" r:id="rId70"/>
-    <hyperlink ref="C4" r:id="rId71"/>
-    <hyperlink ref="C6" r:id="rId72"/>
-    <hyperlink ref="C3" r:id="rId73"/>
-    <hyperlink ref="C2" r:id="rId74"/>
-    <hyperlink ref="B20" r:id="rId75"/>
-    <hyperlink ref="C20" r:id="rId76"/>
+    <hyperlink ref="B11" r:id="rId1"/>
+    <hyperlink ref="B12" r:id="rId2"/>
+    <hyperlink ref="B22" r:id="rId3"/>
+    <hyperlink ref="B24" r:id="rId4"/>
+    <hyperlink ref="B30" r:id="rId5"/>
+    <hyperlink ref="B31" r:id="rId6"/>
+    <hyperlink ref="B33" r:id="rId7"/>
+    <hyperlink ref="B40" r:id="rId8"/>
+    <hyperlink ref="B45" r:id="rId9"/>
+    <hyperlink ref="B46" r:id="rId10"/>
+    <hyperlink ref="C31" r:id="rId11"/>
+    <hyperlink ref="C22" r:id="rId12"/>
+    <hyperlink ref="C40" r:id="rId13"/>
+    <hyperlink ref="C12" r:id="rId14"/>
+    <hyperlink ref="C1" r:id="rId15"/>
+    <hyperlink ref="B13" r:id="rId16"/>
+    <hyperlink ref="B17" r:id="rId17"/>
+    <hyperlink ref="B18" r:id="rId18"/>
+    <hyperlink ref="B19" r:id="rId19"/>
+    <hyperlink ref="B20" r:id="rId20"/>
+    <hyperlink ref="B23" r:id="rId21"/>
+    <hyperlink ref="B25" r:id="rId22"/>
+    <hyperlink ref="B26" r:id="rId23"/>
+    <hyperlink ref="B28" r:id="rId24"/>
+    <hyperlink ref="B35" r:id="rId25"/>
+    <hyperlink ref="B36" r:id="rId26"/>
+    <hyperlink ref="B37" r:id="rId27"/>
+    <hyperlink ref="B38" r:id="rId28"/>
+    <hyperlink ref="B39" r:id="rId29"/>
+    <hyperlink ref="B41" r:id="rId30"/>
+    <hyperlink ref="B44" r:id="rId31"/>
+    <hyperlink ref="B48" r:id="rId32"/>
+    <hyperlink ref="B50" r:id="rId33"/>
+    <hyperlink ref="B51" r:id="rId34"/>
+    <hyperlink ref="B52" r:id="rId35"/>
+    <hyperlink ref="B53" r:id="rId36"/>
+    <hyperlink ref="C13" r:id="rId37"/>
+    <hyperlink ref="C17" r:id="rId38"/>
+    <hyperlink ref="C7" r:id="rId39"/>
+    <hyperlink ref="C8" r:id="rId40"/>
+    <hyperlink ref="C19" r:id="rId41"/>
+    <hyperlink ref="C20" r:id="rId42"/>
+    <hyperlink ref="C23" r:id="rId43"/>
+    <hyperlink ref="C24" r:id="rId44"/>
+    <hyperlink ref="C25" r:id="rId45"/>
+    <hyperlink ref="C26" r:id="rId46"/>
+    <hyperlink ref="C28" r:id="rId47"/>
+    <hyperlink ref="C30" r:id="rId48"/>
+    <hyperlink ref="C33" r:id="rId49"/>
+    <hyperlink ref="C35" r:id="rId50"/>
+    <hyperlink ref="C36" r:id="rId51"/>
+    <hyperlink ref="C37" r:id="rId52"/>
+    <hyperlink ref="C38" r:id="rId53"/>
+    <hyperlink ref="C39" r:id="rId54"/>
+    <hyperlink ref="C41" r:id="rId55"/>
+    <hyperlink ref="C44" r:id="rId56"/>
+    <hyperlink ref="C45" r:id="rId57"/>
+    <hyperlink ref="C46" r:id="rId58"/>
+    <hyperlink ref="C18" r:id="rId59"/>
+    <hyperlink ref="B34" r:id="rId60"/>
+    <hyperlink ref="B49" r:id="rId61"/>
+    <hyperlink ref="B16" r:id="rId62"/>
+    <hyperlink ref="B27" r:id="rId63"/>
+    <hyperlink ref="B32" r:id="rId64"/>
+    <hyperlink ref="B14" r:id="rId65"/>
+    <hyperlink ref="B43" r:id="rId66"/>
+    <hyperlink ref="C5" r:id="rId67"/>
+    <hyperlink ref="C4" r:id="rId68"/>
+    <hyperlink ref="C6" r:id="rId69"/>
+    <hyperlink ref="C3" r:id="rId70"/>
+    <hyperlink ref="C2" r:id="rId71"/>
+    <hyperlink ref="B21" r:id="rId72"/>
+    <hyperlink ref="C21" r:id="rId73"/>
+    <hyperlink ref="C9" r:id="rId74"/>
+    <hyperlink ref="C11" r:id="rId75"/>
+    <hyperlink ref="B42" r:id="rId76"/>
+    <hyperlink ref="C42" r:id="rId77"/>
+    <hyperlink ref="C43" r:id="rId78"/>
+    <hyperlink ref="C34" r:id="rId79"/>
+    <hyperlink ref="C32" r:id="rId80"/>
+    <hyperlink ref="C16" r:id="rId81"/>
+    <hyperlink ref="C49" r:id="rId82"/>
+    <hyperlink ref="C48" r:id="rId83"/>
+    <hyperlink ref="C53" r:id="rId84"/>
+    <hyperlink ref="C27" r:id="rId85"/>
+    <hyperlink ref="B29" r:id="rId86"/>
+    <hyperlink ref="C29" r:id="rId87"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5770" firstSheet="5" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5770" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Array" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="652">
   <si>
     <t>https://leetcode.com/problems/find-all-numbers-disappeared-in-an-array/description/</t>
   </si>
@@ -1861,6 +1861,138 @@
   </si>
   <si>
     <t>Number of Complete Components</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/climbing-stairs/description/</t>
+  </si>
+  <si>
+    <t>Climbing Stairs</t>
+  </si>
+  <si>
+    <t>Min Cost Climbing Stairs</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/min-cost-climbing-stairs/description/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/decode-ways/description/</t>
+  </si>
+  <si>
+    <t>Decode Ways</t>
+  </si>
+  <si>
+    <t>House Robber</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/house-robber/description/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/house-robber-ii/description/</t>
+  </si>
+  <si>
+    <t>House Robber II</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-increasing-subsequence/description/</t>
+  </si>
+  <si>
+    <t>Longest Increasing Subsequence</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/coin-change/description/</t>
+  </si>
+  <si>
+    <t>Coin Change</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/partition-equal-subset-sum/description/</t>
+  </si>
+  <si>
+    <t>Partition Equal Subset Sum</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/word-break/description/</t>
+  </si>
+  <si>
+    <t>Word Break</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/best-time-to-buy-and-sell-stock-with-cooldown/</t>
+  </si>
+  <si>
+    <t>Best Time to Buy and Sell Stock with Cooldown</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/coin-change-ii/description/</t>
+  </si>
+  <si>
+    <t>Coin Change II</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/edit-distance/description/</t>
+  </si>
+  <si>
+    <t>Edit Distance</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/interleaving-string/description/</t>
+  </si>
+  <si>
+    <t>Interleaving String</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-common-subsequence/description/</t>
+  </si>
+  <si>
+    <t>Longest Common Subsequence</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/target-sum/</t>
+  </si>
+  <si>
+    <t>Target Sum</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/unique-paths/description/</t>
+  </si>
+  <si>
+    <t>Unique Paths</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/burst-balloons/description/</t>
+  </si>
+  <si>
+    <t>Burst Balloons</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/distinct-subsequences/description/</t>
+  </si>
+  <si>
+    <t>Distinct Subsequences</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-increasing-path-in-a-matrix/description/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/regular-expression-matching/description/</t>
+  </si>
+  <si>
+    <t>Regular Expression Matching</t>
+  </si>
+  <si>
+    <t>Longest Increasing Path in a Matrix</t>
+  </si>
+  <si>
+    <t>Introduction</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tyB0ztf0DNY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mLfjzJsN8us</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ktmzAZWkEZ0</t>
   </si>
 </sst>
 </file>
@@ -4195,15 +4327,254 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="40.6328125" customWidth="1"/>
+    <col min="2" max="2" width="68.08984375" customWidth="1"/>
+    <col min="3" max="3" width="59.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>648</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>609</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>610</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>621</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>613</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>614</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>617</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>619</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>319</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>331</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>623</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>625</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>627</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>629</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>631</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>633</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>635</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>637</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>639</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>641</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>643</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>647</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>646</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="B7" r:id="rId3"/>
+    <hyperlink ref="B8" r:id="rId4"/>
+    <hyperlink ref="B9" r:id="rId5"/>
+    <hyperlink ref="B10" r:id="rId6"/>
+    <hyperlink ref="B11" r:id="rId7"/>
+    <hyperlink ref="B12" r:id="rId8"/>
+    <hyperlink ref="B6" r:id="rId9"/>
+    <hyperlink ref="B13" r:id="rId10"/>
+    <hyperlink ref="B14" r:id="rId11"/>
+    <hyperlink ref="B15" r:id="rId12"/>
+    <hyperlink ref="B17" r:id="rId13"/>
+    <hyperlink ref="B18" r:id="rId14"/>
+    <hyperlink ref="B19" r:id="rId15"/>
+    <hyperlink ref="B20" r:id="rId16"/>
+    <hyperlink ref="B21" r:id="rId17"/>
+    <hyperlink ref="B22" r:id="rId18"/>
+    <hyperlink ref="B23" r:id="rId19"/>
+    <hyperlink ref="B25" r:id="rId20"/>
+    <hyperlink ref="B26" r:id="rId21"/>
+    <hyperlink ref="B27" r:id="rId22"/>
+    <hyperlink ref="B28" r:id="rId23"/>
+    <hyperlink ref="B1" r:id="rId24"/>
+    <hyperlink ref="C3" r:id="rId25"/>
+    <hyperlink ref="C4" r:id="rId26"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId27"/>
 </worksheet>
 </file>
 
@@ -4211,7 +4582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>

--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="657">
   <si>
     <t>https://leetcode.com/problems/find-all-numbers-disappeared-in-an-array/description/</t>
   </si>
@@ -1992,7 +1992,22 @@
     <t>https://www.youtube.com/watch?v=mLfjzJsN8us</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=ktmzAZWkEZ0</t>
+    <t>https://www.youtube.com/watch?v=WeO_E5Q1kGw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=H9bfqozjoqs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6aEyTjOwlJU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VXqUQYGMnQg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ucmqYGVGQK8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IsvocB5BJhw</t>
   </si>
 </sst>
 </file>
@@ -4330,7 +4345,7 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4383,6 +4398,9 @@
       <c r="B6" s="1" t="s">
         <v>620</v>
       </c>
+      <c r="C6" s="1" t="s">
+        <v>652</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
@@ -4391,6 +4409,9 @@
       <c r="B7" s="1" t="s">
         <v>612</v>
       </c>
+      <c r="C7" s="1" t="s">
+        <v>653</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
@@ -4399,6 +4420,9 @@
       <c r="B8" s="1" t="s">
         <v>615</v>
       </c>
+      <c r="C8" s="1" t="s">
+        <v>654</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
@@ -4407,6 +4431,9 @@
       <c r="B9" s="1" t="s">
         <v>616</v>
       </c>
+      <c r="C9" s="1" t="s">
+        <v>655</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
@@ -4414,6 +4441,9 @@
       </c>
       <c r="B10" s="1" t="s">
         <v>618</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>656</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -4572,9 +4602,14 @@
     <hyperlink ref="B1" r:id="rId24"/>
     <hyperlink ref="C3" r:id="rId25"/>
     <hyperlink ref="C4" r:id="rId26"/>
+    <hyperlink ref="C6" r:id="rId27"/>
+    <hyperlink ref="C7" r:id="rId28"/>
+    <hyperlink ref="C8" r:id="rId29"/>
+    <hyperlink ref="C9" r:id="rId30"/>
+    <hyperlink ref="C10" r:id="rId31"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId27"/>
+  <pageSetup orientation="portrait" r:id="rId32"/>
 </worksheet>
 </file>
 

--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="654">
   <si>
     <t>https://leetcode.com/problems/find-all-numbers-disappeared-in-an-array/description/</t>
   </si>
@@ -1995,19 +1995,10 @@
     <t>https://www.youtube.com/watch?v=WeO_E5Q1kGw</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=H9bfqozjoqs</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=6aEyTjOwlJU</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=VXqUQYGMnQg</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ucmqYGVGQK8</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=IsvocB5BJhw</t>
+    <t>https://www.youtube.com/watch?v=GrMBfJNk_NY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3WaxQMELSkw</t>
   </si>
 </sst>
 </file>
@@ -4345,7 +4336,7 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4359,7 +4350,8 @@
       <c r="A1" t="s">
         <v>648</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
         <v>649</v>
       </c>
     </row>
@@ -4398,9 +4390,7 @@
       <c r="B6" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>652</v>
-      </c>
+      <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
@@ -4409,9 +4399,7 @@
       <c r="B7" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>653</v>
-      </c>
+      <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
@@ -4421,7 +4409,7 @@
         <v>615</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -4432,7 +4420,7 @@
         <v>616</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -4442,9 +4430,7 @@
       <c r="B10" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>656</v>
-      </c>
+      <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
@@ -4599,17 +4585,14 @@
     <hyperlink ref="B26" r:id="rId21"/>
     <hyperlink ref="B27" r:id="rId22"/>
     <hyperlink ref="B28" r:id="rId23"/>
-    <hyperlink ref="B1" r:id="rId24"/>
-    <hyperlink ref="C3" r:id="rId25"/>
-    <hyperlink ref="C4" r:id="rId26"/>
-    <hyperlink ref="C6" r:id="rId27"/>
-    <hyperlink ref="C7" r:id="rId28"/>
-    <hyperlink ref="C8" r:id="rId29"/>
-    <hyperlink ref="C9" r:id="rId30"/>
-    <hyperlink ref="C10" r:id="rId31"/>
+    <hyperlink ref="C3" r:id="rId24"/>
+    <hyperlink ref="C4" r:id="rId25"/>
+    <hyperlink ref="C8" r:id="rId26"/>
+    <hyperlink ref="C9" r:id="rId27"/>
+    <hyperlink ref="C1" r:id="rId28"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId32"/>
+  <pageSetup orientation="portrait" r:id="rId29"/>
 </worksheet>
 </file>
 

--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="644">
   <si>
     <t>https://leetcode.com/problems/find-all-numbers-disappeared-in-an-array/description/</t>
   </si>
@@ -1875,12 +1875,6 @@
     <t>https://leetcode.com/problems/min-cost-climbing-stairs/description/</t>
   </si>
   <si>
-    <t>https://leetcode.com/problems/decode-ways/description/</t>
-  </si>
-  <si>
-    <t>Decode Ways</t>
-  </si>
-  <si>
     <t>House Robber</t>
   </si>
   <si>
@@ -1893,96 +1887,21 @@
     <t>House Robber II</t>
   </si>
   <si>
-    <t>https://leetcode.com/problems/longest-increasing-subsequence/description/</t>
-  </si>
-  <si>
-    <t>Longest Increasing Subsequence</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/coin-change/description/</t>
   </si>
   <si>
     <t>Coin Change</t>
   </si>
   <si>
-    <t>https://leetcode.com/problems/partition-equal-subset-sum/description/</t>
-  </si>
-  <si>
     <t>Partition Equal Subset Sum</t>
   </si>
   <si>
-    <t>https://leetcode.com/problems/word-break/description/</t>
-  </si>
-  <si>
-    <t>Word Break</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/best-time-to-buy-and-sell-stock-with-cooldown/</t>
-  </si>
-  <si>
-    <t>Best Time to Buy and Sell Stock with Cooldown</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/coin-change-ii/description/</t>
-  </si>
-  <si>
-    <t>Coin Change II</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/edit-distance/description/</t>
-  </si>
-  <si>
-    <t>Edit Distance</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/interleaving-string/description/</t>
-  </si>
-  <si>
-    <t>Interleaving String</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/longest-common-subsequence/description/</t>
-  </si>
-  <si>
-    <t>Longest Common Subsequence</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/target-sum/</t>
-  </si>
-  <si>
-    <t>Target Sum</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/unique-paths/description/</t>
   </si>
   <si>
     <t>Unique Paths</t>
   </si>
   <si>
-    <t>https://leetcode.com/problems/burst-balloons/description/</t>
-  </si>
-  <si>
-    <t>Burst Balloons</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/distinct-subsequences/description/</t>
-  </si>
-  <si>
-    <t>Distinct Subsequences</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/longest-increasing-path-in-a-matrix/description/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/regular-expression-matching/description/</t>
-  </si>
-  <si>
-    <t>Regular Expression Matching</t>
-  </si>
-  <si>
-    <t>Longest Increasing Path in a Matrix</t>
-  </si>
-  <si>
     <t>Introduction</t>
   </si>
   <si>
@@ -1999,6 +1918,57 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=3WaxQMELSkw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=sdE0A2Oxofw</t>
+  </si>
+  <si>
+    <t>Unique Paths II</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/unique-paths-ii/description/</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TmhpgXScLyY</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-path-sum/description/</t>
+  </si>
+  <si>
+    <t>Minimum Path Sum</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_rgTlyky1uQ</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/triangle/description/</t>
+  </si>
+  <si>
+    <t>Triangle</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=SrP-PiLSYC0</t>
+  </si>
+  <si>
+    <t>Minimum Falling Path Sum</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-falling-path-sum/description/</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=N_aJ5qQbYA0</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/problems/subset-sum-problem-1611555638/1</t>
+  </si>
+  <si>
+    <t>Subset sum equal to target</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fWX9xDmIzRI</t>
+  </si>
+  <si>
+    <t>Minimum Difference Subsets</t>
   </si>
 </sst>
 </file>
@@ -4333,10 +4303,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4348,11 +4318,11 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>648</v>
+        <v>621</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
-        <v>649</v>
+        <v>622</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -4366,233 +4336,161 @@
         <v>608</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>650</v>
+        <v>623</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>651</v>
+        <v>625</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B5" s="1"/>
+      <c r="A5" t="s">
+        <v>615</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>626</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="C6" s="1"/>
+        <v>611</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>624</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>613</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>612</v>
-      </c>
+      <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>652</v>
+        <v>627</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>617</v>
+        <v>628</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>616</v>
+        <v>629</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>653</v>
+        <v>630</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>619</v>
+        <v>632</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="C10" s="1"/>
+        <v>631</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>633</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>319</v>
+        <v>635</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>318</v>
+        <v>634</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>637</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>49</v>
+        <v>638</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>331</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>330</v>
-      </c>
+      <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>622</v>
-      </c>
+        <v>616</v>
+      </c>
+      <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>625</v>
+        <v>641</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+        <v>640</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>627</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>629</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>631</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>633</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>635</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>637</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>639</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>641</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
         <v>643</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>647</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>646</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>645</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B4" r:id="rId2"/>
-    <hyperlink ref="B7" r:id="rId3"/>
-    <hyperlink ref="B8" r:id="rId4"/>
-    <hyperlink ref="B9" r:id="rId5"/>
-    <hyperlink ref="B10" r:id="rId6"/>
-    <hyperlink ref="B11" r:id="rId7"/>
-    <hyperlink ref="B12" r:id="rId8"/>
-    <hyperlink ref="B6" r:id="rId9"/>
-    <hyperlink ref="B13" r:id="rId10"/>
-    <hyperlink ref="B14" r:id="rId11"/>
-    <hyperlink ref="B15" r:id="rId12"/>
-    <hyperlink ref="B17" r:id="rId13"/>
-    <hyperlink ref="B18" r:id="rId14"/>
-    <hyperlink ref="B19" r:id="rId15"/>
-    <hyperlink ref="B20" r:id="rId16"/>
-    <hyperlink ref="B21" r:id="rId17"/>
-    <hyperlink ref="B22" r:id="rId18"/>
-    <hyperlink ref="B23" r:id="rId19"/>
-    <hyperlink ref="B25" r:id="rId20"/>
-    <hyperlink ref="B26" r:id="rId21"/>
-    <hyperlink ref="B27" r:id="rId22"/>
-    <hyperlink ref="B28" r:id="rId23"/>
-    <hyperlink ref="C3" r:id="rId24"/>
-    <hyperlink ref="C4" r:id="rId25"/>
-    <hyperlink ref="C8" r:id="rId26"/>
-    <hyperlink ref="C9" r:id="rId27"/>
-    <hyperlink ref="C1" r:id="rId28"/>
+    <hyperlink ref="B6" r:id="rId2"/>
+    <hyperlink ref="B14" r:id="rId3"/>
+    <hyperlink ref="C3" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
+    <hyperlink ref="C1" r:id="rId6"/>
+    <hyperlink ref="B4" r:id="rId7"/>
+    <hyperlink ref="C4" r:id="rId8"/>
+    <hyperlink ref="B5" r:id="rId9"/>
+    <hyperlink ref="C5" r:id="rId10"/>
+    <hyperlink ref="B8" r:id="rId11"/>
+    <hyperlink ref="C8" r:id="rId12"/>
+    <hyperlink ref="B9" r:id="rId13"/>
+    <hyperlink ref="C9" r:id="rId14"/>
+    <hyperlink ref="B10" r:id="rId15"/>
+    <hyperlink ref="C10" r:id="rId16"/>
+    <hyperlink ref="B11" r:id="rId17"/>
+    <hyperlink ref="C11" r:id="rId18"/>
+    <hyperlink ref="B12" r:id="rId19"/>
+    <hyperlink ref="C12" r:id="rId20"/>
+    <hyperlink ref="B15" r:id="rId21"/>
+    <hyperlink ref="C15" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId29"/>
+  <pageSetup orientation="portrait" r:id="rId23"/>
 </worksheet>
 </file>
 

--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="653">
   <si>
     <t>https://leetcode.com/problems/find-all-numbers-disappeared-in-an-array/description/</t>
   </si>
@@ -1969,6 +1969,33 @@
   </si>
   <si>
     <t>Minimum Difference Subsets</t>
+  </si>
+  <si>
+    <t>Zero one knapsack</t>
+  </si>
+  <si>
+    <t>Target Sum</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/coin-change-ii/description/</t>
+  </si>
+  <si>
+    <t>Coin Change II</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/target-sum/description/</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=GqOmJHQZivw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=myPeWb3Y68A</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=b3GD8263-PQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=HgyouUi11zk</t>
   </si>
 </sst>
 </file>
@@ -4303,10 +4330,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4459,9 +4486,50 @@
         <v>618</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>643</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>644</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>617</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>645</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>647</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>652</v>
       </c>
     </row>
   </sheetData>
@@ -4488,9 +4556,16 @@
     <hyperlink ref="C12" r:id="rId20"/>
     <hyperlink ref="B15" r:id="rId21"/>
     <hyperlink ref="C15" r:id="rId22"/>
+    <hyperlink ref="B20" r:id="rId23"/>
+    <hyperlink ref="B22" r:id="rId24"/>
+    <hyperlink ref="B21" r:id="rId25"/>
+    <hyperlink ref="C19" r:id="rId26"/>
+    <hyperlink ref="C20" r:id="rId27"/>
+    <hyperlink ref="C21" r:id="rId28"/>
+    <hyperlink ref="C22" r:id="rId29"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId23"/>
+  <pageSetup orientation="portrait" r:id="rId30"/>
 </worksheet>
 </file>
 

--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="682">
   <si>
     <t>https://leetcode.com/problems/find-all-numbers-disappeared-in-an-array/description/</t>
   </si>
@@ -1996,6 +1996,93 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=HgyouUi11zk</t>
+  </si>
+  <si>
+    <t>Longest Common Subsequence</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-common-subsequence/description/</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NPZn9jBrX8U</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/printing-longest-common-subsequence/</t>
+  </si>
+  <si>
+    <t>Print Longest Common Subsequence</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-zI4mrF2Pb4</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/longest-common-substring-dp-29/</t>
+  </si>
+  <si>
+    <t>Longest Common SubString</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_wP9mWNPL5w</t>
+  </si>
+  <si>
+    <t>Longest Palindromic Subsequence</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-palindromic-subsequence/description/</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6i_T5kkfv4A</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-insertion-steps-to-make-a-string-palindrome/description/</t>
+  </si>
+  <si>
+    <t>Minimum Insertion Steps to Make a String Palindrome</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=xPBLEj41rFU</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/shortest-common-supersequence/description/</t>
+  </si>
+  <si>
+    <t>Shortest Common Supersequence</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=xElxAuBcvsU</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/print-shortest-common-supersequence/</t>
+  </si>
+  <si>
+    <t>Printing Shortest Common Supersequence</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/distinct-subsequences/description/</t>
+  </si>
+  <si>
+    <t>Distinct Subsequences</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nVG7eTiD2bY</t>
+  </si>
+  <si>
+    <t>Edit Distance</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/edit-distance/description/</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fJaKO8FbDdo</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/minimum-number-deletions-insertions-transform-one-string-another/</t>
+  </si>
+  <si>
+    <t>Minimum number of deletions and insertions to transform one string into another</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yMnH0jrir0Q</t>
   </si>
 </sst>
 </file>
@@ -4330,10 +4417,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4530,6 +4617,116 @@
       </c>
       <c r="C22" s="1" t="s">
         <v>652</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>653</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>657</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>660</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>662</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>666</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>680</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>669</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>672</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>674</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>676</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>678</v>
       </c>
     </row>
   </sheetData>
@@ -4563,9 +4760,29 @@
     <hyperlink ref="C20" r:id="rId27"/>
     <hyperlink ref="C21" r:id="rId28"/>
     <hyperlink ref="C22" r:id="rId29"/>
+    <hyperlink ref="B24" r:id="rId30"/>
+    <hyperlink ref="C24" r:id="rId31"/>
+    <hyperlink ref="B25" r:id="rId32"/>
+    <hyperlink ref="C25" r:id="rId33"/>
+    <hyperlink ref="B26" r:id="rId34"/>
+    <hyperlink ref="C26" r:id="rId35"/>
+    <hyperlink ref="B27" r:id="rId36"/>
+    <hyperlink ref="C27" r:id="rId37"/>
+    <hyperlink ref="B28" r:id="rId38"/>
+    <hyperlink ref="C28" r:id="rId39"/>
+    <hyperlink ref="B30" r:id="rId40"/>
+    <hyperlink ref="C30" r:id="rId41"/>
+    <hyperlink ref="B31" r:id="rId42"/>
+    <hyperlink ref="C31" r:id="rId43"/>
+    <hyperlink ref="B32" r:id="rId44"/>
+    <hyperlink ref="C32" r:id="rId45"/>
+    <hyperlink ref="B33" r:id="rId46"/>
+    <hyperlink ref="C33" r:id="rId47"/>
+    <hyperlink ref="B29" r:id="rId48"/>
+    <hyperlink ref="C29" r:id="rId49"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId30"/>
+  <pageSetup orientation="portrait" r:id="rId50"/>
 </worksheet>
 </file>
 

--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="697">
   <si>
     <t>https://leetcode.com/problems/find-all-numbers-disappeared-in-an-array/description/</t>
   </si>
@@ -2083,6 +2083,51 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=yMnH0jrir0Q</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/best-time-to-buy-and-sell-stock/description/</t>
+  </si>
+  <si>
+    <t>Best Time to Buy and Sell Stock</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nGJmxkUJQGs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=excAOvwF_Wk</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/best-time-to-buy-and-sell-stock-ii/description/</t>
+  </si>
+  <si>
+    <t>Best Time to Buy and Sell Stock II</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/best-time-to-buy-and-sell-stock-iv/description/</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IV1dHbk5CDc</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/best-time-to-buy-and-sell-stock-with-cooldown/description/</t>
+  </si>
+  <si>
+    <t>Best Time to Buy and Sell Stock with Cooldown</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IGIe46xw3YY</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/best-time-to-buy-and-sell-stock-with-transaction-fee/description/</t>
+  </si>
+  <si>
+    <t>Best Time to Buy and Sell Stock with Transaction Fee</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=k4eK-vEmnKg</t>
+  </si>
+  <si>
+    <t>Best Time to Buy and Sell Stock IV ( Hard, 3rd and 4th are same )</t>
   </si>
 </sst>
 </file>
@@ -4417,10 +4462,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4727,6 +4772,61 @@
       </c>
       <c r="C33" s="1" t="s">
         <v>678</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>683</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>687</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>696</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>691</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>694</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>695</v>
       </c>
     </row>
   </sheetData>
@@ -4780,9 +4880,19 @@
     <hyperlink ref="C33" r:id="rId47"/>
     <hyperlink ref="B29" r:id="rId48"/>
     <hyperlink ref="C29" r:id="rId49"/>
+    <hyperlink ref="B35" r:id="rId50"/>
+    <hyperlink ref="C36" r:id="rId51"/>
+    <hyperlink ref="C35" r:id="rId52"/>
+    <hyperlink ref="B36" r:id="rId53"/>
+    <hyperlink ref="B37" r:id="rId54"/>
+    <hyperlink ref="C37" r:id="rId55"/>
+    <hyperlink ref="B38" r:id="rId56"/>
+    <hyperlink ref="C38" r:id="rId57"/>
+    <hyperlink ref="B39" r:id="rId58"/>
+    <hyperlink ref="C39" r:id="rId59"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId50"/>
+  <pageSetup orientation="portrait" r:id="rId60"/>
 </worksheet>
 </file>
 

--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="697">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="723">
   <si>
     <t>https://leetcode.com/problems/find-all-numbers-disappeared-in-an-array/description/</t>
   </si>
@@ -2128,6 +2128,84 @@
   </si>
   <si>
     <t>Best Time to Buy and Sell Stock IV ( Hard, 3rd and 4th are same )</t>
+  </si>
+  <si>
+    <t>Longest Increasing Subsequence</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ekcwMsSIzVc</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/construction-of-longest-increasing-subsequence-using-dynamic-programming/</t>
+  </si>
+  <si>
+    <t>Printing Longest Increasing Subsequence</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IFfYfonAFGc</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/longest-bitonic-subsequence-dp-15/</t>
+  </si>
+  <si>
+    <t>Longest Bitonic Subsequence</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=y4vN0WNdrlg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cKVl1TFdNXg</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/number-of-longest-increasing-subsequence/description/</t>
+  </si>
+  <si>
+    <t>Number of Longest Increasing Subsequence</t>
+  </si>
+  <si>
+    <t>MCM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vRVfmbCFW7Y</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/matrix-chain-multiplication-dp-8/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-cost-to-cut-a-stick/description/</t>
+  </si>
+  <si>
+    <t>Minimum Cost to Cut a Stick</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Yz4LlDSlkns</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/burst-balloons/description/</t>
+  </si>
+  <si>
+    <t>Burst Balloons</t>
+  </si>
+  <si>
+    <t>Palindrome Partitioning II</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/palindrome-partitioning-ii/description/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/partition-array-for-maximum-sum/description/</t>
+  </si>
+  <si>
+    <t>Partition Array for Maximum Sum</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_H8V5hJUGd0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PhWWJmaKfMc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=xwomavsC86c</t>
   </si>
 </sst>
 </file>
@@ -4462,10 +4540,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4827,6 +4905,109 @@
       </c>
       <c r="C39" s="1" t="s">
         <v>695</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>703</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>697</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>707</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>700</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>715</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>708</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>712</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>716</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>719</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>721</v>
       </c>
     </row>
   </sheetData>
@@ -4890,9 +5071,27 @@
     <hyperlink ref="C38" r:id="rId57"/>
     <hyperlink ref="B39" r:id="rId58"/>
     <hyperlink ref="C39" r:id="rId59"/>
+    <hyperlink ref="C42" r:id="rId60"/>
+    <hyperlink ref="B44" r:id="rId61"/>
+    <hyperlink ref="C44" r:id="rId62"/>
+    <hyperlink ref="B41" r:id="rId63"/>
+    <hyperlink ref="C41" r:id="rId64"/>
+    <hyperlink ref="C43" r:id="rId65"/>
+    <hyperlink ref="B43" r:id="rId66"/>
+    <hyperlink ref="B42" r:id="rId67"/>
+    <hyperlink ref="C47" r:id="rId68"/>
+    <hyperlink ref="B47" r:id="rId69"/>
+    <hyperlink ref="C46" r:id="rId70"/>
+    <hyperlink ref="B46" r:id="rId71"/>
+    <hyperlink ref="B48" r:id="rId72"/>
+    <hyperlink ref="B49" r:id="rId73"/>
+    <hyperlink ref="B50" r:id="rId74"/>
+    <hyperlink ref="C49" r:id="rId75"/>
+    <hyperlink ref="C50" r:id="rId76"/>
+    <hyperlink ref="C48" r:id="rId77"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId60"/>
+  <pageSetup orientation="portrait" r:id="rId78"/>
 </worksheet>
 </file>
 

--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="723">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="723">
   <si>
     <t>https://leetcode.com/problems/find-all-numbers-disappeared-in-an-array/description/</t>
   </si>
@@ -4540,10 +4540,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4615,205 +4615,208 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>620</v>
+        <v>637</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>619</v>
+        <v>638</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>627</v>
+        <v>639</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>635</v>
+        <v>620</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>634</v>
+        <v>619</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>617</v>
+        <v>641</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="C14" s="1"/>
+        <v>640</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>641</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>642</v>
+        <v>618</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
         <v>643</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>644</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>649</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>644</v>
+        <v>617</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>616</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>617</v>
+        <v>645</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>616</v>
+        <v>648</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>647</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="C22" s="1" t="s">
         <v>652</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>653</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>666</v>
+        <v>680</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>665</v>
+        <v>679</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>667</v>
+        <v>681</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>680</v>
+        <v>669</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>679</v>
+        <v>668</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>681</v>
+        <v>670</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>670</v>
@@ -4821,192 +4824,181 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>676</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="C33" s="1" t="s">
         <v>678</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>683</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>687</v>
+        <v>696</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>694</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="C39" s="1" t="s">
         <v>695</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>703</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>697</v>
+        <v>707</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>706</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>698</v>
+        <v>705</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>700</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>701</v>
-      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
+      <c r="A45" t="s">
+        <v>715</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>713</v>
+      </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>709</v>
+        <v>722</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>711</v>
+        <v>717</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>719</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="C50" s="1" t="s">
         <v>721</v>
       </c>
     </row>
@@ -5014,84 +5006,83 @@
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
     <hyperlink ref="B6" r:id="rId2"/>
-    <hyperlink ref="B14" r:id="rId3"/>
-    <hyperlink ref="C3" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
-    <hyperlink ref="C1" r:id="rId6"/>
-    <hyperlink ref="B4" r:id="rId7"/>
-    <hyperlink ref="C4" r:id="rId8"/>
-    <hyperlink ref="B5" r:id="rId9"/>
-    <hyperlink ref="C5" r:id="rId10"/>
-    <hyperlink ref="B8" r:id="rId11"/>
-    <hyperlink ref="C8" r:id="rId12"/>
-    <hyperlink ref="B9" r:id="rId13"/>
-    <hyperlink ref="C9" r:id="rId14"/>
-    <hyperlink ref="B10" r:id="rId15"/>
-    <hyperlink ref="C10" r:id="rId16"/>
-    <hyperlink ref="B11" r:id="rId17"/>
-    <hyperlink ref="C11" r:id="rId18"/>
-    <hyperlink ref="B12" r:id="rId19"/>
-    <hyperlink ref="C12" r:id="rId20"/>
-    <hyperlink ref="B15" r:id="rId21"/>
-    <hyperlink ref="C15" r:id="rId22"/>
-    <hyperlink ref="B20" r:id="rId23"/>
-    <hyperlink ref="B22" r:id="rId24"/>
-    <hyperlink ref="B21" r:id="rId25"/>
-    <hyperlink ref="C19" r:id="rId26"/>
-    <hyperlink ref="C20" r:id="rId27"/>
-    <hyperlink ref="C21" r:id="rId28"/>
-    <hyperlink ref="C22" r:id="rId29"/>
-    <hyperlink ref="B24" r:id="rId30"/>
-    <hyperlink ref="C24" r:id="rId31"/>
-    <hyperlink ref="B25" r:id="rId32"/>
-    <hyperlink ref="C25" r:id="rId33"/>
-    <hyperlink ref="B26" r:id="rId34"/>
-    <hyperlink ref="C26" r:id="rId35"/>
-    <hyperlink ref="B27" r:id="rId36"/>
-    <hyperlink ref="C27" r:id="rId37"/>
-    <hyperlink ref="B28" r:id="rId38"/>
-    <hyperlink ref="C28" r:id="rId39"/>
-    <hyperlink ref="B30" r:id="rId40"/>
-    <hyperlink ref="C30" r:id="rId41"/>
-    <hyperlink ref="B31" r:id="rId42"/>
-    <hyperlink ref="C31" r:id="rId43"/>
-    <hyperlink ref="B32" r:id="rId44"/>
-    <hyperlink ref="C32" r:id="rId45"/>
-    <hyperlink ref="B33" r:id="rId46"/>
-    <hyperlink ref="C33" r:id="rId47"/>
-    <hyperlink ref="B29" r:id="rId48"/>
-    <hyperlink ref="C29" r:id="rId49"/>
-    <hyperlink ref="B35" r:id="rId50"/>
-    <hyperlink ref="C36" r:id="rId51"/>
-    <hyperlink ref="C35" r:id="rId52"/>
-    <hyperlink ref="B36" r:id="rId53"/>
-    <hyperlink ref="B37" r:id="rId54"/>
-    <hyperlink ref="C37" r:id="rId55"/>
-    <hyperlink ref="B38" r:id="rId56"/>
-    <hyperlink ref="C38" r:id="rId57"/>
-    <hyperlink ref="B39" r:id="rId58"/>
-    <hyperlink ref="C39" r:id="rId59"/>
-    <hyperlink ref="C42" r:id="rId60"/>
-    <hyperlink ref="B44" r:id="rId61"/>
-    <hyperlink ref="C44" r:id="rId62"/>
-    <hyperlink ref="B41" r:id="rId63"/>
-    <hyperlink ref="C41" r:id="rId64"/>
-    <hyperlink ref="C43" r:id="rId65"/>
-    <hyperlink ref="B43" r:id="rId66"/>
-    <hyperlink ref="B42" r:id="rId67"/>
-    <hyperlink ref="C47" r:id="rId68"/>
-    <hyperlink ref="B47" r:id="rId69"/>
-    <hyperlink ref="C46" r:id="rId70"/>
-    <hyperlink ref="B46" r:id="rId71"/>
-    <hyperlink ref="B48" r:id="rId72"/>
-    <hyperlink ref="B49" r:id="rId73"/>
-    <hyperlink ref="B50" r:id="rId74"/>
-    <hyperlink ref="C49" r:id="rId75"/>
-    <hyperlink ref="C50" r:id="rId76"/>
-    <hyperlink ref="C48" r:id="rId77"/>
+    <hyperlink ref="C3" r:id="rId3"/>
+    <hyperlink ref="C6" r:id="rId4"/>
+    <hyperlink ref="C1" r:id="rId5"/>
+    <hyperlink ref="B4" r:id="rId6"/>
+    <hyperlink ref="C4" r:id="rId7"/>
+    <hyperlink ref="B5" r:id="rId8"/>
+    <hyperlink ref="C5" r:id="rId9"/>
+    <hyperlink ref="B14" r:id="rId10"/>
+    <hyperlink ref="C14" r:id="rId11"/>
+    <hyperlink ref="B19" r:id="rId12"/>
+    <hyperlink ref="B21" r:id="rId13"/>
+    <hyperlink ref="B20" r:id="rId14"/>
+    <hyperlink ref="C18" r:id="rId15"/>
+    <hyperlink ref="C19" r:id="rId16"/>
+    <hyperlink ref="C20" r:id="rId17"/>
+    <hyperlink ref="C21" r:id="rId18"/>
+    <hyperlink ref="B23" r:id="rId19"/>
+    <hyperlink ref="C23" r:id="rId20"/>
+    <hyperlink ref="B24" r:id="rId21"/>
+    <hyperlink ref="C24" r:id="rId22"/>
+    <hyperlink ref="B25" r:id="rId23"/>
+    <hyperlink ref="C25" r:id="rId24"/>
+    <hyperlink ref="B26" r:id="rId25"/>
+    <hyperlink ref="C26" r:id="rId26"/>
+    <hyperlink ref="B27" r:id="rId27"/>
+    <hyperlink ref="C27" r:id="rId28"/>
+    <hyperlink ref="B29" r:id="rId29"/>
+    <hyperlink ref="C29" r:id="rId30"/>
+    <hyperlink ref="B30" r:id="rId31"/>
+    <hyperlink ref="C30" r:id="rId32"/>
+    <hyperlink ref="B31" r:id="rId33"/>
+    <hyperlink ref="C31" r:id="rId34"/>
+    <hyperlink ref="B32" r:id="rId35"/>
+    <hyperlink ref="C32" r:id="rId36"/>
+    <hyperlink ref="B28" r:id="rId37"/>
+    <hyperlink ref="C28" r:id="rId38"/>
+    <hyperlink ref="B34" r:id="rId39"/>
+    <hyperlink ref="C35" r:id="rId40"/>
+    <hyperlink ref="C34" r:id="rId41"/>
+    <hyperlink ref="B35" r:id="rId42"/>
+    <hyperlink ref="B36" r:id="rId43"/>
+    <hyperlink ref="C36" r:id="rId44"/>
+    <hyperlink ref="B37" r:id="rId45"/>
+    <hyperlink ref="C37" r:id="rId46"/>
+    <hyperlink ref="B38" r:id="rId47"/>
+    <hyperlink ref="C38" r:id="rId48"/>
+    <hyperlink ref="C41" r:id="rId49"/>
+    <hyperlink ref="B43" r:id="rId50"/>
+    <hyperlink ref="C43" r:id="rId51"/>
+    <hyperlink ref="B40" r:id="rId52"/>
+    <hyperlink ref="C40" r:id="rId53"/>
+    <hyperlink ref="C42" r:id="rId54"/>
+    <hyperlink ref="B42" r:id="rId55"/>
+    <hyperlink ref="B41" r:id="rId56"/>
+    <hyperlink ref="C46" r:id="rId57"/>
+    <hyperlink ref="B46" r:id="rId58"/>
+    <hyperlink ref="C45" r:id="rId59"/>
+    <hyperlink ref="B45" r:id="rId60"/>
+    <hyperlink ref="B47" r:id="rId61"/>
+    <hyperlink ref="B48" r:id="rId62"/>
+    <hyperlink ref="B49" r:id="rId63"/>
+    <hyperlink ref="C48" r:id="rId64"/>
+    <hyperlink ref="C49" r:id="rId65"/>
+    <hyperlink ref="C47" r:id="rId66"/>
+    <hyperlink ref="B8" r:id="rId67"/>
+    <hyperlink ref="C8" r:id="rId68"/>
+    <hyperlink ref="B9" r:id="rId69"/>
+    <hyperlink ref="C9" r:id="rId70"/>
+    <hyperlink ref="B10" r:id="rId71"/>
+    <hyperlink ref="C10" r:id="rId72"/>
+    <hyperlink ref="B11" r:id="rId73"/>
+    <hyperlink ref="C11" r:id="rId74"/>
+    <hyperlink ref="B12" r:id="rId75"/>
+    <hyperlink ref="C12" r:id="rId76"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId78"/>
+  <pageSetup orientation="portrait" r:id="rId77"/>
 </worksheet>
 </file>
 

--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="723">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="734">
   <si>
     <t>https://leetcode.com/problems/find-all-numbers-disappeared-in-an-array/description/</t>
   </si>
@@ -1968,9 +1968,6 @@
     <t>https://www.youtube.com/watch?v=fWX9xDmIzRI</t>
   </si>
   <si>
-    <t>Minimum Difference Subsets</t>
-  </si>
-  <si>
     <t>Zero one knapsack</t>
   </si>
   <si>
@@ -2206,6 +2203,42 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=xwomavsC86c</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/0-1-knapsack-problem-dp-10/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/count-of-subsets-with-sum-equal-to-x/</t>
+  </si>
+  <si>
+    <t>Count of subsets with sum equal to k</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZHyb-A2Mte4</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/partition-array-into-two-arrays-to-minimize-sum-difference/</t>
+  </si>
+  <si>
+    <t>Partition Array Into Two Arrays to Minimize Sum Difference</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=GS_OqZb2CWc</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/partition-equal-subset-sum/description/</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mO8XpGoJwuo</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/unbounded-knapsack-repetition-items-allowed/</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=OgvOZ6OrJoY</t>
+  </si>
+  <si>
+    <t>Unbounded Knapsack</t>
   </si>
 </sst>
 </file>
@@ -4540,10 +4573,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4674,332 +4707,380 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>641</v>
+        <v>724</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>640</v>
+        <v>723</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>642</v>
+        <v>725</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>618</v>
+        <v>727</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>643</v>
+        <v>618</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>641</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>644</v>
       </c>
+      <c r="B18" s="1" t="s">
+        <v>647</v>
+      </c>
       <c r="C18" s="1" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>617</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="C19" s="1" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>645</v>
+        <v>617</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>648</v>
+        <v>616</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>711</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>730</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>653</v>
+        <v>733</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>654</v>
+        <v>731</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>655</v>
+        <v>732</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>657</v>
+        <v>643</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>656</v>
+        <v>722</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>660</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>661</v>
+        <v>648</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>680</v>
+        <v>659</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>679</v>
+        <v>658</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>681</v>
+        <v>660</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>678</v>
+        <v>669</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>671</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>669</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>685</v>
+        <v>674</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>687</v>
+        <v>675</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>696</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>689</v>
+        <v>677</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
         <v>695</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>703</v>
+        <v>690</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>702</v>
+        <v>689</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>704</v>
+        <v>691</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>706</v>
+        <v>692</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>707</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>705</v>
+        <v>694</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
+      <c r="A44" t="s">
+        <v>696</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>697</v>
+      </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>710</v>
+        <v>698</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>712</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>711</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>722</v>
-      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
+        <v>707</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>711</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>715</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="B49" s="1" t="s">
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
         <v>718</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>721</v>
+      <c r="B52" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>720</v>
       </c>
     </row>
   </sheetData>
@@ -5013,76 +5094,87 @@
     <hyperlink ref="C4" r:id="rId7"/>
     <hyperlink ref="B5" r:id="rId8"/>
     <hyperlink ref="C5" r:id="rId9"/>
-    <hyperlink ref="B14" r:id="rId10"/>
-    <hyperlink ref="C14" r:id="rId11"/>
-    <hyperlink ref="B19" r:id="rId12"/>
+    <hyperlink ref="B17" r:id="rId10"/>
+    <hyperlink ref="C17" r:id="rId11"/>
+    <hyperlink ref="B20" r:id="rId12"/>
     <hyperlink ref="B21" r:id="rId13"/>
-    <hyperlink ref="B20" r:id="rId14"/>
-    <hyperlink ref="C18" r:id="rId15"/>
-    <hyperlink ref="C19" r:id="rId16"/>
-    <hyperlink ref="C20" r:id="rId17"/>
-    <hyperlink ref="C21" r:id="rId18"/>
-    <hyperlink ref="B23" r:id="rId19"/>
-    <hyperlink ref="C23" r:id="rId20"/>
-    <hyperlink ref="B24" r:id="rId21"/>
-    <hyperlink ref="C24" r:id="rId22"/>
-    <hyperlink ref="B25" r:id="rId23"/>
-    <hyperlink ref="C25" r:id="rId24"/>
-    <hyperlink ref="B26" r:id="rId25"/>
-    <hyperlink ref="C26" r:id="rId26"/>
-    <hyperlink ref="B27" r:id="rId27"/>
-    <hyperlink ref="C27" r:id="rId28"/>
-    <hyperlink ref="B29" r:id="rId29"/>
-    <hyperlink ref="C29" r:id="rId30"/>
-    <hyperlink ref="B30" r:id="rId31"/>
-    <hyperlink ref="C30" r:id="rId32"/>
-    <hyperlink ref="B31" r:id="rId33"/>
-    <hyperlink ref="C31" r:id="rId34"/>
-    <hyperlink ref="B32" r:id="rId35"/>
-    <hyperlink ref="C32" r:id="rId36"/>
-    <hyperlink ref="B28" r:id="rId37"/>
-    <hyperlink ref="C28" r:id="rId38"/>
-    <hyperlink ref="B34" r:id="rId39"/>
-    <hyperlink ref="C35" r:id="rId40"/>
-    <hyperlink ref="C34" r:id="rId41"/>
-    <hyperlink ref="B35" r:id="rId42"/>
-    <hyperlink ref="B36" r:id="rId43"/>
-    <hyperlink ref="C36" r:id="rId44"/>
-    <hyperlink ref="B37" r:id="rId45"/>
-    <hyperlink ref="C37" r:id="rId46"/>
-    <hyperlink ref="B38" r:id="rId47"/>
-    <hyperlink ref="C38" r:id="rId48"/>
-    <hyperlink ref="C41" r:id="rId49"/>
-    <hyperlink ref="B43" r:id="rId50"/>
-    <hyperlink ref="C43" r:id="rId51"/>
-    <hyperlink ref="B40" r:id="rId52"/>
-    <hyperlink ref="C40" r:id="rId53"/>
-    <hyperlink ref="C42" r:id="rId54"/>
-    <hyperlink ref="B42" r:id="rId55"/>
-    <hyperlink ref="B41" r:id="rId56"/>
-    <hyperlink ref="C46" r:id="rId57"/>
-    <hyperlink ref="B46" r:id="rId58"/>
-    <hyperlink ref="C45" r:id="rId59"/>
-    <hyperlink ref="B45" r:id="rId60"/>
-    <hyperlink ref="B47" r:id="rId61"/>
-    <hyperlink ref="B48" r:id="rId62"/>
-    <hyperlink ref="B49" r:id="rId63"/>
-    <hyperlink ref="C48" r:id="rId64"/>
-    <hyperlink ref="C49" r:id="rId65"/>
-    <hyperlink ref="C47" r:id="rId66"/>
-    <hyperlink ref="B8" r:id="rId67"/>
-    <hyperlink ref="C8" r:id="rId68"/>
-    <hyperlink ref="B9" r:id="rId69"/>
-    <hyperlink ref="C9" r:id="rId70"/>
-    <hyperlink ref="B10" r:id="rId71"/>
-    <hyperlink ref="C10" r:id="rId72"/>
-    <hyperlink ref="B11" r:id="rId73"/>
-    <hyperlink ref="C11" r:id="rId74"/>
-    <hyperlink ref="B12" r:id="rId75"/>
-    <hyperlink ref="C12" r:id="rId76"/>
+    <hyperlink ref="C20" r:id="rId14"/>
+    <hyperlink ref="C21" r:id="rId15"/>
+    <hyperlink ref="B26" r:id="rId16"/>
+    <hyperlink ref="C26" r:id="rId17"/>
+    <hyperlink ref="B27" r:id="rId18"/>
+    <hyperlink ref="C27" r:id="rId19"/>
+    <hyperlink ref="B28" r:id="rId20"/>
+    <hyperlink ref="C28" r:id="rId21"/>
+    <hyperlink ref="B29" r:id="rId22"/>
+    <hyperlink ref="C29" r:id="rId23"/>
+    <hyperlink ref="B30" r:id="rId24"/>
+    <hyperlink ref="C30" r:id="rId25"/>
+    <hyperlink ref="B32" r:id="rId26"/>
+    <hyperlink ref="C32" r:id="rId27"/>
+    <hyperlink ref="B33" r:id="rId28"/>
+    <hyperlink ref="C33" r:id="rId29"/>
+    <hyperlink ref="B34" r:id="rId30"/>
+    <hyperlink ref="C34" r:id="rId31"/>
+    <hyperlink ref="B35" r:id="rId32"/>
+    <hyperlink ref="C35" r:id="rId33"/>
+    <hyperlink ref="B31" r:id="rId34"/>
+    <hyperlink ref="C31" r:id="rId35"/>
+    <hyperlink ref="B37" r:id="rId36"/>
+    <hyperlink ref="C38" r:id="rId37"/>
+    <hyperlink ref="C37" r:id="rId38"/>
+    <hyperlink ref="B38" r:id="rId39"/>
+    <hyperlink ref="B39" r:id="rId40"/>
+    <hyperlink ref="C39" r:id="rId41"/>
+    <hyperlink ref="B40" r:id="rId42"/>
+    <hyperlink ref="C40" r:id="rId43"/>
+    <hyperlink ref="B41" r:id="rId44"/>
+    <hyperlink ref="C41" r:id="rId45"/>
+    <hyperlink ref="C44" r:id="rId46"/>
+    <hyperlink ref="B46" r:id="rId47"/>
+    <hyperlink ref="C46" r:id="rId48"/>
+    <hyperlink ref="B43" r:id="rId49"/>
+    <hyperlink ref="C43" r:id="rId50"/>
+    <hyperlink ref="C45" r:id="rId51"/>
+    <hyperlink ref="B45" r:id="rId52"/>
+    <hyperlink ref="B44" r:id="rId53"/>
+    <hyperlink ref="C49" r:id="rId54"/>
+    <hyperlink ref="B49" r:id="rId55"/>
+    <hyperlink ref="C48" r:id="rId56"/>
+    <hyperlink ref="B48" r:id="rId57"/>
+    <hyperlink ref="B50" r:id="rId58"/>
+    <hyperlink ref="B51" r:id="rId59"/>
+    <hyperlink ref="B52" r:id="rId60"/>
+    <hyperlink ref="C51" r:id="rId61"/>
+    <hyperlink ref="C52" r:id="rId62"/>
+    <hyperlink ref="C50" r:id="rId63"/>
+    <hyperlink ref="B8" r:id="rId64"/>
+    <hyperlink ref="C8" r:id="rId65"/>
+    <hyperlink ref="B9" r:id="rId66"/>
+    <hyperlink ref="C9" r:id="rId67"/>
+    <hyperlink ref="B10" r:id="rId68"/>
+    <hyperlink ref="C10" r:id="rId69"/>
+    <hyperlink ref="B11" r:id="rId70"/>
+    <hyperlink ref="C11" r:id="rId71"/>
+    <hyperlink ref="B12" r:id="rId72"/>
+    <hyperlink ref="C12" r:id="rId73"/>
+    <hyperlink ref="B14" r:id="rId74"/>
+    <hyperlink ref="C14" r:id="rId75"/>
+    <hyperlink ref="B15" r:id="rId76"/>
+    <hyperlink ref="C15" r:id="rId77"/>
+    <hyperlink ref="B16" r:id="rId78"/>
+    <hyperlink ref="C16" r:id="rId79"/>
+    <hyperlink ref="B18" r:id="rId80"/>
+    <hyperlink ref="C18" r:id="rId81"/>
+    <hyperlink ref="C24" r:id="rId82"/>
+    <hyperlink ref="B24" r:id="rId83"/>
+    <hyperlink ref="B22" r:id="rId84"/>
+    <hyperlink ref="C22" r:id="rId85"/>
+    <hyperlink ref="B23" r:id="rId86"/>
+    <hyperlink ref="C23" r:id="rId87"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId77"/>
+  <pageSetup orientation="portrait" r:id="rId88"/>
 </worksheet>
 </file>
 

--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="735">
   <si>
     <t>https://leetcode.com/problems/find-all-numbers-disappeared-in-an-array/description/</t>
   </si>
@@ -2239,6 +2239,9 @@
   </si>
   <si>
     <t>Unbounded Knapsack</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VDhRg-ZJTuc</t>
   </si>
 </sst>
 </file>
@@ -4575,8 +4578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4900,7 +4903,7 @@
         <v>670</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>669</v>
+        <v>734</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
@@ -5164,14 +5167,14 @@
     <hyperlink ref="C15" r:id="rId77"/>
     <hyperlink ref="B16" r:id="rId78"/>
     <hyperlink ref="C16" r:id="rId79"/>
-    <hyperlink ref="B18" r:id="rId80"/>
-    <hyperlink ref="C18" r:id="rId81"/>
-    <hyperlink ref="C24" r:id="rId82"/>
-    <hyperlink ref="B24" r:id="rId83"/>
-    <hyperlink ref="B22" r:id="rId84"/>
-    <hyperlink ref="C22" r:id="rId85"/>
-    <hyperlink ref="B23" r:id="rId86"/>
-    <hyperlink ref="C23" r:id="rId87"/>
+    <hyperlink ref="C24" r:id="rId80"/>
+    <hyperlink ref="B24" r:id="rId81"/>
+    <hyperlink ref="B22" r:id="rId82"/>
+    <hyperlink ref="C22" r:id="rId83"/>
+    <hyperlink ref="B23" r:id="rId84"/>
+    <hyperlink ref="C23" r:id="rId85"/>
+    <hyperlink ref="C18" r:id="rId86"/>
+    <hyperlink ref="B18" r:id="rId87"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId88"/>

--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="735">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="732">
   <si>
     <t>https://leetcode.com/problems/find-all-numbers-disappeared-in-an-array/description/</t>
   </si>
@@ -2140,15 +2140,6 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=IFfYfonAFGc</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/longest-bitonic-subsequence-dp-15/</t>
-  </si>
-  <si>
-    <t>Longest Bitonic Subsequence</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=y4vN0WNdrlg</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=cKVl1TFdNXg</t>
@@ -4576,10 +4567,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:XFD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4710,24 +4701,24 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -4735,10 +4726,10 @@
         <v>618</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -4787,24 +4778,24 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
@@ -4812,7 +4803,7 @@
         <v>643</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>648</v>
@@ -4903,7 +4894,7 @@
         <v>670</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
@@ -4985,83 +4976,83 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
+        <v>696</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>701</v>
-      </c>
       <c r="C43" s="1" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>696</v>
+        <v>703</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>699</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>700</v>
-      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
+      <c r="A47" t="s">
+        <v>711</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>709</v>
+      </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
+        <v>708</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>709</v>
-      </c>
       <c r="C49" s="1" t="s">
-        <v>708</v>
+        <v>718</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
@@ -5069,21 +5060,10 @@
         <v>715</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>718</v>
-      </c>
-      <c r="B52" s="1" t="s">
         <v>717</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>720</v>
       </c>
     </row>
   </sheetData>
@@ -5133,51 +5113,49 @@
     <hyperlink ref="C40" r:id="rId43"/>
     <hyperlink ref="B41" r:id="rId44"/>
     <hyperlink ref="C41" r:id="rId45"/>
-    <hyperlink ref="C44" r:id="rId46"/>
-    <hyperlink ref="B46" r:id="rId47"/>
-    <hyperlink ref="C46" r:id="rId48"/>
-    <hyperlink ref="B43" r:id="rId49"/>
-    <hyperlink ref="C43" r:id="rId50"/>
-    <hyperlink ref="C45" r:id="rId51"/>
-    <hyperlink ref="B45" r:id="rId52"/>
-    <hyperlink ref="B44" r:id="rId53"/>
-    <hyperlink ref="C49" r:id="rId54"/>
-    <hyperlink ref="B49" r:id="rId55"/>
-    <hyperlink ref="C48" r:id="rId56"/>
-    <hyperlink ref="B48" r:id="rId57"/>
-    <hyperlink ref="B50" r:id="rId58"/>
-    <hyperlink ref="B51" r:id="rId59"/>
-    <hyperlink ref="B52" r:id="rId60"/>
-    <hyperlink ref="C51" r:id="rId61"/>
-    <hyperlink ref="C52" r:id="rId62"/>
-    <hyperlink ref="C50" r:id="rId63"/>
-    <hyperlink ref="B8" r:id="rId64"/>
-    <hyperlink ref="C8" r:id="rId65"/>
-    <hyperlink ref="B9" r:id="rId66"/>
-    <hyperlink ref="C9" r:id="rId67"/>
-    <hyperlink ref="B10" r:id="rId68"/>
-    <hyperlink ref="C10" r:id="rId69"/>
-    <hyperlink ref="B11" r:id="rId70"/>
-    <hyperlink ref="C11" r:id="rId71"/>
-    <hyperlink ref="B12" r:id="rId72"/>
-    <hyperlink ref="C12" r:id="rId73"/>
-    <hyperlink ref="B14" r:id="rId74"/>
-    <hyperlink ref="C14" r:id="rId75"/>
-    <hyperlink ref="B15" r:id="rId76"/>
-    <hyperlink ref="C15" r:id="rId77"/>
-    <hyperlink ref="B16" r:id="rId78"/>
-    <hyperlink ref="C16" r:id="rId79"/>
-    <hyperlink ref="C24" r:id="rId80"/>
-    <hyperlink ref="B24" r:id="rId81"/>
-    <hyperlink ref="B22" r:id="rId82"/>
-    <hyperlink ref="C22" r:id="rId83"/>
-    <hyperlink ref="B23" r:id="rId84"/>
-    <hyperlink ref="C23" r:id="rId85"/>
-    <hyperlink ref="C18" r:id="rId86"/>
-    <hyperlink ref="B18" r:id="rId87"/>
+    <hyperlink ref="C43" r:id="rId46"/>
+    <hyperlink ref="B45" r:id="rId47"/>
+    <hyperlink ref="C45" r:id="rId48"/>
+    <hyperlink ref="C44" r:id="rId49"/>
+    <hyperlink ref="B44" r:id="rId50"/>
+    <hyperlink ref="B43" r:id="rId51"/>
+    <hyperlink ref="C48" r:id="rId52"/>
+    <hyperlink ref="B48" r:id="rId53"/>
+    <hyperlink ref="C47" r:id="rId54"/>
+    <hyperlink ref="B47" r:id="rId55"/>
+    <hyperlink ref="B49" r:id="rId56"/>
+    <hyperlink ref="B50" r:id="rId57"/>
+    <hyperlink ref="B51" r:id="rId58"/>
+    <hyperlink ref="C50" r:id="rId59"/>
+    <hyperlink ref="C51" r:id="rId60"/>
+    <hyperlink ref="C49" r:id="rId61"/>
+    <hyperlink ref="B8" r:id="rId62"/>
+    <hyperlink ref="C8" r:id="rId63"/>
+    <hyperlink ref="B9" r:id="rId64"/>
+    <hyperlink ref="C9" r:id="rId65"/>
+    <hyperlink ref="B10" r:id="rId66"/>
+    <hyperlink ref="C10" r:id="rId67"/>
+    <hyperlink ref="B11" r:id="rId68"/>
+    <hyperlink ref="C11" r:id="rId69"/>
+    <hyperlink ref="B12" r:id="rId70"/>
+    <hyperlink ref="C12" r:id="rId71"/>
+    <hyperlink ref="B14" r:id="rId72"/>
+    <hyperlink ref="C14" r:id="rId73"/>
+    <hyperlink ref="B15" r:id="rId74"/>
+    <hyperlink ref="C15" r:id="rId75"/>
+    <hyperlink ref="B16" r:id="rId76"/>
+    <hyperlink ref="C16" r:id="rId77"/>
+    <hyperlink ref="C24" r:id="rId78"/>
+    <hyperlink ref="B24" r:id="rId79"/>
+    <hyperlink ref="B22" r:id="rId80"/>
+    <hyperlink ref="C22" r:id="rId81"/>
+    <hyperlink ref="B23" r:id="rId82"/>
+    <hyperlink ref="C23" r:id="rId83"/>
+    <hyperlink ref="C18" r:id="rId84"/>
+    <hyperlink ref="B18" r:id="rId85"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId88"/>
+  <pageSetup orientation="portrait" r:id="rId86"/>
 </worksheet>
 </file>
 

--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5770" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5770" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Array" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="743">
   <si>
     <t>https://leetcode.com/problems/find-all-numbers-disappeared-in-an-array/description/</t>
   </si>
@@ -609,33 +609,18 @@
     <t>Intersection of Two Linked Lists</t>
   </si>
   <si>
-    <t>https://leetcode.com/problems/linked-list-cycle/description/</t>
-  </si>
-  <si>
-    <t>Linked List Cycle</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/merge-two-sorted-lists/</t>
   </si>
   <si>
     <t>Merge Two Sorted Lists</t>
   </si>
   <si>
-    <t>https://leetcode.com/problems/palindrome-linked-list/description/</t>
-  </si>
-  <si>
-    <t>Palindrome Linked List</t>
-  </si>
-  <si>
     <t>https://www.geeksforgeeks.org/problems/remove-loop-in-linked-list/1</t>
   </si>
   <si>
     <t>Remove loop in Linked List</t>
   </si>
   <si>
-    <t>https://leetcode.com/problems/plus-one-linked-list/</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/add-two-numbers/description/</t>
   </si>
   <si>
@@ -648,21 +633,12 @@
     <t>Copy List with Random Pointer</t>
   </si>
   <si>
-    <t>https://leetcode.com/problems/linked-list-cycle-ii/description/</t>
-  </si>
-  <si>
-    <t>Linked List Cycle II</t>
-  </si>
-  <si>
     <t>https://www.geeksforgeeks.org/merge-sort-for-linked-list/</t>
   </si>
   <si>
     <t>Merge Sort for Linked Lists</t>
   </si>
   <si>
-    <t>https://leetcode.com/problems/odd-even-linked-list/</t>
-  </si>
-  <si>
     <t>Odd Even Linked List</t>
   </si>
   <si>
@@ -2233,6 +2209,63 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=VDhRg-ZJTuc</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/find-length-of-loop-in-linked-list/</t>
+  </si>
+  <si>
+    <t>Find length of loop/cycle in given Linked List</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=I4g1qbkTPus</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=u4FWXfgS8jw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=jXu-H7XuClE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wiOo4DC5GGA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XmRrGzR6udg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5Y2EiZST97Y</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8ocB7a_c-Cc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qf6qp7GzD5Q</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=eFPFwwojxGU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3kMKYQ2wNIU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=S5bfdUTrKLM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=uT7YI7XbTY8</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/rotate-list/description/</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=o811TZLAWOo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1zktEppsdig</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lIar1skcQYI</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/odd-even-linked-list/description/</t>
   </si>
 </sst>
 </file>
@@ -2666,7 +2699,7 @@
         <v>24</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -2764,7 +2797,7 @@
         <v>49</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
@@ -2797,7 +2830,7 @@
         <v>57</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
@@ -2835,7 +2868,7 @@
         <v>67</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
@@ -2846,7 +2879,7 @@
         <v>69</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
@@ -2854,10 +2887,10 @@
         <v>70</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
@@ -3023,119 +3056,119 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
     </row>
   </sheetData>
@@ -3180,122 +3213,122 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -3336,295 +3369,295 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B39" s="1" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -3689,290 +3722,290 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="B5" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="B6" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="B17" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
     </row>
   </sheetData>
@@ -4032,54 +4065,54 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
     </row>
   </sheetData>
@@ -4115,114 +4148,114 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>474</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>482</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>490</v>
       </c>
     </row>
   </sheetData>
@@ -4275,7 +4308,7 @@
         <v>93</v>
       </c>
       <c r="C1" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -4286,7 +4319,7 @@
         <v>95</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -4305,7 +4338,7 @@
         <v>98</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -4316,7 +4349,7 @@
         <v>100</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -4327,7 +4360,7 @@
         <v>102</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -4338,7 +4371,7 @@
         <v>104</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -4349,7 +4382,7 @@
         <v>106</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -4360,7 +4393,7 @@
         <v>108</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -4376,10 +4409,10 @@
         <v>112</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -4443,34 +4476,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -4483,66 +4516,66 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
     </row>
   </sheetData>
@@ -4569,7 +4602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+    <sheetView topLeftCell="A39" workbookViewId="0">
       <selection activeCell="A43" sqref="A43:XFD43"/>
     </sheetView>
   </sheetViews>
@@ -4582,11 +4615,11 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -4594,46 +4627,46 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -4642,57 +4675,57 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>619</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -4701,310 +4734,310 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
@@ -5013,57 +5046,57 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
     </row>
   </sheetData>
@@ -5175,77 +5208,77 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -5256,7 +5289,7 @@
         <v>118</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -5267,18 +5300,18 @@
         <v>120</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -5302,7 +5335,7 @@
         <v>139</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -5313,18 +5346,18 @@
         <v>146</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -5335,7 +5368,7 @@
         <v>158</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
@@ -5346,18 +5379,18 @@
         <v>160</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -5368,18 +5401,18 @@
         <v>123</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
@@ -5390,29 +5423,29 @@
         <v>125</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
@@ -5423,29 +5456,29 @@
         <v>142</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
@@ -5456,7 +5489,7 @@
         <v>128</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
@@ -5467,7 +5500,7 @@
         <v>130</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
@@ -5478,7 +5511,7 @@
         <v>144</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
@@ -5489,7 +5522,7 @@
         <v>132</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
@@ -5500,40 +5533,40 @@
         <v>148</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
@@ -5544,18 +5577,18 @@
         <v>150</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
@@ -5566,7 +5599,7 @@
         <v>133</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
@@ -5577,18 +5610,18 @@
         <v>152</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
@@ -5599,18 +5632,18 @@
         <v>154</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
@@ -5621,7 +5654,7 @@
         <v>135</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
@@ -5632,7 +5665,7 @@
         <v>138</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
@@ -5646,53 +5679,53 @@
         <v>156</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>141</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
@@ -5842,7 +5875,7 @@
         <v>166</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -5853,7 +5886,7 @@
         <v>179</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -5864,7 +5897,7 @@
         <v>168</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -5902,7 +5935,7 @@
         <v>176</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -5943,26 +5976,26 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>180</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>181</v>
@@ -5984,7 +6017,7 @@
         <v>184</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -6014,180 +6047,218 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="43.6328125" customWidth="1"/>
     <col min="2" max="2" width="69.7265625" customWidth="1"/>
+    <col min="3" max="3" width="54.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>725</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>189</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>191</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="C3" s="1" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>193</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="C4" s="1" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>195</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="C6" s="1" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>197</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>199</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="C8" s="1" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>200</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="B9" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>202</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="C10" s="1" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>204</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="C11" s="1" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>206</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="C12" s="1" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>209</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>208</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="C14" s="1" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>211</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="C16" s="1" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>213</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>214</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>217</v>
-      </c>
-      <c r="B16" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>216</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>219</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>221</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>220</v>
+      <c r="C17" s="1" t="s">
+        <v>741</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="B3" r:id="rId3"/>
-    <hyperlink ref="B4" r:id="rId4"/>
-    <hyperlink ref="B5" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
-    <hyperlink ref="B8" r:id="rId7"/>
-    <hyperlink ref="B9" r:id="rId8"/>
-    <hyperlink ref="B10" r:id="rId9"/>
-    <hyperlink ref="B11" r:id="rId10"/>
-    <hyperlink ref="B12" r:id="rId11"/>
-    <hyperlink ref="B13" r:id="rId12"/>
-    <hyperlink ref="B14" r:id="rId13"/>
-    <hyperlink ref="B15" r:id="rId14"/>
-    <hyperlink ref="B17" r:id="rId15"/>
-    <hyperlink ref="B19" r:id="rId16"/>
-    <hyperlink ref="B20" r:id="rId17"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B6" r:id="rId4"/>
+    <hyperlink ref="B7" r:id="rId5"/>
+    <hyperlink ref="B8" r:id="rId6"/>
+    <hyperlink ref="B9" r:id="rId7"/>
+    <hyperlink ref="B10" r:id="rId8"/>
+    <hyperlink ref="B11" r:id="rId9"/>
+    <hyperlink ref="B12" r:id="rId10"/>
+    <hyperlink ref="B14" r:id="rId11"/>
+    <hyperlink ref="B16" r:id="rId12"/>
+    <hyperlink ref="B17" r:id="rId13"/>
+    <hyperlink ref="B1" r:id="rId14"/>
+    <hyperlink ref="C1" r:id="rId15"/>
+    <hyperlink ref="C2" r:id="rId16"/>
+    <hyperlink ref="C3" r:id="rId17"/>
+    <hyperlink ref="C4" r:id="rId18"/>
+    <hyperlink ref="C6" r:id="rId19"/>
+    <hyperlink ref="C7" r:id="rId20"/>
+    <hyperlink ref="C8" r:id="rId21"/>
+    <hyperlink ref="C9" r:id="rId22"/>
+    <hyperlink ref="C10" r:id="rId23"/>
+    <hyperlink ref="C11" r:id="rId24"/>
+    <hyperlink ref="C13" r:id="rId25"/>
+    <hyperlink ref="B13" r:id="rId26"/>
+    <hyperlink ref="C14" r:id="rId27"/>
+    <hyperlink ref="C12" r:id="rId28"/>
+    <hyperlink ref="C16" r:id="rId29"/>
+    <hyperlink ref="C17" r:id="rId30"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId18"/>
+  <pageSetup orientation="portrait" r:id="rId31"/>
 </worksheet>
 </file>
--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5770" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5770" firstSheet="4" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Array" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="748">
   <si>
     <t>https://leetcode.com/problems/find-all-numbers-disappeared-in-an-array/description/</t>
   </si>
@@ -747,12 +747,6 @@
     <t>Sliding Window Maximum</t>
   </si>
   <si>
-    <t>https://leetcode.com/problems/implement-queue-using-stacks/</t>
-  </si>
-  <si>
-    <t>Implement Queue using Stacks</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/next-greater-element-i/description/</t>
   </si>
   <si>
@@ -768,15 +762,9 @@
     <t>Asteroid Collision</t>
   </si>
   <si>
-    <t>https://leetcode.com/problems/car-fleet/description/</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/asteroid-collision/description/</t>
   </si>
   <si>
-    <t>Car Fleet</t>
-  </si>
-  <si>
     <t>The Celebrity Problem</t>
   </si>
   <si>
@@ -819,12 +807,6 @@
     <t>The Stock Span Problem</t>
   </si>
   <si>
-    <t>https://www.geeksforgeeks.org/c-program-for-tower-of-hanoi/</t>
-  </si>
-  <si>
-    <t>Program for Tower of Hanoi Algorithm</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/largest-rectangle-in-histogram/</t>
   </si>
   <si>
@@ -2266,6 +2248,39 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/odd-even-linked-list/description/</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mJWQjJpEMa4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_eYGqw_VDR4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5rkKCrPzD8c</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cTBiBSnjO3c</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=iu0082c4HDE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=z9bJUPxzFOw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NdDIaH91P0g</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=jmbuRzYPGrg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=eay-zoSRkVc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Bzat9vgD0fs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ttVu6G7Ayik</t>
   </si>
 </sst>
 </file>
@@ -2699,7 +2714,7 @@
         <v>24</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -2797,7 +2812,7 @@
         <v>49</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
@@ -2830,7 +2845,7 @@
         <v>57</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
@@ -2868,7 +2883,7 @@
         <v>67</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
@@ -2879,7 +2894,7 @@
         <v>69</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
@@ -2887,10 +2902,10 @@
         <v>70</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
@@ -3062,7 +3077,7 @@
         <v>214</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -3073,7 +3088,7 @@
         <v>216</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -3084,7 +3099,7 @@
         <v>218</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -3095,12 +3110,12 @@
         <v>221</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>222</v>
@@ -3140,13 +3155,13 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>231</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -3157,7 +3172,7 @@
         <v>232</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -3168,7 +3183,7 @@
         <v>234</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
     </row>
   </sheetData>
@@ -3199,27 +3214,31 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="43.6328125" customWidth="1"/>
     <col min="2" max="2" width="69.90625" customWidth="1"/>
+    <col min="3" max="3" width="54.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>237</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C1" s="1" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>239</v>
       </c>
@@ -3227,127 +3246,141 @@
         <v>238</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C4" s="1" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>242</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>243</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>245</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+        <v>244</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>247</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C7" s="1" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>249</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C8" s="1" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>251</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C9" s="1" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>253</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C10" s="1" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>255</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="C11" s="1" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>257</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="C13" s="1" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>259</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>261</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>263</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>265</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>264</v>
+      <c r="C14" s="1" t="s">
+        <v>747</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1"/>
     <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="B3" r:id="rId3"/>
-    <hyperlink ref="B6" r:id="rId4"/>
-    <hyperlink ref="B5" r:id="rId5"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
     <hyperlink ref="B7" r:id="rId6"/>
     <hyperlink ref="B8" r:id="rId7"/>
     <hyperlink ref="B9" r:id="rId8"/>
     <hyperlink ref="B10" r:id="rId9"/>
     <hyperlink ref="B11" r:id="rId10"/>
-    <hyperlink ref="B12" r:id="rId11"/>
-    <hyperlink ref="B13" r:id="rId12"/>
-    <hyperlink ref="B14" r:id="rId13"/>
-    <hyperlink ref="B16" r:id="rId14"/>
-    <hyperlink ref="B17" r:id="rId15"/>
+    <hyperlink ref="B13" r:id="rId11"/>
+    <hyperlink ref="B14" r:id="rId12"/>
+    <hyperlink ref="C1" r:id="rId13"/>
+    <hyperlink ref="C4" r:id="rId14"/>
+    <hyperlink ref="C5" r:id="rId15"/>
+    <hyperlink ref="C6" r:id="rId16"/>
+    <hyperlink ref="C7" r:id="rId17"/>
+    <hyperlink ref="C8" r:id="rId18"/>
+    <hyperlink ref="C9" r:id="rId19"/>
+    <hyperlink ref="C10" r:id="rId20"/>
+    <hyperlink ref="C11" r:id="rId21"/>
+    <hyperlink ref="C13" r:id="rId22"/>
+    <hyperlink ref="C14" r:id="rId23"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3369,295 +3402,295 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B39" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -3722,290 +3755,290 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B5" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="B6" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B17" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
   </sheetData>
@@ -4065,54 +4098,54 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -4148,114 +4181,114 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
     </row>
   </sheetData>
@@ -4308,7 +4341,7 @@
         <v>93</v>
       </c>
       <c r="C1" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -4319,7 +4352,7 @@
         <v>95</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -4338,7 +4371,7 @@
         <v>98</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -4349,7 +4382,7 @@
         <v>100</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -4360,7 +4393,7 @@
         <v>102</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -4371,7 +4404,7 @@
         <v>104</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -4382,7 +4415,7 @@
         <v>106</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -4393,7 +4426,7 @@
         <v>108</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -4409,10 +4442,10 @@
         <v>112</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -4476,34 +4509,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -4516,66 +4549,66 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
     </row>
   </sheetData>
@@ -4615,11 +4648,11 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -4627,46 +4660,46 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -4675,57 +4708,57 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -4734,310 +4767,310 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>630</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>636</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>637</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
+        <v>682</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>694</v>
-      </c>
       <c r="C43" s="1" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
@@ -5046,57 +5079,57 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
     </row>
   </sheetData>
@@ -5208,77 +5241,77 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -5289,7 +5322,7 @@
         <v>118</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -5300,18 +5333,18 @@
         <v>120</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -5335,7 +5368,7 @@
         <v>139</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -5346,18 +5379,18 @@
         <v>146</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -5368,7 +5401,7 @@
         <v>158</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
@@ -5379,18 +5412,18 @@
         <v>160</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -5401,18 +5434,18 @@
         <v>123</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
@@ -5423,29 +5456,29 @@
         <v>125</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
@@ -5456,29 +5489,29 @@
         <v>142</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
@@ -5489,7 +5522,7 @@
         <v>128</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
@@ -5500,7 +5533,7 @@
         <v>130</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
@@ -5511,7 +5544,7 @@
         <v>144</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
@@ -5522,7 +5555,7 @@
         <v>132</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
@@ -5533,40 +5566,40 @@
         <v>148</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
@@ -5577,18 +5610,18 @@
         <v>150</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
@@ -5599,7 +5632,7 @@
         <v>133</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
@@ -5610,18 +5643,18 @@
         <v>152</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
@@ -5632,18 +5665,18 @@
         <v>154</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
@@ -5654,7 +5687,7 @@
         <v>135</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
@@ -5665,7 +5698,7 @@
         <v>138</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
@@ -5679,53 +5712,53 @@
         <v>156</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>141</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
@@ -5875,7 +5908,7 @@
         <v>166</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -5886,7 +5919,7 @@
         <v>179</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -5897,7 +5930,7 @@
         <v>168</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -5935,7 +5968,7 @@
         <v>176</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
     </row>
   </sheetData>
@@ -5976,26 +6009,26 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>180</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>181</v>
@@ -6017,7 +6050,7 @@
         <v>184</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -6049,7 +6082,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -6062,13 +6095,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -6079,7 +6112,7 @@
         <v>188</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -6090,7 +6123,7 @@
         <v>190</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -6101,7 +6134,7 @@
         <v>192</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -6112,7 +6145,7 @@
         <v>194</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -6123,7 +6156,7 @@
         <v>196</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -6134,7 +6167,7 @@
         <v>198</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -6142,10 +6175,10 @@
         <v>200</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -6156,7 +6189,7 @@
         <v>201</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -6167,7 +6200,7 @@
         <v>203</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -6178,7 +6211,7 @@
         <v>205</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -6186,10 +6219,10 @@
         <v>209</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -6200,7 +6233,7 @@
         <v>207</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -6211,7 +6244,7 @@
         <v>210</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -6222,7 +6255,7 @@
         <v>212</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
     </row>
   </sheetData>

--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5770" firstSheet="4" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5770" firstSheet="5" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Array" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="748">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="755">
   <si>
     <t>https://leetcode.com/problems/find-all-numbers-disappeared-in-an-array/description/</t>
   </si>
@@ -819,9 +819,6 @@
     <t>Maximal Rectangle</t>
   </si>
   <si>
-    <t>https://leetcode.com/problems/add-binary/</t>
-  </si>
-  <si>
     <t>Add Binary</t>
   </si>
   <si>
@@ -831,18 +828,12 @@
     <t>Backspace String Compare</t>
   </si>
   <si>
-    <t>https://leetcode.com/problems/count-binary-substrings/description/</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/find-common-characters/description/</t>
   </si>
   <si>
     <t>Find Common Characters</t>
   </si>
   <si>
-    <t>Count Binary Substrings</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/isomorphic-strings/description/</t>
   </si>
   <si>
@@ -867,36 +858,18 @@
     <t>Longest Palindrome</t>
   </si>
   <si>
-    <t>https://leetcode.com/problems/ransom-note/description/</t>
-  </si>
-  <si>
-    <t>Ransom Note</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/remove-all-adjacent-duplicates-in-string/description/</t>
   </si>
   <si>
     <t>Remove All Adjacent Duplicates In String</t>
   </si>
   <si>
-    <t>https://leetcode.com/problems/repeated-substring-pattern/description/</t>
-  </si>
-  <si>
-    <t>Repeated Substring Pattern</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/reverse-words-in-a-string-iii/description/</t>
   </si>
   <si>
     <t>Reverse Words in a String III</t>
   </si>
   <si>
-    <t>https://leetcode.com/problems/shortest-distance-to-a-character/description/</t>
-  </si>
-  <si>
-    <t>Shortest Distance to a Character</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/valid-anagram/description/</t>
   </si>
   <si>
@@ -936,9 +909,6 @@
     <t>https://leetcode.com/problems/generate-parentheses/description/</t>
   </si>
   <si>
-    <t>Generate Parentheses</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/group-anagrams/description/</t>
   </si>
   <si>
@@ -957,12 +927,6 @@
     <t>Longest Palindromic Substring</t>
   </si>
   <si>
-    <t>https://leetcode.com/problems/maximum-product-of-word-lengths/description/</t>
-  </si>
-  <si>
-    <t>Maximum Product of Word Lengths</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/minimum-deletions-to-make-character-frequencies-unique/</t>
   </si>
   <si>
@@ -975,18 +939,6 @@
     <t>Minimum Remove to Make Valid Parentheses</t>
   </si>
   <si>
-    <t>https://leetcode.com/problems/minimum-number-of-steps-to-make-two-strings-anagram-ii/description/</t>
-  </si>
-  <si>
-    <t>Minimum Number of Steps to Make Two Strings Anagram II</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/number-of-matching-subsequences/</t>
-  </si>
-  <si>
-    <t>Number of Matching Subsequences</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/palindromic-substrings/description/</t>
   </si>
   <si>
@@ -1011,12 +963,6 @@
     <t>Reorganize String</t>
   </si>
   <si>
-    <t>https://leetcode.com/problems/robot-bounded-in-circle/description/</t>
-  </si>
-  <si>
-    <t>Robot Bounded In Circle</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/score-of-parentheses/description/</t>
   </si>
   <si>
@@ -2281,6 +2227,81 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=ttVu6G7Ayik</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=k2qrymM_Doo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=QEESBA2Q_88</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7yF-U1hLEqQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=99RVfqklbCE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bl8ue-dTxgs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_g9jrLuAphs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hXEEr5WekSQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3X-NqtP_kKQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9UtInBqnCgA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wX3-411uJH0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VZkc18pOCkY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=E9qHRcQXmDk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=binXv9-uT3A</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=B1k_sxOSgv8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vzdNOK2oB2E</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WDx6Y4i4xJ8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XYQecbcd6_c</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=h8AZEN49gTc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mgQ4O9iUEbg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4RACzI5-du8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=B7m8UmZE-vw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ht-zr2xlfdk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2g_b1aYTHeg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=jfmJusJ0qKM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=QhPdNS143Qg</t>
   </si>
 </sst>
 </file>
@@ -2714,7 +2735,7 @@
         <v>24</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>447</v>
+        <v>429</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -2812,7 +2833,7 @@
         <v>49</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>448</v>
+        <v>430</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
@@ -2845,7 +2866,7 @@
         <v>57</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
@@ -2883,7 +2904,7 @@
         <v>67</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>450</v>
+        <v>432</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
@@ -2894,7 +2915,7 @@
         <v>69</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>451</v>
+        <v>433</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
@@ -2902,10 +2923,10 @@
         <v>70</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
@@ -3077,7 +3098,7 @@
         <v>214</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -3088,7 +3109,7 @@
         <v>216</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>455</v>
+        <v>437</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -3099,7 +3120,7 @@
         <v>218</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -3110,12 +3131,12 @@
         <v>221</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>457</v>
+        <v>439</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>470</v>
+        <v>452</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>222</v>
@@ -3155,13 +3176,13 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>471</v>
+        <v>453</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>231</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>458</v>
+        <v>440</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -3172,7 +3193,7 @@
         <v>232</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>459</v>
+        <v>441</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -3183,7 +3204,7 @@
         <v>234</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>460</v>
+        <v>442</v>
       </c>
     </row>
   </sheetData>
@@ -3216,7 +3237,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -3235,7 +3256,7 @@
         <v>236</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>737</v>
+        <v>719</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -3254,7 +3275,7 @@
         <v>241</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>738</v>
+        <v>720</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -3265,7 +3286,7 @@
         <v>243</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>739</v>
+        <v>721</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -3276,7 +3297,7 @@
         <v>244</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>740</v>
+        <v>722</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -3287,7 +3308,7 @@
         <v>246</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>741</v>
+        <v>723</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -3298,7 +3319,7 @@
         <v>248</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>742</v>
+        <v>724</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -3309,7 +3330,7 @@
         <v>250</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>743</v>
+        <v>725</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -3320,7 +3341,7 @@
         <v>252</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>744</v>
+        <v>726</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -3331,7 +3352,7 @@
         <v>254</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>745</v>
+        <v>727</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -3342,7 +3363,7 @@
         <v>256</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>746</v>
+        <v>728</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -3353,7 +3374,7 @@
         <v>258</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>747</v>
+        <v>729</v>
       </c>
     </row>
   </sheetData>
@@ -3388,227 +3409,295 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="43.54296875" customWidth="1"/>
     <col min="2" max="2" width="61" customWidth="1"/>
+    <col min="3" max="3" width="63.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C1" s="1" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C2" s="1" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>266</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C4" s="1" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C5" s="1" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>272</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C6" s="1" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C7" s="1" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>276</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C8" s="1" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>278</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C9" s="1" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>280</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="C10" s="1" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>282</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="C12" s="1" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>284</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="C13" s="1" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>286</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="C14" s="1" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>288</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>289</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C15" s="1" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>291</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+        <v>292</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+        <v>294</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+        <v>296</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+        <v>298</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+        <v>300</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+        <v>302</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+        <v>304</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+        <v>306</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+        <v>308</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>311</v>
-      </c>
-      <c r="B27" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C26" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>313</v>
       </c>
@@ -3616,81 +3705,9 @@
         <v>312</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>315</v>
-      </c>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B29" s="1" t="s">
         <v>314</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>317</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>319</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>321</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>323</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>325</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>327</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>329</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>331</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B39" s="1" t="s">
-        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -3705,11 +3722,11 @@
     <hyperlink ref="B8" r:id="rId8"/>
     <hyperlink ref="B9" r:id="rId9"/>
     <hyperlink ref="B10" r:id="rId10"/>
-    <hyperlink ref="B11" r:id="rId11"/>
-    <hyperlink ref="B12" r:id="rId12"/>
-    <hyperlink ref="B13" r:id="rId13"/>
-    <hyperlink ref="B14" r:id="rId14"/>
-    <hyperlink ref="B15" r:id="rId15"/>
+    <hyperlink ref="B12" r:id="rId11"/>
+    <hyperlink ref="B13" r:id="rId12"/>
+    <hyperlink ref="B14" r:id="rId13"/>
+    <hyperlink ref="B15" r:id="rId14"/>
+    <hyperlink ref="B16" r:id="rId15"/>
     <hyperlink ref="B17" r:id="rId16"/>
     <hyperlink ref="B18" r:id="rId17"/>
     <hyperlink ref="B19" r:id="rId18"/>
@@ -3720,21 +3737,36 @@
     <hyperlink ref="B24" r:id="rId23"/>
     <hyperlink ref="B25" r:id="rId24"/>
     <hyperlink ref="B26" r:id="rId25"/>
-    <hyperlink ref="B27" r:id="rId26"/>
-    <hyperlink ref="B28" r:id="rId27"/>
-    <hyperlink ref="B29" r:id="rId28"/>
-    <hyperlink ref="B30" r:id="rId29"/>
-    <hyperlink ref="B31" r:id="rId30"/>
-    <hyperlink ref="B32" r:id="rId31"/>
-    <hyperlink ref="B33" r:id="rId32"/>
-    <hyperlink ref="B34" r:id="rId33"/>
-    <hyperlink ref="B35" r:id="rId34"/>
-    <hyperlink ref="B36" r:id="rId35"/>
-    <hyperlink ref="B38" r:id="rId36"/>
-    <hyperlink ref="B39" r:id="rId37"/>
+    <hyperlink ref="B28" r:id="rId26"/>
+    <hyperlink ref="B29" r:id="rId27"/>
+    <hyperlink ref="C1" r:id="rId28"/>
+    <hyperlink ref="C2" r:id="rId29"/>
+    <hyperlink ref="C3" r:id="rId30"/>
+    <hyperlink ref="C4" r:id="rId31"/>
+    <hyperlink ref="C5" r:id="rId32"/>
+    <hyperlink ref="C6" r:id="rId33"/>
+    <hyperlink ref="C7" r:id="rId34"/>
+    <hyperlink ref="C8" r:id="rId35"/>
+    <hyperlink ref="C9" r:id="rId36"/>
+    <hyperlink ref="C10" r:id="rId37"/>
+    <hyperlink ref="C12" r:id="rId38"/>
+    <hyperlink ref="C13" r:id="rId39"/>
+    <hyperlink ref="C14" r:id="rId40"/>
+    <hyperlink ref="C15" r:id="rId41"/>
+    <hyperlink ref="C16" r:id="rId42"/>
+    <hyperlink ref="C17" r:id="rId43"/>
+    <hyperlink ref="C18" r:id="rId44"/>
+    <hyperlink ref="C19" r:id="rId45"/>
+    <hyperlink ref="C20" r:id="rId46"/>
+    <hyperlink ref="C21" r:id="rId47"/>
+    <hyperlink ref="C22" r:id="rId48"/>
+    <hyperlink ref="C23" r:id="rId49"/>
+    <hyperlink ref="C24" r:id="rId50"/>
+    <hyperlink ref="C25" r:id="rId51"/>
+    <hyperlink ref="C26" r:id="rId52"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId38"/>
+  <pageSetup orientation="portrait" r:id="rId53"/>
 </worksheet>
 </file>
 
@@ -3755,290 +3787,290 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>343</v>
+        <v>325</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>344</v>
+        <v>326</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>346</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>350</v>
+        <v>332</v>
       </c>
       <c r="B5" t="s">
-        <v>350</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>353</v>
+        <v>335</v>
       </c>
       <c r="B6" t="s">
-        <v>353</v>
+        <v>335</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>351</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>359</v>
+        <v>341</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>358</v>
+        <v>340</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>360</v>
+        <v>342</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>363</v>
+        <v>345</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>362</v>
+        <v>344</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>364</v>
+        <v>346</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>369</v>
+        <v>351</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>368</v>
+        <v>350</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>370</v>
+        <v>352</v>
       </c>
       <c r="B17" t="s">
-        <v>370</v>
+        <v>352</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>377</v>
+        <v>359</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>385</v>
+        <v>367</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>399</v>
+        <v>381</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>405</v>
+        <v>387</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -4098,54 +4130,54 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>334</v>
+        <v>316</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>501</v>
+        <v>483</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>499</v>
+        <v>481</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>497</v>
+        <v>479</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>339</v>
+        <v>321</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>498</v>
+        <v>480</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>500</v>
+        <v>482</v>
       </c>
     </row>
   </sheetData>
@@ -4181,114 +4213,114 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>467</v>
+        <v>449</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>411</v>
+        <v>393</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>466</v>
+        <v>448</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>463</v>
+        <v>445</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>464</v>
+        <v>446</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>415</v>
+        <v>397</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>414</v>
+        <v>396</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>413</v>
+        <v>395</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>462</v>
+        <v>444</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>417</v>
+        <v>399</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>418</v>
+        <v>400</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>475</v>
+        <v>457</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>473</v>
+        <v>455</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>472</v>
+        <v>454</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>476</v>
+        <v>458</v>
       </c>
     </row>
   </sheetData>
@@ -4341,7 +4373,7 @@
         <v>93</v>
       </c>
       <c r="C1" t="s">
-        <v>477</v>
+        <v>459</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -4352,7 +4384,7 @@
         <v>95</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>478</v>
+        <v>460</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -4371,7 +4403,7 @@
         <v>98</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>480</v>
+        <v>462</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -4382,7 +4414,7 @@
         <v>100</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>479</v>
+        <v>461</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -4393,7 +4425,7 @@
         <v>102</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>486</v>
+        <v>468</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -4404,7 +4436,7 @@
         <v>104</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>481</v>
+        <v>463</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -4415,7 +4447,7 @@
         <v>106</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -4426,7 +4458,7 @@
         <v>108</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>483</v>
+        <v>465</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -4442,10 +4474,10 @@
         <v>112</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>484</v>
+        <v>466</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>485</v>
+        <v>467</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -4509,34 +4541,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>429</v>
+        <v>411</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -4549,66 +4581,66 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>446</v>
+        <v>428</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>432</v>
+        <v>414</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>431</v>
+        <v>413</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>439</v>
+        <v>421</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>440</v>
+        <v>422</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>441</v>
+        <v>423</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
     </row>
   </sheetData>
@@ -4648,11 +4680,11 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>607</v>
+        <v>589</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
-        <v>608</v>
+        <v>590</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -4660,46 +4692,46 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>609</v>
+        <v>591</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>598</v>
+        <v>580</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>599</v>
+        <v>581</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>611</v>
+        <v>593</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>612</v>
+        <v>594</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>596</v>
+        <v>578</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>597</v>
+        <v>579</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>610</v>
+        <v>592</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -4708,57 +4740,57 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>623</v>
+        <v>605</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>624</v>
+        <v>606</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>625</v>
+        <v>607</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>618</v>
+        <v>600</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>617</v>
+        <v>599</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>619</v>
+        <v>601</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>621</v>
+        <v>603</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>620</v>
+        <v>602</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>622</v>
+        <v>604</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>606</v>
+        <v>588</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>605</v>
+        <v>587</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>613</v>
+        <v>595</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>614</v>
+        <v>596</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>615</v>
+        <v>597</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>616</v>
+        <v>598</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -4767,310 +4799,310 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>707</v>
+        <v>689</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>706</v>
+        <v>688</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>708</v>
+        <v>690</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>710</v>
+        <v>692</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>709</v>
+        <v>691</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>711</v>
+        <v>693</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>604</v>
+        <v>586</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>712</v>
+        <v>694</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>711</v>
+        <v>693</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>627</v>
+        <v>609</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>626</v>
+        <v>608</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>628</v>
+        <v>610</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>630</v>
+        <v>612</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>633</v>
+        <v>615</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>636</v>
+        <v>618</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>603</v>
+        <v>585</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>602</v>
+        <v>584</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>635</v>
+        <v>617</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>632</v>
+        <v>614</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>631</v>
+        <v>613</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>637</v>
+        <v>619</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>694</v>
+        <v>676</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>693</v>
+        <v>675</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>713</v>
+        <v>695</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>716</v>
+        <v>698</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>714</v>
+        <v>696</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>715</v>
+        <v>697</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>629</v>
+        <v>611</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>705</v>
+        <v>687</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>634</v>
+        <v>616</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>638</v>
+        <v>620</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>639</v>
+        <v>621</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>640</v>
+        <v>622</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>642</v>
+        <v>624</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>641</v>
+        <v>623</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>643</v>
+        <v>625</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>645</v>
+        <v>627</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>644</v>
+        <v>626</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>646</v>
+        <v>628</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>647</v>
+        <v>629</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>648</v>
+        <v>630</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>649</v>
+        <v>631</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>651</v>
+        <v>633</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>650</v>
+        <v>632</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>652</v>
+        <v>634</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>665</v>
+        <v>647</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>664</v>
+        <v>646</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>666</v>
+        <v>648</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>654</v>
+        <v>636</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>653</v>
+        <v>635</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>655</v>
+        <v>637</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>657</v>
+        <v>639</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>656</v>
+        <v>638</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>717</v>
+        <v>699</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>659</v>
+        <v>641</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>658</v>
+        <v>640</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>660</v>
+        <v>642</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>661</v>
+        <v>643</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>662</v>
+        <v>644</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>663</v>
+        <v>645</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>668</v>
+        <v>650</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>667</v>
+        <v>649</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>670</v>
+        <v>652</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>672</v>
+        <v>654</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>671</v>
+        <v>653</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>669</v>
+        <v>651</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>681</v>
+        <v>663</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>673</v>
+        <v>655</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>674</v>
+        <v>656</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>676</v>
+        <v>658</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>675</v>
+        <v>657</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>677</v>
+        <v>659</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>679</v>
+        <v>661</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>678</v>
+        <v>660</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>680</v>
+        <v>662</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>682</v>
+        <v>664</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>688</v>
+        <v>670</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>683</v>
+        <v>665</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>689</v>
+        <v>671</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>688</v>
+        <v>670</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>687</v>
+        <v>669</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>685</v>
+        <v>667</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>684</v>
+        <v>666</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>686</v>
+        <v>668</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
@@ -5079,57 +5111,57 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>697</v>
+        <v>679</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>696</v>
+        <v>678</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>695</v>
+        <v>677</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>690</v>
+        <v>672</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>692</v>
+        <v>674</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>691</v>
+        <v>673</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>694</v>
+        <v>676</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>693</v>
+        <v>675</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>704</v>
+        <v>686</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>698</v>
+        <v>680</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>699</v>
+        <v>681</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>702</v>
+        <v>684</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>701</v>
+        <v>683</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>700</v>
+        <v>682</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>703</v>
+        <v>685</v>
       </c>
     </row>
   </sheetData>
@@ -5241,77 +5273,77 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>507</v>
+        <v>489</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>575</v>
+        <v>557</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>508</v>
+        <v>490</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>574</v>
+        <v>556</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>509</v>
+        <v>491</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>573</v>
+        <v>555</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>510</v>
+        <v>492</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>571</v>
+        <v>553</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>568</v>
+        <v>550</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>569</v>
+        <v>551</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>570</v>
+        <v>552</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>572</v>
+        <v>554</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>511</v>
+        <v>493</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>544</v>
+        <v>526</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>546</v>
+        <v>528</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>545</v>
+        <v>527</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>580</v>
+        <v>562</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>579</v>
+        <v>561</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -5322,7 +5354,7 @@
         <v>118</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -5333,18 +5365,18 @@
         <v>120</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>512</v>
+        <v>494</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>513</v>
+        <v>495</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>542</v>
+        <v>524</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -5368,7 +5400,7 @@
         <v>139</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>586</v>
+        <v>568</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -5379,18 +5411,18 @@
         <v>146</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>543</v>
+        <v>525</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>515</v>
+        <v>497</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>514</v>
+        <v>496</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>566</v>
+        <v>548</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -5401,7 +5433,7 @@
         <v>158</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>548</v>
+        <v>530</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
@@ -5412,18 +5444,18 @@
         <v>160</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>547</v>
+        <v>529</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>577</v>
+        <v>559</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>576</v>
+        <v>558</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>578</v>
+        <v>560</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -5434,18 +5466,18 @@
         <v>123</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>503</v>
+        <v>485</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>517</v>
+        <v>499</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>516</v>
+        <v>498</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>549</v>
+        <v>531</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
@@ -5456,29 +5488,29 @@
         <v>125</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>550</v>
+        <v>532</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>518</v>
+        <v>500</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>519</v>
+        <v>501</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>551</v>
+        <v>533</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>521</v>
+        <v>503</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>520</v>
+        <v>502</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>552</v>
+        <v>534</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
@@ -5489,29 +5521,29 @@
         <v>142</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>590</v>
+        <v>572</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>522</v>
+        <v>504</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>523</v>
+        <v>505</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>553</v>
+        <v>535</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>593</v>
+        <v>575</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>591</v>
+        <v>573</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>592</v>
+        <v>574</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
@@ -5522,7 +5554,7 @@
         <v>128</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>554</v>
+        <v>536</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
@@ -5533,7 +5565,7 @@
         <v>130</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>502</v>
+        <v>484</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
@@ -5544,7 +5576,7 @@
         <v>144</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>585</v>
+        <v>567</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
@@ -5555,7 +5587,7 @@
         <v>132</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>555</v>
+        <v>537</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
@@ -5566,40 +5598,40 @@
         <v>148</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>584</v>
+        <v>566</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>524</v>
+        <v>506</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>525</v>
+        <v>507</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>556</v>
+        <v>538</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>526</v>
+        <v>508</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>527</v>
+        <v>509</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>557</v>
+        <v>539</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>529</v>
+        <v>511</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>528</v>
+        <v>510</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>558</v>
+        <v>540</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
@@ -5610,18 +5642,18 @@
         <v>150</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>559</v>
+        <v>541</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>531</v>
+        <v>513</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>530</v>
+        <v>512</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>560</v>
+        <v>542</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
@@ -5632,7 +5664,7 @@
         <v>133</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>504</v>
+        <v>486</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
@@ -5643,18 +5675,18 @@
         <v>152</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>562</v>
+        <v>544</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>582</v>
+        <v>564</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>581</v>
+        <v>563</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>583</v>
+        <v>565</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
@@ -5665,18 +5697,18 @@
         <v>154</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>561</v>
+        <v>543</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>533</v>
+        <v>515</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>532</v>
+        <v>514</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>563</v>
+        <v>545</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
@@ -5687,7 +5719,7 @@
         <v>135</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>564</v>
+        <v>546</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
@@ -5698,7 +5730,7 @@
         <v>138</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>565</v>
+        <v>547</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
@@ -5712,53 +5744,53 @@
         <v>156</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>588</v>
+        <v>570</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>567</v>
+        <v>549</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>141</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>587</v>
+        <v>569</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>534</v>
+        <v>516</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>535</v>
+        <v>517</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>537</v>
+        <v>519</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>536</v>
+        <v>518</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>539</v>
+        <v>521</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>538</v>
+        <v>520</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>541</v>
+        <v>523</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>540</v>
+        <v>522</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>589</v>
+        <v>571</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
@@ -5908,7 +5940,7 @@
         <v>166</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>495</v>
+        <v>477</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -5919,7 +5951,7 @@
         <v>179</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>494</v>
+        <v>476</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -5930,7 +5962,7 @@
         <v>168</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -5968,7 +6000,7 @@
         <v>176</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>496</v>
+        <v>478</v>
       </c>
     </row>
   </sheetData>
@@ -6009,26 +6041,26 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>490</v>
+        <v>472</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>487</v>
+        <v>469</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>488</v>
+        <v>470</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>180</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>492</v>
+        <v>474</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>489</v>
+        <v>471</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>181</v>
@@ -6050,7 +6082,7 @@
         <v>184</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -6095,13 +6127,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>719</v>
+        <v>701</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>718</v>
+        <v>700</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>720</v>
+        <v>702</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -6112,7 +6144,7 @@
         <v>188</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>721</v>
+        <v>703</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -6123,7 +6155,7 @@
         <v>190</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>722</v>
+        <v>704</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -6134,7 +6166,7 @@
         <v>192</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>723</v>
+        <v>705</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -6145,7 +6177,7 @@
         <v>194</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>724</v>
+        <v>706</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -6156,7 +6188,7 @@
         <v>196</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>725</v>
+        <v>707</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -6167,7 +6199,7 @@
         <v>198</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>726</v>
+        <v>708</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -6175,10 +6207,10 @@
         <v>200</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>736</v>
+        <v>718</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>727</v>
+        <v>709</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -6189,7 +6221,7 @@
         <v>201</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>728</v>
+        <v>710</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -6200,7 +6232,7 @@
         <v>203</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>729</v>
+        <v>711</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -6211,7 +6243,7 @@
         <v>205</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>730</v>
+        <v>712</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -6219,10 +6251,10 @@
         <v>209</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>732</v>
+        <v>714</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>731</v>
+        <v>713</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -6233,7 +6265,7 @@
         <v>207</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>733</v>
+        <v>715</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -6244,7 +6276,7 @@
         <v>210</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>734</v>
+        <v>716</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -6255,7 +6287,7 @@
         <v>212</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>735</v>
+        <v>717</v>
       </c>
     </row>
   </sheetData>

--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="755">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="758">
   <si>
     <t>https://leetcode.com/problems/find-all-numbers-disappeared-in-an-array/description/</t>
   </si>
@@ -981,9 +981,6 @@
     <t>Longest Valid Parentheses</t>
   </si>
   <si>
-    <t>https://leetcode.com/problems/shortest-palindrome/description/</t>
-  </si>
-  <si>
     <t>Count number of Distinct Substring in a String</t>
   </si>
   <si>
@@ -2302,6 +2299,18 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=QhPdNS143Qg</t>
+  </si>
+  <si>
+    <t>Integer to English Words</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/integer-to-english-words/description/</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=SCtIlKd3mDM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gqQsbdTcey0</t>
   </si>
 </sst>
 </file>
@@ -2735,7 +2744,7 @@
         <v>24</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -2833,7 +2842,7 @@
         <v>49</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
@@ -2866,7 +2875,7 @@
         <v>57</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
@@ -2904,7 +2913,7 @@
         <v>67</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
@@ -2915,7 +2924,7 @@
         <v>69</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
@@ -2923,10 +2932,10 @@
         <v>70</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
@@ -3098,7 +3107,7 @@
         <v>214</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -3109,7 +3118,7 @@
         <v>216</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -3120,7 +3129,7 @@
         <v>218</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -3131,12 +3140,12 @@
         <v>221</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>222</v>
@@ -3176,13 +3185,13 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>231</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -3193,7 +3202,7 @@
         <v>232</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -3204,7 +3213,7 @@
         <v>234</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
   </sheetData>
@@ -3256,7 +3265,7 @@
         <v>236</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -3275,7 +3284,7 @@
         <v>241</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -3286,7 +3295,7 @@
         <v>243</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -3297,7 +3306,7 @@
         <v>244</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -3308,7 +3317,7 @@
         <v>246</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -3319,7 +3328,7 @@
         <v>248</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -3330,7 +3339,7 @@
         <v>250</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -3341,7 +3350,7 @@
         <v>252</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -3352,7 +3361,7 @@
         <v>254</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -3363,7 +3372,7 @@
         <v>256</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -3374,7 +3383,7 @@
         <v>258</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
   </sheetData>
@@ -3409,10 +3418,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3430,7 +3439,7 @@
         <v>261</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -3441,7 +3450,7 @@
         <v>263</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -3452,7 +3461,7 @@
         <v>265</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -3463,7 +3472,7 @@
         <v>267</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -3474,7 +3483,7 @@
         <v>269</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -3485,7 +3494,7 @@
         <v>271</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -3496,7 +3505,7 @@
         <v>273</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -3507,7 +3516,7 @@
         <v>275</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -3518,7 +3527,7 @@
         <v>277</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -3529,7 +3538,7 @@
         <v>279</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -3540,7 +3549,7 @@
         <v>281</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -3551,7 +3560,7 @@
         <v>283</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -3562,7 +3571,7 @@
         <v>285</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -3573,7 +3582,7 @@
         <v>287</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -3584,7 +3593,7 @@
         <v>290</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -3595,7 +3604,7 @@
         <v>292</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -3606,7 +3615,7 @@
         <v>294</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -3617,7 +3626,7 @@
         <v>296</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
@@ -3628,7 +3637,7 @@
         <v>298</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
@@ -3639,7 +3648,7 @@
         <v>300</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -3650,7 +3659,7 @@
         <v>302</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
@@ -3661,7 +3670,7 @@
         <v>304</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
@@ -3672,7 +3681,7 @@
         <v>306</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
@@ -3683,7 +3692,7 @@
         <v>308</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
@@ -3694,20 +3703,44 @@
         <v>310</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>754</v>
-      </c>
+        <v>753</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
+        <v>754</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>313</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B29" s="1" t="s">
-        <v>314</v>
+      <c r="C29" s="1" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>522</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>570</v>
       </c>
     </row>
   </sheetData>
@@ -3737,36 +3770,40 @@
     <hyperlink ref="B24" r:id="rId23"/>
     <hyperlink ref="B25" r:id="rId24"/>
     <hyperlink ref="B26" r:id="rId25"/>
-    <hyperlink ref="B28" r:id="rId26"/>
-    <hyperlink ref="B29" r:id="rId27"/>
-    <hyperlink ref="C1" r:id="rId28"/>
-    <hyperlink ref="C2" r:id="rId29"/>
-    <hyperlink ref="C3" r:id="rId30"/>
-    <hyperlink ref="C4" r:id="rId31"/>
-    <hyperlink ref="C5" r:id="rId32"/>
-    <hyperlink ref="C6" r:id="rId33"/>
-    <hyperlink ref="C7" r:id="rId34"/>
-    <hyperlink ref="C8" r:id="rId35"/>
-    <hyperlink ref="C9" r:id="rId36"/>
-    <hyperlink ref="C10" r:id="rId37"/>
-    <hyperlink ref="C12" r:id="rId38"/>
-    <hyperlink ref="C13" r:id="rId39"/>
-    <hyperlink ref="C14" r:id="rId40"/>
-    <hyperlink ref="C15" r:id="rId41"/>
-    <hyperlink ref="C16" r:id="rId42"/>
-    <hyperlink ref="C17" r:id="rId43"/>
-    <hyperlink ref="C18" r:id="rId44"/>
-    <hyperlink ref="C19" r:id="rId45"/>
-    <hyperlink ref="C20" r:id="rId46"/>
-    <hyperlink ref="C21" r:id="rId47"/>
-    <hyperlink ref="C22" r:id="rId48"/>
-    <hyperlink ref="C23" r:id="rId49"/>
-    <hyperlink ref="C24" r:id="rId50"/>
-    <hyperlink ref="C25" r:id="rId51"/>
-    <hyperlink ref="C26" r:id="rId52"/>
+    <hyperlink ref="B29" r:id="rId26"/>
+    <hyperlink ref="C1" r:id="rId27"/>
+    <hyperlink ref="C2" r:id="rId28"/>
+    <hyperlink ref="C3" r:id="rId29"/>
+    <hyperlink ref="C4" r:id="rId30"/>
+    <hyperlink ref="C5" r:id="rId31"/>
+    <hyperlink ref="C6" r:id="rId32"/>
+    <hyperlink ref="C7" r:id="rId33"/>
+    <hyperlink ref="C8" r:id="rId34"/>
+    <hyperlink ref="C9" r:id="rId35"/>
+    <hyperlink ref="C10" r:id="rId36"/>
+    <hyperlink ref="C12" r:id="rId37"/>
+    <hyperlink ref="C13" r:id="rId38"/>
+    <hyperlink ref="C14" r:id="rId39"/>
+    <hyperlink ref="C15" r:id="rId40"/>
+    <hyperlink ref="C16" r:id="rId41"/>
+    <hyperlink ref="C17" r:id="rId42"/>
+    <hyperlink ref="C18" r:id="rId43"/>
+    <hyperlink ref="C19" r:id="rId44"/>
+    <hyperlink ref="C20" r:id="rId45"/>
+    <hyperlink ref="C21" r:id="rId46"/>
+    <hyperlink ref="C22" r:id="rId47"/>
+    <hyperlink ref="C23" r:id="rId48"/>
+    <hyperlink ref="C24" r:id="rId49"/>
+    <hyperlink ref="C25" r:id="rId50"/>
+    <hyperlink ref="C26" r:id="rId51"/>
+    <hyperlink ref="B28" r:id="rId52"/>
+    <hyperlink ref="C28" r:id="rId53"/>
+    <hyperlink ref="B30" r:id="rId54"/>
+    <hyperlink ref="C30" r:id="rId55"/>
+    <hyperlink ref="C29" r:id="rId56"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId53"/>
+  <pageSetup orientation="portrait" r:id="rId57"/>
 </worksheet>
 </file>
 
@@ -3787,290 +3824,290 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>345</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B17" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
+        <v>372</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>373</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
+        <v>370</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>371</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
+        <v>376</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
   </sheetData>
@@ -4130,54 +4167,54 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>478</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>479</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
   </sheetData>
@@ -4213,114 +4250,114 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>289</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>449</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>451</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
   </sheetData>
@@ -4373,7 +4410,7 @@
         <v>93</v>
       </c>
       <c r="C1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -4384,7 +4421,7 @@
         <v>95</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -4403,7 +4440,7 @@
         <v>98</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -4414,7 +4451,7 @@
         <v>100</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -4425,7 +4462,7 @@
         <v>102</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -4436,7 +4473,7 @@
         <v>104</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -4447,7 +4484,7 @@
         <v>106</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -4458,7 +4495,7 @@
         <v>108</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -4474,10 +4511,10 @@
         <v>112</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>466</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -4544,31 +4581,31 @@
         <v>260</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -4581,66 +4618,66 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>414</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>415</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>420</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>421</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
   </sheetData>
@@ -4680,11 +4717,11 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -4692,46 +4729,46 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>579</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>581</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>577</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>579</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -4740,57 +4777,57 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>604</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>606</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>599</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>600</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>602</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>603</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>595</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>597</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -4799,310 +4836,310 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>688</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>689</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>691</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>692</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>608</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>609</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>696</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
+        <v>619</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>621</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
+        <v>623</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>624</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
+        <v>626</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>627</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
+        <v>628</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>630</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
+        <v>632</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>633</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
+        <v>646</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>647</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
+        <v>635</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>636</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
+        <v>640</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>641</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
+        <v>642</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>644</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>655</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
+        <v>657</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>658</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
+        <v>660</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>661</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
+        <v>663</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>664</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
+        <v>666</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>667</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
@@ -5111,57 +5148,57 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
+        <v>671</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>672</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
+        <v>679</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>681</v>
-      </c>
       <c r="C50" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
   </sheetData>
@@ -5273,77 +5310,77 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>549</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>550</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -5354,7 +5391,7 @@
         <v>118</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -5365,18 +5402,18 @@
         <v>120</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>493</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>495</v>
-      </c>
       <c r="C13" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -5400,7 +5437,7 @@
         <v>139</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -5411,18 +5448,18 @@
         <v>146</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -5433,7 +5470,7 @@
         <v>158</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
@@ -5444,18 +5481,18 @@
         <v>160</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>558</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>559</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -5466,18 +5503,18 @@
         <v>123</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
@@ -5488,29 +5525,29 @@
         <v>125</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
+        <v>499</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>501</v>
-      </c>
       <c r="C25" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
@@ -5521,29 +5558,29 @@
         <v>142</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
+        <v>503</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>505</v>
-      </c>
       <c r="C28" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>573</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
@@ -5554,7 +5591,7 @@
         <v>128</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
@@ -5565,7 +5602,7 @@
         <v>130</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
@@ -5576,7 +5613,7 @@
         <v>144</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
@@ -5587,7 +5624,7 @@
         <v>132</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
@@ -5598,40 +5635,40 @@
         <v>148</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
+        <v>505</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>507</v>
-      </c>
       <c r="C35" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
+        <v>507</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>509</v>
-      </c>
       <c r="C36" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
@@ -5642,18 +5679,18 @@
         <v>150</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
@@ -5664,7 +5701,7 @@
         <v>133</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
@@ -5675,18 +5712,18 @@
         <v>152</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
+        <v>563</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>564</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
@@ -5697,18 +5734,18 @@
         <v>154</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
@@ -5719,7 +5756,7 @@
         <v>135</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
@@ -5730,7 +5767,7 @@
         <v>138</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
@@ -5744,53 +5781,53 @@
         <v>156</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>141</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
+        <v>515</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>516</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
@@ -5940,7 +5977,7 @@
         <v>166</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -5951,7 +5988,7 @@
         <v>179</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -5962,7 +5999,7 @@
         <v>168</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -6000,7 +6037,7 @@
         <v>176</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
   </sheetData>
@@ -6041,26 +6078,26 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>180</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>181</v>
@@ -6082,7 +6119,7 @@
         <v>184</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -6127,13 +6164,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>700</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>701</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -6144,7 +6181,7 @@
         <v>188</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -6155,7 +6192,7 @@
         <v>190</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -6166,7 +6203,7 @@
         <v>192</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -6177,7 +6214,7 @@
         <v>194</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -6188,7 +6225,7 @@
         <v>196</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -6199,7 +6236,7 @@
         <v>198</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -6207,10 +6244,10 @@
         <v>200</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -6221,7 +6258,7 @@
         <v>201</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -6232,7 +6269,7 @@
         <v>203</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -6243,7 +6280,7 @@
         <v>205</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -6251,10 +6288,10 @@
         <v>209</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -6265,7 +6302,7 @@
         <v>207</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -6276,7 +6313,7 @@
         <v>210</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -6287,7 +6324,7 @@
         <v>212</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
   </sheetData>

--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5770" firstSheet="5" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5770" firstSheet="5" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Array" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="789">
   <si>
     <t>https://leetcode.com/problems/find-all-numbers-disappeared-in-an-array/description/</t>
   </si>
@@ -1020,30 +1020,18 @@
     <t>Construct Binary Search Tree from Preorder Traversal</t>
   </si>
   <si>
-    <t>https://www.geeksforgeeks.org/binary-tree-to-binary-search-tree-conversion/</t>
-  </si>
-  <si>
-    <t>Binary Tree to Binary Search Tree Conversion</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/convert-sorted-array-to-binary-search-tree/description/</t>
   </si>
   <si>
     <t>Convert Sorted Array to Binary Search Tree</t>
   </si>
   <si>
-    <t>FindDistanceBetweenTwoNodes</t>
-  </si>
-  <si>
     <t>https://www.geeksforgeeks.org/inorder-predecessor-successor-given-key-bst/</t>
   </si>
   <si>
     <t>Inorder predecessor and successor for a given key in BST</t>
   </si>
   <si>
-    <t>FindPairSumEqualToK</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/kth-smallest-element-in-a-bst/</t>
   </si>
   <si>
@@ -1092,27 +1080,15 @@
     <t>All Nodes Distance K in Binary Tree</t>
   </si>
   <si>
-    <t>PrintMaxValue</t>
-  </si>
-  <si>
     <t>https://www.geeksforgeeks.org/print-path-root-given-node-binary-tree/</t>
   </si>
   <si>
     <t>Print path from root to a given node in a binary tree</t>
   </si>
   <si>
-    <t>https://www.geeksforgeeks.org/convert-an-arbitrary-binary-tree-to-a-tree-that-holds-children-sum-property/</t>
-  </si>
-  <si>
-    <t>Convert an arbitrary Binary Tree to a tree that holds Children Sum Property</t>
-  </si>
-  <si>
     <t>https://www.geeksforgeeks.org/write-an-efficient-c-function-to-convert-a-tree-into-its-mirror-tree/</t>
   </si>
   <si>
-    <t>Convert a Binary Tree into its Mirror Tree</t>
-  </si>
-  <si>
     <t>https://www.geeksforgeeks.org/convert-a-given-tree-to-sum-tree/</t>
   </si>
   <si>
@@ -1140,9 +1116,6 @@
     <t>https://www.geeksforgeeks.org/print-left-view-binary-tree/</t>
   </si>
   <si>
-    <t>Print Left View of a Binary Tree</t>
-  </si>
-  <si>
     <t>https://www.geeksforgeeks.org/print-ancestors-of-a-given-node-in-binary-tree/</t>
   </si>
   <si>
@@ -1155,12 +1128,6 @@
     <t>https://leetcode.com/problems/path-sum/description/</t>
   </si>
   <si>
-    <t>AllPathWithSumKFromRootToLeaf</t>
-  </si>
-  <si>
-    <t>Find all paths from root to leaf where sum of nodes is equal to given sum</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/binary-tree-maximum-path-sum/description/</t>
   </si>
   <si>
@@ -1173,18 +1140,9 @@
     <t>https://leetcode.com/problems/path-sum-iii/description/</t>
   </si>
   <si>
-    <t>https://leetcode.com/problems/sum-of-left-leaves/</t>
-  </si>
-  <si>
     <t>Sum of Left Leaves</t>
   </si>
   <si>
-    <t>https://www.geeksforgeeks.org/boundary-traversal-of-binary-tree/</t>
-  </si>
-  <si>
-    <t>Boundary Traversal of binary tree</t>
-  </si>
-  <si>
     <t>https://www.geeksforgeeks.org/diagonal-traversal-of-binary-tree/</t>
   </si>
   <si>
@@ -1194,9 +1152,6 @@
     <t>https://leetcode.com/problems/binary-tree-level-order-traversal/description/</t>
   </si>
   <si>
-    <t>Binary Tree Level Order Traversal</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/binary-tree-zigzag-level-order-traversal/description/</t>
   </si>
   <si>
@@ -2311,6 +2266,144 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=gqQsbdTcey0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=f-sj7I5oXEI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UmJT3j26t1I</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=0K0uCMYq5ng</t>
+  </si>
+  <si>
+    <t>Minimum Distance Between BST Nodes</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-distance-between-bst-nodes/description/</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=joxx4hTYwcw</t>
+  </si>
+  <si>
+    <t>Two Sum IV - Input is a BST</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/two-sum-iv-input-is-a-bst/description/</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ssL3sHwPeb4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=SXKAD2svfmI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9TJYWh0adfk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=X0oXMdtUDwo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZWGW7FminDM</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/path-sum-ii/description/</t>
+  </si>
+  <si>
+    <t>Path Sum II</t>
+  </si>
+  <si>
+    <t>Binary Tree Traversal</t>
+  </si>
+  <si>
+    <t>Binary tree traversal</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/bottom-view-binary-tree/</t>
+  </si>
+  <si>
+    <t>Bottom View of a Binary Tree</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/problems/boundary-traversal-of-binary-tree/1</t>
+  </si>
+  <si>
+    <t>Tree Boundary Traversal</t>
+  </si>
+  <si>
+    <t>Invert Binary Tree – Change to Mirror Tree</t>
+  </si>
+  <si>
+    <t>Left View of a Binary Tree</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/level-order-tree-traversal/</t>
+  </si>
+  <si>
+    <t>Level Order Traversal BFS</t>
+  </si>
+  <si>
+    <t>Level Order Traversal DFS</t>
+  </si>
+  <si>
+    <t>Level order traversal in spiral form</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/level-order-traversal-in-spiral-form/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-tree-paths/description/</t>
+  </si>
+  <si>
+    <t>Binary Tree Paths</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/find-maximum-or-minimum-in-binary-tree/</t>
+  </si>
+  <si>
+    <t>Find maximum (or minimum) in Binary Tree</t>
+  </si>
+  <si>
+    <t>PrintNodesAtDistanceKFromTargetNode</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/print-nodes-distance-k-given-node-binary-tree/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/serialize-and-deserialize-binary-tree/description/</t>
+  </si>
+  <si>
+    <t>Serialize and Deserialize Binary Tree</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/subtree-of-another-tree/description/</t>
+  </si>
+  <si>
+    <t>Subtree of Another Tree</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/sum-of-left-leaves/description/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/problems/top-view-of-binary-tree/1</t>
+  </si>
+  <si>
+    <t>Top View of Binary Tree</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=0FtVY6I4pB8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=0ca1nvR0be4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fnmisPM6cVo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Yt50Jfbd8Po</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IPak9nF_64k</t>
   </si>
 </sst>
 </file>
@@ -2744,7 +2837,7 @@
         <v>24</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -2842,7 +2935,7 @@
         <v>49</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
@@ -2875,7 +2968,7 @@
         <v>57</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
@@ -2913,7 +3006,7 @@
         <v>67</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
@@ -2924,7 +3017,7 @@
         <v>69</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
@@ -2932,10 +3025,10 @@
         <v>70</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
@@ -3107,7 +3200,7 @@
         <v>214</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -3118,7 +3211,7 @@
         <v>216</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -3129,7 +3222,7 @@
         <v>218</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -3140,12 +3233,12 @@
         <v>221</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>222</v>
@@ -3185,13 +3278,13 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>231</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -3202,7 +3295,7 @@
         <v>232</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -3213,7 +3306,7 @@
         <v>234</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
     </row>
   </sheetData>
@@ -3265,7 +3358,7 @@
         <v>236</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>718</v>
+        <v>703</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -3284,7 +3377,7 @@
         <v>241</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>719</v>
+        <v>704</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -3295,7 +3388,7 @@
         <v>243</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>720</v>
+        <v>705</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -3306,7 +3399,7 @@
         <v>244</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>721</v>
+        <v>706</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -3317,7 +3410,7 @@
         <v>246</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>722</v>
+        <v>707</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -3328,7 +3421,7 @@
         <v>248</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -3339,7 +3432,7 @@
         <v>250</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>724</v>
+        <v>709</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -3350,7 +3443,7 @@
         <v>252</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>725</v>
+        <v>710</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -3361,7 +3454,7 @@
         <v>254</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>726</v>
+        <v>711</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -3372,7 +3465,7 @@
         <v>256</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>727</v>
+        <v>712</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -3383,7 +3476,7 @@
         <v>258</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>728</v>
+        <v>713</v>
       </c>
     </row>
   </sheetData>
@@ -3420,7 +3513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
@@ -3439,7 +3532,7 @@
         <v>261</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>729</v>
+        <v>714</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -3450,7 +3543,7 @@
         <v>263</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>730</v>
+        <v>715</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -3461,7 +3554,7 @@
         <v>265</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>731</v>
+        <v>716</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -3472,7 +3565,7 @@
         <v>267</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>732</v>
+        <v>717</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -3483,7 +3576,7 @@
         <v>269</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>733</v>
+        <v>718</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -3494,7 +3587,7 @@
         <v>271</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>734</v>
+        <v>719</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -3505,7 +3598,7 @@
         <v>273</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>735</v>
+        <v>720</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -3516,7 +3609,7 @@
         <v>275</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>736</v>
+        <v>721</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -3527,7 +3620,7 @@
         <v>277</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>737</v>
+        <v>722</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -3538,7 +3631,7 @@
         <v>279</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>738</v>
+        <v>723</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -3549,7 +3642,7 @@
         <v>281</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>739</v>
+        <v>724</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -3560,7 +3653,7 @@
         <v>283</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>740</v>
+        <v>725</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -3571,7 +3664,7 @@
         <v>285</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>741</v>
+        <v>726</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -3582,7 +3675,7 @@
         <v>287</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>742</v>
+        <v>727</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -3593,7 +3686,7 @@
         <v>290</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -3604,7 +3697,7 @@
         <v>292</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -3615,7 +3708,7 @@
         <v>294</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>745</v>
+        <v>730</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -3626,7 +3719,7 @@
         <v>296</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
@@ -3637,7 +3730,7 @@
         <v>298</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>747</v>
+        <v>732</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
@@ -3648,7 +3741,7 @@
         <v>300</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -3659,7 +3752,7 @@
         <v>302</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>749</v>
+        <v>734</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
@@ -3670,7 +3763,7 @@
         <v>304</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>750</v>
+        <v>735</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
@@ -3681,7 +3774,7 @@
         <v>306</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>751</v>
+        <v>736</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
@@ -3692,7 +3785,7 @@
         <v>308</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>752</v>
+        <v>737</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
@@ -3703,7 +3796,7 @@
         <v>310</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>753</v>
+        <v>738</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
@@ -3712,13 +3805,13 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>754</v>
+        <v>739</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>755</v>
+        <v>740</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>756</v>
+        <v>741</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
@@ -3729,18 +3822,18 @@
         <v>312</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>757</v>
+        <v>742</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>522</v>
+        <v>507</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>521</v>
+        <v>506</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
     </row>
   </sheetData>
@@ -3809,305 +3902,399 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="43.6328125" customWidth="1"/>
+    <col min="1" max="1" width="47.1796875" customWidth="1"/>
     <col min="2" max="2" width="69.81640625" customWidth="1"/>
     <col min="3" max="3" width="54.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>324</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C1" s="1" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>326</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C2" s="1" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>328</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C3" s="1" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>746</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>749</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>330</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="C6" s="1" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>332</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B5" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="C7" s="1" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>334</v>
       </c>
-      <c r="B6" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="B8" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="C8" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>336</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="C9" s="1" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>757</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>758</v>
+      </c>
+      <c r="B12" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>761</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>763</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>338</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="C15" s="1" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>340</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="C16" s="1" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>341</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>344</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>345</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>348</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="C17" s="1" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>764</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>351</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>351</v>
-      </c>
-      <c r="B17" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>369</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>353</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>355</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>357</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>359</v>
-      </c>
-      <c r="B21" s="1" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>361</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>765</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>361</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>363</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>365</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>367</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>369</v>
+        <v>767</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>348</v>
+        <v>768</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
+        <v>769</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>372</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>370</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>379</v>
+        <v>346</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>378</v>
+        <v>345</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>381</v>
+        <v>772</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>380</v>
+        <v>771</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>383</v>
+        <v>360</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>382</v>
+        <v>359</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>385</v>
+        <v>774</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>384</v>
+        <v>773</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>387</v>
+        <v>775</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>386</v>
+        <v>776</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>389</v>
+        <v>348</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>388</v>
+        <v>347</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>344</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>778</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>780</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>367</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>783</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>374</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -4115,38 +4302,61 @@
     <hyperlink ref="B1" r:id="rId1"/>
     <hyperlink ref="B2" r:id="rId2"/>
     <hyperlink ref="B3" r:id="rId3"/>
-    <hyperlink ref="B4" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId4"/>
     <hyperlink ref="B7" r:id="rId5"/>
     <hyperlink ref="B8" r:id="rId6"/>
     <hyperlink ref="B9" r:id="rId7"/>
-    <hyperlink ref="B10" r:id="rId8"/>
-    <hyperlink ref="B12" r:id="rId9"/>
-    <hyperlink ref="B13" r:id="rId10"/>
-    <hyperlink ref="B14" r:id="rId11"/>
-    <hyperlink ref="B15" r:id="rId12"/>
-    <hyperlink ref="B16" r:id="rId13"/>
-    <hyperlink ref="B18" r:id="rId14"/>
-    <hyperlink ref="B19" r:id="rId15"/>
-    <hyperlink ref="B20" r:id="rId16"/>
-    <hyperlink ref="B21" r:id="rId17"/>
-    <hyperlink ref="B22" r:id="rId18"/>
-    <hyperlink ref="B23" r:id="rId19"/>
-    <hyperlink ref="B24" r:id="rId20"/>
-    <hyperlink ref="B25" r:id="rId21"/>
-    <hyperlink ref="B26" r:id="rId22"/>
-    <hyperlink ref="B27" r:id="rId23"/>
-    <hyperlink ref="B29" r:id="rId24"/>
-    <hyperlink ref="B30" r:id="rId25"/>
-    <hyperlink ref="B31" r:id="rId26"/>
-    <hyperlink ref="B32" r:id="rId27"/>
-    <hyperlink ref="B33" r:id="rId28"/>
-    <hyperlink ref="B34" r:id="rId29"/>
-    <hyperlink ref="B35" r:id="rId30"/>
-    <hyperlink ref="B36" r:id="rId31"/>
-    <hyperlink ref="B37" r:id="rId32"/>
+    <hyperlink ref="C1" r:id="rId8"/>
+    <hyperlink ref="C2" r:id="rId9"/>
+    <hyperlink ref="C3" r:id="rId10"/>
+    <hyperlink ref="B4" r:id="rId11"/>
+    <hyperlink ref="C4" r:id="rId12"/>
+    <hyperlink ref="B5" r:id="rId13"/>
+    <hyperlink ref="C5" r:id="rId14"/>
+    <hyperlink ref="C6" r:id="rId15"/>
+    <hyperlink ref="C7" r:id="rId16"/>
+    <hyperlink ref="C8" r:id="rId17"/>
+    <hyperlink ref="C9" r:id="rId18"/>
+    <hyperlink ref="B11" r:id="rId19"/>
+    <hyperlink ref="B13" r:id="rId20"/>
+    <hyperlink ref="B14" r:id="rId21"/>
+    <hyperlink ref="B15" r:id="rId22"/>
+    <hyperlink ref="B16" r:id="rId23"/>
+    <hyperlink ref="B17" r:id="rId24"/>
+    <hyperlink ref="B18" r:id="rId25"/>
+    <hyperlink ref="B19" r:id="rId26"/>
+    <hyperlink ref="B20" r:id="rId27"/>
+    <hyperlink ref="B21" r:id="rId28"/>
+    <hyperlink ref="B22" r:id="rId29"/>
+    <hyperlink ref="B23" r:id="rId30"/>
+    <hyperlink ref="B24" r:id="rId31"/>
+    <hyperlink ref="B25" r:id="rId32"/>
+    <hyperlink ref="B27" r:id="rId33"/>
+    <hyperlink ref="B26" r:id="rId34"/>
+    <hyperlink ref="B28" r:id="rId35"/>
+    <hyperlink ref="B29" r:id="rId36"/>
+    <hyperlink ref="B30" r:id="rId37"/>
+    <hyperlink ref="B31" r:id="rId38"/>
+    <hyperlink ref="B32" r:id="rId39"/>
+    <hyperlink ref="B33" r:id="rId40"/>
+    <hyperlink ref="B34" r:id="rId41"/>
+    <hyperlink ref="B35" r:id="rId42"/>
+    <hyperlink ref="B36" r:id="rId43"/>
+    <hyperlink ref="B37" r:id="rId44"/>
+    <hyperlink ref="B38" r:id="rId45"/>
+    <hyperlink ref="B39" r:id="rId46"/>
+    <hyperlink ref="B40" r:id="rId47"/>
+    <hyperlink ref="B41" r:id="rId48"/>
+    <hyperlink ref="B42" r:id="rId49"/>
+    <hyperlink ref="B43" r:id="rId50"/>
+    <hyperlink ref="C13" r:id="rId51"/>
+    <hyperlink ref="C14" r:id="rId52"/>
+    <hyperlink ref="C15" r:id="rId53"/>
+    <hyperlink ref="C16" r:id="rId54"/>
+    <hyperlink ref="C17" r:id="rId55"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId33"/>
+  <pageSetup orientation="portrait" r:id="rId56"/>
 </worksheet>
 </file>
 
@@ -4181,7 +4391,7 @@
         <v>316</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>482</v>
+        <v>467</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -4192,18 +4402,18 @@
         <v>318</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>320</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -4214,7 +4424,7 @@
         <v>321</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>481</v>
+        <v>466</v>
       </c>
     </row>
   </sheetData>
@@ -4250,114 +4460,114 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>289</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
     </row>
   </sheetData>
@@ -4410,7 +4620,7 @@
         <v>93</v>
       </c>
       <c r="C1" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -4421,7 +4631,7 @@
         <v>95</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -4440,7 +4650,7 @@
         <v>98</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -4451,7 +4661,7 @@
         <v>100</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -4462,7 +4672,7 @@
         <v>102</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -4473,7 +4683,7 @@
         <v>104</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -4484,7 +4694,7 @@
         <v>106</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -4495,7 +4705,7 @@
         <v>108</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -4511,10 +4721,10 @@
         <v>112</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -4581,31 +4791,31 @@
         <v>260</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -4618,66 +4828,66 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
     </row>
   </sheetData>
@@ -4717,11 +4927,11 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>588</v>
+        <v>573</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
-        <v>589</v>
+        <v>574</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -4729,46 +4939,46 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>576</v>
+        <v>561</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>575</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>579</v>
+        <v>564</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>580</v>
+        <v>565</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>592</v>
+        <v>577</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>582</v>
+        <v>567</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>581</v>
+        <v>566</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>593</v>
+        <v>578</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>577</v>
+        <v>562</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>578</v>
+        <v>563</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>591</v>
+        <v>576</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -4777,57 +4987,57 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>604</v>
+        <v>589</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>605</v>
+        <v>590</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>606</v>
+        <v>591</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>599</v>
+        <v>584</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>598</v>
+        <v>583</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>600</v>
+        <v>585</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>602</v>
+        <v>587</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>601</v>
+        <v>586</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>603</v>
+        <v>588</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>587</v>
+        <v>572</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>586</v>
+        <v>571</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>594</v>
+        <v>579</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>595</v>
+        <v>580</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>596</v>
+        <v>581</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>597</v>
+        <v>582</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -4836,310 +5046,310 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>688</v>
+        <v>673</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>687</v>
+        <v>672</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>689</v>
+        <v>674</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>691</v>
+        <v>676</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>690</v>
+        <v>675</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>692</v>
+        <v>677</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>585</v>
+        <v>570</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>693</v>
+        <v>678</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>692</v>
+        <v>677</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>608</v>
+        <v>593</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>607</v>
+        <v>592</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>609</v>
+        <v>594</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>611</v>
+        <v>596</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>614</v>
+        <v>599</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>617</v>
+        <v>602</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>584</v>
+        <v>569</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>583</v>
+        <v>568</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>616</v>
+        <v>601</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>613</v>
+        <v>598</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>612</v>
+        <v>597</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>618</v>
+        <v>603</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>675</v>
+        <v>660</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>674</v>
+        <v>659</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>694</v>
+        <v>679</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>697</v>
+        <v>682</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>695</v>
+        <v>680</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>696</v>
+        <v>681</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>610</v>
+        <v>595</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>686</v>
+        <v>671</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>615</v>
+        <v>600</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>619</v>
+        <v>604</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>620</v>
+        <v>605</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>621</v>
+        <v>606</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>623</v>
+        <v>608</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>622</v>
+        <v>607</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>624</v>
+        <v>609</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>626</v>
+        <v>611</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>625</v>
+        <v>610</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>627</v>
+        <v>612</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>628</v>
+        <v>613</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>629</v>
+        <v>614</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>630</v>
+        <v>615</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>632</v>
+        <v>617</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>631</v>
+        <v>616</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>633</v>
+        <v>618</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>646</v>
+        <v>631</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>645</v>
+        <v>630</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>647</v>
+        <v>632</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>635</v>
+        <v>620</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>634</v>
+        <v>619</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>636</v>
+        <v>621</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>638</v>
+        <v>623</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>637</v>
+        <v>622</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>698</v>
+        <v>683</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>640</v>
+        <v>625</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>639</v>
+        <v>624</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>641</v>
+        <v>626</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>642</v>
+        <v>627</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>643</v>
+        <v>628</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>644</v>
+        <v>629</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>649</v>
+        <v>634</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>648</v>
+        <v>633</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>651</v>
+        <v>636</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>653</v>
+        <v>638</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>652</v>
+        <v>637</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>650</v>
+        <v>635</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>662</v>
+        <v>647</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>654</v>
+        <v>639</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>655</v>
+        <v>640</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>657</v>
+        <v>642</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>656</v>
+        <v>641</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>658</v>
+        <v>643</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>660</v>
+        <v>645</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>659</v>
+        <v>644</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>661</v>
+        <v>646</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>663</v>
+        <v>648</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>669</v>
+        <v>654</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>664</v>
+        <v>649</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>670</v>
+        <v>655</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>669</v>
+        <v>654</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>668</v>
+        <v>653</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>666</v>
+        <v>651</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>665</v>
+        <v>650</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>667</v>
+        <v>652</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
@@ -5148,57 +5358,57 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>678</v>
+        <v>663</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>677</v>
+        <v>662</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>676</v>
+        <v>661</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>671</v>
+        <v>656</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>673</v>
+        <v>658</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>672</v>
+        <v>657</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>675</v>
+        <v>660</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>674</v>
+        <v>659</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>685</v>
+        <v>670</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>679</v>
+        <v>664</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>680</v>
+        <v>665</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>683</v>
+        <v>668</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>682</v>
+        <v>667</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>681</v>
+        <v>666</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>684</v>
+        <v>669</v>
       </c>
     </row>
   </sheetData>
@@ -5310,77 +5520,77 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>488</v>
+        <v>473</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>556</v>
+        <v>541</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>555</v>
+        <v>540</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>554</v>
+        <v>539</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>552</v>
+        <v>537</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>549</v>
+        <v>534</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>550</v>
+        <v>535</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>551</v>
+        <v>536</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>553</v>
+        <v>538</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>525</v>
+        <v>510</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>527</v>
+        <v>512</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>526</v>
+        <v>511</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>561</v>
+        <v>546</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>560</v>
+        <v>545</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -5391,7 +5601,7 @@
         <v>118</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -5402,18 +5612,18 @@
         <v>120</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>494</v>
+        <v>479</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>523</v>
+        <v>508</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -5437,7 +5647,7 @@
         <v>139</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>567</v>
+        <v>552</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -5448,18 +5658,18 @@
         <v>146</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -5470,7 +5680,7 @@
         <v>158</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
@@ -5481,18 +5691,18 @@
         <v>160</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>558</v>
+        <v>543</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>557</v>
+        <v>542</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>559</v>
+        <v>544</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -5503,18 +5713,18 @@
         <v>123</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
@@ -5525,29 +5735,29 @@
         <v>125</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>531</v>
+        <v>516</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>532</v>
+        <v>517</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>502</v>
+        <v>487</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>533</v>
+        <v>518</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
@@ -5558,29 +5768,29 @@
         <v>142</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>571</v>
+        <v>556</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>534</v>
+        <v>519</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>574</v>
+        <v>559</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>572</v>
+        <v>557</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>573</v>
+        <v>558</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
@@ -5591,7 +5801,7 @@
         <v>128</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>535</v>
+        <v>520</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
@@ -5602,7 +5812,7 @@
         <v>130</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>483</v>
+        <v>468</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
@@ -5613,7 +5823,7 @@
         <v>144</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>566</v>
+        <v>551</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
@@ -5624,7 +5834,7 @@
         <v>132</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>536</v>
+        <v>521</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
@@ -5635,40 +5845,40 @@
         <v>148</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>565</v>
+        <v>550</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>537</v>
+        <v>522</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>539</v>
+        <v>524</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
@@ -5679,18 +5889,18 @@
         <v>150</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>540</v>
+        <v>525</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>541</v>
+        <v>526</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
@@ -5701,7 +5911,7 @@
         <v>133</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>485</v>
+        <v>470</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
@@ -5712,18 +5922,18 @@
         <v>152</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>543</v>
+        <v>528</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>563</v>
+        <v>548</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>562</v>
+        <v>547</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>564</v>
+        <v>549</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
@@ -5734,18 +5944,18 @@
         <v>154</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>542</v>
+        <v>527</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>513</v>
+        <v>498</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>544</v>
+        <v>529</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
@@ -5756,7 +5966,7 @@
         <v>135</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>545</v>
+        <v>530</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
@@ -5767,7 +5977,7 @@
         <v>138</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
@@ -5781,53 +5991,53 @@
         <v>156</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>569</v>
+        <v>554</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>141</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>568</v>
+        <v>553</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>515</v>
+        <v>500</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>522</v>
+        <v>507</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>521</v>
+        <v>506</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
@@ -5977,7 +6187,7 @@
         <v>166</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -5988,7 +6198,7 @@
         <v>179</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -5999,7 +6209,7 @@
         <v>168</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -6037,7 +6247,7 @@
         <v>176</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
     </row>
   </sheetData>
@@ -6078,26 +6288,26 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>180</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>181</v>
@@ -6119,7 +6329,7 @@
         <v>184</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -6164,13 +6374,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>700</v>
+        <v>685</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>699</v>
+        <v>684</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>701</v>
+        <v>686</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -6181,7 +6391,7 @@
         <v>188</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>702</v>
+        <v>687</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -6192,7 +6402,7 @@
         <v>190</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>703</v>
+        <v>688</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -6203,7 +6413,7 @@
         <v>192</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>704</v>
+        <v>689</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -6214,7 +6424,7 @@
         <v>194</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>705</v>
+        <v>690</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -6225,7 +6435,7 @@
         <v>196</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>706</v>
+        <v>691</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -6236,7 +6446,7 @@
         <v>198</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>707</v>
+        <v>692</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -6244,10 +6454,10 @@
         <v>200</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>717</v>
+        <v>702</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>708</v>
+        <v>693</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -6258,7 +6468,7 @@
         <v>201</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>709</v>
+        <v>694</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -6269,7 +6479,7 @@
         <v>203</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>710</v>
+        <v>695</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -6280,7 +6490,7 @@
         <v>205</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>711</v>
+        <v>696</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -6288,10 +6498,10 @@
         <v>209</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>713</v>
+        <v>698</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>712</v>
+        <v>697</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -6302,7 +6512,7 @@
         <v>207</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>714</v>
+        <v>699</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -6313,7 +6523,7 @@
         <v>210</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>715</v>
+        <v>700</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -6324,7 +6534,7 @@
         <v>212</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>716</v>
+        <v>701</v>
       </c>
     </row>
   </sheetData>

--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="785">
   <si>
     <t>https://leetcode.com/problems/find-all-numbers-disappeared-in-an-array/description/</t>
   </si>
@@ -2313,12 +2313,6 @@
     <t>Path Sum II</t>
   </si>
   <si>
-    <t>Binary Tree Traversal</t>
-  </si>
-  <si>
-    <t>Binary tree traversal</t>
-  </si>
-  <si>
     <t>https://www.geeksforgeeks.org/bottom-view-binary-tree/</t>
   </si>
   <si>
@@ -2358,15 +2352,6 @@
     <t>Binary Tree Paths</t>
   </si>
   <si>
-    <t>https://www.geeksforgeeks.org/find-maximum-or-minimum-in-binary-tree/</t>
-  </si>
-  <si>
-    <t>Find maximum (or minimum) in Binary Tree</t>
-  </si>
-  <si>
-    <t>PrintNodesAtDistanceKFromTargetNode</t>
-  </si>
-  <si>
     <t>https://www.geeksforgeeks.org/print-nodes-distance-k-given-node-binary-tree/</t>
   </si>
   <si>
@@ -2404,6 +2389,9 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=IPak9nF_64k</t>
+  </si>
+  <si>
+    <t>Print all nodes at distance k from a given node</t>
   </si>
 </sst>
 </file>
@@ -2737,7 +2725,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
@@ -3902,10 +3890,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4028,10 +4016,13 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>759</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="B12" t="s">
-        <v>759</v>
+      <c r="C12" s="1" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -4042,258 +4033,239 @@
         <v>760</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>763</v>
+        <v>338</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>762</v>
+        <v>337</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>341</v>
+        <v>762</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>764</v>
+        <v>351</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>361</v>
+        <v>763</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>765</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
+        <v>766</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>767</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="B27" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
+        <v>372</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>364</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>365</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>346</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>770</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>769</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>372</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>364</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>365</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>346</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>772</v>
+        <v>360</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>771</v>
+        <v>359</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>360</v>
+        <v>784</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>359</v>
+        <v>771</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>774</v>
+        <v>348</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>773</v>
+        <v>347</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>775</v>
+        <v>344</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>776</v>
+        <v>343</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>348</v>
+        <v>773</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>347</v>
+        <v>772</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>344</v>
+        <v>775</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>343</v>
+        <v>774</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>778</v>
+        <v>367</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>783</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>374</v>
-      </c>
-      <c r="B43" s="1" t="s">
         <v>373</v>
       </c>
     </row>
@@ -4318,45 +4290,44 @@
     <hyperlink ref="C8" r:id="rId17"/>
     <hyperlink ref="C9" r:id="rId18"/>
     <hyperlink ref="B11" r:id="rId19"/>
-    <hyperlink ref="B13" r:id="rId20"/>
-    <hyperlink ref="B14" r:id="rId21"/>
-    <hyperlink ref="B15" r:id="rId22"/>
-    <hyperlink ref="B16" r:id="rId23"/>
-    <hyperlink ref="B17" r:id="rId24"/>
-    <hyperlink ref="B18" r:id="rId25"/>
-    <hyperlink ref="B19" r:id="rId26"/>
-    <hyperlink ref="B20" r:id="rId27"/>
-    <hyperlink ref="B21" r:id="rId28"/>
-    <hyperlink ref="B22" r:id="rId29"/>
-    <hyperlink ref="B23" r:id="rId30"/>
-    <hyperlink ref="B24" r:id="rId31"/>
-    <hyperlink ref="B25" r:id="rId32"/>
-    <hyperlink ref="B27" r:id="rId33"/>
-    <hyperlink ref="B26" r:id="rId34"/>
-    <hyperlink ref="B28" r:id="rId35"/>
-    <hyperlink ref="B29" r:id="rId36"/>
-    <hyperlink ref="B30" r:id="rId37"/>
-    <hyperlink ref="B31" r:id="rId38"/>
-    <hyperlink ref="B32" r:id="rId39"/>
-    <hyperlink ref="B33" r:id="rId40"/>
-    <hyperlink ref="B34" r:id="rId41"/>
-    <hyperlink ref="B35" r:id="rId42"/>
-    <hyperlink ref="B36" r:id="rId43"/>
-    <hyperlink ref="B37" r:id="rId44"/>
-    <hyperlink ref="B38" r:id="rId45"/>
-    <hyperlink ref="B39" r:id="rId46"/>
-    <hyperlink ref="B40" r:id="rId47"/>
-    <hyperlink ref="B41" r:id="rId48"/>
-    <hyperlink ref="B42" r:id="rId49"/>
-    <hyperlink ref="B43" r:id="rId50"/>
+    <hyperlink ref="B12" r:id="rId20"/>
+    <hyperlink ref="B13" r:id="rId21"/>
+    <hyperlink ref="B14" r:id="rId22"/>
+    <hyperlink ref="B15" r:id="rId23"/>
+    <hyperlink ref="B16" r:id="rId24"/>
+    <hyperlink ref="B17" r:id="rId25"/>
+    <hyperlink ref="B18" r:id="rId26"/>
+    <hyperlink ref="B19" r:id="rId27"/>
+    <hyperlink ref="B20" r:id="rId28"/>
+    <hyperlink ref="B21" r:id="rId29"/>
+    <hyperlink ref="B22" r:id="rId30"/>
+    <hyperlink ref="B23" r:id="rId31"/>
+    <hyperlink ref="B24" r:id="rId32"/>
+    <hyperlink ref="B26" r:id="rId33"/>
+    <hyperlink ref="B25" r:id="rId34"/>
+    <hyperlink ref="B27" r:id="rId35"/>
+    <hyperlink ref="B28" r:id="rId36"/>
+    <hyperlink ref="B29" r:id="rId37"/>
+    <hyperlink ref="B30" r:id="rId38"/>
+    <hyperlink ref="B31" r:id="rId39"/>
+    <hyperlink ref="B32" r:id="rId40"/>
+    <hyperlink ref="B33" r:id="rId41"/>
+    <hyperlink ref="B34" r:id="rId42"/>
+    <hyperlink ref="B35" r:id="rId43"/>
+    <hyperlink ref="B36" r:id="rId44"/>
+    <hyperlink ref="B37" r:id="rId45"/>
+    <hyperlink ref="B38" r:id="rId46"/>
+    <hyperlink ref="B39" r:id="rId47"/>
+    <hyperlink ref="B40" r:id="rId48"/>
+    <hyperlink ref="B41" r:id="rId49"/>
+    <hyperlink ref="C12" r:id="rId50"/>
     <hyperlink ref="C13" r:id="rId51"/>
     <hyperlink ref="C14" r:id="rId52"/>
     <hyperlink ref="C15" r:id="rId53"/>
     <hyperlink ref="C16" r:id="rId54"/>
-    <hyperlink ref="C17" r:id="rId55"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId56"/>
+  <pageSetup orientation="portrait" r:id="rId55"/>
 </worksheet>
 </file>
 
@@ -5508,7 +5479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>

--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5770" firstSheet="5" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5770" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Array" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="775">
   <si>
     <t>https://leetcode.com/problems/find-all-numbers-disappeared-in-an-array/description/</t>
   </si>
@@ -1246,36 +1246,6 @@
   </si>
   <si>
     <t>Reverse Bits</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/design-bitset/description/</t>
-  </si>
-  <si>
-    <t>Design Bitset</t>
-  </si>
-  <si>
-    <t>Largest Combination With Bitwise AND Greater Than Zero</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/largest-combination-with-bitwise-and-greater-than-zero/description/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/reverse-integer/description/</t>
-  </si>
-  <si>
-    <t>Reverse Integer</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/sum-of-two-integers/description/</t>
-  </si>
-  <si>
-    <t>Sum of Two Integers</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/number-complement/description/</t>
-  </si>
-  <si>
-    <t>Number Complement</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=ufRhbsg5RwU</t>
@@ -2825,7 +2795,7 @@
         <v>24</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -2923,7 +2893,7 @@
         <v>49</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
@@ -2956,7 +2926,7 @@
         <v>57</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
@@ -2994,7 +2964,7 @@
         <v>67</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
@@ -3005,7 +2975,7 @@
         <v>69</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
@@ -3013,10 +2983,10 @@
         <v>70</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
@@ -3188,7 +3158,7 @@
         <v>214</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -3199,7 +3169,7 @@
         <v>216</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -3210,7 +3180,7 @@
         <v>218</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -3221,12 +3191,12 @@
         <v>221</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>222</v>
@@ -3266,13 +3236,13 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>231</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -3283,7 +3253,7 @@
         <v>232</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -3294,7 +3264,7 @@
         <v>234</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
     </row>
   </sheetData>
@@ -3346,7 +3316,7 @@
         <v>236</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -3365,7 +3335,7 @@
         <v>241</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -3376,7 +3346,7 @@
         <v>243</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -3387,7 +3357,7 @@
         <v>244</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -3398,7 +3368,7 @@
         <v>246</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -3409,7 +3379,7 @@
         <v>248</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -3420,7 +3390,7 @@
         <v>250</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -3431,7 +3401,7 @@
         <v>252</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -3442,7 +3412,7 @@
         <v>254</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -3453,7 +3423,7 @@
         <v>256</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -3464,7 +3434,7 @@
         <v>258</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
     </row>
   </sheetData>
@@ -3520,7 +3490,7 @@
         <v>261</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -3531,7 +3501,7 @@
         <v>263</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>715</v>
+        <v>705</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -3542,7 +3512,7 @@
         <v>265</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -3553,7 +3523,7 @@
         <v>267</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -3564,7 +3534,7 @@
         <v>269</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -3575,7 +3545,7 @@
         <v>271</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -3586,7 +3556,7 @@
         <v>273</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -3597,7 +3567,7 @@
         <v>275</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -3608,7 +3578,7 @@
         <v>277</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -3619,7 +3589,7 @@
         <v>279</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -3630,7 +3600,7 @@
         <v>281</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -3641,7 +3611,7 @@
         <v>283</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -3652,7 +3622,7 @@
         <v>285</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -3663,7 +3633,7 @@
         <v>287</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -3674,7 +3644,7 @@
         <v>290</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -3685,7 +3655,7 @@
         <v>292</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -3696,7 +3666,7 @@
         <v>294</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -3707,7 +3677,7 @@
         <v>296</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
@@ -3718,7 +3688,7 @@
         <v>298</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
@@ -3729,7 +3699,7 @@
         <v>300</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -3740,7 +3710,7 @@
         <v>302</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
@@ -3751,7 +3721,7 @@
         <v>304</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
@@ -3762,7 +3732,7 @@
         <v>306</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
@@ -3773,7 +3743,7 @@
         <v>308</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
@@ -3784,7 +3754,7 @@
         <v>310</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
@@ -3793,13 +3763,13 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
@@ -3810,18 +3780,18 @@
         <v>312</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
     </row>
   </sheetData>
@@ -3892,7 +3862,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
@@ -3911,7 +3881,7 @@
         <v>323</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -3922,7 +3892,7 @@
         <v>325</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -3933,29 +3903,29 @@
         <v>327</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -3966,7 +3936,7 @@
         <v>329</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -3977,7 +3947,7 @@
         <v>331</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>753</v>
+        <v>743</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -3988,7 +3958,7 @@
         <v>333</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>754</v>
+        <v>744</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -3999,7 +3969,7 @@
         <v>335</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>755</v>
+        <v>745</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -4008,32 +3978,32 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>779</v>
+        <v>769</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>761</v>
+        <v>751</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>780</v>
+        <v>770</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -4044,7 +4014,7 @@
         <v>337</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>781</v>
+        <v>771</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -4055,7 +4025,7 @@
         <v>339</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>782</v>
+        <v>772</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -4066,12 +4036,12 @@
         <v>342</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>783</v>
+        <v>773</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>762</v>
+        <v>752</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>349</v>
@@ -4127,7 +4097,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>358</v>
@@ -4135,15 +4105,15 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>765</v>
+        <v>755</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>764</v>
+        <v>754</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>766</v>
+        <v>756</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>370</v>
@@ -4151,10 +4121,10 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>767</v>
+        <v>757</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>768</v>
+        <v>758</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -4191,10 +4161,10 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>770</v>
+        <v>760</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>769</v>
+        <v>759</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -4207,10 +4177,10 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>784</v>
+        <v>774</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>771</v>
+        <v>761</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
@@ -4231,18 +4201,18 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>773</v>
+        <v>763</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>775</v>
+        <v>765</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>774</v>
+        <v>764</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
@@ -4250,15 +4220,15 @@
         <v>367</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>776</v>
+        <v>766</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>778</v>
+        <v>768</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>777</v>
+        <v>767</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
@@ -4362,7 +4332,7 @@
         <v>316</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -4373,18 +4343,18 @@
         <v>318</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>320</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -4395,7 +4365,7 @@
         <v>321</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
     </row>
   </sheetData>
@@ -4439,7 +4409,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>377</v>
@@ -4447,21 +4417,21 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>289</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -4472,7 +4442,7 @@
         <v>380</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -4483,7 +4453,7 @@
         <v>378</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -4494,7 +4464,7 @@
         <v>382</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -4505,7 +4475,7 @@
         <v>384</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -4516,7 +4486,7 @@
         <v>386</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -4527,18 +4497,18 @@
         <v>388</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
     </row>
   </sheetData>
@@ -4591,7 +4561,7 @@
         <v>93</v>
       </c>
       <c r="C1" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -4602,7 +4572,7 @@
         <v>95</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -4621,7 +4591,7 @@
         <v>98</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -4632,7 +4602,7 @@
         <v>100</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -4643,7 +4613,7 @@
         <v>102</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -4654,7 +4624,7 @@
         <v>104</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -4665,7 +4635,7 @@
         <v>106</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -4676,7 +4646,7 @@
         <v>108</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -4692,10 +4662,10 @@
         <v>112</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -4744,10 +4714,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4799,66 +4769,26 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>402</v>
-      </c>
-      <c r="B9" s="1" t="s">
         <v>401</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>404</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>405</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>408</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>410</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>409</v>
       </c>
     </row>
   </sheetData>
@@ -4868,14 +4798,9 @@
     <hyperlink ref="B3" r:id="rId3"/>
     <hyperlink ref="B4" r:id="rId4"/>
     <hyperlink ref="B5" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
-    <hyperlink ref="B8" r:id="rId7"/>
-    <hyperlink ref="B9" r:id="rId8"/>
-    <hyperlink ref="B11" r:id="rId9"/>
-    <hyperlink ref="B12" r:id="rId10"/>
-    <hyperlink ref="B13" r:id="rId11"/>
-    <hyperlink ref="B14" r:id="rId12"/>
-    <hyperlink ref="B6" r:id="rId13"/>
+    <hyperlink ref="B6" r:id="rId6"/>
+    <hyperlink ref="B7" r:id="rId7"/>
+    <hyperlink ref="B8" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4898,11 +4823,11 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -4910,46 +4835,46 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -4958,57 +4883,57 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -5017,310 +4942,310 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
@@ -5329,57 +5254,57 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
+        <v>650</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>660</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
     </row>
   </sheetData>
@@ -5491,77 +5416,77 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -5572,7 +5497,7 @@
         <v>118</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -5583,18 +5508,18 @@
         <v>120</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -5618,7 +5543,7 @@
         <v>139</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -5629,18 +5554,18 @@
         <v>146</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -5651,7 +5576,7 @@
         <v>158</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
@@ -5662,18 +5587,18 @@
         <v>160</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -5684,18 +5609,18 @@
         <v>123</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
@@ -5706,29 +5631,29 @@
         <v>125</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
@@ -5739,29 +5664,29 @@
         <v>142</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
@@ -5772,7 +5697,7 @@
         <v>128</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
@@ -5783,7 +5708,7 @@
         <v>130</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
@@ -5794,7 +5719,7 @@
         <v>144</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
@@ -5805,7 +5730,7 @@
         <v>132</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
@@ -5816,40 +5741,40 @@
         <v>148</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
@@ -5860,18 +5785,18 @@
         <v>150</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
@@ -5882,7 +5807,7 @@
         <v>133</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
@@ -5893,18 +5818,18 @@
         <v>152</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
@@ -5915,18 +5840,18 @@
         <v>154</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
@@ -5937,7 +5862,7 @@
         <v>135</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
@@ -5948,7 +5873,7 @@
         <v>138</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
@@ -5962,53 +5887,53 @@
         <v>156</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>141</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
@@ -6158,7 +6083,7 @@
         <v>166</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -6169,7 +6094,7 @@
         <v>179</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -6180,7 +6105,7 @@
         <v>168</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -6218,7 +6143,7 @@
         <v>176</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
     </row>
   </sheetData>
@@ -6259,26 +6184,26 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>180</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>181</v>
@@ -6300,7 +6225,7 @@
         <v>184</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -6345,13 +6270,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -6362,7 +6287,7 @@
         <v>188</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -6373,7 +6298,7 @@
         <v>190</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -6384,7 +6309,7 @@
         <v>192</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -6395,7 +6320,7 @@
         <v>194</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -6406,7 +6331,7 @@
         <v>196</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -6417,7 +6342,7 @@
         <v>198</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -6425,10 +6350,10 @@
         <v>200</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -6439,7 +6364,7 @@
         <v>201</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -6450,7 +6375,7 @@
         <v>203</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -6461,7 +6386,7 @@
         <v>205</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -6469,10 +6394,10 @@
         <v>209</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -6483,7 +6408,7 @@
         <v>207</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -6494,7 +6419,7 @@
         <v>210</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -6505,7 +6430,7 @@
         <v>212</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
     </row>
   </sheetData>

--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5770" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5770"/>
   </bookViews>
   <sheets>
     <sheet name="Array" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="787">
   <si>
     <t>https://leetcode.com/problems/find-all-numbers-disappeared-in-an-array/description/</t>
   </si>
@@ -66,12 +66,6 @@
     <t>https://leetcode.com/problems/two-sum/description/</t>
   </si>
   <si>
-    <t>https://www.geeksforgeeks.org/segregate-even-and-odd-numbers/</t>
-  </si>
-  <si>
-    <t>Segregate Even and Odd numbers</t>
-  </si>
-  <si>
     <t>Find All Numbers Disappeared in an Array</t>
   </si>
   <si>
@@ -120,21 +114,12 @@
     <t>https://leetcode.com/problems/count-number-of-nice-subarrays/description/</t>
   </si>
   <si>
-    <t>Custom Sort String</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/custom-sort-string/description/</t>
-  </si>
-  <si>
     <t>Find All Duplicates in an Array</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/find-all-duplicates-in-an-array/description/</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=lJwbPZGo05A&amp;ab_channel=NeetCode</t>
-  </si>
-  <si>
     <t>Hand of Straights</t>
   </si>
   <si>
@@ -153,12 +138,6 @@
     <t>Jump Game</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=Yan0cv2cLy8&amp;t=679s&amp;ab_channel=NeetCode</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=dJ7sWiOoK7g&amp;ab_channel=NeetCode</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/jump-game-ii/description/</t>
   </si>
   <si>
@@ -2362,6 +2341,63 @@
   </si>
   <si>
     <t>Print all nodes at distance k from a given node</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/gas-station/description/</t>
+  </si>
+  <si>
+    <t>Gas Station</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-the-town-judge/description/</t>
+  </si>
+  <si>
+    <t>Find the Town Judge</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/pascals-triangle/description/</t>
+  </si>
+  <si>
+    <t>Pascal's Triangle</t>
+  </si>
+  <si>
+    <t>First Missing Positive</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/first-missing-positive/</t>
+  </si>
+  <si>
+    <t>Boats to Save People</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/boats-to-save-people/description/</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2AdzmA1IC1k</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nP_ns3uSh80</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nPVEaB3AjUM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4aBtEz8MrDw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UuiTKBwPgAo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Y8x0iAVEITo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lJwbPZGo05A</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Yan0cv2cLy8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=dJ7sWiOoK7g</t>
   </si>
 </sst>
 </file>
@@ -2693,444 +2729,498 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="39.54296875" customWidth="1"/>
     <col min="2" max="2" width="74.6328125" customWidth="1"/>
-    <col min="3" max="3" width="123.6328125" customWidth="1"/>
+    <col min="3" max="3" width="53.6328125" customWidth="1"/>
     <col min="4" max="4" width="19.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>773</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>776</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="B13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="C13" s="1" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="C14" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="C16" s="1" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>769</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="B18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="D18" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="1" t="s">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="C19" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="C20" s="1" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="B21" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="C22" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="C24" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="C26" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" s="1" t="s">
+      <c r="C27" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="C28" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" s="1" t="s">
+      <c r="C31" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="B32" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>64</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>66</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>68</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>70</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>71</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="C32" s="1" t="s">
-        <v>73</v>
+        <v>400</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>74</v>
+        <v>402</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>81</v>
+        <v>70</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="2" t="s">
-        <v>86</v>
+      <c r="A38" t="s">
+        <v>75</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>89</v>
+        <v>76</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>90</v>
+      <c r="A40" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>91</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>774</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>775</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="B3" r:id="rId3"/>
-    <hyperlink ref="A4" r:id="rId4" display="https://leetcode.com/problems/max-consecutive-ones/"/>
-    <hyperlink ref="B5" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
-    <hyperlink ref="B9" r:id="rId7"/>
-    <hyperlink ref="B4" r:id="rId8"/>
-    <hyperlink ref="B6" r:id="rId9"/>
-    <hyperlink ref="B8" r:id="rId10"/>
-    <hyperlink ref="B11" r:id="rId11"/>
-    <hyperlink ref="B12" r:id="rId12"/>
-    <hyperlink ref="B13" r:id="rId13"/>
-    <hyperlink ref="B14" r:id="rId14"/>
-    <hyperlink ref="B15" r:id="rId15"/>
-    <hyperlink ref="C15" r:id="rId16"/>
-    <hyperlink ref="B16" r:id="rId17"/>
-    <hyperlink ref="B17" r:id="rId18"/>
-    <hyperlink ref="C17" r:id="rId19"/>
-    <hyperlink ref="C18" r:id="rId20"/>
-    <hyperlink ref="B18" r:id="rId21"/>
-    <hyperlink ref="B19" r:id="rId22"/>
-    <hyperlink ref="B20" r:id="rId23"/>
-    <hyperlink ref="C20" r:id="rId24"/>
-    <hyperlink ref="B21" r:id="rId25"/>
-    <hyperlink ref="B22" r:id="rId26"/>
-    <hyperlink ref="C22" r:id="rId27"/>
-    <hyperlink ref="B23" r:id="rId28"/>
-    <hyperlink ref="C23" r:id="rId29"/>
-    <hyperlink ref="B24" r:id="rId30"/>
-    <hyperlink ref="C24" r:id="rId31"/>
-    <hyperlink ref="B25" r:id="rId32"/>
-    <hyperlink ref="C25" r:id="rId33"/>
-    <hyperlink ref="B26" r:id="rId34"/>
-    <hyperlink ref="C26" r:id="rId35"/>
-    <hyperlink ref="B27" r:id="rId36"/>
-    <hyperlink ref="B28" r:id="rId37"/>
-    <hyperlink ref="B29" r:id="rId38"/>
-    <hyperlink ref="C29" r:id="rId39"/>
-    <hyperlink ref="B30" r:id="rId40"/>
-    <hyperlink ref="C30" r:id="rId41"/>
-    <hyperlink ref="B31" r:id="rId42"/>
-    <hyperlink ref="B32" r:id="rId43"/>
-    <hyperlink ref="C32" r:id="rId44"/>
-    <hyperlink ref="B33" r:id="rId45"/>
-    <hyperlink ref="B34" r:id="rId46"/>
-    <hyperlink ref="C34" r:id="rId47"/>
-    <hyperlink ref="B35" r:id="rId48"/>
-    <hyperlink ref="B36" r:id="rId49"/>
-    <hyperlink ref="B37" r:id="rId50"/>
-    <hyperlink ref="C37" r:id="rId51"/>
-    <hyperlink ref="B38" r:id="rId52"/>
-    <hyperlink ref="B39" r:id="rId53"/>
-    <hyperlink ref="B40" r:id="rId54"/>
-    <hyperlink ref="C12" r:id="rId55"/>
-    <hyperlink ref="C31" r:id="rId56"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4" display="https://leetcode.com/problems/max-consecutive-ones/"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B8" r:id="rId6"/>
+    <hyperlink ref="B10" r:id="rId7"/>
+    <hyperlink ref="B5" r:id="rId8"/>
+    <hyperlink ref="B9" r:id="rId9"/>
+    <hyperlink ref="B13" r:id="rId10"/>
+    <hyperlink ref="B14" r:id="rId11"/>
+    <hyperlink ref="B15" r:id="rId12"/>
+    <hyperlink ref="B16" r:id="rId13"/>
+    <hyperlink ref="B18" r:id="rId14"/>
+    <hyperlink ref="B19" r:id="rId15"/>
+    <hyperlink ref="C19" r:id="rId16"/>
+    <hyperlink ref="C20" r:id="rId17"/>
+    <hyperlink ref="B20" r:id="rId18"/>
+    <hyperlink ref="B21" r:id="rId19"/>
+    <hyperlink ref="B22" r:id="rId20"/>
+    <hyperlink ref="C22" r:id="rId21"/>
+    <hyperlink ref="B23" r:id="rId22"/>
+    <hyperlink ref="B24" r:id="rId23"/>
+    <hyperlink ref="C24" r:id="rId24"/>
+    <hyperlink ref="B25" r:id="rId25"/>
+    <hyperlink ref="C25" r:id="rId26"/>
+    <hyperlink ref="B26" r:id="rId27"/>
+    <hyperlink ref="C26" r:id="rId28"/>
+    <hyperlink ref="B27" r:id="rId29"/>
+    <hyperlink ref="C27" r:id="rId30"/>
+    <hyperlink ref="B28" r:id="rId31"/>
+    <hyperlink ref="C28" r:id="rId32"/>
+    <hyperlink ref="B29" r:id="rId33"/>
+    <hyperlink ref="B30" r:id="rId34"/>
+    <hyperlink ref="B31" r:id="rId35"/>
+    <hyperlink ref="C31" r:id="rId36"/>
+    <hyperlink ref="B32" r:id="rId37"/>
+    <hyperlink ref="C32" r:id="rId38"/>
+    <hyperlink ref="B33" r:id="rId39"/>
+    <hyperlink ref="B34" r:id="rId40"/>
+    <hyperlink ref="C34" r:id="rId41"/>
+    <hyperlink ref="B35" r:id="rId42"/>
+    <hyperlink ref="B36" r:id="rId43"/>
+    <hyperlink ref="C36" r:id="rId44"/>
+    <hyperlink ref="B37" r:id="rId45"/>
+    <hyperlink ref="B38" r:id="rId46"/>
+    <hyperlink ref="B39" r:id="rId47"/>
+    <hyperlink ref="C39" r:id="rId48"/>
+    <hyperlink ref="B40" r:id="rId49"/>
+    <hyperlink ref="B41" r:id="rId50"/>
+    <hyperlink ref="B42" r:id="rId51"/>
+    <hyperlink ref="C14" r:id="rId52"/>
+    <hyperlink ref="C33" r:id="rId53"/>
+    <hyperlink ref="B17" r:id="rId54"/>
+    <hyperlink ref="B2" r:id="rId55"/>
+    <hyperlink ref="B7" r:id="rId56"/>
+    <hyperlink ref="B44" r:id="rId57"/>
+    <hyperlink ref="B12" r:id="rId58"/>
+    <hyperlink ref="C2" r:id="rId59"/>
+    <hyperlink ref="C4" r:id="rId60"/>
+    <hyperlink ref="C7" r:id="rId61"/>
+    <hyperlink ref="C12" r:id="rId62"/>
+    <hyperlink ref="C13" r:id="rId63"/>
+    <hyperlink ref="C17" r:id="rId64"/>
+    <hyperlink ref="C16" r:id="rId65"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId57"/>
+  <pageSetup orientation="portrait" r:id="rId66"/>
 </worksheet>
 </file>
 
@@ -3152,119 +3242,119 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
     </row>
   </sheetData>
@@ -3310,131 +3400,131 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
     </row>
   </sheetData>
@@ -3484,277 +3574,277 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
@@ -3763,35 +3853,35 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
     </row>
   </sheetData>
@@ -3875,101 +3965,101 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -3978,265 +4068,265 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -4318,54 +4408,54 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
     </row>
   </sheetData>
@@ -4401,114 +4491,114 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>425</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>432</v>
       </c>
     </row>
   </sheetData>
@@ -4555,133 +4645,133 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C1" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -4716,7 +4806,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -4729,39 +4819,39 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
@@ -4769,26 +4859,26 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
     </row>
   </sheetData>
@@ -4810,7 +4900,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
+    <sheetView topLeftCell="A36" workbookViewId="0">
       <selection activeCell="A43" sqref="A43:XFD43"/>
     </sheetView>
   </sheetViews>
@@ -4823,11 +4913,11 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -4835,46 +4925,46 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -4883,57 +4973,57 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>555</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>562</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -4942,310 +5032,310 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
@@ -5254,57 +5344,57 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
     </row>
   </sheetData>
@@ -5404,7 +5494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
@@ -5416,118 +5506,118 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C14" s="1"/>
     </row>
@@ -5537,343 +5627,343 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
@@ -5881,59 +5971,59 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
@@ -6050,26 +6140,26 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -6077,51 +6167,51 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -6129,21 +6219,21 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
     </row>
   </sheetData>
@@ -6184,56 +6274,56 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -6257,7 +6347,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -6270,167 +6360,167 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
     </row>
   </sheetData>

--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -156,9 +156,6 @@
     <t>https://leetcode.com/problems/longest-consecutive-sequence/description/</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=P6RZZMu_maU&amp;ab_channel=NeetCode</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/majority-element-ii/description/</t>
   </si>
   <si>
@@ -177,18 +174,12 @@
     <t>https://leetcode.com/problems/maximum-subarray/description/</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=5WZl3MMT0Eg&amp;ab_channel=NeetCode</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/maximum-sum-circular-subarray/description/</t>
   </si>
   <si>
     <t>Maximum Sum Circular Subarray</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=kd0-hUwISDo&amp;ab_channel=Codebix</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/next-permutation/description/</t>
   </si>
   <si>
@@ -201,9 +192,6 @@
     <t>Product of Array Except Self</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=bNvIQI2wAjk&amp;ab_channel=NeetCode</t>
-  </si>
-  <si>
     <t>Rearrange Array Elements by Sign</t>
   </si>
   <si>
@@ -237,9 +225,6 @@
     <t>https://leetcode.com/problems/spiral-matrix/description/</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=3Zv-s9UUrFM&amp;ab_channel=takeUforward</t>
-  </si>
-  <si>
     <t>https://www.geeksforgeeks.org/split-array-two-equal-sum-subarrays/</t>
   </si>
   <si>
@@ -252,9 +237,6 @@
     <t>https://leetcode.com/problems/subarray-sum-equals-k/description/</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=AmlVSNBHzJg&amp;ab_channel=NickWhite</t>
-  </si>
-  <si>
     <t>Subarray Sums Divisible by K</t>
   </si>
   <si>
@@ -273,9 +255,6 @@
     <t>Trapping Rain Water</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=FbGG2qpNp4U&amp;ab_channel=AdityaVerma</t>
-  </si>
-  <si>
     <t>Two Sum II - Input Array Is Sorted</t>
   </si>
   <si>
@@ -1230,15 +1209,9 @@
     <t>https://www.youtube.com/watch?v=ufRhbsg5RwU</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=Y6B-7ZctiW8</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=6ENl3OwwxLg</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=Z0R2u6gd3GU&amp;t=888s</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=dSxt3ZCbIqA</t>
   </si>
   <si>
@@ -2398,6 +2371,33 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=dJ7sWiOoK7g</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=P6RZZMu_maU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hnswaLJvr6g</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5WZl3MMT0Eg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=kd0-hUwISDo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bNvIQI2wAjk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Z0R2u6gd3GU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3Zv-s9UUrFM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=AmlVSNBHzJg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=FbGG2qpNp4U</t>
   </si>
 </sst>
 </file>
@@ -2731,8 +2731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2753,13 +2753,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>771</v>
+        <v>762</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>778</v>
+        <v>769</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -2778,7 +2778,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>779</v>
+        <v>770</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -2799,13 +2799,13 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>772</v>
+        <v>763</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>780</v>
+        <v>771</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -2837,13 +2837,13 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>776</v>
+        <v>767</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>777</v>
+        <v>768</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>781</v>
+        <v>772</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -2854,7 +2854,7 @@
         <v>20</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>782</v>
+        <v>773</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -2865,7 +2865,7 @@
         <v>22</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -2884,18 +2884,18 @@
         <v>26</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>783</v>
+        <v>774</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>769</v>
+        <v>760</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>768</v>
+        <v>759</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -2917,7 +2917,7 @@
         <v>31</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>785</v>
+        <v>776</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -2928,7 +2928,7 @@
         <v>33</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
@@ -2947,208 +2947,208 @@
         <v>38</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>39</v>
+        <v>778</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>397</v>
+        <v>779</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="C25" s="1" t="s">
-        <v>46</v>
+        <v>780</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>49</v>
+        <v>781</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>54</v>
+        <v>782</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>399</v>
+        <v>783</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>66</v>
+        <v>784</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>71</v>
+        <v>785</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>78</v>
+        <v>786</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>774</v>
+        <v>765</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>775</v>
+        <v>766</v>
       </c>
     </row>
   </sheetData>
@@ -3242,119 +3242,119 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -3400,131 +3400,131 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>693</v>
+        <v>684</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
     </row>
   </sheetData>
@@ -3574,277 +3574,277 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>700</v>
+        <v>691</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
@@ -3853,35 +3853,35 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
   </sheetData>
@@ -3965,101 +3965,101 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>731</v>
+        <v>722</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>732</v>
+        <v>723</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>733</v>
+        <v>724</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -4068,265 +4068,265 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>740</v>
+        <v>731</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>739</v>
+        <v>730</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>742</v>
+        <v>733</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>741</v>
+        <v>732</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>744</v>
+        <v>735</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>743</v>
+        <v>734</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>763</v>
+        <v>754</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>745</v>
+        <v>736</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>746</v>
+        <v>737</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>748</v>
+        <v>739</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>747</v>
+        <v>738</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>749</v>
+        <v>740</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>751</v>
+        <v>742</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>753</v>
+        <v>744</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>752</v>
+        <v>743</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>767</v>
+        <v>758</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>754</v>
+        <v>745</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>756</v>
+        <v>747</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>755</v>
+        <v>746</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>758</v>
+        <v>749</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>757</v>
+        <v>748</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>759</v>
+        <v>750</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -4408,54 +4408,54 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
   </sheetData>
@@ -4491,114 +4491,114 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
     </row>
   </sheetData>
@@ -4645,133 +4645,133 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C1" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -4819,34 +4819,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -4859,26 +4859,26 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
     </row>
   </sheetData>
@@ -4913,11 +4913,11 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -4925,46 +4925,46 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -4973,57 +4973,57 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -5032,310 +5032,310 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
@@ -5344,57 +5344,57 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
     </row>
   </sheetData>
@@ -5506,118 +5506,118 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C14" s="1"/>
     </row>
@@ -5627,343 +5627,343 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
@@ -5971,59 +5971,59 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
@@ -6140,18 +6140,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -6159,7 +6159,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -6167,13 +6167,13 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -6181,37 +6181,37 @@
         <v>27</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -6219,21 +6219,21 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
     </row>
   </sheetData>
@@ -6274,56 +6274,56 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -6360,167 +6360,167 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
     </row>
   </sheetData>

--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="787">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="788">
   <si>
     <t>https://leetcode.com/problems/find-all-numbers-disappeared-in-an-array/description/</t>
   </si>
@@ -2398,6 +2398,9 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=FbGG2qpNp4U</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Pl7mMcBm2b8</t>
   </si>
 </sst>
 </file>
@@ -2732,7 +2735,7 @@
   <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3141,6 +3144,9 @@
       </c>
       <c r="B42" s="1" t="s">
         <v>77</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>787</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
@@ -3218,9 +3224,10 @@
     <hyperlink ref="C13" r:id="rId63"/>
     <hyperlink ref="C17" r:id="rId64"/>
     <hyperlink ref="C16" r:id="rId65"/>
+    <hyperlink ref="C42" r:id="rId66"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId66"/>
+  <pageSetup orientation="portrait" r:id="rId67"/>
 </worksheet>
 </file>
 

--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="788">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="789">
   <si>
     <t>https://leetcode.com/problems/find-all-numbers-disappeared-in-an-array/description/</t>
   </si>
@@ -2397,10 +2397,13 @@
     <t>https://www.youtube.com/watch?v=AmlVSNBHzJg</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=FbGG2qpNp4U</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Pl7mMcBm2b8</t>
+    <t>https://www.youtube.com/watch?v=jzZsG8n2R9A</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZI2z5pq0TqA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TjFXEUCMqI8</t>
   </si>
 </sst>
 </file>
@@ -2735,7 +2738,7 @@
   <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3110,51 +3113,54 @@
       <c r="B38" s="1" t="s">
         <v>68</v>
       </c>
+      <c r="C38" s="1" t="s">
+        <v>786</v>
+      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>71</v>
+      <c r="A39" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>786</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" s="2" t="s">
-        <v>72</v>
+      <c r="A40" t="s">
+        <v>74</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>76</v>
-      </c>
-      <c r="B42" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>787</v>
+      <c r="C41" s="1" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>765</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>766</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>765</v>
+        <v>71</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>766</v>
+        <v>70</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>787</v>
       </c>
     </row>
   </sheetData>
@@ -3206,28 +3212,29 @@
     <hyperlink ref="B37" r:id="rId45"/>
     <hyperlink ref="B38" r:id="rId46"/>
     <hyperlink ref="B39" r:id="rId47"/>
-    <hyperlink ref="C39" r:id="rId48"/>
-    <hyperlink ref="B40" r:id="rId49"/>
-    <hyperlink ref="B41" r:id="rId50"/>
-    <hyperlink ref="B42" r:id="rId51"/>
-    <hyperlink ref="C14" r:id="rId52"/>
-    <hyperlink ref="C33" r:id="rId53"/>
-    <hyperlink ref="B17" r:id="rId54"/>
-    <hyperlink ref="B2" r:id="rId55"/>
-    <hyperlink ref="B7" r:id="rId56"/>
-    <hyperlink ref="B44" r:id="rId57"/>
-    <hyperlink ref="B12" r:id="rId58"/>
-    <hyperlink ref="C2" r:id="rId59"/>
-    <hyperlink ref="C4" r:id="rId60"/>
-    <hyperlink ref="C7" r:id="rId61"/>
-    <hyperlink ref="C12" r:id="rId62"/>
-    <hyperlink ref="C13" r:id="rId63"/>
-    <hyperlink ref="C17" r:id="rId64"/>
-    <hyperlink ref="C16" r:id="rId65"/>
-    <hyperlink ref="C42" r:id="rId66"/>
+    <hyperlink ref="B40" r:id="rId48"/>
+    <hyperlink ref="B41" r:id="rId49"/>
+    <hyperlink ref="C14" r:id="rId50"/>
+    <hyperlink ref="C33" r:id="rId51"/>
+    <hyperlink ref="B17" r:id="rId52"/>
+    <hyperlink ref="B2" r:id="rId53"/>
+    <hyperlink ref="B7" r:id="rId54"/>
+    <hyperlink ref="B43" r:id="rId55"/>
+    <hyperlink ref="B12" r:id="rId56"/>
+    <hyperlink ref="C2" r:id="rId57"/>
+    <hyperlink ref="C4" r:id="rId58"/>
+    <hyperlink ref="C7" r:id="rId59"/>
+    <hyperlink ref="C12" r:id="rId60"/>
+    <hyperlink ref="C13" r:id="rId61"/>
+    <hyperlink ref="C17" r:id="rId62"/>
+    <hyperlink ref="C16" r:id="rId63"/>
+    <hyperlink ref="C41" r:id="rId64"/>
+    <hyperlink ref="C38" r:id="rId65"/>
+    <hyperlink ref="B44" r:id="rId66"/>
+    <hyperlink ref="C44" r:id="rId67"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId67"/>
+  <pageSetup orientation="portrait" r:id="rId68"/>
 </worksheet>
 </file>
 

--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="790">
   <si>
     <t>https://leetcode.com/problems/find-all-numbers-disappeared-in-an-array/description/</t>
   </si>
@@ -2355,9 +2355,6 @@
     <t>https://www.youtube.com/watch?v=nPVEaB3AjUM</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=4aBtEz8MrDw</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=UuiTKBwPgAo</t>
   </si>
   <si>
@@ -2404,6 +2401,12 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=TjFXEUCMqI8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8i-f24YFWC4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XbaxWuHIWUs</t>
   </si>
 </sst>
 </file>
@@ -2737,8 +2740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2756,6 +2759,9 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>788</v>
+      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -2849,7 +2855,7 @@
         <v>768</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>772</v>
+        <v>789</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -2860,7 +2866,7 @@
         <v>20</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -2890,7 +2896,7 @@
         <v>26</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -2901,7 +2907,7 @@
         <v>759</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -2923,7 +2929,7 @@
         <v>31</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -2934,7 +2940,7 @@
         <v>33</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
@@ -2953,7 +2959,7 @@
         <v>38</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
@@ -2972,7 +2978,7 @@
         <v>41</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
@@ -2983,7 +2989,7 @@
         <v>44</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
@@ -2994,7 +3000,7 @@
         <v>45</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
@@ -3016,7 +3022,7 @@
         <v>49</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
@@ -3043,7 +3049,7 @@
         <v>56</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
@@ -3076,7 +3082,7 @@
         <v>61</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
@@ -3095,7 +3101,7 @@
         <v>65</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
@@ -3114,7 +3120,7 @@
         <v>68</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
@@ -3141,7 +3147,7 @@
         <v>77</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
@@ -3160,7 +3166,7 @@
         <v>70</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
   </sheetData>
@@ -3232,9 +3238,10 @@
     <hyperlink ref="C38" r:id="rId65"/>
     <hyperlink ref="B44" r:id="rId66"/>
     <hyperlink ref="C44" r:id="rId67"/>
+    <hyperlink ref="C1" r:id="rId68"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId68"/>
+  <pageSetup orientation="portrait" r:id="rId69"/>
 </worksheet>
 </file>
 

--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="790">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="786">
   <si>
     <t>https://leetcode.com/problems/find-all-numbers-disappeared-in-an-array/description/</t>
   </si>
@@ -45,9 +45,6 @@
     <t>https://leetcode.com/problems/happy-number/description/</t>
   </si>
   <si>
-    <t>https://leetcode.com/problems/majority-element/description/</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/max-consecutive-ones/description/</t>
   </si>
   <si>
@@ -72,9 +69,6 @@
     <t>Happy Number</t>
   </si>
   <si>
-    <t>Majority Element</t>
-  </si>
-  <si>
     <t>Max Consecutive Ones</t>
   </si>
   <si>
@@ -144,12 +138,6 @@
     <t>Jump Game II</t>
   </si>
   <si>
-    <t>Leaders in an array</t>
-  </si>
-  <si>
-    <t>https://www.geeksforgeeks.org/problems/leaders-in-an-array-1587115620/1</t>
-  </si>
-  <si>
     <t>Longest Consecutive Sequence</t>
   </si>
   <si>
@@ -2349,9 +2337,6 @@
     <t>https://www.youtube.com/watch?v=2AdzmA1IC1k</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=nP_ns3uSh80</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=nPVEaB3AjUM</t>
   </si>
   <si>
@@ -2407,6 +2392,9 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=XbaxWuHIWUs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vwZj1K0e9U8</t>
   </si>
 </sst>
 </file>
@@ -2738,10 +2726,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2754,48 +2742,45 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>11</v>
+      <c r="A4" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>770</v>
-      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
+      <c r="A5" t="s">
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
@@ -2803,59 +2788,62 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>760</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>759</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>766</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>764</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>771</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>16</v>
+      <c r="A8" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>17</v>
+      <c r="A9" t="s">
+        <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B11" s="1"/>
+      <c r="A11" t="s">
+        <v>763</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>784</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>767</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -2866,7 +2854,7 @@
         <v>20</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>772</v>
+        <v>385</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -2876,9 +2864,6 @@
       <c r="B14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>389</v>
-      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
@@ -2887,38 +2872,41 @@
       <c r="B15" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="C15" s="1" t="s">
+        <v>768</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>756</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>26</v>
+        <v>755</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>760</v>
+        <v>26</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>759</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>774</v>
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D18" t="s">
-        <v>30</v>
+      <c r="C18" s="1" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -2929,45 +2917,51 @@
         <v>31</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="C20" s="1" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>36</v>
+      <c r="C21" s="1" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="C22" s="1" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>39</v>
+      <c r="C23" s="1" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
@@ -2978,18 +2972,18 @@
         <v>41</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="C25" s="1" t="s">
-        <v>779</v>
+        <v>386</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
@@ -3000,29 +2994,23 @@
         <v>45</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
@@ -3032,6 +3020,9 @@
       <c r="B29" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="C29" s="1" t="s">
+        <v>777</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
@@ -3040,27 +3031,30 @@
       <c r="B30" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="C30" s="1" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>55</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>56</v>
+        <v>389</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>782</v>
+        <v>388</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="C32" s="1" t="s">
-        <v>391</v>
+        <v>778</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
@@ -3068,10 +3062,7 @@
         <v>59</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>392</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
@@ -3082,166 +3073,145 @@
         <v>61</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="C36" s="1" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>66</v>
+      <c r="A37" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>785</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" s="2" t="s">
+      <c r="A39" t="s">
         <v>72</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>74</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>75</v>
+      <c r="C39" s="1" t="s">
+        <v>782</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>76</v>
+        <v>761</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>765</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>71</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>786</v>
+        <v>762</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>67</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>781</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1"/>
     <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="A5" r:id="rId4" display="https://leetcode.com/problems/max-consecutive-ones/"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B8" r:id="rId6"/>
-    <hyperlink ref="B10" r:id="rId7"/>
-    <hyperlink ref="B5" r:id="rId8"/>
-    <hyperlink ref="B9" r:id="rId9"/>
+    <hyperlink ref="A4" r:id="rId3" display="https://leetcode.com/problems/max-consecutive-ones/"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B7" r:id="rId5"/>
+    <hyperlink ref="B9" r:id="rId6"/>
+    <hyperlink ref="B4" r:id="rId7"/>
+    <hyperlink ref="B8" r:id="rId8"/>
+    <hyperlink ref="B12" r:id="rId9"/>
     <hyperlink ref="B13" r:id="rId10"/>
     <hyperlink ref="B14" r:id="rId11"/>
     <hyperlink ref="B15" r:id="rId12"/>
-    <hyperlink ref="B16" r:id="rId13"/>
+    <hyperlink ref="B17" r:id="rId13"/>
     <hyperlink ref="B18" r:id="rId14"/>
-    <hyperlink ref="B19" r:id="rId15"/>
+    <hyperlink ref="C18" r:id="rId15"/>
     <hyperlink ref="C19" r:id="rId16"/>
-    <hyperlink ref="C20" r:id="rId17"/>
+    <hyperlink ref="B19" r:id="rId17"/>
     <hyperlink ref="B20" r:id="rId18"/>
-    <hyperlink ref="B21" r:id="rId19"/>
-    <hyperlink ref="B22" r:id="rId20"/>
-    <hyperlink ref="C22" r:id="rId21"/>
-    <hyperlink ref="B23" r:id="rId22"/>
-    <hyperlink ref="B24" r:id="rId23"/>
-    <hyperlink ref="C24" r:id="rId24"/>
-    <hyperlink ref="B25" r:id="rId25"/>
-    <hyperlink ref="C25" r:id="rId26"/>
-    <hyperlink ref="B26" r:id="rId27"/>
-    <hyperlink ref="C26" r:id="rId28"/>
-    <hyperlink ref="B27" r:id="rId29"/>
-    <hyperlink ref="C27" r:id="rId30"/>
-    <hyperlink ref="B28" r:id="rId31"/>
-    <hyperlink ref="C28" r:id="rId32"/>
+    <hyperlink ref="C20" r:id="rId19"/>
+    <hyperlink ref="B21" r:id="rId20"/>
+    <hyperlink ref="B22" r:id="rId21"/>
+    <hyperlink ref="C22" r:id="rId22"/>
+    <hyperlink ref="B23" r:id="rId23"/>
+    <hyperlink ref="C23" r:id="rId24"/>
+    <hyperlink ref="B24" r:id="rId25"/>
+    <hyperlink ref="C24" r:id="rId26"/>
+    <hyperlink ref="B25" r:id="rId27"/>
+    <hyperlink ref="C25" r:id="rId28"/>
+    <hyperlink ref="B26" r:id="rId29"/>
+    <hyperlink ref="C26" r:id="rId30"/>
+    <hyperlink ref="B27" r:id="rId31"/>
+    <hyperlink ref="B28" r:id="rId32"/>
     <hyperlink ref="B29" r:id="rId33"/>
-    <hyperlink ref="B30" r:id="rId34"/>
-    <hyperlink ref="B31" r:id="rId35"/>
-    <hyperlink ref="C31" r:id="rId36"/>
-    <hyperlink ref="B32" r:id="rId37"/>
-    <hyperlink ref="C32" r:id="rId38"/>
-    <hyperlink ref="B33" r:id="rId39"/>
-    <hyperlink ref="B34" r:id="rId40"/>
-    <hyperlink ref="C34" r:id="rId41"/>
-    <hyperlink ref="B35" r:id="rId42"/>
-    <hyperlink ref="B36" r:id="rId43"/>
-    <hyperlink ref="C36" r:id="rId44"/>
+    <hyperlink ref="C29" r:id="rId34"/>
+    <hyperlink ref="B30" r:id="rId35"/>
+    <hyperlink ref="C30" r:id="rId36"/>
+    <hyperlink ref="B31" r:id="rId37"/>
+    <hyperlink ref="B32" r:id="rId38"/>
+    <hyperlink ref="C32" r:id="rId39"/>
+    <hyperlink ref="B33" r:id="rId40"/>
+    <hyperlink ref="B34" r:id="rId41"/>
+    <hyperlink ref="C34" r:id="rId42"/>
+    <hyperlink ref="B35" r:id="rId43"/>
+    <hyperlink ref="B36" r:id="rId44"/>
     <hyperlink ref="B37" r:id="rId45"/>
     <hyperlink ref="B38" r:id="rId46"/>
     <hyperlink ref="B39" r:id="rId47"/>
-    <hyperlink ref="B40" r:id="rId48"/>
-    <hyperlink ref="B41" r:id="rId49"/>
-    <hyperlink ref="C14" r:id="rId50"/>
-    <hyperlink ref="C33" r:id="rId51"/>
-    <hyperlink ref="B17" r:id="rId52"/>
-    <hyperlink ref="B2" r:id="rId53"/>
-    <hyperlink ref="B7" r:id="rId54"/>
-    <hyperlink ref="B43" r:id="rId55"/>
-    <hyperlink ref="B12" r:id="rId56"/>
-    <hyperlink ref="C2" r:id="rId57"/>
-    <hyperlink ref="C4" r:id="rId58"/>
-    <hyperlink ref="C7" r:id="rId59"/>
-    <hyperlink ref="C12" r:id="rId60"/>
-    <hyperlink ref="C13" r:id="rId61"/>
-    <hyperlink ref="C17" r:id="rId62"/>
-    <hyperlink ref="C16" r:id="rId63"/>
-    <hyperlink ref="C41" r:id="rId64"/>
-    <hyperlink ref="C38" r:id="rId65"/>
-    <hyperlink ref="B44" r:id="rId66"/>
-    <hyperlink ref="C44" r:id="rId67"/>
-    <hyperlink ref="C1" r:id="rId68"/>
+    <hyperlink ref="C13" r:id="rId48"/>
+    <hyperlink ref="C31" r:id="rId49"/>
+    <hyperlink ref="B16" r:id="rId50"/>
+    <hyperlink ref="B2" r:id="rId51"/>
+    <hyperlink ref="B6" r:id="rId52"/>
+    <hyperlink ref="B41" r:id="rId53"/>
+    <hyperlink ref="B11" r:id="rId54"/>
+    <hyperlink ref="C2" r:id="rId55"/>
+    <hyperlink ref="C6" r:id="rId56"/>
+    <hyperlink ref="C11" r:id="rId57"/>
+    <hyperlink ref="C12" r:id="rId58"/>
+    <hyperlink ref="C16" r:id="rId59"/>
+    <hyperlink ref="C15" r:id="rId60"/>
+    <hyperlink ref="C39" r:id="rId61"/>
+    <hyperlink ref="C36" r:id="rId62"/>
+    <hyperlink ref="B42" r:id="rId63"/>
+    <hyperlink ref="C42" r:id="rId64"/>
+    <hyperlink ref="C1" r:id="rId65"/>
+    <hyperlink ref="C21" r:id="rId66"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId69"/>
+  <pageSetup orientation="portrait" r:id="rId67"/>
 </worksheet>
 </file>
 
@@ -3263,119 +3233,119 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
   </sheetData>
@@ -3421,131 +3391,131 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
     </row>
   </sheetData>
@@ -3595,277 +3565,277 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
@@ -3874,35 +3844,35 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
   </sheetData>
@@ -3986,101 +3956,101 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -4089,265 +4059,265 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -4429,54 +4399,54 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
   </sheetData>
@@ -4512,114 +4482,114 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
   </sheetData>
@@ -4666,133 +4636,133 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C1" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -4840,66 +4810,66 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
   </sheetData>
@@ -4934,11 +4904,11 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -4946,46 +4916,46 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -4994,57 +4964,57 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -5053,310 +5023,310 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
@@ -5365,57 +5335,57 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
+        <v>634</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>638</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
     </row>
   </sheetData>
@@ -5527,118 +5497,118 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C14" s="1"/>
     </row>
@@ -5648,343 +5618,343 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
@@ -5992,59 +5962,59 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
@@ -6161,26 +6131,26 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -6188,51 +6158,51 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -6240,21 +6210,21 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
   </sheetData>
@@ -6295,56 +6265,56 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>428</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -6381,167 +6351,167 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
     </row>
   </sheetData>

--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="786">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="784">
   <si>
     <t>https://leetcode.com/problems/find-all-numbers-disappeared-in-an-array/description/</t>
   </si>
@@ -223,12 +223,6 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/subarray-sum-equals-k/description/</t>
-  </si>
-  <si>
-    <t>Subarray Sums Divisible by K</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/subarray-sums-divisible-by-k/description/</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/3sum/description/</t>
@@ -2726,10 +2720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
+      <selection activeCell="A35" sqref="A35:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2748,18 +2742,18 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -2788,13 +2782,13 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -2826,13 +2820,13 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -2843,7 +2837,7 @@
         <v>18</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -2854,7 +2848,7 @@
         <v>20</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -2873,18 +2867,18 @@
         <v>24</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -2906,7 +2900,7 @@
         <v>29</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -2917,7 +2911,7 @@
         <v>31</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -2928,7 +2922,7 @@
         <v>34</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
@@ -2939,7 +2933,7 @@
         <v>35</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -2950,7 +2944,7 @@
         <v>37</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
@@ -2961,7 +2955,7 @@
         <v>40</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
@@ -2972,7 +2966,7 @@
         <v>41</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
@@ -2983,7 +2977,7 @@
         <v>43</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
@@ -2994,7 +2988,7 @@
         <v>45</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
@@ -3021,7 +3015,7 @@
         <v>52</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
@@ -3032,7 +3026,7 @@
         <v>54</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
@@ -3040,10 +3034,10 @@
         <v>55</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
@@ -3054,7 +3048,7 @@
         <v>57</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
@@ -3073,30 +3067,30 @@
         <v>61</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>63</v>
+      <c r="C35" s="1" t="s">
+        <v>778</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>65</v>
+      <c r="A36" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>780</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="2" t="s">
+      <c r="A37" t="s">
         <v>68</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -3110,35 +3104,27 @@
       <c r="B38" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>72</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>782</v>
+      <c r="C38" s="1" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>759</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>761</v>
+        <v>65</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>67</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>781</v>
+        <v>64</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>779</v>
       </c>
     </row>
   </sheetData>
@@ -3189,29 +3175,28 @@
     <hyperlink ref="B36" r:id="rId44"/>
     <hyperlink ref="B37" r:id="rId45"/>
     <hyperlink ref="B38" r:id="rId46"/>
-    <hyperlink ref="B39" r:id="rId47"/>
-    <hyperlink ref="C13" r:id="rId48"/>
-    <hyperlink ref="C31" r:id="rId49"/>
-    <hyperlink ref="B16" r:id="rId50"/>
-    <hyperlink ref="B2" r:id="rId51"/>
-    <hyperlink ref="B6" r:id="rId52"/>
-    <hyperlink ref="B41" r:id="rId53"/>
-    <hyperlink ref="B11" r:id="rId54"/>
-    <hyperlink ref="C2" r:id="rId55"/>
-    <hyperlink ref="C6" r:id="rId56"/>
-    <hyperlink ref="C11" r:id="rId57"/>
-    <hyperlink ref="C12" r:id="rId58"/>
-    <hyperlink ref="C16" r:id="rId59"/>
-    <hyperlink ref="C15" r:id="rId60"/>
-    <hyperlink ref="C39" r:id="rId61"/>
-    <hyperlink ref="C36" r:id="rId62"/>
-    <hyperlink ref="B42" r:id="rId63"/>
-    <hyperlink ref="C42" r:id="rId64"/>
-    <hyperlink ref="C1" r:id="rId65"/>
-    <hyperlink ref="C21" r:id="rId66"/>
+    <hyperlink ref="C13" r:id="rId47"/>
+    <hyperlink ref="C31" r:id="rId48"/>
+    <hyperlink ref="B16" r:id="rId49"/>
+    <hyperlink ref="B2" r:id="rId50"/>
+    <hyperlink ref="B6" r:id="rId51"/>
+    <hyperlink ref="B40" r:id="rId52"/>
+    <hyperlink ref="B11" r:id="rId53"/>
+    <hyperlink ref="C2" r:id="rId54"/>
+    <hyperlink ref="C6" r:id="rId55"/>
+    <hyperlink ref="C11" r:id="rId56"/>
+    <hyperlink ref="C12" r:id="rId57"/>
+    <hyperlink ref="C16" r:id="rId58"/>
+    <hyperlink ref="C15" r:id="rId59"/>
+    <hyperlink ref="C38" r:id="rId60"/>
+    <hyperlink ref="C35" r:id="rId61"/>
+    <hyperlink ref="B41" r:id="rId62"/>
+    <hyperlink ref="C41" r:id="rId63"/>
+    <hyperlink ref="C1" r:id="rId64"/>
+    <hyperlink ref="C21" r:id="rId65"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId67"/>
+  <pageSetup orientation="portrait" r:id="rId66"/>
 </worksheet>
 </file>
 
@@ -3233,119 +3218,119 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
   </sheetData>
@@ -3391,131 +3376,131 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
   </sheetData>
@@ -3565,277 +3550,277 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
@@ -3844,35 +3829,35 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
+        <v>707</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>709</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
   </sheetData>
@@ -3956,101 +3941,101 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>714</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>716</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>717</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>717</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>719</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -4059,265 +4044,265 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -4399,54 +4384,54 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
   </sheetData>
@@ -4482,114 +4467,114 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
   </sheetData>
@@ -4636,133 +4621,133 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -4810,34 +4795,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -4850,26 +4835,26 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
   </sheetData>
@@ -4904,11 +4889,11 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -4916,46 +4901,46 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -4964,57 +4949,57 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>557</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>559</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>553</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>556</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>548</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>550</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -5023,310 +5008,310 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>642</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>645</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>562</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
+        <v>572</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>574</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>577</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>580</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
+        <v>581</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>583</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>586</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>600</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>589</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>594</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
+        <v>595</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>597</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
+        <v>602</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>604</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>611</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>614</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>620</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
@@ -5335,57 +5320,57 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
+        <v>624</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>628</v>
-      </c>
       <c r="C48" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
+        <v>635</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>637</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>639</v>
       </c>
     </row>
   </sheetData>
@@ -5497,118 +5482,118 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>504</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>506</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C14" s="1"/>
     </row>
@@ -5618,343 +5603,343 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>512</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>517</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
@@ -5962,59 +5947,59 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
@@ -6131,18 +6116,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -6150,7 +6135,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -6158,13 +6143,13 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -6172,37 +6157,37 @@
         <v>25</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -6210,21 +6195,21 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
   </sheetData>
@@ -6265,56 +6250,56 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -6351,167 +6336,167 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>654</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
   </sheetData>

--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -1191,9 +1191,6 @@
     <t>https://www.youtube.com/watch?v=ufRhbsg5RwU</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=6ENl3OwwxLg</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=dSxt3ZCbIqA</t>
   </si>
   <si>
@@ -2361,9 +2358,6 @@
     <t>https://www.youtube.com/watch?v=kd0-hUwISDo</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=bNvIQI2wAjk</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=Z0R2u6gd3GU</t>
   </si>
   <si>
@@ -2389,6 +2383,12 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=vwZj1K0e9U8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JDOXKqF60RQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tSRFtR3pv74</t>
   </si>
 </sst>
 </file>
@@ -2722,8 +2722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:XFD35"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2742,18 +2742,18 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -2782,13 +2782,13 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -2820,13 +2820,13 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>760</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>762</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -2837,7 +2837,7 @@
         <v>18</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -2867,18 +2867,18 @@
         <v>24</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -2900,7 +2900,7 @@
         <v>29</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -2911,7 +2911,7 @@
         <v>31</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -2922,7 +2922,7 @@
         <v>34</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
@@ -2933,7 +2933,7 @@
         <v>35</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -2944,7 +2944,7 @@
         <v>37</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
@@ -2955,7 +2955,7 @@
         <v>40</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
@@ -2966,7 +2966,7 @@
         <v>41</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
@@ -2977,7 +2977,7 @@
         <v>43</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>384</v>
+        <v>782</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
@@ -2988,7 +2988,7 @@
         <v>45</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>774</v>
+        <v>783</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
@@ -3015,7 +3015,7 @@
         <v>52</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
@@ -3026,7 +3026,7 @@
         <v>54</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
@@ -3034,10 +3034,10 @@
         <v>55</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
@@ -3048,7 +3048,7 @@
         <v>57</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
@@ -3067,7 +3067,7 @@
         <v>61</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
@@ -3078,7 +3078,7 @@
         <v>62</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
@@ -3105,15 +3105,15 @@
         <v>71</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
+        <v>758</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>759</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
@@ -3124,7 +3124,7 @@
         <v>64</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
   </sheetData>
@@ -3224,7 +3224,7 @@
         <v>194</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -3235,7 +3235,7 @@
         <v>196</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -3246,7 +3246,7 @@
         <v>198</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -3257,12 +3257,12 @@
         <v>201</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>202</v>
@@ -3302,13 +3302,13 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>211</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -3319,7 +3319,7 @@
         <v>212</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -3330,7 +3330,7 @@
         <v>214</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>
@@ -3382,7 +3382,7 @@
         <v>216</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -3401,7 +3401,7 @@
         <v>221</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -3412,7 +3412,7 @@
         <v>223</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -3423,7 +3423,7 @@
         <v>224</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -3434,7 +3434,7 @@
         <v>226</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -3445,7 +3445,7 @@
         <v>228</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -3456,7 +3456,7 @@
         <v>230</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -3467,7 +3467,7 @@
         <v>232</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -3478,7 +3478,7 @@
         <v>234</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -3489,7 +3489,7 @@
         <v>236</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -3500,7 +3500,7 @@
         <v>238</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
   </sheetData>
@@ -3556,7 +3556,7 @@
         <v>241</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -3567,7 +3567,7 @@
         <v>243</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -3578,7 +3578,7 @@
         <v>245</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -3589,7 +3589,7 @@
         <v>247</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -3600,7 +3600,7 @@
         <v>249</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -3611,7 +3611,7 @@
         <v>251</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -3622,7 +3622,7 @@
         <v>253</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -3633,7 +3633,7 @@
         <v>255</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -3644,7 +3644,7 @@
         <v>257</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -3655,7 +3655,7 @@
         <v>259</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -3666,7 +3666,7 @@
         <v>261</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -3677,7 +3677,7 @@
         <v>263</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -3688,7 +3688,7 @@
         <v>265</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -3699,7 +3699,7 @@
         <v>267</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -3710,7 +3710,7 @@
         <v>270</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -3721,7 +3721,7 @@
         <v>272</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -3732,7 +3732,7 @@
         <v>274</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -3743,7 +3743,7 @@
         <v>276</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
@@ -3754,7 +3754,7 @@
         <v>278</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
@@ -3765,7 +3765,7 @@
         <v>280</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -3776,7 +3776,7 @@
         <v>282</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
@@ -3787,7 +3787,7 @@
         <v>284</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
@@ -3798,7 +3798,7 @@
         <v>286</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
@@ -3809,7 +3809,7 @@
         <v>288</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
@@ -3820,7 +3820,7 @@
         <v>290</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
@@ -3829,13 +3829,13 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
+        <v>706</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>708</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
@@ -3846,18 +3846,18 @@
         <v>292</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
   </sheetData>
@@ -3947,7 +3947,7 @@
         <v>303</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -3958,7 +3958,7 @@
         <v>305</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -3969,29 +3969,29 @@
         <v>307</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>713</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>715</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>716</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>718</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -4002,7 +4002,7 @@
         <v>309</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -4013,7 +4013,7 @@
         <v>311</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -4024,7 +4024,7 @@
         <v>313</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -4035,7 +4035,7 @@
         <v>315</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -4044,32 +4044,32 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -4080,7 +4080,7 @@
         <v>317</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -4091,7 +4091,7 @@
         <v>319</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -4102,12 +4102,12 @@
         <v>322</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>329</v>
@@ -4163,7 +4163,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>338</v>
@@ -4171,15 +4171,15 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>350</v>
@@ -4187,10 +4187,10 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
+        <v>734</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>735</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -4227,10 +4227,10 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -4243,10 +4243,10 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
@@ -4267,18 +4267,18 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
@@ -4286,15 +4286,15 @@
         <v>347</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
@@ -4398,7 +4398,7 @@
         <v>296</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -4409,18 +4409,18 @@
         <v>298</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>300</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -4431,7 +4431,7 @@
         <v>301</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
   </sheetData>
@@ -4475,7 +4475,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>357</v>
@@ -4483,21 +4483,21 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>269</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -4508,7 +4508,7 @@
         <v>360</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -4519,7 +4519,7 @@
         <v>358</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -4530,7 +4530,7 @@
         <v>362</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -4541,7 +4541,7 @@
         <v>364</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -4552,7 +4552,7 @@
         <v>366</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -4563,18 +4563,18 @@
         <v>368</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>401</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>403</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
   </sheetData>
@@ -4627,7 +4627,7 @@
         <v>73</v>
       </c>
       <c r="C1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -4638,7 +4638,7 @@
         <v>75</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -4657,7 +4657,7 @@
         <v>78</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -4668,7 +4668,7 @@
         <v>80</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -4679,7 +4679,7 @@
         <v>82</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -4690,7 +4690,7 @@
         <v>84</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -4701,7 +4701,7 @@
         <v>86</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -4712,7 +4712,7 @@
         <v>88</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -4728,10 +4728,10 @@
         <v>92</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>418</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -4889,11 +4889,11 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -4901,46 +4901,46 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>531</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>533</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>529</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>531</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -4949,57 +4949,57 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>556</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>558</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>551</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>552</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>554</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>555</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>547</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>549</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -5008,310 +5008,310 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>640</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>641</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>643</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>644</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>560</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>561</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>648</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
+        <v>571</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>573</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
+        <v>575</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>576</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
+        <v>578</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>579</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
+        <v>580</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>582</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
+        <v>584</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>585</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
+        <v>598</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>599</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
+        <v>587</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>588</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
+        <v>592</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>593</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
+        <v>594</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>596</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>607</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
+        <v>609</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>610</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
+        <v>612</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>613</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
+        <v>615</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>616</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
+        <v>618</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>619</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
@@ -5320,57 +5320,57 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
+        <v>623</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>624</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
+        <v>631</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>633</v>
-      </c>
       <c r="C50" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
   </sheetData>
@@ -5482,77 +5482,77 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>501</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>502</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -5563,7 +5563,7 @@
         <v>98</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -5574,18 +5574,18 @@
         <v>100</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>445</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>447</v>
-      </c>
       <c r="C13" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -5609,7 +5609,7 @@
         <v>119</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -5620,18 +5620,18 @@
         <v>126</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -5642,7 +5642,7 @@
         <v>138</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
@@ -5653,18 +5653,18 @@
         <v>140</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>510</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>511</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -5675,18 +5675,18 @@
         <v>103</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
@@ -5697,29 +5697,29 @@
         <v>105</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
+        <v>451</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>453</v>
-      </c>
       <c r="C25" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
@@ -5730,29 +5730,29 @@
         <v>122</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
+        <v>455</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>457</v>
-      </c>
       <c r="C28" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>525</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
@@ -5763,7 +5763,7 @@
         <v>108</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
@@ -5774,7 +5774,7 @@
         <v>110</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
@@ -5785,7 +5785,7 @@
         <v>124</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
@@ -5796,7 +5796,7 @@
         <v>112</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
@@ -5807,40 +5807,40 @@
         <v>128</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
+        <v>457</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>459</v>
-      </c>
       <c r="C35" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
+        <v>459</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>461</v>
-      </c>
       <c r="C36" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
@@ -5851,18 +5851,18 @@
         <v>130</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
@@ -5873,7 +5873,7 @@
         <v>113</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
@@ -5884,18 +5884,18 @@
         <v>132</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
+        <v>515</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>516</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
@@ -5906,18 +5906,18 @@
         <v>134</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
@@ -5928,7 +5928,7 @@
         <v>115</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
@@ -5939,7 +5939,7 @@
         <v>118</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
@@ -5953,53 +5953,53 @@
         <v>136</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>121</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
+        <v>467</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>468</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
@@ -6149,7 +6149,7 @@
         <v>146</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -6160,7 +6160,7 @@
         <v>159</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -6171,7 +6171,7 @@
         <v>148</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -6209,7 +6209,7 @@
         <v>156</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
   </sheetData>
@@ -6250,26 +6250,26 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>160</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>161</v>
@@ -6291,7 +6291,7 @@
         <v>164</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -6336,13 +6336,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>652</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>653</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -6353,7 +6353,7 @@
         <v>168</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -6364,7 +6364,7 @@
         <v>170</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -6375,7 +6375,7 @@
         <v>172</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -6386,7 +6386,7 @@
         <v>174</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -6397,7 +6397,7 @@
         <v>176</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -6408,7 +6408,7 @@
         <v>178</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -6416,10 +6416,10 @@
         <v>180</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -6430,7 +6430,7 @@
         <v>181</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -6441,7 +6441,7 @@
         <v>183</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -6452,7 +6452,7 @@
         <v>185</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -6460,10 +6460,10 @@
         <v>189</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -6474,7 +6474,7 @@
         <v>187</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -6485,7 +6485,7 @@
         <v>190</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -6496,7 +6496,7 @@
         <v>192</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
   </sheetData>

--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5770" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Array" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="784">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="790">
   <si>
     <t>https://leetcode.com/problems/find-all-numbers-disappeared-in-an-array/description/</t>
   </si>
@@ -1221,18 +1221,9 @@
     <t>https://www.youtube.com/watch?v=DfljaUwZsOk</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=GqE96uMPOLI&amp;ab_channel=Codebix</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=WBgsABoClE0&amp;ab_channel=takeUforward</t>
-  </si>
-  <si>
     <t>Generate Paranthesis</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=s9fokUqJ76A&amp;ab_channel=NeetCode</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/combination-sum-iii/description/</t>
   </si>
   <si>
@@ -1254,12 +1245,6 @@
     <t>Minimum Window Susequence</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=3tpjp5h3M6Y&amp;t=844s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=qGyyzpNlMDU</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=H232aocj7bQ</t>
   </si>
   <si>
@@ -2389,6 +2374,39 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=tSRFtR3pv74</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=kYY9DotIKlo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RIn3gOkbhQE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WBgsABoClE0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=GqE96uMPOLI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=s9fokUqJ76A</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=obBSF4AG3qU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=dvZdWR0sHMk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=b_tOVuYhEx4</t>
+  </si>
+  <si>
+    <t>Combinations</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/combinations/description/</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fqrOsZdKegQ</t>
   </si>
 </sst>
 </file>
@@ -2722,7 +2740,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -2742,18 +2760,18 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -2782,13 +2800,13 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -2820,13 +2838,13 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -2837,7 +2855,7 @@
         <v>18</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -2867,18 +2885,18 @@
         <v>24</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -2900,7 +2918,7 @@
         <v>29</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -2911,7 +2929,7 @@
         <v>31</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -2922,7 +2940,7 @@
         <v>34</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
@@ -2933,7 +2951,7 @@
         <v>35</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -2944,7 +2962,7 @@
         <v>37</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
@@ -2955,7 +2973,7 @@
         <v>40</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
@@ -2966,7 +2984,7 @@
         <v>41</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
@@ -2977,7 +2995,7 @@
         <v>43</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
@@ -2988,7 +3006,7 @@
         <v>45</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
@@ -3015,7 +3033,7 @@
         <v>52</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
@@ -3048,7 +3066,7 @@
         <v>57</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
@@ -3067,7 +3085,7 @@
         <v>61</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
@@ -3078,7 +3096,7 @@
         <v>62</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
@@ -3105,15 +3123,15 @@
         <v>71</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
@@ -3124,7 +3142,7 @@
         <v>64</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
     </row>
   </sheetData>
@@ -3262,7 +3280,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>202</v>
@@ -3302,7 +3320,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>211</v>
@@ -3382,7 +3400,7 @@
         <v>216</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -3401,7 +3419,7 @@
         <v>221</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -3412,7 +3430,7 @@
         <v>223</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -3423,7 +3441,7 @@
         <v>224</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -3434,7 +3452,7 @@
         <v>226</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -3445,7 +3463,7 @@
         <v>228</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -3456,7 +3474,7 @@
         <v>230</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -3467,7 +3485,7 @@
         <v>232</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -3478,7 +3496,7 @@
         <v>234</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -3489,7 +3507,7 @@
         <v>236</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -3500,7 +3518,7 @@
         <v>238</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
     </row>
   </sheetData>
@@ -3556,7 +3574,7 @@
         <v>241</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -3567,7 +3585,7 @@
         <v>243</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -3578,7 +3596,7 @@
         <v>245</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -3589,7 +3607,7 @@
         <v>247</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -3600,7 +3618,7 @@
         <v>249</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -3611,7 +3629,7 @@
         <v>251</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -3622,7 +3640,7 @@
         <v>253</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -3633,7 +3651,7 @@
         <v>255</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -3644,7 +3662,7 @@
         <v>257</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -3655,7 +3673,7 @@
         <v>259</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -3666,7 +3684,7 @@
         <v>261</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -3677,7 +3695,7 @@
         <v>263</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -3688,7 +3706,7 @@
         <v>265</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -3699,7 +3717,7 @@
         <v>267</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -3710,7 +3728,7 @@
         <v>270</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -3721,7 +3739,7 @@
         <v>272</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -3732,7 +3750,7 @@
         <v>274</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -3743,7 +3761,7 @@
         <v>276</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
@@ -3754,7 +3772,7 @@
         <v>278</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
@@ -3765,7 +3783,7 @@
         <v>280</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -3776,7 +3794,7 @@
         <v>282</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
@@ -3787,7 +3805,7 @@
         <v>284</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
@@ -3798,7 +3816,7 @@
         <v>286</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
@@ -3809,7 +3827,7 @@
         <v>288</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
@@ -3820,7 +3838,7 @@
         <v>290</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
@@ -3829,13 +3847,13 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
@@ -3846,18 +3864,18 @@
         <v>292</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
   </sheetData>
@@ -3947,7 +3965,7 @@
         <v>303</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -3958,7 +3976,7 @@
         <v>305</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -3969,29 +3987,29 @@
         <v>307</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -4002,7 +4020,7 @@
         <v>309</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -4013,7 +4031,7 @@
         <v>311</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -4024,7 +4042,7 @@
         <v>313</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -4035,7 +4053,7 @@
         <v>315</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -4044,32 +4062,32 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -4080,7 +4098,7 @@
         <v>317</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -4091,7 +4109,7 @@
         <v>319</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -4102,12 +4120,12 @@
         <v>322</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>329</v>
@@ -4163,7 +4181,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>338</v>
@@ -4171,15 +4189,15 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>350</v>
@@ -4187,10 +4205,10 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -4227,10 +4245,10 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -4243,10 +4261,10 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
@@ -4267,18 +4285,18 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
@@ -4286,15 +4304,15 @@
         <v>347</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
@@ -4398,7 +4416,7 @@
         <v>296</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -4409,18 +4427,18 @@
         <v>298</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>300</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -4431,7 +4449,7 @@
         <v>301</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
   </sheetData>
@@ -4452,10 +4470,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4467,26 +4485,35 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>356</v>
+        <v>787</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>355</v>
+        <v>788</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>400</v>
+        <v>356</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>784</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>398</v>
+        <v>357</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -4494,113 +4521,129 @@
         <v>396</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>269</v>
+        <v>395</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>397</v>
+        <v>786</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>361</v>
+        <v>394</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>360</v>
+        <v>269</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>394</v>
+        <v>783</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>395</v>
+        <v>782</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>407</v>
+        <v>781</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>405</v>
+        <v>780</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>401</v>
+        <v>369</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>402</v>
+        <v>368</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>409</v>
+        <v>779</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>398</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>404</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="B6" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B7" r:id="rId5"/>
-    <hyperlink ref="B8" r:id="rId6"/>
-    <hyperlink ref="B9" r:id="rId7"/>
-    <hyperlink ref="B10" r:id="rId8"/>
-    <hyperlink ref="C5" r:id="rId9"/>
-    <hyperlink ref="C6" r:id="rId10"/>
-    <hyperlink ref="B4" r:id="rId11"/>
-    <hyperlink ref="C4" r:id="rId12"/>
-    <hyperlink ref="B3" r:id="rId13"/>
-    <hyperlink ref="B11" r:id="rId14"/>
-    <hyperlink ref="C10" r:id="rId15"/>
-    <hyperlink ref="C9" r:id="rId16"/>
-    <hyperlink ref="C7" r:id="rId17"/>
-    <hyperlink ref="C8" r:id="rId18"/>
-    <hyperlink ref="C11" r:id="rId19"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B7" r:id="rId3"/>
+    <hyperlink ref="B6" r:id="rId4"/>
+    <hyperlink ref="B8" r:id="rId5"/>
+    <hyperlink ref="B9" r:id="rId6"/>
+    <hyperlink ref="B10" r:id="rId7"/>
+    <hyperlink ref="B11" r:id="rId8"/>
+    <hyperlink ref="C6" r:id="rId9"/>
+    <hyperlink ref="C7" r:id="rId10"/>
+    <hyperlink ref="B5" r:id="rId11"/>
+    <hyperlink ref="C5" r:id="rId12"/>
+    <hyperlink ref="B4" r:id="rId13"/>
+    <hyperlink ref="B12" r:id="rId14"/>
+    <hyperlink ref="C11" r:id="rId15"/>
+    <hyperlink ref="C10" r:id="rId16"/>
+    <hyperlink ref="C8" r:id="rId17"/>
+    <hyperlink ref="C9" r:id="rId18"/>
+    <hyperlink ref="C12" r:id="rId19"/>
+    <hyperlink ref="C2" r:id="rId20"/>
+    <hyperlink ref="C3" r:id="rId21"/>
+    <hyperlink ref="C4" r:id="rId22"/>
+    <hyperlink ref="B1" r:id="rId23"/>
+    <hyperlink ref="C1" r:id="rId24"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId20"/>
+  <pageSetup orientation="portrait" r:id="rId25"/>
 </worksheet>
 </file>
 
@@ -4627,7 +4670,7 @@
         <v>73</v>
       </c>
       <c r="C1" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -4638,7 +4681,7 @@
         <v>75</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -4657,7 +4700,7 @@
         <v>78</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -4668,7 +4711,7 @@
         <v>80</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -4679,7 +4722,7 @@
         <v>82</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -4690,7 +4733,7 @@
         <v>84</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -4701,7 +4744,7 @@
         <v>86</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -4712,7 +4755,7 @@
         <v>88</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -4728,10 +4771,10 @@
         <v>92</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -4889,11 +4932,11 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -4901,46 +4944,46 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -4949,57 +4992,57 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -5008,310 +5051,310 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>560</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>565</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
+        <v>557</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>562</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
@@ -5320,57 +5363,57 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
     </row>
   </sheetData>
@@ -5482,77 +5525,77 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -5563,7 +5606,7 @@
         <v>98</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -5574,18 +5617,18 @@
         <v>100</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -5609,7 +5652,7 @@
         <v>119</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -5620,18 +5663,18 @@
         <v>126</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -5642,7 +5685,7 @@
         <v>138</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
@@ -5653,18 +5696,18 @@
         <v>140</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -5675,18 +5718,18 @@
         <v>103</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
@@ -5697,29 +5740,29 @@
         <v>105</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
@@ -5730,29 +5773,29 @@
         <v>122</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
@@ -5763,7 +5806,7 @@
         <v>108</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
@@ -5774,7 +5817,7 @@
         <v>110</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
@@ -5785,7 +5828,7 @@
         <v>124</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
@@ -5796,7 +5839,7 @@
         <v>112</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
@@ -5807,40 +5850,40 @@
         <v>128</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
@@ -5851,18 +5894,18 @@
         <v>130</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
@@ -5873,7 +5916,7 @@
         <v>113</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
@@ -5884,18 +5927,18 @@
         <v>132</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
@@ -5906,18 +5949,18 @@
         <v>134</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
@@ -5928,7 +5971,7 @@
         <v>115</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
@@ -5939,7 +5982,7 @@
         <v>118</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
@@ -5953,53 +5996,53 @@
         <v>136</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>121</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
@@ -6149,7 +6192,7 @@
         <v>146</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -6160,7 +6203,7 @@
         <v>159</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -6171,7 +6214,7 @@
         <v>148</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -6209,7 +6252,7 @@
         <v>156</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
   </sheetData>
@@ -6250,26 +6293,26 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>160</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>161</v>
@@ -6291,7 +6334,7 @@
         <v>164</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -6336,13 +6379,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -6353,7 +6396,7 @@
         <v>168</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -6364,7 +6407,7 @@
         <v>170</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -6375,7 +6418,7 @@
         <v>172</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -6386,7 +6429,7 @@
         <v>174</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -6397,7 +6440,7 @@
         <v>176</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -6408,7 +6451,7 @@
         <v>178</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -6416,10 +6459,10 @@
         <v>180</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -6430,7 +6473,7 @@
         <v>181</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -6441,7 +6484,7 @@
         <v>183</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -6452,7 +6495,7 @@
         <v>185</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -6460,10 +6503,10 @@
         <v>189</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -6474,7 +6517,7 @@
         <v>187</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -6485,7 +6528,7 @@
         <v>190</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -6496,7 +6539,7 @@
         <v>192</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
     </row>
   </sheetData>

--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5770" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5770" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Array" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="790">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="798">
   <si>
     <t>https://leetcode.com/problems/find-all-numbers-disappeared-in-an-array/description/</t>
   </si>
@@ -1260,30 +1260,9 @@
     <t>https://www.youtube.com/watch?v=NObPmjZIh8Y</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=JGYXNpZaW2U&amp;ab_channel=NikhilLohia</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=nhEMDKMB44g&amp;ab_channel=takeUforward</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=JXU4Akft7yk&amp;ab_channel=takeUforward</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9ZbB397jU4k&amp;ab_channel=takeUforward</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=5qGrJbHhqFs&amp;ab_channel=takeUforward</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/single-element-in-a-sorted-array/description/</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=PzszoiY5XMQ&amp;ab_channel=takeUforward</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=r7U0N2EE_l8&amp;ab_channel=Codebix</t>
-  </si>
-  <si>
     <t>https://www.lintcode.com/problem/920/</t>
   </si>
   <si>
@@ -2407,6 +2386,51 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=fqrOsZdKegQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Z0hwjftStI4</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/allocate-minimum-number-pages/</t>
+  </si>
+  <si>
+    <t>Capacity To Ship Packages Within D Days</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/capacity-to-ship-packages-within-d-days/description/</t>
+  </si>
+  <si>
+    <t>Allocate Minimum Pages</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MG-Ac4TAvTY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nhEMDKMB44g</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JGYXNpZaW2U</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=r7U0N2EE_l8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JXU4Akft7yk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9ZbB397jU4k</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5qGrJbHhqFs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PzszoiY5XMQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=F9c7LpRZWVQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=thUd_WJn6wk</t>
   </si>
 </sst>
 </file>
@@ -2760,18 +2784,18 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>750</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>749</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -2800,13 +2824,13 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>751</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -2838,13 +2862,13 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -2855,7 +2879,7 @@
         <v>18</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -2885,18 +2909,18 @@
         <v>24</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -2918,7 +2942,7 @@
         <v>29</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -2929,7 +2953,7 @@
         <v>31</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -2940,7 +2964,7 @@
         <v>34</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
@@ -2951,7 +2975,7 @@
         <v>35</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -2962,7 +2986,7 @@
         <v>37</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
@@ -2973,7 +2997,7 @@
         <v>40</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
@@ -2984,7 +3008,7 @@
         <v>41</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
@@ -2995,7 +3019,7 @@
         <v>43</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
@@ -3006,7 +3030,7 @@
         <v>45</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
@@ -3033,7 +3057,7 @@
         <v>52</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
@@ -3066,7 +3090,7 @@
         <v>57</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
@@ -3085,7 +3109,7 @@
         <v>61</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
@@ -3096,7 +3120,7 @@
         <v>62</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
@@ -3123,15 +3147,15 @@
         <v>71</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
@@ -3142,7 +3166,7 @@
         <v>64</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
     </row>
   </sheetData>
@@ -3400,7 +3424,7 @@
         <v>216</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -3419,7 +3443,7 @@
         <v>221</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -3430,7 +3454,7 @@
         <v>223</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -3441,7 +3465,7 @@
         <v>224</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -3452,7 +3476,7 @@
         <v>226</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -3463,7 +3487,7 @@
         <v>228</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -3474,7 +3498,7 @@
         <v>230</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -3485,7 +3509,7 @@
         <v>232</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -3496,7 +3520,7 @@
         <v>234</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -3507,7 +3531,7 @@
         <v>236</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -3518,7 +3542,7 @@
         <v>238</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
     </row>
   </sheetData>
@@ -3574,7 +3598,7 @@
         <v>241</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -3585,7 +3609,7 @@
         <v>243</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -3596,7 +3620,7 @@
         <v>245</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -3607,7 +3631,7 @@
         <v>247</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -3618,7 +3642,7 @@
         <v>249</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -3629,7 +3653,7 @@
         <v>251</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -3640,7 +3664,7 @@
         <v>253</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -3651,7 +3675,7 @@
         <v>255</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -3662,7 +3686,7 @@
         <v>257</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -3673,7 +3697,7 @@
         <v>259</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -3684,7 +3708,7 @@
         <v>261</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -3695,7 +3719,7 @@
         <v>263</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -3706,7 +3730,7 @@
         <v>265</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -3717,7 +3741,7 @@
         <v>267</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -3728,7 +3752,7 @@
         <v>270</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -3739,7 +3763,7 @@
         <v>272</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -3750,7 +3774,7 @@
         <v>274</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -3761,7 +3785,7 @@
         <v>276</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
@@ -3772,7 +3796,7 @@
         <v>278</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
@@ -3783,7 +3807,7 @@
         <v>280</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -3794,7 +3818,7 @@
         <v>282</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
@@ -3805,7 +3829,7 @@
         <v>284</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
@@ -3816,7 +3840,7 @@
         <v>286</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
@@ -3827,7 +3851,7 @@
         <v>288</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
@@ -3838,7 +3862,7 @@
         <v>290</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
@@ -3847,13 +3871,13 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
@@ -3864,18 +3888,18 @@
         <v>292</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
   </sheetData>
@@ -3965,7 +3989,7 @@
         <v>303</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -3976,7 +4000,7 @@
         <v>305</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -3987,29 +4011,29 @@
         <v>307</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -4020,7 +4044,7 @@
         <v>309</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -4031,7 +4055,7 @@
         <v>311</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -4042,7 +4066,7 @@
         <v>313</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -4053,7 +4077,7 @@
         <v>315</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -4062,32 +4086,32 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -4098,7 +4122,7 @@
         <v>317</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -4109,7 +4133,7 @@
         <v>319</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -4120,12 +4144,12 @@
         <v>322</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>329</v>
@@ -4181,7 +4205,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>338</v>
@@ -4189,15 +4213,15 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>350</v>
@@ -4205,10 +4229,10 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -4245,10 +4269,10 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -4261,10 +4285,10 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
@@ -4285,18 +4309,18 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
@@ -4304,15 +4328,15 @@
         <v>347</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
@@ -4416,7 +4440,7 @@
         <v>296</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -4427,18 +4451,18 @@
         <v>298</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>300</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -4449,7 +4473,7 @@
         <v>301</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
     </row>
   </sheetData>
@@ -4472,8 +4496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4485,13 +4509,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>787</v>
+        <v>780</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>788</v>
+        <v>781</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -4502,7 +4526,7 @@
         <v>355</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>784</v>
+        <v>777</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -4513,7 +4537,7 @@
         <v>357</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>785</v>
+        <v>778</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -4524,7 +4548,7 @@
         <v>395</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>786</v>
+        <v>779</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -4535,7 +4559,7 @@
         <v>269</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>783</v>
+        <v>776</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -4546,7 +4570,7 @@
         <v>360</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>782</v>
+        <v>775</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -4557,7 +4581,7 @@
         <v>358</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -4590,7 +4614,7 @@
         <v>366</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -4601,7 +4625,7 @@
         <v>368</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>779</v>
+        <v>772</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -4649,10 +4673,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="B14" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4669,7 +4693,7 @@
       <c r="B1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>405</v>
       </c>
     </row>
@@ -4686,136 +4710,171 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>787</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>76</v>
+        <v>784</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>783</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>785</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>78</v>
+        <v>786</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>408</v>
+        <v>788</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>407</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>414</v>
+        <v>789</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>409</v>
+        <v>790</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>410</v>
+        <v>791</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>411</v>
+        <v>792</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>793</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>412</v>
+        <v>88</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>413</v>
+        <v>794</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>94</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="C16" s="1" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>96</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>95</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>797</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1"/>
     <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
-    <hyperlink ref="B8" r:id="rId7"/>
-    <hyperlink ref="B9" r:id="rId8"/>
-    <hyperlink ref="B10" r:id="rId9"/>
-    <hyperlink ref="B11" r:id="rId10"/>
-    <hyperlink ref="B12" r:id="rId11"/>
-    <hyperlink ref="B14" r:id="rId12"/>
-    <hyperlink ref="B15" r:id="rId13"/>
+    <hyperlink ref="B6" r:id="rId3"/>
+    <hyperlink ref="B7" r:id="rId4"/>
+    <hyperlink ref="B8" r:id="rId5"/>
+    <hyperlink ref="B9" r:id="rId6"/>
+    <hyperlink ref="B10" r:id="rId7"/>
+    <hyperlink ref="B11" r:id="rId8"/>
+    <hyperlink ref="B12" r:id="rId9"/>
+    <hyperlink ref="B13" r:id="rId10"/>
+    <hyperlink ref="B14" r:id="rId11"/>
+    <hyperlink ref="B16" r:id="rId12"/>
+    <hyperlink ref="B17" r:id="rId13"/>
     <hyperlink ref="C2" r:id="rId14"/>
-    <hyperlink ref="C5" r:id="rId15"/>
-    <hyperlink ref="C6" r:id="rId16"/>
-    <hyperlink ref="C8" r:id="rId17"/>
-    <hyperlink ref="C9" r:id="rId18"/>
-    <hyperlink ref="C10" r:id="rId19"/>
-    <hyperlink ref="C12" r:id="rId20"/>
-    <hyperlink ref="C7" r:id="rId21"/>
+    <hyperlink ref="C7" r:id="rId15"/>
+    <hyperlink ref="C8" r:id="rId16"/>
+    <hyperlink ref="C10" r:id="rId17"/>
+    <hyperlink ref="C11" r:id="rId18"/>
+    <hyperlink ref="C12" r:id="rId19"/>
+    <hyperlink ref="C14" r:id="rId20"/>
+    <hyperlink ref="C9" r:id="rId21"/>
+    <hyperlink ref="C1" r:id="rId22"/>
+    <hyperlink ref="C4" r:id="rId23"/>
+    <hyperlink ref="B4" r:id="rId24"/>
+    <hyperlink ref="B5" r:id="rId25"/>
+    <hyperlink ref="C5" r:id="rId26"/>
+    <hyperlink ref="C16" r:id="rId27"/>
+    <hyperlink ref="C17" r:id="rId28"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4932,11 +4991,11 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -4944,46 +5003,46 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -4992,57 +5051,57 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>527</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>534</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -5051,310 +5110,310 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
@@ -5363,57 +5422,57 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
     </row>
   </sheetData>
@@ -5525,77 +5584,77 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -5606,7 +5665,7 @@
         <v>98</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -5617,18 +5676,18 @@
         <v>100</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -5652,7 +5711,7 @@
         <v>119</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -5663,18 +5722,18 @@
         <v>126</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -5685,7 +5744,7 @@
         <v>138</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
@@ -5696,18 +5755,18 @@
         <v>140</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -5718,18 +5777,18 @@
         <v>103</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
@@ -5740,29 +5799,29 @@
         <v>105</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
@@ -5773,29 +5832,29 @@
         <v>122</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
@@ -5806,7 +5865,7 @@
         <v>108</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
@@ -5817,7 +5876,7 @@
         <v>110</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
@@ -5828,7 +5887,7 @@
         <v>124</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
@@ -5839,7 +5898,7 @@
         <v>112</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
@@ -5850,40 +5909,40 @@
         <v>128</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
@@ -5894,18 +5953,18 @@
         <v>130</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
@@ -5916,7 +5975,7 @@
         <v>113</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
@@ -5927,18 +5986,18 @@
         <v>132</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
@@ -5949,18 +6008,18 @@
         <v>134</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
@@ -5971,7 +6030,7 @@
         <v>115</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
@@ -5982,7 +6041,7 @@
         <v>118</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
@@ -5996,53 +6055,53 @@
         <v>136</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>121</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
@@ -6192,7 +6251,7 @@
         <v>146</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -6203,7 +6262,7 @@
         <v>159</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -6214,7 +6273,7 @@
         <v>148</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -6252,7 +6311,7 @@
         <v>156</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
     </row>
   </sheetData>
@@ -6293,26 +6352,26 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>160</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>161</v>
@@ -6334,7 +6393,7 @@
         <v>164</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -6379,13 +6438,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -6396,7 +6455,7 @@
         <v>168</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -6407,7 +6466,7 @@
         <v>170</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -6418,7 +6477,7 @@
         <v>172</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -6429,7 +6488,7 @@
         <v>174</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -6440,7 +6499,7 @@
         <v>176</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -6451,7 +6510,7 @@
         <v>178</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -6459,10 +6518,10 @@
         <v>180</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -6473,7 +6532,7 @@
         <v>181</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -6484,7 +6543,7 @@
         <v>183</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -6495,7 +6554,7 @@
         <v>185</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -6503,10 +6562,10 @@
         <v>189</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -6517,7 +6576,7 @@
         <v>187</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -6528,7 +6587,7 @@
         <v>190</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -6539,7 +6598,7 @@
         <v>192</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
     </row>
   </sheetData>

--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -2412,9 +2412,6 @@
     <t>https://www.youtube.com/watch?v=JGYXNpZaW2U</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=r7U0N2EE_l8</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=JXU4Akft7yk</t>
   </si>
   <si>
@@ -2431,6 +2428,9 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=thUd_WJn6wk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=OINnBJTRrMU</t>
   </si>
 </sst>
 </file>
@@ -4675,8 +4675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B14" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4768,7 +4768,7 @@
         <v>82</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>791</v>
+        <v>797</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -4779,7 +4779,7 @@
         <v>84</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -4790,7 +4790,7 @@
         <v>86</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -4801,7 +4801,7 @@
         <v>88</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -4820,7 +4820,7 @@
         <v>407</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -4831,7 +4831,7 @@
         <v>93</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -4842,7 +4842,7 @@
         <v>95</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
   </sheetData>

--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5770" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5770"/>
   </bookViews>
   <sheets>
     <sheet name="Array" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="798">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="788">
   <si>
     <t>https://leetcode.com/problems/find-all-numbers-disappeared-in-an-array/description/</t>
   </si>
@@ -57,12 +57,6 @@
     <t>https://leetcode.com/problems/sort-array-by-parity/description/</t>
   </si>
   <si>
-    <t>https://leetcode.com/problems/sort-array-by-parity-ii/description/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/two-sum/description/</t>
-  </si>
-  <si>
     <t>Find All Numbers Disappeared in an Array</t>
   </si>
   <si>
@@ -84,12 +78,6 @@
     <t>Sort Array By Parity</t>
   </si>
   <si>
-    <t>Sort Array By Parity II</t>
-  </si>
-  <si>
-    <t>Two Sum</t>
-  </si>
-  <si>
     <t>Container With Most Water</t>
   </si>
   <si>
@@ -102,12 +90,6 @@
     <t>https://leetcode.com/problems/contiguous-array/description/</t>
   </si>
   <si>
-    <t>Count Number of Nice Subarrays</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/count-number-of-nice-subarrays/description/</t>
-  </si>
-  <si>
     <t>Find All Duplicates in an Array</t>
   </si>
   <si>
@@ -180,12 +162,6 @@
     <t>Product of Array Except Self</t>
   </si>
   <si>
-    <t>Rearrange Array Elements by Sign</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/rearrange-array-elements-by-sign/description/</t>
-  </si>
-  <si>
     <t>Rotate Array</t>
   </si>
   <si>
@@ -237,12 +213,6 @@
     <t>Trapping Rain Water</t>
   </si>
   <si>
-    <t>Two Sum II - Input Array Is Sorted</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/two-sum-ii-input-array-is-sorted/description/</t>
-  </si>
-  <si>
     <t>Valid Palindrome</t>
   </si>
   <si>
@@ -2307,9 +2277,6 @@
     <t>https://www.youtube.com/watch?v=Yan0cv2cLy8</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=dJ7sWiOoK7g</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=P6RZZMu_maU</t>
   </si>
   <si>
@@ -2431,6 +2398,9 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=OINnBJTRrMU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7SBVnw7GSTk</t>
   </si>
 </sst>
 </file>
@@ -2475,12 +2445,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2762,10 +2729,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2776,102 +2743,108 @@
     <col min="4" max="4" width="19.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>738</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>748</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>749</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -2879,62 +2852,65 @@
         <v>18</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>731</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="B14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="D14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>741</v>
+        <v>26</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>740</v>
+        <v>25</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C17" s="1" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -2942,10 +2918,10 @@
         <v>29</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -2953,10 +2929,10 @@
         <v>31</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -2964,10 +2940,10 @@
         <v>34</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -2975,10 +2951,10 @@
         <v>35</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -2986,187 +2962,138 @@
         <v>37</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="C23" s="1" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="C25" s="1" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="C26" s="1" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>47</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="B28" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C28" s="1" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>51</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+      <c r="B30" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="C30" s="1" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>55</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>386</v>
+        <v>54</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>762</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>60</v>
-      </c>
-      <c r="B34" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>763</v>
+      <c r="C33" s="1" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>63</v>
+        <v>736</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>764</v>
+        <v>737</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="2" t="s">
-        <v>66</v>
+      <c r="A36" t="s">
+        <v>57</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>68</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>70</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>746</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>65</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>765</v>
+        <v>56</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>754</v>
       </c>
     </row>
   </sheetData>
@@ -3176,69 +3103,64 @@
     <hyperlink ref="A4" r:id="rId3" display="https://leetcode.com/problems/max-consecutive-ones/"/>
     <hyperlink ref="B5" r:id="rId4"/>
     <hyperlink ref="B7" r:id="rId5"/>
-    <hyperlink ref="B9" r:id="rId6"/>
-    <hyperlink ref="B4" r:id="rId7"/>
-    <hyperlink ref="B8" r:id="rId8"/>
+    <hyperlink ref="B4" r:id="rId6"/>
+    <hyperlink ref="B10" r:id="rId7"/>
+    <hyperlink ref="B11" r:id="rId8"/>
     <hyperlink ref="B12" r:id="rId9"/>
-    <hyperlink ref="B13" r:id="rId10"/>
-    <hyperlink ref="B14" r:id="rId11"/>
-    <hyperlink ref="B15" r:id="rId12"/>
-    <hyperlink ref="B17" r:id="rId13"/>
-    <hyperlink ref="B18" r:id="rId14"/>
-    <hyperlink ref="C18" r:id="rId15"/>
-    <hyperlink ref="C19" r:id="rId16"/>
-    <hyperlink ref="B19" r:id="rId17"/>
-    <hyperlink ref="B20" r:id="rId18"/>
-    <hyperlink ref="C20" r:id="rId19"/>
-    <hyperlink ref="B21" r:id="rId20"/>
-    <hyperlink ref="B22" r:id="rId21"/>
-    <hyperlink ref="C22" r:id="rId22"/>
-    <hyperlink ref="B23" r:id="rId23"/>
-    <hyperlink ref="C23" r:id="rId24"/>
-    <hyperlink ref="B24" r:id="rId25"/>
-    <hyperlink ref="C24" r:id="rId26"/>
-    <hyperlink ref="B25" r:id="rId27"/>
-    <hyperlink ref="C25" r:id="rId28"/>
-    <hyperlink ref="B26" r:id="rId29"/>
-    <hyperlink ref="C26" r:id="rId30"/>
-    <hyperlink ref="B27" r:id="rId31"/>
-    <hyperlink ref="B28" r:id="rId32"/>
-    <hyperlink ref="B29" r:id="rId33"/>
-    <hyperlink ref="C29" r:id="rId34"/>
-    <hyperlink ref="B30" r:id="rId35"/>
-    <hyperlink ref="C30" r:id="rId36"/>
-    <hyperlink ref="B31" r:id="rId37"/>
-    <hyperlink ref="B32" r:id="rId38"/>
-    <hyperlink ref="C32" r:id="rId39"/>
-    <hyperlink ref="B33" r:id="rId40"/>
-    <hyperlink ref="B34" r:id="rId41"/>
-    <hyperlink ref="C34" r:id="rId42"/>
-    <hyperlink ref="B35" r:id="rId43"/>
-    <hyperlink ref="B36" r:id="rId44"/>
-    <hyperlink ref="B37" r:id="rId45"/>
-    <hyperlink ref="B38" r:id="rId46"/>
-    <hyperlink ref="C13" r:id="rId47"/>
-    <hyperlink ref="C31" r:id="rId48"/>
-    <hyperlink ref="B16" r:id="rId49"/>
-    <hyperlink ref="B2" r:id="rId50"/>
-    <hyperlink ref="B6" r:id="rId51"/>
-    <hyperlink ref="B40" r:id="rId52"/>
-    <hyperlink ref="B11" r:id="rId53"/>
-    <hyperlink ref="C2" r:id="rId54"/>
-    <hyperlink ref="C6" r:id="rId55"/>
-    <hyperlink ref="C11" r:id="rId56"/>
-    <hyperlink ref="C12" r:id="rId57"/>
-    <hyperlink ref="C16" r:id="rId58"/>
-    <hyperlink ref="C15" r:id="rId59"/>
-    <hyperlink ref="C38" r:id="rId60"/>
-    <hyperlink ref="C35" r:id="rId61"/>
-    <hyperlink ref="B41" r:id="rId62"/>
-    <hyperlink ref="C41" r:id="rId63"/>
-    <hyperlink ref="C1" r:id="rId64"/>
-    <hyperlink ref="C21" r:id="rId65"/>
+    <hyperlink ref="B14" r:id="rId10"/>
+    <hyperlink ref="B15" r:id="rId11"/>
+    <hyperlink ref="C15" r:id="rId12"/>
+    <hyperlink ref="C16" r:id="rId13"/>
+    <hyperlink ref="B16" r:id="rId14"/>
+    <hyperlink ref="B17" r:id="rId15"/>
+    <hyperlink ref="C17" r:id="rId16"/>
+    <hyperlink ref="B18" r:id="rId17"/>
+    <hyperlink ref="B19" r:id="rId18"/>
+    <hyperlink ref="C19" r:id="rId19"/>
+    <hyperlink ref="B20" r:id="rId20"/>
+    <hyperlink ref="C20" r:id="rId21"/>
+    <hyperlink ref="B21" r:id="rId22"/>
+    <hyperlink ref="C21" r:id="rId23"/>
+    <hyperlink ref="B22" r:id="rId24"/>
+    <hyperlink ref="C22" r:id="rId25"/>
+    <hyperlink ref="B23" r:id="rId26"/>
+    <hyperlink ref="C23" r:id="rId27"/>
+    <hyperlink ref="B24" r:id="rId28"/>
+    <hyperlink ref="B25" r:id="rId29"/>
+    <hyperlink ref="C25" r:id="rId30"/>
+    <hyperlink ref="B26" r:id="rId31"/>
+    <hyperlink ref="C26" r:id="rId32"/>
+    <hyperlink ref="B27" r:id="rId33"/>
+    <hyperlink ref="B28" r:id="rId34"/>
+    <hyperlink ref="C28" r:id="rId35"/>
+    <hyperlink ref="B29" r:id="rId36"/>
+    <hyperlink ref="B30" r:id="rId37"/>
+    <hyperlink ref="C30" r:id="rId38"/>
+    <hyperlink ref="B31" r:id="rId39"/>
+    <hyperlink ref="B32" r:id="rId40"/>
+    <hyperlink ref="B33" r:id="rId41"/>
+    <hyperlink ref="C11" r:id="rId42"/>
+    <hyperlink ref="C27" r:id="rId43"/>
+    <hyperlink ref="B13" r:id="rId44"/>
+    <hyperlink ref="B2" r:id="rId45"/>
+    <hyperlink ref="B6" r:id="rId46"/>
+    <hyperlink ref="B35" r:id="rId47"/>
+    <hyperlink ref="B9" r:id="rId48"/>
+    <hyperlink ref="C2" r:id="rId49"/>
+    <hyperlink ref="C6" r:id="rId50"/>
+    <hyperlink ref="C9" r:id="rId51"/>
+    <hyperlink ref="C10" r:id="rId52"/>
+    <hyperlink ref="C13" r:id="rId53"/>
+    <hyperlink ref="C12" r:id="rId54"/>
+    <hyperlink ref="C33" r:id="rId55"/>
+    <hyperlink ref="C31" r:id="rId56"/>
+    <hyperlink ref="B36" r:id="rId57"/>
+    <hyperlink ref="C36" r:id="rId58"/>
+    <hyperlink ref="C1" r:id="rId59"/>
+    <hyperlink ref="C18" r:id="rId60"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId66"/>
+  <pageSetup orientation="portrait" r:id="rId61"/>
 </worksheet>
 </file>
 
@@ -3260,119 +3182,119 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
     </row>
   </sheetData>
@@ -3418,131 +3340,131 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
     </row>
   </sheetData>
@@ -3592,277 +3514,277 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
@@ -3871,35 +3793,35 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -3983,101 +3905,101 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -4086,265 +4008,265 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>715</v>
+        <v>705</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -4426,54 +4348,54 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
     </row>
   </sheetData>
@@ -4509,134 +4431,134 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>780</v>
+        <v>769</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>781</v>
+        <v>770</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>782</v>
+        <v>771</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>777</v>
+        <v>766</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>778</v>
+        <v>767</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>779</v>
+        <v>768</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>776</v>
+        <v>765</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>775</v>
+        <v>764</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>774</v>
+        <v>763</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>773</v>
+        <v>762</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>772</v>
+        <v>761</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
     </row>
   </sheetData>
@@ -4675,7 +4597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -4688,161 +4610,161 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>787</v>
+        <v>776</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>784</v>
+        <v>773</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>783</v>
+        <v>772</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>785</v>
+        <v>774</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>786</v>
+        <v>775</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>788</v>
+        <v>777</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>789</v>
+        <v>778</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>790</v>
+        <v>779</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>797</v>
+        <v>786</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>791</v>
+        <v>780</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>792</v>
+        <v>781</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>793</v>
+        <v>782</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>794</v>
+        <v>783</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>795</v>
+        <v>784</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>796</v>
+        <v>785</v>
       </c>
     </row>
   </sheetData>
@@ -4897,39 +4819,39 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
@@ -4937,26 +4859,26 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -4991,11 +4913,11 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -5003,46 +4925,46 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -5051,57 +4973,57 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -5110,310 +5032,310 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
@@ -5422,57 +5344,57 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
+        <v>605</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>615</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
     </row>
   </sheetData>
@@ -5584,118 +5506,118 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C14" s="1"/>
     </row>
@@ -5705,343 +5627,343 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
@@ -6049,59 +5971,59 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
@@ -6218,26 +6140,26 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -6245,51 +6167,51 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -6297,21 +6219,21 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
     </row>
   </sheetData>
@@ -6352,56 +6274,56 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -6438,167 +6360,167 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
     </row>
   </sheetData>

--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5770" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Array" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="788">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="783">
   <si>
     <t>https://leetcode.com/problems/find-all-numbers-disappeared-in-an-array/description/</t>
   </si>
@@ -189,12 +189,6 @@
     <t>https://leetcode.com/problems/spiral-matrix/description/</t>
   </si>
   <si>
-    <t>https://www.geeksforgeeks.org/split-array-two-equal-sum-subarrays/</t>
-  </si>
-  <si>
-    <t>Split an array into two equal Sum subarrays</t>
-  </si>
-  <si>
     <t>Subarray Sum Equals K</t>
   </si>
   <si>
@@ -1194,12 +1188,6 @@
     <t>Generate Paranthesis</t>
   </si>
   <si>
-    <t>https://leetcode.com/problems/combination-sum-iii/description/</t>
-  </si>
-  <si>
-    <t>Combination Sum 3</t>
-  </si>
-  <si>
     <t>Combination Sum 2</t>
   </si>
   <si>
@@ -2298,9 +2286,6 @@
     <t>https://www.youtube.com/watch?v=AmlVSNBHzJg</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=jzZsG8n2R9A</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=ZI2z5pq0TqA</t>
   </si>
   <si>
@@ -2343,9 +2328,6 @@
     <t>https://www.youtube.com/watch?v=dvZdWR0sHMk</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=b_tOVuYhEx4</t>
-  </si>
-  <si>
     <t>Combinations</t>
   </si>
   <si>
@@ -2401,6 +2383,9 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=7SBVnw7GSTk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DhFh8Kw7ymk</t>
   </si>
 </sst>
 </file>
@@ -2729,10 +2714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2751,18 +2736,18 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -2791,13 +2776,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -2813,13 +2798,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -2830,7 +2815,7 @@
         <v>14</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -2841,7 +2826,7 @@
         <v>16</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -2852,18 +2837,18 @@
         <v>18</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -2885,7 +2870,7 @@
         <v>23</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
@@ -2896,7 +2881,7 @@
         <v>25</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -2907,7 +2892,7 @@
         <v>28</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -2918,7 +2903,7 @@
         <v>29</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -2929,7 +2914,7 @@
         <v>31</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
@@ -2940,7 +2925,7 @@
         <v>34</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
@@ -2951,7 +2936,7 @@
         <v>35</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -2962,7 +2947,7 @@
         <v>37</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
@@ -2973,7 +2958,7 @@
         <v>39</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
@@ -2992,7 +2977,7 @@
         <v>44</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
@@ -3003,7 +2988,7 @@
         <v>46</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
@@ -3011,10 +2996,10 @@
         <v>47</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
@@ -3025,37 +3010,37 @@
         <v>49</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>50</v>
+      <c r="C29" s="1" t="s">
+        <v>748</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="C30" s="1" t="s">
-        <v>752</v>
+        <v>782</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>753</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
@@ -3065,35 +3050,27 @@
       <c r="B32" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>60</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>755</v>
+      <c r="C32" s="1" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>732</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>736</v>
+        <v>55</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>754</v>
+        <v>54</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>749</v>
       </c>
     </row>
   </sheetData>
@@ -3134,33 +3111,32 @@
     <hyperlink ref="B28" r:id="rId34"/>
     <hyperlink ref="C28" r:id="rId35"/>
     <hyperlink ref="B29" r:id="rId36"/>
-    <hyperlink ref="B30" r:id="rId37"/>
-    <hyperlink ref="C30" r:id="rId38"/>
+    <hyperlink ref="C29" r:id="rId37"/>
+    <hyperlink ref="B30" r:id="rId38"/>
     <hyperlink ref="B31" r:id="rId39"/>
     <hyperlink ref="B32" r:id="rId40"/>
-    <hyperlink ref="B33" r:id="rId41"/>
-    <hyperlink ref="C11" r:id="rId42"/>
-    <hyperlink ref="C27" r:id="rId43"/>
-    <hyperlink ref="B13" r:id="rId44"/>
-    <hyperlink ref="B2" r:id="rId45"/>
-    <hyperlink ref="B6" r:id="rId46"/>
-    <hyperlink ref="B35" r:id="rId47"/>
-    <hyperlink ref="B9" r:id="rId48"/>
-    <hyperlink ref="C2" r:id="rId49"/>
-    <hyperlink ref="C6" r:id="rId50"/>
-    <hyperlink ref="C9" r:id="rId51"/>
-    <hyperlink ref="C10" r:id="rId52"/>
-    <hyperlink ref="C13" r:id="rId53"/>
-    <hyperlink ref="C12" r:id="rId54"/>
-    <hyperlink ref="C33" r:id="rId55"/>
-    <hyperlink ref="C31" r:id="rId56"/>
-    <hyperlink ref="B36" r:id="rId57"/>
-    <hyperlink ref="C36" r:id="rId58"/>
-    <hyperlink ref="C1" r:id="rId59"/>
-    <hyperlink ref="C18" r:id="rId60"/>
+    <hyperlink ref="C11" r:id="rId41"/>
+    <hyperlink ref="C27" r:id="rId42"/>
+    <hyperlink ref="B13" r:id="rId43"/>
+    <hyperlink ref="B2" r:id="rId44"/>
+    <hyperlink ref="B6" r:id="rId45"/>
+    <hyperlink ref="B34" r:id="rId46"/>
+    <hyperlink ref="B9" r:id="rId47"/>
+    <hyperlink ref="C2" r:id="rId48"/>
+    <hyperlink ref="C6" r:id="rId49"/>
+    <hyperlink ref="C9" r:id="rId50"/>
+    <hyperlink ref="C10" r:id="rId51"/>
+    <hyperlink ref="C13" r:id="rId52"/>
+    <hyperlink ref="C12" r:id="rId53"/>
+    <hyperlink ref="C32" r:id="rId54"/>
+    <hyperlink ref="C30" r:id="rId55"/>
+    <hyperlink ref="B35" r:id="rId56"/>
+    <hyperlink ref="C35" r:id="rId57"/>
+    <hyperlink ref="C1" r:id="rId58"/>
+    <hyperlink ref="C18" r:id="rId59"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId61"/>
+  <pageSetup orientation="portrait" r:id="rId60"/>
 </worksheet>
 </file>
 
@@ -3182,119 +3158,119 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
   </sheetData>
@@ -3340,131 +3316,131 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
     </row>
   </sheetData>
@@ -3514,277 +3490,277 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
@@ -3793,35 +3769,35 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
   </sheetData>
@@ -3905,101 +3881,101 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -4008,265 +3984,265 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -4348,54 +4324,54 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
   </sheetData>
@@ -4416,10 +4392,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4431,54 +4407,54 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>769</v>
+        <v>357</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>770</v>
+        <v>356</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>771</v>
+        <v>756</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>387</v>
+        <v>351</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>767</v>
+        <v>388</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>386</v>
+        <v>353</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>385</v>
+        <v>352</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>768</v>
+        <v>389</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>384</v>
+        <v>763</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>259</v>
+        <v>764</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>765</v>
@@ -4486,110 +4462,97 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>349</v>
+        <v>383</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>392</v>
+        <v>758</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>355</v>
+        <v>382</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>354</v>
+        <v>257</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>393</v>
+        <v>760</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>359</v>
+        <v>384</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>358</v>
+        <v>385</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>388</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B7" r:id="rId3"/>
-    <hyperlink ref="B6" r:id="rId4"/>
-    <hyperlink ref="B8" r:id="rId5"/>
-    <hyperlink ref="B9" r:id="rId6"/>
-    <hyperlink ref="B10" r:id="rId7"/>
-    <hyperlink ref="B11" r:id="rId8"/>
-    <hyperlink ref="C6" r:id="rId9"/>
-    <hyperlink ref="C7" r:id="rId10"/>
-    <hyperlink ref="B5" r:id="rId11"/>
-    <hyperlink ref="C5" r:id="rId12"/>
-    <hyperlink ref="B4" r:id="rId13"/>
-    <hyperlink ref="B12" r:id="rId14"/>
-    <hyperlink ref="C11" r:id="rId15"/>
-    <hyperlink ref="C10" r:id="rId16"/>
-    <hyperlink ref="C8" r:id="rId17"/>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="C1" r:id="rId2"/>
+    <hyperlink ref="B2" r:id="rId3"/>
+    <hyperlink ref="C2" r:id="rId4"/>
+    <hyperlink ref="B3" r:id="rId5"/>
+    <hyperlink ref="C3" r:id="rId6"/>
+    <hyperlink ref="B4" r:id="rId7"/>
+    <hyperlink ref="C4" r:id="rId8"/>
+    <hyperlink ref="B5" r:id="rId9"/>
+    <hyperlink ref="C5" r:id="rId10"/>
+    <hyperlink ref="B6" r:id="rId11"/>
+    <hyperlink ref="C6" r:id="rId12"/>
+    <hyperlink ref="B7" r:id="rId13"/>
+    <hyperlink ref="C7" r:id="rId14"/>
+    <hyperlink ref="B8" r:id="rId15"/>
+    <hyperlink ref="C8" r:id="rId16"/>
+    <hyperlink ref="B9" r:id="rId17"/>
     <hyperlink ref="C9" r:id="rId18"/>
-    <hyperlink ref="C12" r:id="rId19"/>
-    <hyperlink ref="C2" r:id="rId20"/>
-    <hyperlink ref="C3" r:id="rId21"/>
-    <hyperlink ref="C4" r:id="rId22"/>
-    <hyperlink ref="B1" r:id="rId23"/>
-    <hyperlink ref="C1" r:id="rId24"/>
+    <hyperlink ref="B10" r:id="rId19"/>
+    <hyperlink ref="C10" r:id="rId20"/>
+    <hyperlink ref="B11" r:id="rId21"/>
+    <hyperlink ref="C11" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId25"/>
+  <pageSetup orientation="portrait" r:id="rId23"/>
 </worksheet>
 </file>
 
@@ -4610,161 +4573,161 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
     </row>
   </sheetData>
@@ -4819,34 +4782,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -4859,26 +4822,26 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
   </sheetData>
@@ -4913,11 +4876,11 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -4925,46 +4888,46 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -4973,57 +4936,57 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -5032,310 +4995,310 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
@@ -5344,57 +5307,57 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
+        <v>605</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>609</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
     </row>
   </sheetData>
@@ -5506,118 +5469,118 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C14" s="1"/>
     </row>
@@ -5627,343 +5590,343 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
@@ -5971,59 +5934,59 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
@@ -6140,18 +6103,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -6159,7 +6122,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -6167,13 +6130,13 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -6181,37 +6144,37 @@
         <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -6219,21 +6182,21 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -6274,56 +6237,56 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>399</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -6360,167 +6323,167 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>175</v>
+       